--- a/ncaa_bracket/teams.xlsx
+++ b/ncaa_bracket/teams.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="742">
   <si>
     <t xml:space="preserve">team</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Southland</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0245</t>
+    <t xml:space="preserve">-0.0331</t>
   </si>
   <si>
     <t xml:space="preserve">Air Force</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">MWC</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7497</t>
+    <t xml:space="preserve">-0.6238</t>
   </si>
   <si>
     <t xml:space="preserve">Akron</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">MAC (East)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3597</t>
+    <t xml:space="preserve">-0.2589</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama A&amp;M</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">SWAC</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.1145</t>
+    <t xml:space="preserve">-2.1088</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama-Birmingham</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">CUSA</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1322</t>
+    <t xml:space="preserve">-0.1385</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.157</t>
+    <t xml:space="preserve">-0.1687</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">SEC</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3933</t>
+    <t xml:space="preserve">1.5096</t>
   </si>
   <si>
     <t xml:space="preserve">Albany (NY)</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">AEC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5802</t>
+    <t xml:space="preserve">-1.5762</t>
   </si>
   <si>
     <t xml:space="preserve">Alcorn State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1042</t>
+    <t xml:space="preserve">-1.0938</t>
   </si>
   <si>
     <t xml:space="preserve">American</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Patriot</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7109</t>
+    <t xml:space="preserve">-0.7</t>
   </si>
   <si>
     <t xml:space="preserve">Appalachian State</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">Sun Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3105</t>
+    <t xml:space="preserve">-0.305</t>
   </si>
   <si>
     <t xml:space="preserve">Arizona State</t>
@@ -131,49 +131,49 @@
     <t xml:space="preserve">Pac-12</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5728</t>
+    <t xml:space="preserve">0.5452</t>
   </si>
   <si>
     <t xml:space="preserve">Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5832</t>
+    <t xml:space="preserve">0.5611</t>
   </si>
   <si>
     <t xml:space="preserve">Little Rock</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5525</t>
+    <t xml:space="preserve">-0.5495</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas-Pine Bluff</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7366</t>
+    <t xml:space="preserve">-0.7387</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3354</t>
+    <t xml:space="preserve">-0.3273</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2008</t>
+    <t xml:space="preserve">1.1788</t>
   </si>
   <si>
     <t xml:space="preserve">Army</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4546</t>
+    <t xml:space="preserve">-0.4377</t>
   </si>
   <si>
     <t xml:space="preserve">Auburn</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5668</t>
+    <t xml:space="preserve">1.4158</t>
   </si>
   <si>
     <t xml:space="preserve">Austin Peay</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">OVC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3294</t>
+    <t xml:space="preserve">0.3458</t>
   </si>
   <si>
     <t xml:space="preserve">Ball State</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">MAC (West)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4153</t>
+    <t xml:space="preserve">0.3161</t>
   </si>
   <si>
     <t xml:space="preserve">Baylor</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">Big 12</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1961</t>
+    <t xml:space="preserve">1.1642</t>
   </si>
   <si>
     <t xml:space="preserve">Belmont</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5168</t>
+    <t xml:space="preserve">1.5191</t>
   </si>
   <si>
     <t xml:space="preserve">Bethune-Cookman</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">MEAC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0002</t>
+    <t xml:space="preserve">-0.9853</t>
   </si>
   <si>
     <t xml:space="preserve">Binghamton</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.715</t>
+    <t xml:space="preserve">-1.7142</t>
   </si>
   <si>
     <t xml:space="preserve">Boise State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1323</t>
+    <t xml:space="preserve">0.0045</t>
   </si>
   <si>
     <t xml:space="preserve">Boston College</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">ACC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9389</t>
+    <t xml:space="preserve">0.9484</t>
   </si>
   <si>
     <t xml:space="preserve">Boston University</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0702</t>
+    <t xml:space="preserve">0.0771</t>
   </si>
   <si>
     <t xml:space="preserve">Bowling Green State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4866</t>
+    <t xml:space="preserve">0.5703</t>
   </si>
   <si>
     <t xml:space="preserve">Bradley</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">MVC</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2978</t>
+    <t xml:space="preserve">-0.2982</t>
   </si>
   <si>
     <t xml:space="preserve">Brigham Young</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">WCC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4654</t>
+    <t xml:space="preserve">0.4777</t>
   </si>
   <si>
     <t xml:space="preserve">Brown</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">Ivy</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2261</t>
+    <t xml:space="preserve">0.239</t>
   </si>
   <si>
     <t xml:space="preserve">Bryant</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">NEC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0298</t>
+    <t xml:space="preserve">-1.0289</t>
   </si>
   <si>
     <t xml:space="preserve">Bucknell</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1197</t>
+    <t xml:space="preserve">-0.1118</t>
   </si>
   <si>
     <t xml:space="preserve">Buffalo</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2107</t>
+    <t xml:space="preserve">2.0527</t>
   </si>
   <si>
     <t xml:space="preserve">Butler</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">Big East</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2205</t>
+    <t xml:space="preserve">1.146</t>
   </si>
   <si>
     <t xml:space="preserve">Cal Poly</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Big West</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.351</t>
+    <t xml:space="preserve">-0.3572</t>
   </si>
   <si>
     <t xml:space="preserve">Cal State Bakersfield</t>
@@ -323,55 +323,55 @@
     <t xml:space="preserve">WAC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4674</t>
+    <t xml:space="preserve">0.4717</t>
   </si>
   <si>
     <t xml:space="preserve">Cal State Fullerton</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2463</t>
+    <t xml:space="preserve">-0.2469</t>
   </si>
   <si>
     <t xml:space="preserve">Cal State Northridge</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.137</t>
+    <t xml:space="preserve">-0.1165</t>
   </si>
   <si>
     <t xml:space="preserve">California Baptist</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8042</t>
+    <t xml:space="preserve">-0.8037</t>
   </si>
   <si>
     <t xml:space="preserve">UC-Davis</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9156</t>
+    <t xml:space="preserve">-0.9202</t>
   </si>
   <si>
     <t xml:space="preserve">UC-Irvine</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0818</t>
+    <t xml:space="preserve">1.0946</t>
   </si>
   <si>
     <t xml:space="preserve">UC-Riverside</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8863</t>
+    <t xml:space="preserve">-0.8624</t>
   </si>
   <si>
     <t xml:space="preserve">UC-Santa Barbara</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7279</t>
+    <t xml:space="preserve">0.7491</t>
   </si>
   <si>
     <t xml:space="preserve">University of California</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8792</t>
+    <t xml:space="preserve">-0.9183</t>
   </si>
   <si>
     <t xml:space="preserve">Campbell</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Big South</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3791</t>
+    <t xml:space="preserve">-0.3678</t>
   </si>
   <si>
     <t xml:space="preserve">Canisius</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">MAAC</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8871</t>
+    <t xml:space="preserve">-0.8961</t>
   </si>
   <si>
     <t xml:space="preserve">Central Arkansas</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6964</t>
+    <t xml:space="preserve">-0.7221</t>
   </si>
   <si>
     <t xml:space="preserve">Central Connecticut State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2226</t>
+    <t xml:space="preserve">-0.2093</t>
   </si>
   <si>
     <t xml:space="preserve">Central Florida</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">AAC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4039</t>
+    <t xml:space="preserve">0.401</t>
   </si>
   <si>
     <t xml:space="preserve">Central Michigan</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1414</t>
+    <t xml:space="preserve">1.0772</t>
   </si>
   <si>
     <t xml:space="preserve">Charleston Southern</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2636</t>
+    <t xml:space="preserve">-0.2641</t>
   </si>
   <si>
     <t xml:space="preserve">Charlotte</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8227</t>
+    <t xml:space="preserve">-0.8484</t>
   </si>
   <si>
     <t xml:space="preserve">Chattanooga</t>
@@ -437,31 +437,31 @@
     <t xml:space="preserve">Southern</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6129</t>
+    <t xml:space="preserve">-0.6189</t>
   </si>
   <si>
     <t xml:space="preserve">Chicago State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.327</t>
+    <t xml:space="preserve">-1.3369</t>
   </si>
   <si>
     <t xml:space="preserve">Cincinnati</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2073</t>
+    <t xml:space="preserve">1.1979</t>
   </si>
   <si>
     <t xml:space="preserve">Citadel</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0355</t>
+    <t xml:space="preserve">0.0461</t>
   </si>
   <si>
     <t xml:space="preserve">Clemson</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8596</t>
+    <t xml:space="preserve">1.7745</t>
   </si>
   <si>
     <t xml:space="preserve">Cleveland State</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">Horizon</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1993</t>
+    <t xml:space="preserve">-1.2131</t>
   </si>
   <si>
     <t xml:space="preserve">Coastal Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2432</t>
+    <t xml:space="preserve">-0.2305</t>
   </si>
   <si>
     <t xml:space="preserve">Colgate</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4861</t>
+    <t xml:space="preserve">0.5044</t>
   </si>
   <si>
     <t xml:space="preserve">College of Charleston</t>
@@ -491,55 +491,55 @@
     <t xml:space="preserve">CAA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.643</t>
+    <t xml:space="preserve">0.6551</t>
   </si>
   <si>
     <t xml:space="preserve">Colorado State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5747</t>
+    <t xml:space="preserve">-0.5694</t>
   </si>
   <si>
     <t xml:space="preserve">Colorado</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3005</t>
+    <t xml:space="preserve">-0.3209</t>
   </si>
   <si>
     <t xml:space="preserve">Columbia</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1846</t>
+    <t xml:space="preserve">-1.1798</t>
   </si>
   <si>
     <t xml:space="preserve">Connecticut</t>
   </si>
   <si>
-    <t xml:space="preserve">0.091</t>
+    <t xml:space="preserve">0.0973</t>
   </si>
   <si>
     <t xml:space="preserve">Coppin State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.911</t>
+    <t xml:space="preserve">-1.9071</t>
   </si>
   <si>
     <t xml:space="preserve">Cornell</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1885</t>
+    <t xml:space="preserve">-0.1916</t>
   </si>
   <si>
     <t xml:space="preserve">Creighton</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0972</t>
+    <t xml:space="preserve">1.0902</t>
   </si>
   <si>
     <t xml:space="preserve">Dartmouth</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0601</t>
+    <t xml:space="preserve">0.0637</t>
   </si>
   <si>
     <t xml:space="preserve">Davidson</t>
@@ -548,25 +548,25 @@
     <t xml:space="preserve">A-10</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5409</t>
+    <t xml:space="preserve">0.5272</t>
   </si>
   <si>
     <t xml:space="preserve">Dayton</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2367</t>
+    <t xml:space="preserve">1.2062</t>
   </si>
   <si>
     <t xml:space="preserve">Delaware State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6485</t>
+    <t xml:space="preserve">-1.6526</t>
   </si>
   <si>
     <t xml:space="preserve">Delaware</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.032</t>
+    <t xml:space="preserve">-0.0125</t>
   </si>
   <si>
     <t xml:space="preserve">Denver</t>
@@ -575,73 +575,73 @@
     <t xml:space="preserve">Summit</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0719</t>
+    <t xml:space="preserve">-1.0599</t>
   </si>
   <si>
     <t xml:space="preserve">DePaul</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2085</t>
+    <t xml:space="preserve">1.2142</t>
   </si>
   <si>
     <t xml:space="preserve">Detroit Mercy</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0146</t>
+    <t xml:space="preserve">-1.0406</t>
   </si>
   <si>
     <t xml:space="preserve">Drake</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8288</t>
+    <t xml:space="preserve">0.8302</t>
   </si>
   <si>
     <t xml:space="preserve">Drexel</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1418</t>
+    <t xml:space="preserve">0.1597</t>
   </si>
   <si>
     <t xml:space="preserve">Duke</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6607</t>
+    <t xml:space="preserve">2.7126</t>
   </si>
   <si>
     <t xml:space="preserve">Duquesne</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2252</t>
+    <t xml:space="preserve">0.227</t>
   </si>
   <si>
     <t xml:space="preserve">East Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9172</t>
+    <t xml:space="preserve">-0.9288</t>
   </si>
   <si>
     <t xml:space="preserve">East Tennessee State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5817</t>
+    <t xml:space="preserve">0.6087</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4372</t>
+    <t xml:space="preserve">-0.429</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1142</t>
+    <t xml:space="preserve">0.1336</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Michigan</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7453</t>
+    <t xml:space="preserve">0.6175</t>
   </si>
   <si>
     <t xml:space="preserve">Eastern Washington</t>
@@ -650,43 +650,43 @@
     <t xml:space="preserve">Big Sky</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8865</t>
+    <t xml:space="preserve">-0.9017</t>
   </si>
   <si>
     <t xml:space="preserve">Elon</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7949</t>
+    <t xml:space="preserve">-0.7872</t>
   </si>
   <si>
     <t xml:space="preserve">Evansville</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0892</t>
+    <t xml:space="preserve">-0.0963</t>
   </si>
   <si>
     <t xml:space="preserve">Fairfield</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5899</t>
+    <t xml:space="preserve">-1.5886</t>
   </si>
   <si>
     <t xml:space="preserve">Fairleigh Dickinson</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8834</t>
+    <t xml:space="preserve">-0.8664</t>
   </si>
   <si>
     <t xml:space="preserve">Florida A&amp;M</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2017</t>
+    <t xml:space="preserve">-1.1906</t>
   </si>
   <si>
     <t xml:space="preserve">Florida Atlantic</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1939</t>
+    <t xml:space="preserve">-0.1977</t>
   </si>
   <si>
     <t xml:space="preserve">Florida Gulf Coast</t>
@@ -695,199 +695,199 @@
     <t xml:space="preserve">A-Sun</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6321</t>
+    <t xml:space="preserve">-0.6421</t>
   </si>
   <si>
     <t xml:space="preserve">Florida International</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0687</t>
+    <t xml:space="preserve">0.0796</t>
   </si>
   <si>
     <t xml:space="preserve">Florida State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.844</t>
+    <t xml:space="preserve">1.9287</t>
   </si>
   <si>
     <t xml:space="preserve">Florida</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0345</t>
+    <t xml:space="preserve">1.0802</t>
   </si>
   <si>
     <t xml:space="preserve">Fordham</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.054</t>
+    <t xml:space="preserve">-1.0603</t>
   </si>
   <si>
     <t xml:space="preserve">Fresno State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.398</t>
+    <t xml:space="preserve">1.4472</t>
   </si>
   <si>
     <t xml:space="preserve">Furman</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2495</t>
+    <t xml:space="preserve">0.2662</t>
   </si>
   <si>
     <t xml:space="preserve">Gardner-Webb</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1447</t>
+    <t xml:space="preserve">0.168</t>
   </si>
   <si>
     <t xml:space="preserve">George Mason</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5788</t>
+    <t xml:space="preserve">-0.5784</t>
   </si>
   <si>
     <t xml:space="preserve">George Washington</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.074</t>
+    <t xml:space="preserve">-1.0892</t>
   </si>
   <si>
     <t xml:space="preserve">Georgetown</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7333</t>
+    <t xml:space="preserve">0.7466</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia Southern</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6402</t>
+    <t xml:space="preserve">0.6498</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9591</t>
+    <t xml:space="preserve">0.98</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1207</t>
+    <t xml:space="preserve">0.2314</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8616</t>
+    <t xml:space="preserve">0.8504</t>
   </si>
   <si>
     <t xml:space="preserve">Gonzaga</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6231</t>
+    <t xml:space="preserve">1.645</t>
   </si>
   <si>
     <t xml:space="preserve">Grambling</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6261</t>
+    <t xml:space="preserve">-0.613</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Canyon</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2056</t>
+    <t xml:space="preserve">-0.2106</t>
   </si>
   <si>
     <t xml:space="preserve">Green Bay</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5341</t>
+    <t xml:space="preserve">-0.5383</t>
   </si>
   <si>
     <t xml:space="preserve">Hampton</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1008</t>
+    <t xml:space="preserve">-0.0882</t>
   </si>
   <si>
     <t xml:space="preserve">Hartford</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2693</t>
+    <t xml:space="preserve">-0.2711</t>
   </si>
   <si>
     <t xml:space="preserve">Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0466</t>
+    <t xml:space="preserve">-0.0597</t>
   </si>
   <si>
     <t xml:space="preserve">Hawaii</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0221</t>
+    <t xml:space="preserve">-0.009</t>
   </si>
   <si>
     <t xml:space="preserve">High Point</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0243</t>
+    <t xml:space="preserve">-0.007</t>
   </si>
   <si>
     <t xml:space="preserve">Hofstra</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835</t>
+    <t xml:space="preserve">0.8626</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Cross</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2884</t>
+    <t xml:space="preserve">-0.2814</t>
   </si>
   <si>
     <t xml:space="preserve">Houston Baptist</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1798</t>
+    <t xml:space="preserve">-1.2044</t>
   </si>
   <si>
     <t xml:space="preserve">Houston</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8948</t>
+    <t xml:space="preserve">0.8945</t>
   </si>
   <si>
     <t xml:space="preserve">Howard</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1049</t>
+    <t xml:space="preserve">-1.0839</t>
   </si>
   <si>
     <t xml:space="preserve">Idaho State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0622</t>
+    <t xml:space="preserve">-0.0791</t>
   </si>
   <si>
     <t xml:space="preserve">Idaho</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5569</t>
+    <t xml:space="preserve">-1.564</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois-Chicago</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3616</t>
+    <t xml:space="preserve">-1.3791</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9208</t>
+    <t xml:space="preserve">0.9062</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois</t>
@@ -896,1351 +896,1348 @@
     <t xml:space="preserve">Big Ten</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2555</t>
+    <t xml:space="preserve">0.2399</t>
   </si>
   <si>
     <t xml:space="preserve">Incarnate Word</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5421</t>
+    <t xml:space="preserve">-1.578</t>
   </si>
   <si>
     <t xml:space="preserve">Indiana State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7536</t>
+    <t xml:space="preserve">0.7468</t>
   </si>
   <si>
     <t xml:space="preserve">Indiana</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4903</t>
+    <t xml:space="preserve">1.3767</t>
   </si>
   <si>
     <t xml:space="preserve">Iona</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1457</t>
+    <t xml:space="preserve">-1.1519</t>
   </si>
   <si>
     <t xml:space="preserve">Iowa State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8541</t>
+    <t xml:space="preserve">1.8463</t>
   </si>
   <si>
     <t xml:space="preserve">Iowa</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6587</t>
+    <t xml:space="preserve">1.6661</t>
   </si>
   <si>
     <t xml:space="preserve">Purdue-Fort Wayne</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4781</t>
+    <t xml:space="preserve">-0.4581</t>
   </si>
   <si>
     <t xml:space="preserve">IUPUI</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8101</t>
+    <t xml:space="preserve">-0.8205</t>
   </si>
   <si>
     <t xml:space="preserve">Jackson State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1964</t>
+    <t xml:space="preserve">-1.1972</t>
   </si>
   <si>
     <t xml:space="preserve">Jacksonville State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9617</t>
+    <t xml:space="preserve">0.9708</t>
   </si>
   <si>
     <t xml:space="preserve">Jacksonville</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7995</t>
+    <t xml:space="preserve">-0.7916</t>
   </si>
   <si>
     <t xml:space="preserve">James Madison</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6272</t>
+    <t xml:space="preserve">-0.6068</t>
   </si>
   <si>
     <t xml:space="preserve">Kansas State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0432</t>
+    <t xml:space="preserve">1.1105</t>
   </si>
   <si>
     <t xml:space="preserve">Kansas</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1162</t>
+    <t xml:space="preserve">2.0986</t>
   </si>
   <si>
     <t xml:space="preserve">Kennesaw State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4529</t>
+    <t xml:space="preserve">-1.453</t>
   </si>
   <si>
     <t xml:space="preserve">Kent State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9273</t>
+    <t xml:space="preserve">1.0619</t>
   </si>
   <si>
     <t xml:space="preserve">Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4161</t>
+    <t xml:space="preserve">2.509</t>
   </si>
   <si>
     <t xml:space="preserve">La Salle</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8844</t>
+    <t xml:space="preserve">-0.9023</t>
   </si>
   <si>
     <t xml:space="preserve">Lafayette</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8374</t>
+    <t xml:space="preserve">-0.8323</t>
   </si>
   <si>
     <t xml:space="preserve">Lamar</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2681</t>
+    <t xml:space="preserve">-1.2789</t>
   </si>
   <si>
     <t xml:space="preserve">Lehigh</t>
   </si>
   <si>
-    <t xml:space="preserve">0.529</t>
+    <t xml:space="preserve">0.542</t>
   </si>
   <si>
     <t xml:space="preserve">Liberty</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4025</t>
+    <t xml:space="preserve">0.4385</t>
   </si>
   <si>
     <t xml:space="preserve">Lipscomb</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4604</t>
+    <t xml:space="preserve">0.4671</t>
   </si>
   <si>
     <t xml:space="preserve">Long Beach State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.517</t>
+    <t xml:space="preserve">0.5174</t>
   </si>
   <si>
     <t xml:space="preserve">Long Island University</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6571</t>
+    <t xml:space="preserve">-0.6427</t>
   </si>
   <si>
     <t xml:space="preserve">Longwood</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2813</t>
+    <t xml:space="preserve">-0.2586</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1939</t>
+    <t xml:space="preserve">0.1994</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana-Monroe</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0224</t>
+    <t xml:space="preserve">-0.0341</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3956</t>
+    <t xml:space="preserve">1.3981</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1601</t>
+    <t xml:space="preserve">-0.16</t>
   </si>
   <si>
     <t xml:space="preserve">Louisville</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1276</t>
+    <t xml:space="preserve">2.1465</t>
   </si>
   <si>
     <t xml:space="preserve">Loyola (IL)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1088</t>
+    <t xml:space="preserve">0.1017</t>
   </si>
   <si>
     <t xml:space="preserve">Loyola Marymount</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9087</t>
+    <t xml:space="preserve">0.9132</t>
   </si>
   <si>
     <t xml:space="preserve">Loyola (MD)</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2289</t>
+    <t xml:space="preserve">-1.2182</t>
   </si>
   <si>
     <t xml:space="preserve">Maine</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.9306</t>
+    <t xml:space="preserve">-1.9318</t>
   </si>
   <si>
     <t xml:space="preserve">Manhattan</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6376</t>
+    <t xml:space="preserve">-1.6421</t>
   </si>
   <si>
     <t xml:space="preserve">Marist</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.7448</t>
+    <t xml:space="preserve">-1.7505</t>
   </si>
   <si>
     <t xml:space="preserve">Marquette</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9617</t>
+    <t xml:space="preserve">1.9672</t>
   </si>
   <si>
     <t xml:space="preserve">Marshall</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3145</t>
+    <t xml:space="preserve">0.3127</t>
   </si>
   <si>
     <t xml:space="preserve">Maryland-Baltimore County</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.4396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland-Eastern Shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts-Lowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McNeese State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memphis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercer</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.4612</t>
   </si>
   <si>
-    <t xml:space="preserve">Maryland-Eastern Shore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts-Lowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McNeese State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4587</t>
-  </si>
-  <si>
     <t xml:space="preserve">Miami (FL)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8461</t>
+    <t xml:space="preserve">0.8523</t>
   </si>
   <si>
     <t xml:space="preserve">Miami (OH)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2841</t>
+    <t xml:space="preserve">0.389</t>
   </si>
   <si>
     <t xml:space="preserve">Michigan State</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3242</t>
+    <t xml:space="preserve">2.3346</t>
   </si>
   <si>
     <t xml:space="preserve">Michigan</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9969</t>
+    <t xml:space="preserve">2.0294</t>
   </si>
   <si>
     <t xml:space="preserve">Middle Tennessee</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7817</t>
+    <t xml:space="preserve">-0.8177</t>
   </si>
   <si>
     <t xml:space="preserve">Milwaukee</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6293</t>
+    <t xml:space="preserve">-1.6508</t>
   </si>
   <si>
     <t xml:space="preserve">Minnesota</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6758</t>
+    <t xml:space="preserve">1.6044</t>
   </si>
   <si>
     <t xml:space="preserve">Mississippi State</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1393</t>
+    <t xml:space="preserve">2.0308</t>
   </si>
   <si>
     <t xml:space="preserve">Mississippi Valley State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.588</t>
+    <t xml:space="preserve">-1.5913</t>
   </si>
   <si>
     <t xml:space="preserve">Mississippi</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1507</t>
+    <t xml:space="preserve">0.9879</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri-Kansas City</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6454</t>
+    <t xml:space="preserve">-0.6496</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3695</t>
+    <t xml:space="preserve">-0.3568</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1586</t>
+    <t xml:space="preserve">0.1678</t>
   </si>
   <si>
     <t xml:space="preserve">Monmouth</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2214</t>
+    <t xml:space="preserve">-1.2154</t>
   </si>
   <si>
     <t xml:space="preserve">Montana State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8158</t>
+    <t xml:space="preserve">-0.8187</t>
   </si>
   <si>
     <t xml:space="preserve">Montana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1888</t>
+    <t xml:space="preserve">0.2013</t>
   </si>
   <si>
     <t xml:space="preserve">Morehead State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7943</t>
+    <t xml:space="preserve">-0.7895</t>
   </si>
   <si>
     <t xml:space="preserve">Morgan State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.534</t>
+    <t xml:space="preserve">-0.5176</t>
   </si>
   <si>
     <t xml:space="preserve">Mount St. Mary's</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3959</t>
+    <t xml:space="preserve">-1.3868</t>
   </si>
   <si>
     <t xml:space="preserve">Murray State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4392</t>
+    <t xml:space="preserve">0.453</t>
   </si>
   <si>
     <t xml:space="preserve">Navy</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8881</t>
+    <t xml:space="preserve">-0.8895</t>
   </si>
   <si>
     <t xml:space="preserve">Omaha</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0812</t>
+    <t xml:space="preserve">-0.0788</t>
   </si>
   <si>
     <t xml:space="preserve">Nebraska</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9432</t>
+    <t xml:space="preserve">0.9288</t>
   </si>
   <si>
     <t xml:space="preserve">Nevada-Las Vegas</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5346</t>
+    <t xml:space="preserve">-0.4421</t>
   </si>
   <si>
     <t xml:space="preserve">Nevada</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8341</t>
+    <t xml:space="preserve">1.8424</t>
   </si>
   <si>
     <t xml:space="preserve">New Hampshire</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6007</t>
+    <t xml:space="preserve">-1.6109</t>
   </si>
   <si>
     <t xml:space="preserve">New Mexico State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98</t>
+    <t xml:space="preserve">0.9765</t>
   </si>
   <si>
     <t xml:space="preserve">New Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2941</t>
+    <t xml:space="preserve">0.2214</t>
   </si>
   <si>
     <t xml:space="preserve">New Orleans</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3277</t>
+    <t xml:space="preserve">-0.3449</t>
   </si>
   <si>
     <t xml:space="preserve">Niagara</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3728</t>
+    <t xml:space="preserve">-1.4774</t>
   </si>
   <si>
     <t xml:space="preserve">Nicholls State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4871</t>
+    <t xml:space="preserve">-0.5173</t>
   </si>
   <si>
     <t xml:space="preserve">NJIT</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1285</t>
+    <t xml:space="preserve">0.1406</t>
   </si>
   <si>
     <t xml:space="preserve">Norfolk State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2879</t>
+    <t xml:space="preserve">-0.2562</t>
   </si>
   <si>
     <t xml:space="preserve">North Alabama</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4995</t>
+    <t xml:space="preserve">-0.5018</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina-Asheville</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6434</t>
+    <t xml:space="preserve">-1.6494</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina A&amp;T</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6738</t>
+    <t xml:space="preserve">-0.6545</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina Central</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3798</t>
+    <t xml:space="preserve">-0.3642</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina-Greensboro</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1967</t>
+    <t xml:space="preserve">0.2198</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4769</t>
+    <t xml:space="preserve">1.5045</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina-Wilmington</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5751</t>
+    <t xml:space="preserve">-0.5619</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3807</t>
+    <t xml:space="preserve">2.4076</t>
   </si>
   <si>
     <t xml:space="preserve">North Dakota State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2292</t>
+    <t xml:space="preserve">-0.2274</t>
   </si>
   <si>
     <t xml:space="preserve">North Dakota</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8525</t>
+    <t xml:space="preserve">-0.8453</t>
   </si>
   <si>
     <t xml:space="preserve">North Florida</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0679</t>
+    <t xml:space="preserve">0.0762</t>
   </si>
   <si>
     <t xml:space="preserve">North Texas</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5309</t>
+    <t xml:space="preserve">0.5333</t>
   </si>
   <si>
     <t xml:space="preserve">Northeastern</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2882</t>
+    <t xml:space="preserve">0.2944</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9124</t>
+    <t xml:space="preserve">-0.9161</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Colorado</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4258</t>
+    <t xml:space="preserve">0.4336</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4415</t>
+    <t xml:space="preserve">-0.2486</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Iowa</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0631</t>
+    <t xml:space="preserve">-0.0687</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2727</t>
+    <t xml:space="preserve">0.2859</t>
   </si>
   <si>
     <t xml:space="preserve">Northwestern State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3805</t>
+    <t xml:space="preserve">-1.411</t>
   </si>
   <si>
     <t xml:space="preserve">Northwestern</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0299</t>
+    <t xml:space="preserve">1.1351</t>
   </si>
   <si>
     <t xml:space="preserve">Notre Dame</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9498</t>
+    <t xml:space="preserve">0.8795</t>
   </si>
   <si>
     <t xml:space="preserve">Oakland</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8559</t>
+    <t xml:space="preserve">-0.8661</t>
   </si>
   <si>
     <t xml:space="preserve">Ohio State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4176</t>
+    <t xml:space="preserve">1.4088</t>
   </si>
   <si>
     <t xml:space="preserve">Ohio</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7906</t>
+    <t xml:space="preserve">0.84</t>
   </si>
   <si>
     <t xml:space="preserve">Oklahoma State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4874</t>
+    <t xml:space="preserve">0.4657</t>
   </si>
   <si>
     <t xml:space="preserve">Oklahoma</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4471</t>
+    <t xml:space="preserve">1.4199</t>
   </si>
   <si>
     <t xml:space="preserve">Old Dominion</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1447</t>
+    <t xml:space="preserve">-0.1399</t>
   </si>
   <si>
     <t xml:space="preserve">Oral Roberts</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9667</t>
+    <t xml:space="preserve">-0.9548</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0865</t>
+    <t xml:space="preserve">-0.1059</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135</t>
+    <t xml:space="preserve">0.0912</t>
   </si>
   <si>
     <t xml:space="preserve">Pacific</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1682</t>
+    <t xml:space="preserve">0.1753</t>
   </si>
   <si>
     <t xml:space="preserve">Penn State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0734</t>
+    <t xml:space="preserve">0.0619</t>
   </si>
   <si>
     <t xml:space="preserve">Pennsylvania</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4225</t>
+    <t xml:space="preserve">1.428</t>
   </si>
   <si>
     <t xml:space="preserve">Pepperdine</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4255</t>
+    <t xml:space="preserve">-0.4139</t>
   </si>
   <si>
     <t xml:space="preserve">Pittsburgh</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4405</t>
+    <t xml:space="preserve">1.4908</t>
   </si>
   <si>
     <t xml:space="preserve">Portland State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2256</t>
+    <t xml:space="preserve">-1.2197</t>
   </si>
   <si>
     <t xml:space="preserve">Portland</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6212</t>
+    <t xml:space="preserve">-0.6219</t>
   </si>
   <si>
     <t xml:space="preserve">Prairie View</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0063</t>
+    <t xml:space="preserve">-0.9983</t>
   </si>
   <si>
     <t xml:space="preserve">Presbyterian</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1591</t>
+    <t xml:space="preserve">0.1779</t>
   </si>
   <si>
     <t xml:space="preserve">Princeton</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7177</t>
+    <t xml:space="preserve">0.7063</t>
   </si>
   <si>
     <t xml:space="preserve">Providence</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7151</t>
+    <t xml:space="preserve">0.7192</t>
   </si>
   <si>
     <t xml:space="preserve">Purdue</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0015</t>
+    <t xml:space="preserve">1.985</t>
   </si>
   <si>
     <t xml:space="preserve">Quinnipiac</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2295</t>
+    <t xml:space="preserve">-1.2282</t>
   </si>
   <si>
     <t xml:space="preserve">Radford</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4354</t>
+    <t xml:space="preserve">0.4501</t>
   </si>
   <si>
     <t xml:space="preserve">Rhode Island</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3399</t>
+    <t xml:space="preserve">-0.3511</t>
   </si>
   <si>
     <t xml:space="preserve">Rice</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0628</t>
+    <t xml:space="preserve">-1.0757</t>
   </si>
   <si>
     <t xml:space="preserve">Richmond</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7113</t>
+    <t xml:space="preserve">-0.7261</t>
   </si>
   <si>
     <t xml:space="preserve">Rider</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0712</t>
+    <t xml:space="preserve">-0.0717</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Morris</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2361</t>
+    <t xml:space="preserve">-0.2238</t>
   </si>
   <si>
     <t xml:space="preserve">Rutgers</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3915</t>
+    <t xml:space="preserve">0.3795</t>
   </si>
   <si>
     <t xml:space="preserve">Sacramento State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4957</t>
+    <t xml:space="preserve">-0.5047</t>
   </si>
   <si>
     <t xml:space="preserve">Sacred Heart</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4993</t>
+    <t xml:space="preserve">-0.4787</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Francis (PA)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8778</t>
+    <t xml:space="preserve">-0.8773</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Joseph's</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1825</t>
+    <t xml:space="preserve">0.1658</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Louis</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7674</t>
+    <t xml:space="preserve">0.7594</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Mary's (CA)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0471</t>
+    <t xml:space="preserve">1.0447</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Peter's</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1759</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sam Houston State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6649</t>
+    <t xml:space="preserve">-0.6851</t>
   </si>
   <si>
     <t xml:space="preserve">Samford</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2456</t>
+    <t xml:space="preserve">-0.2302</t>
   </si>
   <si>
     <t xml:space="preserve">San Diego State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815</t>
-  </si>
-  <si>
     <t xml:space="preserve">San Diego</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2615</t>
+    <t xml:space="preserve">0.2571</t>
   </si>
   <si>
     <t xml:space="preserve">San Francisco</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8191</t>
+    <t xml:space="preserve">1.8228</t>
   </si>
   <si>
     <t xml:space="preserve">San Jose State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0668</t>
+    <t xml:space="preserve">-1.0837</t>
   </si>
   <si>
     <t xml:space="preserve">Santa Clara</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4672</t>
+    <t xml:space="preserve">0.4689</t>
   </si>
   <si>
     <t xml:space="preserve">Savannah State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6848</t>
+    <t xml:space="preserve">-0.6701</t>
   </si>
   <si>
     <t xml:space="preserve">Seattle</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0584</t>
+    <t xml:space="preserve">-0.0483</t>
   </si>
   <si>
     <t xml:space="preserve">Seton Hall</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4417</t>
+    <t xml:space="preserve">1.4449</t>
   </si>
   <si>
     <t xml:space="preserve">Siena</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4599</t>
+    <t xml:space="preserve">-1.4658</t>
   </si>
   <si>
     <t xml:space="preserve">South Alabama</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4746</t>
+    <t xml:space="preserve">-0.4694</t>
   </si>
   <si>
     <t xml:space="preserve">South Carolina State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.017</t>
+    <t xml:space="preserve">-0.9988</t>
   </si>
   <si>
     <t xml:space="preserve">South Carolina Upstate</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1774</t>
+    <t xml:space="preserve">-1.1601</t>
   </si>
   <si>
     <t xml:space="preserve">South Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5694</t>
+    <t xml:space="preserve">0.7387</t>
   </si>
   <si>
     <t xml:space="preserve">South Dakota State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1128</t>
+    <t xml:space="preserve">-0.0939</t>
   </si>
   <si>
     <t xml:space="preserve">South Dakota</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8603</t>
+    <t xml:space="preserve">-0.8604</t>
   </si>
   <si>
     <t xml:space="preserve">South Florida</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3564</t>
+    <t xml:space="preserve">0.4312</t>
   </si>
   <si>
     <t xml:space="preserve">Southeast Missouri State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4399</t>
+    <t xml:space="preserve">-1.4362</t>
   </si>
   <si>
     <t xml:space="preserve">Southeastern Louisiana</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5354</t>
+    <t xml:space="preserve">-1.58</t>
   </si>
   <si>
     <t xml:space="preserve">Southern California</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4334</t>
+    <t xml:space="preserve">-0.4647</t>
   </si>
   <si>
     <t xml:space="preserve">SIU Edwardsville</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1338</t>
+    <t xml:space="preserve">-1.1355</t>
   </si>
   <si>
     <t xml:space="preserve">Southern Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2699</t>
+    <t xml:space="preserve">0.2673</t>
   </si>
   <si>
     <t xml:space="preserve">Southern Methodist</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5382</t>
+    <t xml:space="preserve">0.5308</t>
   </si>
   <si>
     <t xml:space="preserve">Southern Mississippi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0516</t>
+    <t xml:space="preserve">0.0449</t>
   </si>
   <si>
     <t xml:space="preserve">Southern Utah</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.108</t>
+    <t xml:space="preserve">-0.6928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0962</t>
   </si>
   <si>
     <t xml:space="preserve">St. Bonaventure</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.785</t>
+    <t xml:space="preserve">-0.8145</t>
   </si>
   <si>
     <t xml:space="preserve">St. Francis (NY)</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.3174</t>
+  </si>
+  <si>
     <t xml:space="preserve">St. John's (NY)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.326</t>
+    <t xml:space="preserve">1.339</t>
   </si>
   <si>
     <t xml:space="preserve">Stanford</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3413</t>
+    <t xml:space="preserve">-0.375</t>
   </si>
   <si>
     <t xml:space="preserve">Stephen F. Austin</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4789</t>
+    <t xml:space="preserve">-0.4949</t>
   </si>
   <si>
     <t xml:space="preserve">Stetson</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.535</t>
+    <t xml:space="preserve">-1.5296</t>
   </si>
   <si>
     <t xml:space="preserve">Stony Brook</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0163</t>
+    <t xml:space="preserve">0.0104</t>
   </si>
   <si>
     <t xml:space="preserve">Syracuse</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5383</t>
+    <t xml:space="preserve">1.5395</t>
   </si>
   <si>
     <t xml:space="preserve">Temple</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3763</t>
+    <t xml:space="preserve">1.3684</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee-Martin</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1619</t>
+    <t xml:space="preserve">-1.1624</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8319</t>
+    <t xml:space="preserve">-0.8287</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7271</t>
+    <t xml:space="preserve">-0.727</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3566</t>
+    <t xml:space="preserve">2.3674</t>
   </si>
   <si>
     <t xml:space="preserve">Texas A&amp;M-Corpus Christi</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0775</t>
+    <t xml:space="preserve">-1.0994</t>
   </si>
   <si>
     <t xml:space="preserve">Texas A&amp;M</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0509</t>
+    <t xml:space="preserve">0.0293</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-Arlington</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0352</t>
+    <t xml:space="preserve">0.0282</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Christian</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9157</t>
+    <t xml:space="preserve">0.9004</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-El Paso</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9194</t>
+    <t xml:space="preserve">-0.9471</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-Rio Grande Valley</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4531</t>
+    <t xml:space="preserve">-0.4579</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-San Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.833</t>
+    <t xml:space="preserve">-0.8432</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Southern</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3348</t>
+    <t xml:space="preserve">-0.3255</t>
   </si>
   <si>
     <t xml:space="preserve">Texas State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0826</t>
+    <t xml:space="preserve">1.1049</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0605</t>
+    <t xml:space="preserve">0.9172</t>
   </si>
   <si>
     <t xml:space="preserve">Texas</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3301</t>
+    <t xml:space="preserve">1.3052</t>
   </si>
   <si>
     <t xml:space="preserve">Toledo</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8137</t>
+    <t xml:space="preserve">1.7053</t>
   </si>
   <si>
     <t xml:space="preserve">Towson</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7984</t>
+    <t xml:space="preserve">-0.787</t>
   </si>
   <si>
     <t xml:space="preserve">Troy</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3612</t>
+    <t xml:space="preserve">0.3697</t>
   </si>
   <si>
     <t xml:space="preserve">Tulane</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.193</t>
+    <t xml:space="preserve">-1.2113</t>
   </si>
   <si>
     <t xml:space="preserve">Tulsa</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1931</t>
+    <t xml:space="preserve">0.1893</t>
   </si>
   <si>
     <t xml:space="preserve">UCLA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8596</t>
+    <t xml:space="preserve">0.8322</t>
   </si>
   <si>
     <t xml:space="preserve">Utah State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1977</t>
+    <t xml:space="preserve">1.2162</t>
   </si>
   <si>
     <t xml:space="preserve">Utah Valley</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113</t>
+    <t xml:space="preserve">0.1121</t>
   </si>
   <si>
     <t xml:space="preserve">Utah</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1587</t>
+    <t xml:space="preserve">-0.1754</t>
   </si>
   <si>
     <t xml:space="preserve">Valparaiso</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3149</t>
+    <t xml:space="preserve">-0.3048</t>
   </si>
   <si>
     <t xml:space="preserve">Vanderbilt</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1371</t>
+    <t xml:space="preserve">0.1366</t>
   </si>
   <si>
     <t xml:space="preserve">Vermont</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0343</t>
+    <t xml:space="preserve">0.0464</t>
   </si>
   <si>
     <t xml:space="preserve">Villanova</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01</t>
+    <t xml:space="preserve">2.101</t>
   </si>
   <si>
     <t xml:space="preserve">Virginia Commonwealth</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6826</t>
+    <t xml:space="preserve">0.6701</t>
   </si>
   <si>
     <t xml:space="preserve">VMI</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7441</t>
+    <t xml:space="preserve">-0.7377</t>
   </si>
   <si>
     <t xml:space="preserve">Virginia Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7062</t>
+    <t xml:space="preserve">1.7231</t>
   </si>
   <si>
     <t xml:space="preserve">Virginia</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4937</t>
+    <t xml:space="preserve">2.4952</t>
   </si>
   <si>
     <t xml:space="preserve">Wagner</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3039</t>
+    <t xml:space="preserve">-0.2981</t>
   </si>
   <si>
     <t xml:space="preserve">Wake Forest</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7978</t>
+    <t xml:space="preserve">0.8082</t>
   </si>
   <si>
     <t xml:space="preserve">Washington State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1688</t>
+    <t xml:space="preserve">-1.1931</t>
   </si>
   <si>
     <t xml:space="preserve">Washington</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4138</t>
+    <t xml:space="preserve">0.3878</t>
   </si>
   <si>
     <t xml:space="preserve">Weber State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1351</t>
+    <t xml:space="preserve">0.1421</t>
   </si>
   <si>
     <t xml:space="preserve">West Virginia</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5271</t>
+    <t xml:space="preserve">0.5105</t>
   </si>
   <si>
     <t xml:space="preserve">Western Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3292</t>
+    <t xml:space="preserve">-1.324</t>
   </si>
   <si>
     <t xml:space="preserve">Western Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4379</t>
+    <t xml:space="preserve">-1.4279</t>
   </si>
   <si>
     <t xml:space="preserve">Western Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3206</t>
+    <t xml:space="preserve">-0.3287</t>
   </si>
   <si>
     <t xml:space="preserve">Western Michigan</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3273</t>
+    <t xml:space="preserve">-0.4097</t>
   </si>
   <si>
     <t xml:space="preserve">Wichita State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2513</t>
+    <t xml:space="preserve">0.105</t>
   </si>
   <si>
     <t xml:space="preserve">William &amp; Mary</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5562</t>
+    <t xml:space="preserve">-0.5522</t>
   </si>
   <si>
     <t xml:space="preserve">Winthrop</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2569</t>
+    <t xml:space="preserve">0.2906</t>
   </si>
   <si>
     <t xml:space="preserve">Wisconsin</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6735</t>
+    <t xml:space="preserve">1.6591</t>
   </si>
   <si>
     <t xml:space="preserve">Wofford</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3832</t>
+    <t xml:space="preserve">1.3942</t>
   </si>
   <si>
     <t xml:space="preserve">Wright State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2613</t>
+    <t xml:space="preserve">-0.2783</t>
   </si>
   <si>
     <t xml:space="preserve">Wyoming</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3232</t>
+    <t xml:space="preserve">-1.3325</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0509</t>
+    <t xml:space="preserve">1.0526</t>
   </si>
   <si>
     <t xml:space="preserve">Yale</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4966</t>
+    <t xml:space="preserve">1.4937</t>
   </si>
   <si>
     <t xml:space="preserve">Youngstown State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3943</t>
+    <t xml:space="preserve">-1.4022</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2597,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5663</v>
+        <v>0.5049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3537</v>
+        <v>0.3549</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2620,16 +2617,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.0338</v>
+        <v>-0.5733</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.3025</v>
+        <v>-1.1928</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4">
@@ -2640,16 +2637,16 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5641</v>
+        <v>-0.1308</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4909</v>
+        <v>-0.4124</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5">
@@ -2660,10 +2657,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.7042</v>
+        <v>-1.7731</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6306</v>
+        <v>-0.6315</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -2680,16 +2677,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0957</v>
+        <v>-0.1592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8288</v>
+        <v>0.8561</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -2700,16 +2697,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.0783</v>
+        <v>-2.1483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3077</v>
+        <v>0.3114</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -2720,16 +2717,16 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5137</v>
+        <v>-0.0516</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0552</v>
+        <v>1.3378</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -2740,16 +2737,16 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5654</v>
+        <v>-0.6306</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6913</v>
+        <v>-0.6909</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10">
@@ -2760,10 +2757,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.4112</v>
+        <v>-1.4792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0963</v>
+        <v>0.0971</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -2780,16 +2777,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.033</v>
+        <v>-1.0996</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.59</v>
+        <v>-0.5917</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
@@ -2800,16 +2797,16 @@
         <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6151</v>
+        <v>0.5537</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6199</v>
+        <v>-0.6193</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
@@ -2820,16 +2817,16 @@
         <v>38</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4235</v>
+        <v>0.3616</v>
       </c>
       <c r="D13" t="n">
-        <v>1.1653</v>
+        <v>1.1729</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -2840,16 +2837,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3094</v>
+        <v>0.2471</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3574</v>
+        <v>-0.3561</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -2860,10 +2857,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7208</v>
+        <v>0.6597</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.3683</v>
+        <v>-1.3712</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -2880,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.2906</v>
+        <v>-1.3581</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5797</v>
+        <v>-0.58</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17">
@@ -2900,16 +2897,16 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2659</v>
+        <v>0.2034</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1607</v>
+        <v>1.1683</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
       </c>
       <c r="F17" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18">
@@ -2920,10 +2917,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1162</v>
+        <v>-0.1799</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7332</v>
+        <v>0.7367</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -2940,16 +2937,16 @@
         <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1878</v>
+        <v>0.125</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.8177</v>
+        <v>-1.8232</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
       </c>
       <c r="F19" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -2960,16 +2957,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4822</v>
+        <v>0.9687</v>
       </c>
       <c r="D20" t="n">
-        <v>3.2443</v>
+        <v>3.0658</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -2980,10 +2977,10 @@
         <v>55</v>
       </c>
       <c r="C21" t="n">
-        <v>1.4037</v>
+        <v>1.3449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8559</v>
+        <v>0.8607</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -3000,16 +2997,16 @@
         <v>58</v>
       </c>
       <c r="C22" t="n">
-        <v>0.765</v>
+        <v>1.1669</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0171</v>
+        <v>0.1782</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
       </c>
       <c r="F22" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -3020,16 +3017,16 @@
         <v>61</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4642</v>
+        <v>-0.5289</v>
       </c>
       <c r="D23" t="n">
-        <v>2.4553</v>
+        <v>2.4671</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -3040,16 +3037,16 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7299</v>
+        <v>0.669</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.525</v>
+        <v>-0.5263</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3060,10 +3057,10 @@
         <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0239</v>
+        <v>-0.0394</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8058</v>
+        <v>0.811</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
@@ -3080,10 +3077,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.0425</v>
+        <v>-1.1093</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.154</v>
+        <v>-1.1575</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
@@ -3100,16 +3097,16 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6137</v>
+        <v>-0.2518</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5279</v>
+        <v>-0.6767</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
       </c>
       <c r="F27" t="n">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
@@ -3120,16 +3117,16 @@
         <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6492</v>
+        <v>-0.7145</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3204</v>
+        <v>-0.3193</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
       </c>
       <c r="F28" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -3140,16 +3137,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.032</v>
+        <v>-0.0312</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3108</v>
+        <v>-0.3089</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
       </c>
       <c r="F29" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
@@ -3160,16 +3157,16 @@
         <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4804</v>
+        <v>0.9885</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0236</v>
+        <v>1.0337</v>
       </c>
       <c r="E30" t="s">
         <v>78</v>
       </c>
       <c r="F30" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -3180,16 +3177,16 @@
         <v>80</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7788</v>
+        <v>-0.8446</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2731</v>
+        <v>0.2757</v>
       </c>
       <c r="E31" t="s">
         <v>81</v>
       </c>
       <c r="F31" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
@@ -3200,16 +3197,16 @@
         <v>83</v>
       </c>
       <c r="C32" t="n">
-        <v>2.6177</v>
+        <v>2.5627</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.2136</v>
+        <v>-1.2168</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
       </c>
       <c r="F32" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -3220,16 +3217,16 @@
         <v>86</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3578</v>
+        <v>-0.4223</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3079</v>
+        <v>-0.3083</v>
       </c>
       <c r="E33" t="s">
         <v>87</v>
       </c>
       <c r="F33" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -3240,16 +3237,16 @@
         <v>89</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.3962</v>
+        <v>-1.464</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.8503</v>
+        <v>-0.8514</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
       <c r="F34" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
@@ -3260,10 +3257,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0526</v>
+        <v>-0.1161</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.4956</v>
+        <v>-1.4991</v>
       </c>
       <c r="E35" t="s">
         <v>92</v>
@@ -3280,16 +3277,16 @@
         <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>1.192</v>
+        <v>1.6664</v>
       </c>
       <c r="D36" t="n">
-        <v>1.193</v>
+        <v>0.984</v>
       </c>
       <c r="E36" t="s">
         <v>94</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -3300,16 +3297,16 @@
         <v>96</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3386</v>
+        <v>0.7892</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.6756</v>
+        <v>-0.6513</v>
       </c>
       <c r="E37" t="s">
         <v>97</v>
       </c>
       <c r="F37" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
@@ -3320,7 +3317,7 @@
         <v>99</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.1918</v>
+        <v>-2.2621</v>
       </c>
       <c r="D38" t="n">
         <v>-0.6335</v>
@@ -3329,7 +3326,7 @@
         <v>100</v>
       </c>
       <c r="F38" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39">
@@ -3340,10 +3337,10 @@
         <v>102</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1248</v>
+        <v>0.0619</v>
       </c>
       <c r="D39" t="n">
-        <v>1.9584</v>
+        <v>1.9685</v>
       </c>
       <c r="E39" t="s">
         <v>103</v>
@@ -3360,10 +3357,10 @@
         <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3807</v>
+        <v>-0.4452</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.4538</v>
+        <v>-1.4579</v>
       </c>
       <c r="E40" t="s">
         <v>105</v>
@@ -3380,16 +3377,16 @@
         <v>99</v>
       </c>
       <c r="C41" t="n">
-        <v>1.3459</v>
+        <v>1.2869</v>
       </c>
       <c r="D41" t="n">
-        <v>0.189</v>
+        <v>0.1917</v>
       </c>
       <c r="E41" t="s">
         <v>107</v>
       </c>
       <c r="F41" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42">
@@ -3400,16 +3397,16 @@
         <v>102</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0543</v>
+        <v>-0.0088</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.9779</v>
+        <v>-0.9783</v>
       </c>
       <c r="E42" t="s">
         <v>109</v>
       </c>
       <c r="F42" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43">
@@ -3420,10 +3417,10 @@
         <v>99</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.4609</v>
+        <v>-1.529</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.4559</v>
+        <v>-1.4599</v>
       </c>
       <c r="E43" t="s">
         <v>111</v>
@@ -3440,16 +3437,16 @@
         <v>99</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2803</v>
+        <v>0.2179</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1787</v>
+        <v>1.1858</v>
       </c>
       <c r="E44" t="s">
         <v>113</v>
       </c>
       <c r="F44" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -3460,16 +3457,16 @@
         <v>99</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0604</v>
+        <v>-0.1239</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.0943</v>
+        <v>-1.0957</v>
       </c>
       <c r="E45" t="s">
         <v>115</v>
       </c>
       <c r="F45" t="n">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46">
@@ -3480,16 +3477,16 @@
         <v>99</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.4908</v>
+        <v>-0.5556</v>
       </c>
       <c r="D46" t="n">
-        <v>1.7486</v>
+        <v>1.7591</v>
       </c>
       <c r="E46" t="s">
         <v>117</v>
       </c>
       <c r="F46" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -3500,16 +3497,16 @@
         <v>38</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.643</v>
+        <v>-0.7084</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.95</v>
+        <v>-0.9525</v>
       </c>
       <c r="E47" t="s">
         <v>119</v>
       </c>
       <c r="F47" t="n">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48">
@@ -3520,10 +3517,10 @@
         <v>121</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2535</v>
+        <v>0.1911</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.8159</v>
+        <v>-0.8192</v>
       </c>
       <c r="E48" t="s">
         <v>122</v>
@@ -3540,16 +3537,16 @@
         <v>124</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.7997</v>
+        <v>-0.8657</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3791</v>
+        <v>-0.3793</v>
       </c>
       <c r="E49" t="s">
         <v>125</v>
       </c>
       <c r="F49" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50">
@@ -3560,16 +3557,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0256</v>
+        <v>-0.0891</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.1343</v>
+        <v>-1.1365</v>
       </c>
       <c r="E50" t="s">
         <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51">
@@ -3580,16 +3577,16 @@
         <v>89</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1735</v>
+        <v>0.1108</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1944</v>
+        <v>0.1978</v>
       </c>
       <c r="E51" t="s">
         <v>129</v>
       </c>
       <c r="F51" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52">
@@ -3600,10 +3597,10 @@
         <v>131</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.698</v>
+        <v>-0.7634</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2471</v>
+        <v>0.2498</v>
       </c>
       <c r="E52" t="s">
         <v>132</v>
@@ -3620,16 +3617,16 @@
         <v>58</v>
       </c>
       <c r="C53" t="n">
-        <v>1.3403</v>
+        <v>1.7581</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7697</v>
+        <v>0.666</v>
       </c>
       <c r="E53" t="s">
         <v>134</v>
       </c>
       <c r="F53" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -3640,16 +3637,16 @@
         <v>121</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.4081</v>
+        <v>-0.4727</v>
       </c>
       <c r="D54" t="n">
-        <v>1.3098</v>
+        <v>1.3158</v>
       </c>
       <c r="E54" t="s">
         <v>136</v>
       </c>
       <c r="F54" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55">
@@ -3660,16 +3657,16 @@
         <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.9657</v>
+        <v>-2.0353</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.6252</v>
+        <v>-1.6289</v>
       </c>
       <c r="E55" t="s">
         <v>138</v>
       </c>
       <c r="F55" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56">
@@ -3680,16 +3677,16 @@
         <v>140</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7205</v>
+        <v>0.6594</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.4728</v>
+        <v>-1.4755</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
       </c>
       <c r="F56" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57">
@@ -3700,16 +3697,16 @@
         <v>102</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.8868</v>
+        <v>-0.9531</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.1823</v>
+        <v>-1.1842</v>
       </c>
       <c r="E57" t="s">
         <v>143</v>
       </c>
       <c r="F57" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58">
@@ -3720,10 +3717,10 @@
         <v>131</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3817</v>
+        <v>0.3197</v>
       </c>
       <c r="D58" t="n">
-        <v>2.3979</v>
+        <v>2.408</v>
       </c>
       <c r="E58" t="s">
         <v>145</v>
@@ -3740,16 +3737,16 @@
         <v>140</v>
       </c>
       <c r="C59" t="n">
-        <v>2.0865</v>
+        <v>2.0298</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1744</v>
+        <v>-0.1745</v>
       </c>
       <c r="E59" t="s">
         <v>147</v>
       </c>
       <c r="F59" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60">
@@ -3760,16 +3757,16 @@
         <v>73</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.0612</v>
+        <v>-0.6437</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1102</v>
+        <v>-0.0224</v>
       </c>
       <c r="E60" t="s">
         <v>149</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -3780,16 +3777,16 @@
         <v>151</v>
       </c>
       <c r="C61" t="n">
-        <v>1.3451</v>
+        <v>1.286</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4536</v>
+        <v>-0.452</v>
       </c>
       <c r="E61" t="s">
         <v>152</v>
       </c>
       <c r="F61" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62">
@@ -3800,16 +3797,16 @@
         <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.5136</v>
+        <v>-0.5785</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5481</v>
+        <v>0.5537</v>
       </c>
       <c r="E62" t="s">
         <v>154</v>
       </c>
       <c r="F62" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63">
@@ -3820,16 +3817,16 @@
         <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>0.331</v>
+        <v>0.2688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.344</v>
+        <v>0.3485</v>
       </c>
       <c r="E63" t="s">
         <v>156</v>
       </c>
       <c r="F63" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
@@ -3840,10 +3837,10 @@
         <v>158</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6289</v>
+        <v>0.5677</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8584</v>
+        <v>-0.861</v>
       </c>
       <c r="E64" t="s">
         <v>159</v>
@@ -3860,16 +3857,16 @@
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0403</v>
+        <v>-0.0228</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.2188</v>
+        <v>-1.222</v>
       </c>
       <c r="E65" t="s">
         <v>161</v>
       </c>
       <c r="F65" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66">
@@ -3880,16 +3877,16 @@
         <v>38</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.4287</v>
+        <v>-0.4933</v>
       </c>
       <c r="D66" t="n">
-        <v>0.488</v>
+        <v>0.4927</v>
       </c>
       <c r="E66" t="s">
         <v>163</v>
       </c>
       <c r="F66" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67">
@@ -3900,16 +3897,16 @@
         <v>86</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.6639</v>
+        <v>-1.7325</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0547</v>
+        <v>-0.0544</v>
       </c>
       <c r="E67" t="s">
         <v>165</v>
       </c>
       <c r="F67" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
@@ -3920,16 +3917,16 @@
         <v>131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9346</v>
+        <v>0.8743</v>
       </c>
       <c r="D68" t="n">
-        <v>1.1321</v>
+        <v>1.1385</v>
       </c>
       <c r="E68" t="s">
         <v>167</v>
       </c>
       <c r="F68" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
@@ -3940,10 +3937,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.7318</v>
+        <v>-0.7977</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.9672</v>
+        <v>-0.9675</v>
       </c>
       <c r="E69" t="s">
         <v>169</v>
@@ -3960,10 +3957,10 @@
         <v>86</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.3531</v>
+        <v>-1.4208</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.2467</v>
+        <v>-2.2533</v>
       </c>
       <c r="E70" t="s">
         <v>171</v>
@@ -3980,16 +3977,16 @@
         <v>96</v>
       </c>
       <c r="C71" t="n">
-        <v>1.6321</v>
+        <v>1.574</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.9895</v>
+        <v>-0.9912</v>
       </c>
       <c r="E71" t="s">
         <v>173</v>
       </c>
       <c r="F71" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72">
@@ -4000,16 +3997,16 @@
         <v>86</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.4704</v>
+        <v>-0.5352</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.6896</v>
+        <v>-0.6895</v>
       </c>
       <c r="E72" t="s">
         <v>175</v>
       </c>
       <c r="F72" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73">
@@ -4020,16 +4017,16 @@
         <v>177</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.436</v>
+        <v>-0.5007</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.1119</v>
+        <v>-1.1141</v>
       </c>
       <c r="E73" t="s">
         <v>178</v>
       </c>
       <c r="F73" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74">
@@ -4040,16 +4037,16 @@
         <v>177</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0447</v>
+        <v>-0.1081</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.1411</v>
+        <v>-1.1432</v>
       </c>
       <c r="E74" t="s">
         <v>180</v>
       </c>
       <c r="F74" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -4060,10 +4057,10 @@
         <v>66</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.2211</v>
+        <v>-1.2885</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.8955</v>
+        <v>-0.8975</v>
       </c>
       <c r="E75" t="s">
         <v>182</v>
@@ -4080,16 +4077,16 @@
         <v>158</v>
       </c>
       <c r="C76" t="n">
-        <v>1.1045</v>
+        <v>1.0448</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.1778</v>
+        <v>-1.1794</v>
       </c>
       <c r="E76" t="s">
         <v>184</v>
       </c>
       <c r="F76" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77">
@@ -4100,16 +4097,16 @@
         <v>186</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5918</v>
+        <v>0.5304</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.6457</v>
+        <v>-0.645</v>
       </c>
       <c r="E77" t="s">
         <v>187</v>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78">
@@ -4120,16 +4117,16 @@
         <v>96</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.3216</v>
+        <v>-0.3859</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7345</v>
+        <v>0.7397</v>
       </c>
       <c r="E78" t="s">
         <v>189</v>
       </c>
       <c r="F78" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -4140,16 +4137,16 @@
         <v>151</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1809</v>
+        <v>0.1181</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.3355</v>
+        <v>-0.3367</v>
       </c>
       <c r="E79" t="s">
         <v>191</v>
       </c>
       <c r="F79" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80">
@@ -4160,16 +4157,16 @@
         <v>80</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8923</v>
+        <v>0.8319</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5529</v>
+        <v>-0.5528</v>
       </c>
       <c r="E80" t="s">
         <v>193</v>
       </c>
       <c r="F80" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
@@ -4180,10 +4177,10 @@
         <v>158</v>
       </c>
       <c r="C81" t="n">
-        <v>1.9784</v>
+        <v>1.9214</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.6626</v>
+        <v>-0.6613</v>
       </c>
       <c r="E81" t="s">
         <v>195</v>
@@ -4200,10 +4197,10 @@
         <v>73</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0789</v>
+        <v>1.5816</v>
       </c>
       <c r="D82" t="n">
-        <v>2.8527</v>
+        <v>2.9056</v>
       </c>
       <c r="E82" t="s">
         <v>197</v>
@@ -4220,16 +4217,16 @@
         <v>177</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.124</v>
+        <v>-0.1877</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8373</v>
+        <v>0.8415</v>
       </c>
       <c r="E83" t="s">
         <v>199</v>
       </c>
       <c r="F83" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84">
@@ -4240,10 +4237,10 @@
         <v>131</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.2329</v>
+        <v>-1.3002</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7066</v>
+        <v>0.7111</v>
       </c>
       <c r="E84" t="s">
         <v>201</v>
@@ -4260,10 +4257,10 @@
         <v>140</v>
       </c>
       <c r="C85" t="n">
-        <v>2.2488</v>
+        <v>2.1928</v>
       </c>
       <c r="D85" t="n">
-        <v>2.6957</v>
+        <v>2.7093</v>
       </c>
       <c r="E85" t="s">
         <v>203</v>
@@ -4280,10 +4277,10 @@
         <v>55</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1097</v>
+        <v>0.0467</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.0994</v>
+        <v>-0.098</v>
       </c>
       <c r="E86" t="s">
         <v>205</v>
@@ -4300,16 +4297,16 @@
         <v>55</v>
       </c>
       <c r="C87" t="n">
-        <v>1.8997</v>
+        <v>1.8423</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0329</v>
+        <v>-0.0337</v>
       </c>
       <c r="E87" t="s">
         <v>207</v>
       </c>
       <c r="F87" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
@@ -4320,16 +4317,16 @@
         <v>58</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.6782</v>
+        <v>-0.2665</v>
       </c>
       <c r="D88" t="n">
-        <v>2.4109</v>
+        <v>2.2662</v>
       </c>
       <c r="E88" t="s">
         <v>209</v>
       </c>
       <c r="F88" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -4340,10 +4337,10 @@
         <v>211</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.4887</v>
+        <v>-1.5569</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.7283</v>
+        <v>-1.7339</v>
       </c>
       <c r="E89" t="s">
         <v>212</v>
@@ -4360,16 +4357,16 @@
         <v>158</v>
       </c>
       <c r="C90" t="n">
-        <v>0.294</v>
+        <v>0.2316</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.529</v>
+        <v>-1.531</v>
       </c>
       <c r="E90" t="s">
         <v>214</v>
       </c>
       <c r="F90" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91">
@@ -4380,16 +4377,16 @@
         <v>80</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0593</v>
+        <v>-0.0039</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.3414</v>
+        <v>-2.3491</v>
       </c>
       <c r="E91" t="s">
         <v>216</v>
       </c>
       <c r="F91" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92">
@@ -4400,16 +4397,16 @@
         <v>124</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0181</v>
+        <v>-0.0815</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.3321</v>
+        <v>-1.3353</v>
       </c>
       <c r="E92" t="s">
         <v>218</v>
       </c>
       <c r="F92" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="93">
@@ -4420,7 +4417,7 @@
         <v>89</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1522</v>
+        <v>-0.216</v>
       </c>
       <c r="D93" t="n">
         <v>-0.0614</v>
@@ -4429,7 +4426,7 @@
         <v>220</v>
       </c>
       <c r="F93" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94">
@@ -4440,16 +4437,16 @@
         <v>66</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.9219</v>
+        <v>-0.9883</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5553</v>
+        <v>-0.5565</v>
       </c>
       <c r="E94" t="s">
         <v>222</v>
       </c>
       <c r="F94" t="n">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95">
@@ -4460,10 +4457,10 @@
         <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0953</v>
+        <v>0.0323</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6812</v>
+        <v>0.6875</v>
       </c>
       <c r="E95" t="s">
         <v>224</v>
@@ -4480,16 +4477,16 @@
         <v>226</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4927</v>
+        <v>0.4309</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.2575</v>
+        <v>-0.2569</v>
       </c>
       <c r="E96" t="s">
         <v>227</v>
       </c>
       <c r="F96" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97">
@@ -4500,16 +4497,16 @@
         <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>2.2266</v>
+        <v>2.1703</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1774</v>
+        <v>-0.1795</v>
       </c>
       <c r="E97" t="s">
         <v>229</v>
       </c>
       <c r="F97" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
@@ -4520,16 +4517,16 @@
         <v>73</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246</v>
+        <v>0.7319</v>
       </c>
       <c r="D98" t="n">
-        <v>2.0069</v>
+        <v>1.7493</v>
       </c>
       <c r="E98" t="s">
         <v>231</v>
       </c>
       <c r="F98" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -4540,16 +4537,16 @@
         <v>24</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.3452</v>
+        <v>-0.8357</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9077</v>
+        <v>1.0345</v>
       </c>
       <c r="E99" t="s">
         <v>233</v>
       </c>
       <c r="F99" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100">
@@ -4560,7 +4557,7 @@
         <v>177</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.8986</v>
+        <v>-0.9648</v>
       </c>
       <c r="D100" t="n">
         <v>-0.3418</v>
@@ -4569,7 +4566,7 @@
         <v>235</v>
       </c>
       <c r="F100" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101">
@@ -4580,16 +4577,16 @@
         <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.3356</v>
+        <v>0.0699</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.0664</v>
+        <v>-0.0049</v>
       </c>
       <c r="E101" t="s">
         <v>237</v>
       </c>
       <c r="F101" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -4600,16 +4597,16 @@
         <v>140</v>
       </c>
       <c r="C102" t="n">
-        <v>1.0419</v>
+        <v>0.982</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7015</v>
+        <v>0.7041</v>
       </c>
       <c r="E102" t="s">
         <v>239</v>
       </c>
       <c r="F102" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103">
@@ -4620,16 +4617,16 @@
         <v>121</v>
       </c>
       <c r="C103" t="n">
-        <v>1.0632</v>
+        <v>1.0033</v>
       </c>
       <c r="D103" t="n">
-        <v>0.131</v>
+        <v>0.1319</v>
       </c>
       <c r="E103" t="s">
         <v>241</v>
       </c>
       <c r="F103" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
@@ -4640,10 +4637,10 @@
         <v>177</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0675</v>
+        <v>0.0044</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.5604</v>
+        <v>-0.561</v>
       </c>
       <c r="E104" t="s">
         <v>243</v>
@@ -4660,16 +4657,16 @@
         <v>177</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.3973</v>
+        <v>-1.4651</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.0992</v>
+        <v>-1.1019</v>
       </c>
       <c r="E105" t="s">
         <v>245</v>
       </c>
       <c r="F105" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106">
@@ -4680,10 +4677,10 @@
         <v>96</v>
       </c>
       <c r="C106" t="n">
-        <v>1.5173</v>
+        <v>1.4588</v>
       </c>
       <c r="D106" t="n">
-        <v>0.138</v>
+        <v>0.1413</v>
       </c>
       <c r="E106" t="s">
         <v>247</v>
@@ -4700,10 +4697,10 @@
         <v>35</v>
       </c>
       <c r="C107" t="n">
-        <v>1.8364</v>
+        <v>1.779</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.3392</v>
+        <v>-0.3398</v>
       </c>
       <c r="E107" t="s">
         <v>249</v>
@@ -4720,16 +4717,16 @@
         <v>35</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6717</v>
+        <v>0.6105</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1862</v>
+        <v>-0.1875</v>
       </c>
       <c r="E108" t="s">
         <v>251</v>
       </c>
       <c r="F108" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109">
@@ -4740,16 +4737,16 @@
         <v>73</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.7993</v>
+        <v>-0.4166</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.2623</v>
+        <v>-0.234</v>
       </c>
       <c r="E109" t="s">
         <v>253</v>
       </c>
       <c r="F109" t="n">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110">
@@ -4760,16 +4757,16 @@
         <v>24</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.7345</v>
+        <v>-0.8002</v>
       </c>
       <c r="D110" t="n">
-        <v>1.2837</v>
+        <v>1.2925</v>
       </c>
       <c r="E110" t="s">
         <v>255</v>
       </c>
       <c r="F110" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
@@ -4780,16 +4777,16 @@
         <v>83</v>
       </c>
       <c r="C111" t="n">
-        <v>3.2525</v>
+        <v>3.1997</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0756</v>
+        <v>1.0805</v>
       </c>
       <c r="E111" t="s">
         <v>257</v>
       </c>
       <c r="F111" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
@@ -4800,16 +4797,16 @@
         <v>16</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.1468</v>
+        <v>-0.2107</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.2957</v>
+        <v>-0.2939</v>
       </c>
       <c r="E112" t="s">
         <v>259</v>
       </c>
       <c r="F112" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113">
@@ -4820,16 +4817,16 @@
         <v>102</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3451</v>
+        <v>0.2829</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0797</v>
+        <v>0.0826</v>
       </c>
       <c r="E113" t="s">
         <v>261</v>
       </c>
       <c r="F113" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114">
@@ -4840,16 +4837,16 @@
         <v>151</v>
       </c>
       <c r="C114" t="n">
-        <v>2.3615</v>
+        <v>2.3057</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.6447</v>
+        <v>-0.6473</v>
       </c>
       <c r="E114" t="s">
         <v>263</v>
       </c>
       <c r="F114" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115">
@@ -4860,16 +4857,16 @@
         <v>121</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0113</v>
+        <v>-0.0519</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.2068</v>
+        <v>-0.2059</v>
       </c>
       <c r="E115" t="s">
         <v>265</v>
       </c>
       <c r="F115" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116">
@@ -4880,16 +4877,16 @@
         <v>27</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1669</v>
+        <v>0.1041</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.9629</v>
+        <v>-0.9657</v>
       </c>
       <c r="E116" t="s">
         <v>267</v>
       </c>
       <c r="F116" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117">
@@ -4900,16 +4897,16 @@
         <v>86</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.7296</v>
+        <v>-2.8015</v>
       </c>
       <c r="D117" t="n">
-        <v>0.024</v>
+        <v>0.0279</v>
       </c>
       <c r="E117" t="s">
         <v>269</v>
       </c>
       <c r="F117" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118">
@@ -4920,16 +4917,16 @@
         <v>99</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.9042</v>
+        <v>-0.9704</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.5684</v>
+        <v>-0.5677</v>
       </c>
       <c r="E118" t="s">
         <v>271</v>
       </c>
       <c r="F118" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
@@ -4940,16 +4937,16 @@
         <v>121</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.8698</v>
+        <v>-0.9359</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9938</v>
+        <v>1.0003</v>
       </c>
       <c r="E119" t="s">
         <v>273</v>
       </c>
       <c r="F119" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
@@ -4960,16 +4957,16 @@
         <v>158</v>
       </c>
       <c r="C120" t="n">
-        <v>2.0153</v>
+        <v>1.9586</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.0109</v>
+        <v>-0.0096</v>
       </c>
       <c r="E120" t="s">
         <v>275</v>
       </c>
       <c r="F120" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121">
@@ -4980,16 +4977,16 @@
         <v>32</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.3157</v>
+        <v>-0.38</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.1252</v>
+        <v>-1.1297</v>
       </c>
       <c r="E121" t="s">
         <v>277</v>
       </c>
       <c r="F121" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122">
@@ -5000,16 +4997,16 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.5707</v>
+        <v>-0.6358</v>
       </c>
       <c r="D122" t="n">
-        <v>1.0968</v>
+        <v>1.1045</v>
       </c>
       <c r="E122" t="s">
         <v>279</v>
       </c>
       <c r="F122" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123">
@@ -5020,16 +5017,16 @@
         <v>131</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3814</v>
+        <v>0.3194</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6095</v>
+        <v>1.6167</v>
       </c>
       <c r="E123" t="s">
         <v>281</v>
       </c>
       <c r="F123" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124">
@@ -5040,16 +5037,16 @@
         <v>66</v>
       </c>
       <c r="C124" t="n">
-        <v>1.5654</v>
+        <v>1.507</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1734</v>
+        <v>0.1765</v>
       </c>
       <c r="E124" t="s">
         <v>283</v>
       </c>
       <c r="F124" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125">
@@ -5060,16 +5057,16 @@
         <v>211</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.3374</v>
+        <v>-1.4049</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.0306</v>
+        <v>-0.0276</v>
       </c>
       <c r="E125" t="s">
         <v>285</v>
       </c>
       <c r="F125" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126">
@@ -5080,16 +5077,16 @@
         <v>211</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.0685</v>
+        <v>-1.1352</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.1249</v>
+        <v>-1.126</v>
       </c>
       <c r="E126" t="s">
         <v>287</v>
       </c>
       <c r="F126" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127">
@@ -5100,10 +5097,10 @@
         <v>151</v>
       </c>
       <c r="C127" t="n">
-        <v>1.0614</v>
+        <v>1.0015</v>
       </c>
       <c r="D127" t="n">
-        <v>-1.1384</v>
+        <v>-1.1417</v>
       </c>
       <c r="E127" t="s">
         <v>289</v>
@@ -5120,10 +5117,10 @@
         <v>80</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0108</v>
+        <v>-0.0525</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.5063</v>
+        <v>-0.5058</v>
       </c>
       <c r="E128" t="s">
         <v>291</v>
@@ -5140,10 +5137,10 @@
         <v>293</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.2026</v>
+        <v>-0.2666</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1295</v>
+        <v>0.1317</v>
       </c>
       <c r="E129" t="s">
         <v>294</v>
@@ -5160,16 +5157,16 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.4038</v>
+        <v>-1.4716</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.3442</v>
+        <v>-1.3464</v>
       </c>
       <c r="E130" t="s">
         <v>296</v>
       </c>
       <c r="F130" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131">
@@ -5180,16 +5177,16 @@
         <v>80</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.7785</v>
+        <v>-0.8443</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.8899</v>
+        <v>-0.8907</v>
       </c>
       <c r="E131" t="s">
         <v>298</v>
       </c>
       <c r="F131" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="132">
@@ -5200,16 +5197,16 @@
         <v>293</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1519</v>
+        <v>0.2543</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.3632</v>
+        <v>-0.2167</v>
       </c>
       <c r="E132" t="s">
         <v>300</v>
       </c>
       <c r="F132" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133">
@@ -5220,16 +5217,16 @@
         <v>124</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0829</v>
+        <v>0.0199</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.22</v>
+        <v>-1.2239</v>
       </c>
       <c r="E133" t="s">
         <v>302</v>
       </c>
       <c r="F133" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134">
@@ -5240,10 +5237,10 @@
         <v>61</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9074</v>
+        <v>0.847</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2395</v>
+        <v>0.2402</v>
       </c>
       <c r="E134" t="s">
         <v>304</v>
@@ -5260,16 +5257,16 @@
         <v>293</v>
       </c>
       <c r="C135" t="n">
-        <v>1.4831</v>
+        <v>1.4246</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5161</v>
+        <v>0.5202</v>
       </c>
       <c r="E135" t="s">
         <v>306</v>
       </c>
       <c r="F135" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -5280,16 +5277,16 @@
         <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>2.6888</v>
+        <v>2.6341</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.6396</v>
+        <v>-0.6418</v>
       </c>
       <c r="E136" t="s">
         <v>308</v>
       </c>
       <c r="F136" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137">
@@ -5300,16 +5297,16 @@
         <v>151</v>
       </c>
       <c r="C137" t="n">
-        <v>1.2466</v>
+        <v>1.1873</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7356</v>
+        <v>0.7412</v>
       </c>
       <c r="E137" t="s">
         <v>310</v>
       </c>
       <c r="F137" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138">
@@ -5320,16 +5317,16 @@
         <v>16</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.5192</v>
+        <v>-1.5875</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3091</v>
+        <v>-0.3082</v>
       </c>
       <c r="E138" t="s">
         <v>312</v>
       </c>
       <c r="F138" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139">
@@ -5340,16 +5337,16 @@
         <v>55</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6431</v>
+        <v>0.5818</v>
       </c>
       <c r="D139" t="n">
-        <v>1.0473</v>
+        <v>1.0516</v>
       </c>
       <c r="E139" t="s">
         <v>314</v>
       </c>
       <c r="F139" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140">
@@ -5360,16 +5357,16 @@
         <v>226</v>
       </c>
       <c r="C140" t="n">
-        <v>1.1252</v>
+        <v>1.0655</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0042</v>
+        <v>0.0059</v>
       </c>
       <c r="E140" t="s">
         <v>316</v>
       </c>
       <c r="F140" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141">
@@ -5380,16 +5377,16 @@
         <v>158</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2658</v>
+        <v>0.2034</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4494</v>
+        <v>0.4529</v>
       </c>
       <c r="E141" t="s">
         <v>318</v>
       </c>
       <c r="F141" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142">
@@ -5400,16 +5397,16 @@
         <v>61</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.3036</v>
+        <v>-0.9582</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.3164</v>
+        <v>-0.3623</v>
       </c>
       <c r="E142" t="s">
         <v>320</v>
       </c>
       <c r="F142" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="143">
@@ -5420,16 +5417,16 @@
         <v>61</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8493</v>
+        <v>0.7887</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1689</v>
+        <v>0.1708</v>
       </c>
       <c r="E143" t="s">
         <v>322</v>
       </c>
       <c r="F143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
@@ -5440,16 +5437,16 @@
         <v>226</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.0793</v>
+        <v>-1.1462</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.5023</v>
+        <v>-0.5016</v>
       </c>
       <c r="E144" t="s">
         <v>324</v>
       </c>
       <c r="F144" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145">
@@ -5460,16 +5457,16 @@
         <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0687</v>
+        <v>0.6253</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5869</v>
+        <v>0.6355</v>
       </c>
       <c r="E145" t="s">
         <v>326</v>
       </c>
       <c r="F145" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146">
@@ -5480,16 +5477,16 @@
         <v>24</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.0012</v>
+        <v>0.4768</v>
       </c>
       <c r="D146" t="n">
-        <v>2.3274</v>
+        <v>2.3962</v>
       </c>
       <c r="E146" t="s">
         <v>328</v>
       </c>
       <c r="F146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -5500,16 +5497,16 @@
         <v>177</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.4037</v>
+        <v>-1.4715</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.3247</v>
+        <v>-0.3252</v>
       </c>
       <c r="E147" t="s">
         <v>330</v>
       </c>
       <c r="F147" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148">
@@ -5520,16 +5517,16 @@
         <v>32</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.6138</v>
+        <v>-0.6791</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.8381</v>
+        <v>-0.8389</v>
       </c>
       <c r="E148" t="s">
         <v>332</v>
       </c>
       <c r="F148" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149">
@@ -5540,10 +5537,10 @@
         <v>7</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3591</v>
+        <v>0.297</v>
       </c>
       <c r="D149" t="n">
-        <v>1.5785</v>
+        <v>1.5858</v>
       </c>
       <c r="E149" t="s">
         <v>334</v>
@@ -5560,16 +5557,16 @@
         <v>32</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.0088</v>
+        <v>-0.0721</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.7439</v>
+        <v>-1.7483</v>
       </c>
       <c r="E150" t="s">
         <v>336</v>
       </c>
       <c r="F150" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151">
@@ -5580,16 +5577,16 @@
         <v>226</v>
       </c>
       <c r="C151" t="n">
-        <v>1.7169</v>
+        <v>1.6592</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.3711</v>
+        <v>-0.3723</v>
       </c>
       <c r="E151" t="s">
         <v>338</v>
       </c>
       <c r="F151" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="152">
@@ -5600,16 +5597,16 @@
         <v>226</v>
       </c>
       <c r="C152" t="n">
-        <v>1.1343</v>
+        <v>1.0747</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.9987</v>
+        <v>-1.0021</v>
       </c>
       <c r="E152" t="s">
         <v>340</v>
       </c>
       <c r="F152" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153">
@@ -5620,10 +5617,10 @@
         <v>99</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5781</v>
+        <v>0.5166</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2979</v>
+        <v>0.3015</v>
       </c>
       <c r="E153" t="s">
         <v>342</v>
@@ -5640,10 +5637,10 @@
         <v>89</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.0819</v>
+        <v>-0.1456</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0841</v>
+        <v>0.0861</v>
       </c>
       <c r="E154" t="s">
         <v>344</v>
@@ -5660,16 +5657,16 @@
         <v>121</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7909</v>
+        <v>0.7301</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.7229</v>
+        <v>-0.7241</v>
       </c>
       <c r="E155" t="s">
         <v>346</v>
       </c>
       <c r="F155" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156">
@@ -5680,16 +5677,16 @@
         <v>35</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9633</v>
+        <v>0.903</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4907</v>
+        <v>0.4939</v>
       </c>
       <c r="E156" t="s">
         <v>348</v>
       </c>
       <c r="F156" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
@@ -5700,16 +5697,16 @@
         <v>35</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.3286</v>
+        <v>-0.3929</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.7935</v>
+        <v>-0.7945</v>
       </c>
       <c r="E157" t="s">
         <v>350</v>
       </c>
       <c r="F157" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158">
@@ -5720,10 +5717,10 @@
         <v>24</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2756</v>
+        <v>0.2132</v>
       </c>
       <c r="D158" t="n">
-        <v>1.9201</v>
+        <v>1.9277</v>
       </c>
       <c r="E158" t="s">
         <v>352</v>
@@ -5740,16 +5737,16 @@
         <v>19</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8564</v>
+        <v>0.7958</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6293</v>
+        <v>0.6343</v>
       </c>
       <c r="E159" t="s">
         <v>354</v>
       </c>
       <c r="F159" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160">
@@ -5760,16 +5757,16 @@
         <v>73</v>
       </c>
       <c r="C160" t="n">
-        <v>0.531</v>
+        <v>0.4695</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2703</v>
+        <v>0.2748</v>
       </c>
       <c r="E160" t="s">
         <v>356</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -5780,16 +5777,16 @@
         <v>80</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.4081</v>
+        <v>-0.4728</v>
       </c>
       <c r="D161" t="n">
-        <v>-2.3336</v>
+        <v>-2.3424</v>
       </c>
       <c r="E161" t="s">
         <v>358</v>
       </c>
       <c r="F161" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162">
@@ -5800,16 +5797,16 @@
         <v>83</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.2659</v>
+        <v>-0.33</v>
       </c>
       <c r="D162" t="n">
-        <v>1.0162</v>
+        <v>1.0218</v>
       </c>
       <c r="E162" t="s">
         <v>360</v>
       </c>
       <c r="F162" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163">
@@ -5820,16 +5817,16 @@
         <v>32</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1594</v>
+        <v>0.0965</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.5938</v>
+        <v>-0.5947</v>
       </c>
       <c r="E163" t="s">
         <v>362</v>
       </c>
       <c r="F163" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164">
@@ -5840,10 +5837,10 @@
         <v>27</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.872</v>
+        <v>-0.9382</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.4866</v>
+        <v>-0.4877</v>
       </c>
       <c r="E164" t="s">
         <v>364</v>
@@ -5860,16 +5857,16 @@
         <v>124</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.1511</v>
+        <v>-2.2215</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3944</v>
+        <v>0.398</v>
       </c>
       <c r="E165" t="s">
         <v>366</v>
       </c>
       <c r="F165" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166">
@@ -5880,10 +5877,10 @@
         <v>124</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.1117</v>
+        <v>-1.1786</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.5249</v>
+        <v>-1.5291</v>
       </c>
       <c r="E166" t="s">
         <v>368</v>
@@ -5900,10 +5897,10 @@
         <v>96</v>
       </c>
       <c r="C167" t="n">
-        <v>1.0129</v>
+        <v>0.9529</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1438</v>
+        <v>0.1475</v>
       </c>
       <c r="E167" t="s">
         <v>370</v>
@@ -5920,16 +5917,16 @@
         <v>19</v>
       </c>
       <c r="C168" t="n">
-        <v>1.1966</v>
+        <v>1.1371</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.684</v>
+        <v>-0.6882</v>
       </c>
       <c r="E168" t="s">
         <v>372</v>
       </c>
       <c r="F168" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
@@ -5940,16 +5937,16 @@
         <v>27</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1377</v>
+        <v>0.0748</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.5332</v>
+        <v>-0.5354</v>
       </c>
       <c r="E169" t="s">
         <v>374</v>
       </c>
       <c r="F169" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170">
@@ -5960,16 +5957,16 @@
         <v>66</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.4776</v>
+        <v>-1.5458</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.6282</v>
+        <v>-1.6331</v>
       </c>
       <c r="E170" t="s">
         <v>376</v>
       </c>
       <c r="F170" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171">
@@ -5980,16 +5977,16 @@
         <v>293</v>
       </c>
       <c r="C171" t="n">
-        <v>1.0491</v>
+        <v>0.9892</v>
       </c>
       <c r="D171" t="n">
-        <v>1.8602</v>
+        <v>1.8713</v>
       </c>
       <c r="E171" t="s">
         <v>378</v>
       </c>
       <c r="F171" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -6000,16 +5997,16 @@
         <v>27</v>
       </c>
       <c r="C172" t="n">
-        <v>1.8293</v>
+        <v>1.7718</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.425</v>
+        <v>-0.4234</v>
       </c>
       <c r="E172" t="s">
         <v>380</v>
       </c>
       <c r="F172" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="173">
@@ -6020,10 +6017,10 @@
         <v>177</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2303</v>
+        <v>-0.2943</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0132</v>
+        <v>0.0165</v>
       </c>
       <c r="E173" t="s">
         <v>382</v>
@@ -6040,16 +6037,16 @@
         <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.0245</v>
+        <v>-0.0879</v>
       </c>
       <c r="D174" t="n">
-        <v>1.1418</v>
+        <v>1.1512</v>
       </c>
       <c r="E174" t="s">
         <v>384</v>
       </c>
       <c r="F174" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175">
@@ -6060,16 +6057,16 @@
         <v>131</v>
       </c>
       <c r="C175" t="n">
-        <v>1.0486</v>
+        <v>0.9887</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9593</v>
+        <v>0.9643</v>
       </c>
       <c r="E175" t="s">
         <v>386</v>
       </c>
       <c r="F175" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="176">
@@ -6080,16 +6077,16 @@
         <v>140</v>
       </c>
       <c r="C176" t="n">
-        <v>0.352</v>
+        <v>0.2898</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.3365</v>
+        <v>-0.3366</v>
       </c>
       <c r="E176" t="s">
         <v>388</v>
       </c>
       <c r="F176" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177">
@@ -6100,16 +6097,16 @@
         <v>73</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.4569</v>
+        <v>-0.5216</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.686</v>
+        <v>-0.6874</v>
       </c>
       <c r="E177" t="s">
         <v>390</v>
       </c>
       <c r="F177" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178">
@@ -6120,16 +6117,16 @@
         <v>13</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.244</v>
+        <v>0.1975</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6448</v>
+        <v>0.5289</v>
       </c>
       <c r="E178" t="s">
         <v>392</v>
       </c>
       <c r="F178" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179">
@@ -6140,10 +6137,10 @@
         <v>293</v>
       </c>
       <c r="C179" t="n">
-        <v>1.6258</v>
+        <v>1.5678</v>
       </c>
       <c r="D179" t="n">
-        <v>1.8428</v>
+        <v>1.8533</v>
       </c>
       <c r="E179" t="s">
         <v>394</v>
@@ -6160,16 +6157,16 @@
         <v>293</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.414</v>
+        <v>-0.0586</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.174</v>
+        <v>-0.1648</v>
       </c>
       <c r="E180" t="s">
         <v>396</v>
       </c>
       <c r="F180" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
@@ -6180,16 +6177,16 @@
         <v>19</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.6874</v>
+        <v>-0.753</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2471</v>
+        <v>0.2517</v>
       </c>
       <c r="E181" t="s">
         <v>398</v>
       </c>
       <c r="F181" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182">
@@ -6200,16 +6197,16 @@
         <v>151</v>
       </c>
       <c r="C182" t="n">
-        <v>0.436</v>
+        <v>0.3741</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.0658</v>
+        <v>-1.0672</v>
       </c>
       <c r="E182" t="s">
         <v>400</v>
       </c>
       <c r="F182" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183">
@@ -6220,16 +6217,16 @@
         <v>293</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.1872</v>
+        <v>0.1546</v>
       </c>
       <c r="D183" t="n">
-        <v>1.3292</v>
+        <v>1.3438</v>
       </c>
       <c r="E183" t="s">
         <v>402</v>
       </c>
       <c r="F183" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184">
@@ -6240,16 +6237,16 @@
         <v>24</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.1502</v>
+        <v>0.1773</v>
       </c>
       <c r="D184" t="n">
-        <v>1.7873</v>
+        <v>1.7954</v>
       </c>
       <c r="E184" t="s">
         <v>404</v>
       </c>
       <c r="F184" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -6260,16 +6257,16 @@
         <v>16</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.1637</v>
+        <v>-1.2309</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.6741</v>
+        <v>-0.6743</v>
       </c>
       <c r="E185" t="s">
         <v>406</v>
       </c>
       <c r="F185" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186">
@@ -6280,16 +6277,16 @@
         <v>24</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.1006</v>
+        <v>0.2129</v>
       </c>
       <c r="D186" t="n">
-        <v>1.1437</v>
+        <v>1.0859</v>
       </c>
       <c r="E186" t="s">
         <v>408</v>
       </c>
       <c r="F186" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187">
@@ -6300,16 +6297,16 @@
         <v>102</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.0683</v>
+        <v>-0.1319</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.7303</v>
+        <v>-0.7333</v>
       </c>
       <c r="E187" t="s">
         <v>410</v>
       </c>
       <c r="F187" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188">
@@ -6320,16 +6317,16 @@
         <v>80</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3658</v>
+        <v>0.3037</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1054</v>
+        <v>-0.1055</v>
       </c>
       <c r="E188" t="s">
         <v>412</v>
       </c>
       <c r="F188" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189">
@@ -6340,10 +6337,10 @@
         <v>24</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.9277</v>
+        <v>-1.9971</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.016</v>
+        <v>-0.0119</v>
       </c>
       <c r="E189" t="s">
         <v>414</v>
@@ -6360,16 +6357,16 @@
         <v>124</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.503</v>
+        <v>-0.568</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0941</v>
+        <v>0.0964</v>
       </c>
       <c r="E190" t="s">
         <v>416</v>
       </c>
       <c r="F190" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="191">
@@ -6380,16 +6377,16 @@
         <v>211</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.6136</v>
+        <v>-0.6788</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.8924</v>
+        <v>-0.8926</v>
       </c>
       <c r="E191" t="s">
         <v>418</v>
       </c>
       <c r="F191" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="192">
@@ -6400,16 +6397,16 @@
         <v>211</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.0521</v>
+        <v>-0.1155</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.3982</v>
+        <v>-0.398</v>
       </c>
       <c r="E192" t="s">
         <v>420</v>
       </c>
       <c r="F192" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193">
@@ -6420,10 +6417,10 @@
         <v>55</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2945</v>
+        <v>0.232</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3961</v>
+        <v>0.3997</v>
       </c>
       <c r="E193" t="s">
         <v>422</v>
@@ -6440,16 +6437,16 @@
         <v>66</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.1258</v>
+        <v>-0.1897</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1015</v>
+        <v>0.1038</v>
       </c>
       <c r="E194" t="s">
         <v>424</v>
       </c>
       <c r="F194" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195">
@@ -6460,16 +6457,16 @@
         <v>89</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.6727</v>
+        <v>-0.7382</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.2849</v>
+        <v>-0.2825</v>
       </c>
       <c r="E195" t="s">
         <v>426</v>
       </c>
       <c r="F195" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196">
@@ -6480,10 +6477,10 @@
         <v>55</v>
       </c>
       <c r="C196" t="n">
-        <v>0.4541</v>
+        <v>0.3924</v>
       </c>
       <c r="D196" t="n">
-        <v>1.2601</v>
+        <v>1.2655</v>
       </c>
       <c r="E196" t="s">
         <v>428</v>
@@ -6500,16 +6497,16 @@
         <v>32</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.9219</v>
+        <v>-1.9914</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1753</v>
+        <v>0.1804</v>
       </c>
       <c r="E197" t="s">
         <v>430</v>
       </c>
       <c r="F197" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198">
@@ -6520,16 +6517,16 @@
         <v>186</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9847</v>
+        <v>0.9246</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.5262</v>
+        <v>-1.5303</v>
       </c>
       <c r="E198" t="s">
         <v>432</v>
       </c>
       <c r="F198" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199">
@@ -6540,10 +6537,10 @@
         <v>293</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7294</v>
+        <v>0.6685</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2006</v>
+        <v>0.2005</v>
       </c>
       <c r="E199" t="s">
         <v>434</v>
@@ -6560,16 +6557,16 @@
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.5207</v>
+        <v>-0.0586</v>
       </c>
       <c r="D200" t="n">
-        <v>2.4597</v>
+        <v>2.3609</v>
       </c>
       <c r="E200" t="s">
         <v>436</v>
       </c>
       <c r="F200" t="n">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="201">
@@ -6580,16 +6577,16 @@
         <v>10</v>
       </c>
       <c r="C201" t="n">
-        <v>1.0421</v>
+        <v>0.9822</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.209</v>
+        <v>-0.2088</v>
       </c>
       <c r="E201" t="s">
         <v>438</v>
       </c>
       <c r="F201" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202">
@@ -6600,10 +6597,10 @@
         <v>27</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.8727</v>
+        <v>-1.942</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.3209</v>
+        <v>-1.3228</v>
       </c>
       <c r="E202" t="s">
         <v>440</v>
@@ -6620,16 +6617,16 @@
         <v>102</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9358</v>
+        <v>0.8756</v>
       </c>
       <c r="D203" t="n">
-        <v>1.3082</v>
+        <v>1.3167</v>
       </c>
       <c r="E203" t="s">
         <v>442</v>
       </c>
       <c r="F203" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204">
@@ -6640,16 +6637,16 @@
         <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3238</v>
+        <v>0.6742</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1238</v>
+        <v>-0.0198</v>
       </c>
       <c r="E204" t="s">
         <v>444</v>
       </c>
       <c r="F204" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205">
@@ -6660,16 +6657,16 @@
         <v>7</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.034</v>
+        <v>-1.1007</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9572</v>
+        <v>0.9613</v>
       </c>
       <c r="E205" t="s">
         <v>446</v>
       </c>
       <c r="F205" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206">
@@ -6680,16 +6677,16 @@
         <v>124</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1378</v>
+        <v>0.5877</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.6029</v>
+        <v>-0.7148</v>
       </c>
       <c r="E206" t="s">
         <v>448</v>
       </c>
       <c r="F206" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207">
@@ -6700,16 +6697,16 @@
         <v>7</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1306</v>
+        <v>0.0677</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.5164</v>
+        <v>-0.5172</v>
       </c>
       <c r="E207" t="s">
         <v>450</v>
       </c>
       <c r="F207" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208">
@@ -6720,16 +6717,16 @@
         <v>226</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4216</v>
+        <v>0.3596</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.4582</v>
+        <v>-1.4631</v>
       </c>
       <c r="E208" t="s">
         <v>452</v>
       </c>
       <c r="F208" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209">
@@ -6740,16 +6737,16 @@
         <v>66</v>
       </c>
       <c r="C209" t="n">
-        <v>1.2097</v>
+        <v>1.1502</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1774</v>
+        <v>-0.176</v>
       </c>
       <c r="E209" t="s">
         <v>454</v>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210">
@@ -6760,16 +6757,16 @@
         <v>226</v>
       </c>
       <c r="C210" t="n">
-        <v>0.008</v>
+        <v>-0.0554</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.882</v>
+        <v>-0.8832</v>
       </c>
       <c r="E210" t="s">
         <v>456</v>
       </c>
       <c r="F210" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211">
@@ -6780,16 +6777,16 @@
         <v>121</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.3342</v>
+        <v>-1.4019</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0306</v>
+        <v>0.0332</v>
       </c>
       <c r="E211" t="s">
         <v>458</v>
       </c>
       <c r="F211" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="212">
@@ -6800,10 +6797,10 @@
         <v>66</v>
       </c>
       <c r="C212" t="n">
-        <v>0.2312</v>
+        <v>0.1686</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.686</v>
+        <v>-0.6873</v>
       </c>
       <c r="E212" t="s">
         <v>460</v>
@@ -6820,16 +6817,16 @@
         <v>66</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0962</v>
+        <v>0.0332</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7397</v>
+        <v>0.7454</v>
       </c>
       <c r="E213" t="s">
         <v>462</v>
       </c>
       <c r="F213" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214">
@@ -6840,10 +6837,10 @@
         <v>140</v>
       </c>
       <c r="C214" t="n">
-        <v>1.297</v>
+        <v>1.2379</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6088</v>
+        <v>0.6109</v>
       </c>
       <c r="E214" t="s">
         <v>464</v>
@@ -6860,16 +6857,16 @@
         <v>73</v>
       </c>
       <c r="C215" t="n">
-        <v>1.3982</v>
+        <v>1.3395</v>
       </c>
       <c r="D215" t="n">
-        <v>2.0858</v>
+        <v>2.096</v>
       </c>
       <c r="E215" t="s">
         <v>466</v>
       </c>
       <c r="F215" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216">
@@ -6880,16 +6877,16 @@
         <v>158</v>
       </c>
       <c r="C216" t="n">
-        <v>1.1687</v>
+        <v>1.1091</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3237</v>
+        <v>0.3299</v>
       </c>
       <c r="E216" t="s">
         <v>468</v>
       </c>
       <c r="F216" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217">
@@ -6900,10 +6897,10 @@
         <v>73</v>
       </c>
       <c r="C217" t="n">
-        <v>2.2001</v>
+        <v>2.1439</v>
       </c>
       <c r="D217" t="n">
-        <v>1.357</v>
+        <v>1.3517</v>
       </c>
       <c r="E217" t="s">
         <v>470</v>
@@ -6920,16 +6917,16 @@
         <v>186</v>
       </c>
       <c r="C218" t="n">
-        <v>0.7211</v>
+        <v>0.6602</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.6769</v>
+        <v>-1.6811</v>
       </c>
       <c r="E218" t="s">
         <v>472</v>
       </c>
       <c r="F218" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219">
@@ -6940,16 +6937,16 @@
         <v>186</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9622</v>
+        <v>0.902</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.1787</v>
+        <v>-1.1818</v>
       </c>
       <c r="E219" t="s">
         <v>474</v>
       </c>
       <c r="F219" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220">
@@ -6960,16 +6957,16 @@
         <v>226</v>
       </c>
       <c r="C220" t="n">
-        <v>1.7287</v>
+        <v>1.6708</v>
       </c>
       <c r="D220" t="n">
-        <v>0.7661</v>
+        <v>0.7725</v>
       </c>
       <c r="E220" t="s">
         <v>476</v>
       </c>
       <c r="F220" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="221">
@@ -6980,10 +6977,10 @@
         <v>19</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5162</v>
+        <v>0.4547</v>
       </c>
       <c r="D221" t="n">
-        <v>0.7545</v>
+        <v>0.7596</v>
       </c>
       <c r="E221" t="s">
         <v>478</v>
@@ -7000,10 +6997,10 @@
         <v>158</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5091</v>
+        <v>0.4475</v>
       </c>
       <c r="D222" t="n">
-        <v>-1.7822</v>
+        <v>-1.7883</v>
       </c>
       <c r="E222" t="s">
         <v>480</v>
@@ -7020,16 +7017,16 @@
         <v>211</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.9694</v>
+        <v>-1.0358</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.2234</v>
+        <v>-1.2271</v>
       </c>
       <c r="E223" t="s">
         <v>482</v>
       </c>
       <c r="F223" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="224">
@@ -7040,16 +7037,16 @@
         <v>211</v>
       </c>
       <c r="C224" t="n">
-        <v>0.978</v>
+        <v>0.9179</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.0649</v>
+        <v>-0.0613</v>
       </c>
       <c r="E224" t="s">
         <v>484</v>
       </c>
       <c r="F224" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225">
@@ -7060,16 +7057,16 @@
         <v>58</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2821</v>
+        <v>0.7679</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.0056</v>
+        <v>-0.2428</v>
       </c>
       <c r="E225" t="s">
         <v>486</v>
       </c>
       <c r="F225" t="n">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226">
@@ -7080,16 +7077,16 @@
         <v>80</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.8923</v>
+        <v>-0.9585</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.1399</v>
+        <v>-1.1417</v>
       </c>
       <c r="E226" t="s">
         <v>488</v>
       </c>
       <c r="F226" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227">
@@ -7100,10 +7097,10 @@
         <v>151</v>
       </c>
       <c r="C227" t="n">
-        <v>1.5959</v>
+        <v>1.5377</v>
       </c>
       <c r="D227" t="n">
-        <v>0.2778</v>
+        <v>0.2807</v>
       </c>
       <c r="E227" t="s">
         <v>490</v>
@@ -7120,16 +7117,16 @@
         <v>7</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.2697</v>
+        <v>-1.3371</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4093</v>
+        <v>0.413</v>
       </c>
       <c r="E228" t="s">
         <v>492</v>
       </c>
       <c r="F228" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="229">
@@ -7140,16 +7137,16 @@
         <v>293</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.692</v>
+        <v>-0.2376</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.1325</v>
+        <v>-0.2476</v>
       </c>
       <c r="E229" t="s">
         <v>494</v>
       </c>
       <c r="F229" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230">
@@ -7160,16 +7157,16 @@
         <v>73</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.1372</v>
+        <v>0.2333</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5769</v>
+        <v>0.7723</v>
       </c>
       <c r="E230" t="s">
         <v>496</v>
       </c>
       <c r="F230" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231">
@@ -7180,16 +7177,16 @@
         <v>151</v>
       </c>
       <c r="C231" t="n">
-        <v>1.3261</v>
+        <v>1.2671</v>
       </c>
       <c r="D231" t="n">
-        <v>-1.0141</v>
+        <v>-1.0158</v>
       </c>
       <c r="E231" t="s">
         <v>498</v>
       </c>
       <c r="F231" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232">
@@ -7200,16 +7197,16 @@
         <v>293</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.6338</v>
+        <v>-0.6991</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.1594</v>
+        <v>-0.1574</v>
       </c>
       <c r="E232" t="s">
         <v>500</v>
       </c>
       <c r="F232" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233">
@@ -7220,16 +7217,16 @@
         <v>13</v>
       </c>
       <c r="C233" t="n">
-        <v>-1.2045</v>
+        <v>-0.6947</v>
       </c>
       <c r="D233" t="n">
-        <v>0.6065</v>
+        <v>0.5503</v>
       </c>
       <c r="E233" t="s">
         <v>502</v>
       </c>
       <c r="F233" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234">
@@ -7240,16 +7237,16 @@
         <v>61</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.7705</v>
+        <v>-0.8363</v>
       </c>
       <c r="D234" t="n">
-        <v>0.4618</v>
+        <v>0.4659</v>
       </c>
       <c r="E234" t="s">
         <v>504</v>
       </c>
       <c r="F234" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235">
@@ -7260,16 +7257,16 @@
         <v>61</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.2877</v>
+        <v>-0.3519</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1013</v>
+        <v>-0.0992</v>
       </c>
       <c r="E235" t="s">
         <v>506</v>
       </c>
       <c r="F235" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236">
@@ -7280,10 +7277,10 @@
         <v>19</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0035</v>
+        <v>-0.0598</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9921</v>
+        <v>0.9977</v>
       </c>
       <c r="E236" t="s">
         <v>508</v>
@@ -7300,10 +7297,10 @@
         <v>186</v>
       </c>
       <c r="C237" t="n">
-        <v>1.4086</v>
+        <v>1.3498</v>
       </c>
       <c r="D237" t="n">
-        <v>0.226</v>
+        <v>0.231</v>
       </c>
       <c r="E237" t="s">
         <v>510</v>
@@ -7320,16 +7317,16 @@
         <v>38</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.7976</v>
+        <v>-0.8634</v>
       </c>
       <c r="D238" t="n">
-        <v>1.2358</v>
+        <v>1.243</v>
       </c>
       <c r="E238" t="s">
         <v>512</v>
       </c>
       <c r="F238" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239">
@@ -7340,16 +7337,16 @@
         <v>38</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.4785</v>
+        <v>-0.5433</v>
       </c>
       <c r="D239" t="n">
-        <v>0.6407</v>
+        <v>0.6437</v>
       </c>
       <c r="E239" t="s">
         <v>514</v>
       </c>
       <c r="F239" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="240">
@@ -7360,10 +7357,10 @@
         <v>83</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9049</v>
+        <v>0.8444</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.5377</v>
+        <v>-0.5374</v>
       </c>
       <c r="E240" t="s">
         <v>516</v>
@@ -7380,16 +7377,16 @@
         <v>293</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.5441</v>
+        <v>-0.6092</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4589</v>
+        <v>0.4617</v>
       </c>
       <c r="E241" t="s">
         <v>518</v>
       </c>
       <c r="F241" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="242">
@@ -7400,16 +7397,16 @@
         <v>86</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.6989</v>
+        <v>-0.7644</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.952</v>
+        <v>-0.9542</v>
       </c>
       <c r="E242" t="s">
         <v>520</v>
       </c>
       <c r="F242" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243">
@@ -7420,16 +7417,16 @@
         <v>83</v>
       </c>
       <c r="C243" t="n">
-        <v>1.3104</v>
+        <v>1.2513</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.1586</v>
+        <v>-1.1624</v>
       </c>
       <c r="E243" t="s">
         <v>522</v>
       </c>
       <c r="F243" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="244">
@@ -7440,16 +7437,16 @@
         <v>73</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0609</v>
+        <v>0.4533</v>
       </c>
       <c r="D244" t="n">
-        <v>0.8331</v>
+        <v>0.809</v>
       </c>
       <c r="E244" t="s">
         <v>524</v>
       </c>
       <c r="F244" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -7460,16 +7457,16 @@
         <v>211</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.1594</v>
+        <v>-0.2232</v>
       </c>
       <c r="D245" t="n">
-        <v>2.5681</v>
+        <v>2.5796</v>
       </c>
       <c r="E245" t="s">
         <v>526</v>
       </c>
       <c r="F245" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="246">
@@ -7480,16 +7477,16 @@
         <v>83</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0449</v>
+        <v>-0.0184</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.634</v>
+        <v>-1.6389</v>
       </c>
       <c r="E246" t="s">
         <v>528</v>
       </c>
       <c r="F246" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="247">
@@ -7500,10 +7497,10 @@
         <v>16</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.7646</v>
+        <v>-0.8305</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.258</v>
+        <v>-0.2582</v>
       </c>
       <c r="E247" t="s">
         <v>530</v>
@@ -7520,16 +7517,16 @@
         <v>121</v>
       </c>
       <c r="C248" t="n">
-        <v>1.8578</v>
+        <v>1.8004</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.2296</v>
+        <v>-1.2333</v>
       </c>
       <c r="E248" t="s">
         <v>532</v>
       </c>
       <c r="F248" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249">
@@ -7540,16 +7537,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.7091</v>
+        <v>-2.781</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.8132</v>
+        <v>-0.8145</v>
       </c>
       <c r="E249" t="s">
         <v>534</v>
       </c>
       <c r="F249" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250">
@@ -7560,16 +7557,16 @@
         <v>96</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.2088</v>
+        <v>-0.2728</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9739</v>
+        <v>0.9797</v>
       </c>
       <c r="E250" t="s">
         <v>536</v>
       </c>
       <c r="F250" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="251">
@@ -7580,16 +7577,16 @@
         <v>293</v>
       </c>
       <c r="C251" t="n">
-        <v>0.3042</v>
+        <v>0.242</v>
       </c>
       <c r="D251" t="n">
-        <v>1.6533</v>
+        <v>1.6614</v>
       </c>
       <c r="E251" t="s">
         <v>538</v>
       </c>
       <c r="F251" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252">
@@ -7600,10 +7597,10 @@
         <v>124</v>
       </c>
       <c r="C252" t="n">
-        <v>-1.2677</v>
+        <v>-1.335</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1463</v>
+        <v>0.1499</v>
       </c>
       <c r="E252" t="s">
         <v>540</v>
@@ -7620,10 +7617,10 @@
         <v>121</v>
       </c>
       <c r="C253" t="n">
-        <v>0.8283</v>
+        <v>0.7677</v>
       </c>
       <c r="D253" t="n">
-        <v>0.08</v>
+        <v>0.0819</v>
       </c>
       <c r="E253" t="s">
         <v>542</v>
@@ -7640,16 +7637,16 @@
         <v>177</v>
       </c>
       <c r="C254" t="n">
-        <v>-1.1044</v>
+        <v>-1.1712</v>
       </c>
       <c r="D254" t="n">
-        <v>0.8097</v>
+        <v>0.8139</v>
       </c>
       <c r="E254" t="s">
         <v>544</v>
       </c>
       <c r="F254" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="255">
@@ -7660,16 +7657,16 @@
         <v>19</v>
       </c>
       <c r="C255" t="n">
-        <v>0.4652</v>
+        <v>0.4034</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.7396</v>
+        <v>-0.7395</v>
       </c>
       <c r="E255" t="s">
         <v>546</v>
       </c>
       <c r="F255" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256">
@@ -7680,10 +7677,10 @@
         <v>177</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.7274</v>
+        <v>-0.793</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.923</v>
+        <v>-1.9316</v>
       </c>
       <c r="E256" t="s">
         <v>548</v>
@@ -7700,16 +7697,16 @@
         <v>124</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.3224</v>
+        <v>-0.3868</v>
       </c>
       <c r="D257" t="n">
-        <v>0.1418</v>
+        <v>0.1427</v>
       </c>
       <c r="E257" t="s">
         <v>550</v>
       </c>
       <c r="F257" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258">
@@ -7720,16 +7717,16 @@
         <v>89</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.3093</v>
+        <v>-0.3736</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.0394</v>
+        <v>-0.0387</v>
       </c>
       <c r="E258" t="s">
         <v>552</v>
       </c>
       <c r="F258" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="259">
@@ -7740,16 +7737,16 @@
         <v>293</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.0765</v>
+        <v>-1.1433</v>
       </c>
       <c r="D259" t="n">
-        <v>1.4481</v>
+        <v>1.4561</v>
       </c>
       <c r="E259" t="s">
         <v>554</v>
       </c>
       <c r="F259" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260">
@@ -7760,16 +7757,16 @@
         <v>211</v>
       </c>
       <c r="C260" t="n">
-        <v>-2.2834</v>
+        <v>-2.354</v>
       </c>
       <c r="D260" t="n">
-        <v>0.3125</v>
+        <v>0.3145</v>
       </c>
       <c r="E260" t="s">
         <v>556</v>
       </c>
       <c r="F260" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="261">
@@ -7780,16 +7777,16 @@
         <v>89</v>
       </c>
       <c r="C261" t="n">
-        <v>1.2542</v>
+        <v>1.1949</v>
       </c>
       <c r="D261" t="n">
-        <v>0.6535</v>
+        <v>0.6599</v>
       </c>
       <c r="E261" t="s">
         <v>558</v>
       </c>
       <c r="F261" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="262">
@@ -7800,16 +7797,16 @@
         <v>89</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.621</v>
+        <v>-0.6863</v>
       </c>
       <c r="D262" t="n">
-        <v>1.0472</v>
+        <v>1.0538</v>
       </c>
       <c r="E262" t="s">
         <v>560</v>
       </c>
       <c r="F262" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263">
@@ -7820,16 +7817,16 @@
         <v>177</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.7708</v>
+        <v>-0.8366</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.6816</v>
+        <v>-1.6878</v>
       </c>
       <c r="E263" t="s">
         <v>562</v>
       </c>
       <c r="F263" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="264">
@@ -7840,16 +7837,16 @@
         <v>177</v>
       </c>
       <c r="C264" t="n">
-        <v>-1.0978</v>
+        <v>-1.1646</v>
       </c>
       <c r="D264" t="n">
-        <v>1.1447</v>
+        <v>1.1499</v>
       </c>
       <c r="E264" t="s">
         <v>564</v>
       </c>
       <c r="F264" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265">
@@ -7860,16 +7857,16 @@
         <v>83</v>
       </c>
       <c r="C265" t="n">
-        <v>1.2624</v>
+        <v>1.2033</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.0622</v>
+        <v>-0.0399</v>
       </c>
       <c r="E265" t="s">
         <v>566</v>
       </c>
       <c r="F265" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266">
@@ -7880,153 +7877,153 @@
         <v>124</v>
       </c>
       <c r="C266" t="n">
-        <v>-1.965</v>
+        <v>-1.5074</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4111</v>
+        <v>0.4726</v>
       </c>
       <c r="E266" t="s">
-        <v>568</v>
+        <v>30</v>
       </c>
       <c r="F266" t="n">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.5288</v>
+        <v>-0.5938</v>
       </c>
       <c r="D267" t="n">
-        <v>0.342</v>
+        <v>0.3437</v>
       </c>
       <c r="E267" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F267" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B268" t="s">
         <v>140</v>
       </c>
       <c r="C268" t="n">
-        <v>1.3391</v>
+        <v>1.28</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1079</v>
+        <v>0.11</v>
       </c>
       <c r="E268" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F268" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B269" t="s">
         <v>10</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.506</v>
+        <v>-0.1296</v>
       </c>
       <c r="D269" t="n">
-        <v>0.299</v>
+        <v>0.0899</v>
       </c>
       <c r="E269" t="s">
-        <v>574</v>
+        <v>117</v>
       </c>
       <c r="F269" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B270" t="s">
         <v>83</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9559</v>
+        <v>0.8956</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.7105</v>
+        <v>-0.7106</v>
       </c>
       <c r="E270" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F270" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B271" t="s">
         <v>83</v>
       </c>
       <c r="C271" t="n">
-        <v>0.6943</v>
+        <v>0.6333</v>
       </c>
       <c r="D271" t="n">
-        <v>0.9232</v>
+        <v>0.9288</v>
       </c>
       <c r="E271" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F271" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B272" t="s">
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.7092</v>
+        <v>-1.778</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.053</v>
+        <v>-0.0474</v>
       </c>
       <c r="E272" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F272" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B273" t="s">
         <v>83</v>
       </c>
       <c r="C273" t="n">
-        <v>0.3582</v>
+        <v>0.296</v>
       </c>
       <c r="D273" t="n">
         <v>-0.8907</v>
       </c>
       <c r="E273" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F273" t="n">
         <v>107</v>
@@ -8034,19 +8031,19 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B274" t="s">
         <v>66</v>
       </c>
       <c r="C274" t="n">
-        <v>0.066</v>
+        <v>0.0027</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.4324</v>
+        <v>-0.432</v>
       </c>
       <c r="E274" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F274" t="n">
         <v>253</v>
@@ -8054,39 +8051,39 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B275" t="s">
         <v>102</v>
       </c>
       <c r="C275" t="n">
-        <v>1.3888</v>
+        <v>1.3299</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0418</v>
+        <v>0.0448</v>
       </c>
       <c r="E275" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F275" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B276" t="s">
         <v>96</v>
       </c>
       <c r="C276" t="n">
-        <v>0.4868</v>
+        <v>0.425</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.3037</v>
+        <v>-0.3039</v>
       </c>
       <c r="E276" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F276" t="n">
         <v>34</v>
@@ -8094,259 +8091,259 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B277" t="s">
         <v>124</v>
       </c>
       <c r="C277" t="n">
-        <v>-1.3808</v>
+        <v>-1.4485</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.9097</v>
+        <v>-0.9115</v>
       </c>
       <c r="E277" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F277" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B278" t="s">
         <v>35</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1738</v>
+        <v>0.111</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.2508</v>
+        <v>-0.2499</v>
       </c>
       <c r="E278" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F278" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B279" t="s">
         <v>66</v>
       </c>
       <c r="C279" t="n">
-        <v>0.4564</v>
+        <v>0.3945</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1955</v>
+        <v>0.2006</v>
       </c>
       <c r="E279" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F279" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B280" t="s">
         <v>121</v>
       </c>
       <c r="C280" t="n">
-        <v>0.4778</v>
+        <v>0.4159</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.4004</v>
+        <v>-0.4001</v>
       </c>
       <c r="E280" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F280" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B281" t="s">
         <v>24</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.6497</v>
+        <v>-0.1453</v>
       </c>
       <c r="D281" t="n">
-        <v>0.986</v>
+        <v>1.1151</v>
       </c>
       <c r="E281" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F281" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B282" t="s">
         <v>186</v>
       </c>
       <c r="C282" t="n">
-        <v>2.9383</v>
+        <v>2.8844</v>
       </c>
       <c r="D282" t="n">
-        <v>-1.343</v>
+        <v>-1.3463</v>
       </c>
       <c r="E282" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F282" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B283" t="s">
         <v>186</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.6006</v>
+        <v>-0.6659</v>
       </c>
       <c r="D283" t="n">
-        <v>-1.404</v>
+        <v>-1.4082</v>
       </c>
       <c r="E283" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F283" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B284" t="s">
         <v>131</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.2449</v>
+        <v>0.0753</v>
       </c>
       <c r="D284" t="n">
-        <v>1.7438</v>
+        <v>1.7208</v>
       </c>
       <c r="E284" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F284" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B285" t="s">
         <v>55</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.0467</v>
+        <v>-0.1102</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.4671</v>
+        <v>-0.4661</v>
       </c>
       <c r="E285" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F285" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.5676</v>
+        <v>-1.636</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.1502</v>
+        <v>-0.148</v>
       </c>
       <c r="E286" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F286" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B287" t="s">
         <v>38</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2811</v>
+        <v>0.2187</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.39</v>
+        <v>-0.3902</v>
       </c>
       <c r="E287" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F287" t="n">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B288" t="s">
         <v>55</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.2599</v>
+        <v>-0.3241</v>
       </c>
       <c r="D288" t="n">
-        <v>0.0414</v>
+        <v>0.0436</v>
       </c>
       <c r="E288" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F288" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B289" t="s">
         <v>80</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.5576</v>
+        <v>-0.6227</v>
       </c>
       <c r="D289" t="n">
-        <v>0.5925</v>
+        <v>0.5971</v>
       </c>
       <c r="E289" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F289" t="n">
         <v>126</v>
@@ -8354,59 +8351,59 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B290" t="s">
         <v>131</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.2505</v>
+        <v>-0.3145</v>
       </c>
       <c r="D290" t="n">
-        <v>1.8386</v>
+        <v>1.8478</v>
       </c>
       <c r="E290" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F290" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B291" t="s">
         <v>19</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.1381</v>
+        <v>-0.2019</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.7238</v>
+        <v>-0.7274</v>
       </c>
       <c r="E291" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F291" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B292" t="s">
         <v>211</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.7916</v>
+        <v>-0.8574</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.8761</v>
+        <v>-0.8777</v>
       </c>
       <c r="E292" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F292" t="n">
         <v>255</v>
@@ -8420,13 +8417,13 @@
         <v>16</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.6228</v>
+        <v>-0.6882</v>
       </c>
       <c r="D293" t="n">
-        <v>0.4821</v>
+        <v>0.4876</v>
       </c>
       <c r="E293" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F293" t="n">
         <v>305</v>
@@ -8434,119 +8431,119 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B294" t="s">
         <v>177</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.0057</v>
+        <v>-1.0722</v>
       </c>
       <c r="D294" t="n">
-        <v>0.3184</v>
+        <v>0.3216</v>
       </c>
       <c r="E294" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F294" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B295" t="s">
         <v>89</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0172</v>
+        <v>-0.0461</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0215</v>
+        <v>0.0243</v>
       </c>
       <c r="E295" t="s">
-        <v>47</v>
+        <v>623</v>
       </c>
       <c r="F295" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B296" t="s">
         <v>96</v>
       </c>
       <c r="C296" t="n">
-        <v>1.4251</v>
+        <v>1.3664</v>
       </c>
       <c r="D296" t="n">
-        <v>-1.539</v>
+        <v>-1.5464</v>
       </c>
       <c r="E296" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F296" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B297" t="s">
         <v>38</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.3732</v>
+        <v>-0.4377</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0738</v>
+        <v>0.0768</v>
       </c>
       <c r="E297" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F297" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.325</v>
+        <v>-1.3925</v>
       </c>
       <c r="D298" t="n">
-        <v>1.4021</v>
+        <v>1.4107</v>
       </c>
       <c r="E298" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F298" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B299" t="s">
         <v>226</v>
       </c>
       <c r="C299" t="n">
-        <v>0.2365</v>
+        <v>0.1738</v>
       </c>
       <c r="D299" t="n">
-        <v>0.3945</v>
+        <v>0.398</v>
       </c>
       <c r="E299" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F299" t="n">
         <v>337</v>
@@ -8554,59 +8551,59 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B300" t="s">
         <v>27</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1455</v>
+        <v>0.0826</v>
       </c>
       <c r="D300" t="n">
-        <v>1.5949</v>
+        <v>1.6047</v>
       </c>
       <c r="E300" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F300" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B301" t="s">
         <v>73</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.5145</v>
+        <v>-0.5794</v>
       </c>
       <c r="D301" t="n">
-        <v>1.1636</v>
+        <v>1.1681</v>
       </c>
       <c r="E301" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F301" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B302" t="s">
         <v>131</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.0741</v>
+        <v>-0.1376</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.5767</v>
+        <v>-0.58</v>
       </c>
       <c r="E302" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F302" t="n">
         <v>42</v>
@@ -8614,59 +8611,59 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B303" t="s">
         <v>55</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.415</v>
+        <v>-0.4797</v>
       </c>
       <c r="D303" t="n">
-        <v>0.4424</v>
+        <v>0.4456</v>
       </c>
       <c r="E303" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F303" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B304" t="s">
         <v>55</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.4378</v>
+        <v>-0.5026</v>
       </c>
       <c r="D304" t="n">
-        <v>0.006</v>
+        <v>0.0078</v>
       </c>
       <c r="E304" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F304" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B305" t="s">
         <v>55</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.3391</v>
+        <v>-0.4036</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.1383</v>
+        <v>-0.1373</v>
       </c>
       <c r="E305" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F305" t="n">
         <v>259</v>
@@ -8674,19 +8671,19 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B306" t="s">
         <v>24</v>
       </c>
       <c r="C306" t="n">
-        <v>0.7103</v>
+        <v>0.6494</v>
       </c>
       <c r="D306" t="n">
-        <v>1.4404</v>
+        <v>1.4482</v>
       </c>
       <c r="E306" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F306" t="n">
         <v>5</v>
@@ -8694,59 +8691,59 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.1408</v>
+        <v>-1.2078</v>
       </c>
       <c r="D307" t="n">
-        <v>0.6863</v>
+        <v>0.6913</v>
       </c>
       <c r="E307" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F307" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B308" t="s">
         <v>24</v>
       </c>
       <c r="C308" t="n">
-        <v>-1.4164</v>
+        <v>-0.9714</v>
       </c>
       <c r="D308" t="n">
-        <v>1.3508</v>
+        <v>1.3736</v>
       </c>
       <c r="E308" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F308" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B309" t="s">
         <v>35</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.7935</v>
+        <v>-0.8594</v>
       </c>
       <c r="D309" t="n">
-        <v>0.1135</v>
+        <v>0.116</v>
       </c>
       <c r="E309" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F309" t="n">
         <v>162</v>
@@ -8754,19 +8751,19 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B310" t="s">
         <v>61</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.1577</v>
+        <v>-0.2214</v>
       </c>
       <c r="D310" t="n">
-        <v>0.5852</v>
+        <v>0.5893</v>
       </c>
       <c r="E310" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F310" t="n">
         <v>72</v>
@@ -8774,19 +8771,19 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B311" t="s">
         <v>19</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.6452</v>
+        <v>-1.7138</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.7813</v>
+        <v>-0.7587</v>
       </c>
       <c r="E311" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F311" t="n">
         <v>290</v>
@@ -8794,39 +8791,39 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B312" t="s">
         <v>102</v>
       </c>
       <c r="C312" t="n">
-        <v>0.4702</v>
+        <v>0.4082</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.4937</v>
+        <v>-0.4968</v>
       </c>
       <c r="E312" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F312" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B313" t="s">
         <v>19</v>
       </c>
       <c r="C313" t="n">
-        <v>0.5781</v>
+        <v>0.5166</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.636</v>
+        <v>-0.6375</v>
       </c>
       <c r="E313" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F313" t="n">
         <v>274</v>
@@ -8834,19 +8831,19 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B314" t="s">
         <v>16</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1879</v>
+        <v>0.1252</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.2928</v>
+        <v>-0.2922</v>
       </c>
       <c r="E314" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F314" t="n">
         <v>210</v>
@@ -8854,259 +8851,259 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B315" t="s">
         <v>35</v>
       </c>
       <c r="C315" t="n">
-        <v>0.5374</v>
+        <v>0.4758</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6855</v>
+        <v>0.69</v>
       </c>
       <c r="E315" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F315" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B316" t="s">
         <v>61</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.5358</v>
+        <v>-0.2806</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4892</v>
+        <v>0.3676</v>
       </c>
       <c r="E316" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F316" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B317" t="s">
         <v>61</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.5285</v>
+        <v>-0.5935</v>
       </c>
       <c r="D317" t="n">
-        <v>0.4411</v>
+        <v>0.4446</v>
       </c>
       <c r="E317" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F317" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B318" t="s">
         <v>58</v>
       </c>
       <c r="C318" t="n">
-        <v>0.6235</v>
+        <v>1.1676</v>
       </c>
       <c r="D318" t="n">
-        <v>0.1336</v>
+        <v>0.1973</v>
       </c>
       <c r="E318" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F318" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B319" t="s">
         <v>158</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.2387</v>
+        <v>-0.3028</v>
       </c>
       <c r="D319" t="n">
-        <v>1.2575</v>
+        <v>1.2667</v>
       </c>
       <c r="E319" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F319" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B320" t="s">
         <v>35</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1538</v>
+        <v>0.091</v>
       </c>
       <c r="D320" t="n">
-        <v>0.443</v>
+        <v>0.447</v>
       </c>
       <c r="E320" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F320" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B321" t="s">
         <v>131</v>
       </c>
       <c r="C321" t="n">
-        <v>-1.5313</v>
+        <v>-1.5996</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.5162</v>
+        <v>-0.5144</v>
       </c>
       <c r="E321" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F321" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B322" t="s">
         <v>131</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.1245</v>
+        <v>-0.1882</v>
       </c>
       <c r="D322" t="n">
-        <v>-1.7371</v>
+        <v>-1.7418</v>
       </c>
       <c r="E322" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F322" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B323" t="s">
         <v>38</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2809</v>
+        <v>0.2185</v>
       </c>
       <c r="D323" t="n">
-        <v>0.905</v>
+        <v>0.9114</v>
       </c>
       <c r="E323" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F323" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B324" t="s">
         <v>10</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9781</v>
+        <v>0.918</v>
       </c>
       <c r="D324" t="n">
-        <v>1.0347</v>
+        <v>1.0406</v>
       </c>
       <c r="E324" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F324" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B325" t="s">
         <v>102</v>
       </c>
       <c r="C325" t="n">
-        <v>1.2541</v>
+        <v>1.1948</v>
       </c>
       <c r="D325" t="n">
-        <v>-1.1286</v>
+        <v>-1.1308</v>
       </c>
       <c r="E325" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F325" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B326" t="s">
         <v>38</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.6124</v>
+        <v>-0.6775</v>
       </c>
       <c r="D326" t="n">
-        <v>0.2655</v>
+        <v>0.2709</v>
       </c>
       <c r="E326" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F326" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B327" t="s">
         <v>80</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.0243</v>
+        <v>-0.0877</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.1945</v>
+        <v>-0.193</v>
       </c>
       <c r="E327" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F327" t="n">
         <v>206</v>
@@ -9114,79 +9111,79 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B328" t="s">
         <v>24</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.4427</v>
+        <v>-0.5074</v>
       </c>
       <c r="D328" t="n">
-        <v>0.2191</v>
+        <v>0.2232</v>
       </c>
       <c r="E328" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F328" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B329" t="s">
         <v>27</v>
       </c>
       <c r="C329" t="n">
-        <v>0.6084</v>
+        <v>0.5471</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.0626</v>
+        <v>-0.0611</v>
       </c>
       <c r="E329" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F329" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B330" t="s">
         <v>96</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0128</v>
+        <v>0.5194</v>
       </c>
       <c r="D330" t="n">
-        <v>0.403</v>
+        <v>0.4104</v>
       </c>
       <c r="E330" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F330" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B331" t="s">
         <v>177</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.8138</v>
+        <v>-0.8797</v>
       </c>
       <c r="D331" t="n">
-        <v>0.6054</v>
+        <v>0.609</v>
       </c>
       <c r="E331" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F331" t="n">
         <v>90</v>
@@ -9194,19 +9191,19 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B332" t="s">
         <v>140</v>
       </c>
       <c r="C332" t="n">
-        <v>0.5216</v>
+        <v>0.4599</v>
       </c>
       <c r="D332" t="n">
-        <v>-1.6837</v>
+        <v>-1.6891</v>
       </c>
       <c r="E332" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F332" t="n">
         <v>261</v>
@@ -9214,59 +9211,59 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B333" t="s">
         <v>73</v>
       </c>
       <c r="C333" t="n">
-        <v>0.369</v>
+        <v>0.307</v>
       </c>
       <c r="D333" t="n">
-        <v>0.4787</v>
+        <v>0.4816</v>
       </c>
       <c r="E333" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F333" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B334" t="s">
         <v>73</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.7529</v>
+        <v>-0.3343</v>
       </c>
       <c r="D334" t="n">
-        <v>0.3382</v>
+        <v>0.3874</v>
       </c>
       <c r="E334" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B335" t="s">
         <v>89</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.431</v>
+        <v>-1.4989</v>
       </c>
       <c r="D335" t="n">
-        <v>1.1399</v>
+        <v>1.1473</v>
       </c>
       <c r="E335" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F335" t="n">
         <v>204</v>
@@ -9274,19 +9271,19 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B336" t="s">
         <v>73</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.8552</v>
+        <v>-0.6011</v>
       </c>
       <c r="D336" t="n">
-        <v>0.8481</v>
+        <v>0.7486</v>
       </c>
       <c r="E336" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F336" t="n">
         <v>81</v>
@@ -9294,199 +9291,199 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B337" t="s">
         <v>38</v>
       </c>
       <c r="C337" t="n">
-        <v>0.3526</v>
+        <v>0.2904</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.8928</v>
+        <v>-0.8937</v>
       </c>
       <c r="E337" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F337" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B338" t="s">
         <v>38</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.4077</v>
+        <v>-0.4723</v>
       </c>
       <c r="D338" t="n">
-        <v>1.2948</v>
+        <v>1.2998</v>
       </c>
       <c r="E338" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F338" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B339" t="s">
         <v>211</v>
       </c>
       <c r="C339" t="n">
-        <v>0.8354</v>
+        <v>0.7748</v>
       </c>
       <c r="D339" t="n">
-        <v>-1.233</v>
+        <v>-1.2362</v>
       </c>
       <c r="E339" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F339" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B340" t="s">
         <v>61</v>
       </c>
       <c r="C340" t="n">
-        <v>0.366</v>
+        <v>0.3039</v>
       </c>
       <c r="D340" t="n">
-        <v>1.9692</v>
+        <v>1.981</v>
       </c>
       <c r="E340" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F340" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B341" t="s">
         <v>140</v>
       </c>
       <c r="C341" t="n">
-        <v>0.7408</v>
+        <v>0.6798</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.2459</v>
+        <v>-0.2411</v>
       </c>
       <c r="E341" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F341" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B342" t="s">
         <v>186</v>
       </c>
       <c r="C342" t="n">
-        <v>0.6138</v>
+        <v>0.5524</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.9023</v>
+        <v>-0.9047</v>
       </c>
       <c r="E342" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F342" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B343" t="s">
         <v>19</v>
       </c>
       <c r="C343" t="n">
-        <v>0.0743</v>
+        <v>0.0113</v>
       </c>
       <c r="D343" t="n">
-        <v>0.4907</v>
+        <v>0.4853</v>
       </c>
       <c r="E343" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F343" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B344" t="s">
         <v>58</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.5506</v>
+        <v>-0.0744</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.0351</v>
+        <v>-0.0062</v>
       </c>
       <c r="E344" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F344" t="n">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B345" t="s">
         <v>131</v>
       </c>
       <c r="C345" t="n">
-        <v>-1.1967</v>
+        <v>-0.9723</v>
       </c>
       <c r="D345" t="n">
-        <v>0.6222</v>
+        <v>0.6673</v>
       </c>
       <c r="E345" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F345" t="n">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B346" t="s">
         <v>158</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3307</v>
+        <v>0.2684</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.9388</v>
+        <v>-0.94</v>
       </c>
       <c r="E346" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F346" t="n">
         <v>240</v>
@@ -9494,39 +9491,39 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B347" t="s">
         <v>121</v>
       </c>
       <c r="C347" t="n">
-        <v>1.8233</v>
+        <v>1.7658</v>
       </c>
       <c r="D347" t="n">
-        <v>0.1485</v>
+        <v>0.1532</v>
       </c>
       <c r="E347" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F347" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B348" t="s">
         <v>293</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.3077</v>
+        <v>-0.3719</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.9864</v>
+        <v>-0.9894</v>
       </c>
       <c r="E348" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F348" t="n">
         <v>24</v>
@@ -9534,122 +9531,122 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B349" t="s">
         <v>140</v>
       </c>
       <c r="C349" t="n">
-        <v>1.3484</v>
+        <v>1.2895</v>
       </c>
       <c r="D349" t="n">
-        <v>1.1298</v>
+        <v>1.1359</v>
       </c>
       <c r="E349" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F349" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B350" t="s">
         <v>151</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7713</v>
+        <v>0.7105</v>
       </c>
       <c r="D350" t="n">
-        <v>0.2643</v>
+        <v>0.2678</v>
       </c>
       <c r="E350" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F350" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B351" t="s">
         <v>10</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.1631</v>
+        <v>-1.2302</v>
       </c>
       <c r="D351" t="n">
-        <v>-2.6934</v>
+        <v>-2.7025</v>
       </c>
       <c r="E351" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F351" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B352" t="s">
         <v>96</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2743</v>
+        <v>0.2119</v>
       </c>
       <c r="D352" t="n">
-        <v>0.7306</v>
+        <v>0.7359</v>
       </c>
       <c r="E352" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F352" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B353" t="s">
         <v>86</v>
       </c>
       <c r="C353" t="n">
-        <v>-1.4286</v>
+        <v>-1.4964</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.1392</v>
+        <v>-0.1366</v>
       </c>
       <c r="E353" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F353" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B354" t="s">
         <v>151</v>
       </c>
       <c r="C354" t="n">
-        <v>1.6365</v>
+        <v>1.5784</v>
       </c>
       <c r="D354" t="n">
-        <v>1.3361</v>
+        <v>1.3441</v>
       </c>
       <c r="E354" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F354" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/ncaa_bracket/teams.xlsx
+++ b/ncaa_bracket/teams.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="742">
   <si>
     <t xml:space="preserve">team</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Southland</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.009</t>
+    <t xml:space="preserve">-0.0037</t>
   </si>
   <si>
     <t xml:space="preserve">Air Force</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">MWC</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2966</t>
+    <t xml:space="preserve">-0.2979</t>
   </si>
   <si>
     <t xml:space="preserve">Akron</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">MAC (East)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0744</t>
+    <t xml:space="preserve">0.0749</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama A&amp;M</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">SWAC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.8669</t>
+    <t xml:space="preserve">-1.8682</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama-Birmingham</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">CUSA</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0642</t>
+    <t xml:space="preserve">-0.0654</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7553</t>
+    <t xml:space="preserve">-0.758</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">SEC</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3444</t>
+    <t xml:space="preserve">1.3336</t>
   </si>
   <si>
     <t xml:space="preserve">Albany (NY)</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">AEC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3277</t>
+    <t xml:space="preserve">-1.3276</t>
   </si>
   <si>
     <t xml:space="preserve">Alcorn State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3646</t>
+    <t xml:space="preserve">-1.3647</t>
   </si>
   <si>
     <t xml:space="preserve">American</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Patriot</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6797</t>
+    <t xml:space="preserve">-0.6762</t>
   </si>
   <si>
     <t xml:space="preserve">Appalachian State</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">Sun Belt</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3462</t>
+    <t xml:space="preserve">-0.3539</t>
   </si>
   <si>
     <t xml:space="preserve">Arizona State</t>
@@ -131,49 +131,49 @@
     <t xml:space="preserve">Pac-12</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0934</t>
+    <t xml:space="preserve">1.0862</t>
   </si>
   <si>
     <t xml:space="preserve">Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8705</t>
+    <t xml:space="preserve">0.8608</t>
   </si>
   <si>
     <t xml:space="preserve">Little Rock</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9166</t>
+    <t xml:space="preserve">-0.921</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas-Pine Bluff</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1518</t>
+    <t xml:space="preserve">-1.1532</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2046</t>
+    <t xml:space="preserve">-0.2082</t>
   </si>
   <si>
     <t xml:space="preserve">Arkansas</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2166</t>
+    <t xml:space="preserve">1.2073</t>
   </si>
   <si>
     <t xml:space="preserve">Army</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6438</t>
+    <t xml:space="preserve">-0.642</t>
   </si>
   <si>
     <t xml:space="preserve">Auburn</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6945</t>
+    <t xml:space="preserve">1.6843</t>
   </si>
   <si>
     <t xml:space="preserve">Austin Peay</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">OVC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.269</t>
+    <t xml:space="preserve">0.2729</t>
   </si>
   <si>
     <t xml:space="preserve">Ball State</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">MAC (West)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3566</t>
+    <t xml:space="preserve">0.3515</t>
   </si>
   <si>
     <t xml:space="preserve">Baylor</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">Big 12</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1848</t>
+    <t xml:space="preserve">1.1766</t>
   </si>
   <si>
     <t xml:space="preserve">Belmont</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9192</t>
+    <t xml:space="preserve">0.9218</t>
   </si>
   <si>
     <t xml:space="preserve">Bethune-Cookman</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">MEAC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.152</t>
+    <t xml:space="preserve">-1.1416</t>
   </si>
   <si>
     <t xml:space="preserve">Binghamton</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4634</t>
+    <t xml:space="preserve">-1.4645</t>
   </si>
   <si>
     <t xml:space="preserve">Boise State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0502</t>
+    <t xml:space="preserve">-0.0464</t>
   </si>
   <si>
     <t xml:space="preserve">Boston College</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">ACC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7972</t>
+    <t xml:space="preserve">0.7878</t>
   </si>
   <si>
     <t xml:space="preserve">Boston University</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6398</t>
+    <t xml:space="preserve">-0.6361</t>
   </si>
   <si>
     <t xml:space="preserve">Bowling Green State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5346</t>
+    <t xml:space="preserve">0.5344</t>
   </si>
   <si>
     <t xml:space="preserve">Bradley</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">MVC</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3945</t>
+    <t xml:space="preserve">-0.3947</t>
   </si>
   <si>
     <t xml:space="preserve">Brigham Young</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">WCC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7442</t>
+    <t xml:space="preserve">0.7452</t>
   </si>
   <si>
     <t xml:space="preserve">Brown</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">Ivy</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1045</t>
+    <t xml:space="preserve">0.1105</t>
   </si>
   <si>
     <t xml:space="preserve">Bryant</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">NEC</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2785</t>
+    <t xml:space="preserve">-1.2768</t>
   </si>
   <si>
     <t xml:space="preserve">Bucknell</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3023</t>
+    <t xml:space="preserve">0.3053</t>
   </si>
   <si>
     <t xml:space="preserve">Buffalo</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5227</t>
+    <t xml:space="preserve">1.5225</t>
   </si>
   <si>
     <t xml:space="preserve">Butler</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">Big East</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1469</t>
+    <t xml:space="preserve">1.1432</t>
   </si>
   <si>
     <t xml:space="preserve">Cal Poly</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Big West</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3825</t>
+    <t xml:space="preserve">-1.3811</t>
   </si>
   <si>
     <t xml:space="preserve">Cal State Bakersfield</t>
@@ -323,370 +323,370 @@
     <t xml:space="preserve">WAC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4045</t>
+    <t xml:space="preserve">0.4049</t>
   </si>
   <si>
     <t xml:space="preserve">Cal State Fullerton</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0177</t>
+    <t xml:space="preserve">0.0125</t>
   </si>
   <si>
     <t xml:space="preserve">Cal State Northridge</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3799</t>
+    <t xml:space="preserve">-0.3739</t>
   </si>
   <si>
     <t xml:space="preserve">California Baptist</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6137</t>
+    <t xml:space="preserve">-0.6117</t>
   </si>
   <si>
     <t xml:space="preserve">UC-Davis</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.6241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC-Irvine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC-Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC-Santa Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canisius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Connecticut State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charleston Southern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chattanooga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cincinnati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citadel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clemson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleveland State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coastal Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colgate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College of Charleston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coppin State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.4762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creighton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dartmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davidson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.1775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DePaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detroit Mercy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drexel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duquesne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Tennessee State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Sky</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.7915</t>
   </si>
   <si>
-    <t xml:space="preserve">UC-Irvine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC-Riverside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC-Santa Barbara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campbell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canisius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Connecticut State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charleston Southern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chattanooga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cincinnati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citadel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clemson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleveland State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horizon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coastal Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colgate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">College of Charleston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecticut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coppin State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.4722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cornell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creighton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dartmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davidson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.1727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DePaul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detroit Mercy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drexel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duquesne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Tennessee State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7863</t>
-  </si>
-  <si>
     <t xml:space="preserve">Elon</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0557</t>
+    <t xml:space="preserve">-1.0543</t>
   </si>
   <si>
     <t xml:space="preserve">Evansville</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2083</t>
+    <t xml:space="preserve">-0.2179</t>
   </si>
   <si>
     <t xml:space="preserve">Fairfield</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5263</t>
+    <t xml:space="preserve">-1.5239</t>
   </si>
   <si>
     <t xml:space="preserve">Fairleigh Dickinson</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7215</t>
+    <t xml:space="preserve">-0.7158</t>
   </si>
   <si>
     <t xml:space="preserve">Florida A&amp;M</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1861</t>
+    <t xml:space="preserve">-1.1853</t>
   </si>
   <si>
     <t xml:space="preserve">Florida Atlantic</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0973</t>
+    <t xml:space="preserve">-0.1014</t>
   </si>
   <si>
     <t xml:space="preserve">Florida Gulf Coast</t>
@@ -695,199 +695,199 @@
     <t xml:space="preserve">A-Sun</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4403</t>
+    <t xml:space="preserve">-0.4451</t>
   </si>
   <si>
     <t xml:space="preserve">Florida International</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1721</t>
+    <t xml:space="preserve">0.1716</t>
   </si>
   <si>
     <t xml:space="preserve">Florida State</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0206</t>
+    <t xml:space="preserve">2.0256</t>
   </si>
   <si>
     <t xml:space="preserve">Florida</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2285</t>
+    <t xml:space="preserve">1.2146</t>
   </si>
   <si>
     <t xml:space="preserve">Fordham</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0002</t>
+    <t xml:space="preserve">-1.0045</t>
   </si>
   <si>
     <t xml:space="preserve">Fresno State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0308</t>
+    <t xml:space="preserve">1.035</t>
   </si>
   <si>
     <t xml:space="preserve">Furman</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7087</t>
+    <t xml:space="preserve">0.7136</t>
   </si>
   <si>
     <t xml:space="preserve">Gardner-Webb</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1775</t>
+    <t xml:space="preserve">-0.1765</t>
   </si>
   <si>
     <t xml:space="preserve">George Mason</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1219</t>
+    <t xml:space="preserve">0.1159</t>
   </si>
   <si>
     <t xml:space="preserve">George Washington</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7943</t>
+    <t xml:space="preserve">-0.806</t>
   </si>
   <si>
     <t xml:space="preserve">Georgetown</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0432</t>
+    <t xml:space="preserve">1.034</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia Southern</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6089</t>
+    <t xml:space="preserve">0.609</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9543</t>
+    <t xml:space="preserve">0.9591</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848</t>
+    <t xml:space="preserve">0.8397</t>
   </si>
   <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634</t>
+    <t xml:space="preserve">0.6283</t>
   </si>
   <si>
     <t xml:space="preserve">Gonzaga</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1587</t>
+    <t xml:space="preserve">2.1705</t>
   </si>
   <si>
     <t xml:space="preserve">Grambling</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7499</t>
+    <t xml:space="preserve">-0.75</t>
   </si>
   <si>
     <t xml:space="preserve">Grand Canyon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2613</t>
+    <t xml:space="preserve">0.2584</t>
   </si>
   <si>
     <t xml:space="preserve">Green Bay</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2214</t>
+    <t xml:space="preserve">-0.2274</t>
   </si>
   <si>
     <t xml:space="preserve">Hampton</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7484</t>
+    <t xml:space="preserve">-0.7426</t>
   </si>
   <si>
     <t xml:space="preserve">Hartford</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4459</t>
+    <t xml:space="preserve">-0.4422</t>
   </si>
   <si>
     <t xml:space="preserve">Harvard</t>
   </si>
   <si>
-    <t xml:space="preserve">0.369</t>
+    <t xml:space="preserve">0.3648</t>
   </si>
   <si>
     <t xml:space="preserve">Hawaii</t>
   </si>
   <si>
-    <t xml:space="preserve">0.247</t>
+    <t xml:space="preserve">0.2515</t>
   </si>
   <si>
     <t xml:space="preserve">High Point</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3925</t>
+    <t xml:space="preserve">-0.395</t>
   </si>
   <si>
     <t xml:space="preserve">Hofstra</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6617</t>
+    <t xml:space="preserve">0.6693</t>
   </si>
   <si>
     <t xml:space="preserve">Holy Cross</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4634</t>
+    <t xml:space="preserve">-0.4605</t>
   </si>
   <si>
     <t xml:space="preserve">Houston Baptist</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.028</t>
+    <t xml:space="preserve">-1.041</t>
   </si>
   <si>
     <t xml:space="preserve">Houston</t>
   </si>
   <si>
-    <t xml:space="preserve">1.624</t>
+    <t xml:space="preserve">1.6189</t>
   </si>
   <si>
     <t xml:space="preserve">Howard</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9908</t>
+    <t xml:space="preserve">-0.9851</t>
   </si>
   <si>
     <t xml:space="preserve">Idaho State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7731</t>
+    <t xml:space="preserve">-0.7715</t>
   </si>
   <si>
     <t xml:space="preserve">Idaho</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.8171</t>
+    <t xml:space="preserve">-1.8175</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois-Chicago</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5909</t>
+    <t xml:space="preserve">-0.4529</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4645</t>
+    <t xml:space="preserve">0.464</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois</t>
@@ -896,1351 +896,1348 @@
     <t xml:space="preserve">Big Ten</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5917</t>
+    <t xml:space="preserve">0.5711</t>
   </si>
   <si>
     <t xml:space="preserve">Incarnate Word</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6467</t>
+    <t xml:space="preserve">-1.6513</t>
   </si>
   <si>
     <t xml:space="preserve">Indiana State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144</t>
+    <t xml:space="preserve">0.1387</t>
   </si>
   <si>
     <t xml:space="preserve">Indiana</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3065</t>
+    <t xml:space="preserve">1.2947</t>
   </si>
   <si>
     <t xml:space="preserve">Iona</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2431</t>
+    <t xml:space="preserve">-1.2446</t>
   </si>
   <si>
     <t xml:space="preserve">Iowa State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.554</t>
+    <t xml:space="preserve">1.5494</t>
   </si>
   <si>
     <t xml:space="preserve">Iowa</t>
   </si>
   <si>
-    <t xml:space="preserve">1.832</t>
+    <t xml:space="preserve">1.8286</t>
   </si>
   <si>
     <t xml:space="preserve">Purdue-Fort Wayne</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0996</t>
+    <t xml:space="preserve">0.1017</t>
   </si>
   <si>
     <t xml:space="preserve">IUPUI</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2805</t>
+    <t xml:space="preserve">-0.3209</t>
   </si>
   <si>
     <t xml:space="preserve">Jackson State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2433</t>
+    <t xml:space="preserve">-1.2427</t>
   </si>
   <si>
     <t xml:space="preserve">Jacksonville State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2012</t>
+    <t xml:space="preserve">0.2049</t>
   </si>
   <si>
     <t xml:space="preserve">Jacksonville</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7687</t>
+    <t xml:space="preserve">-0.7669</t>
   </si>
   <si>
     <t xml:space="preserve">James Madison</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7026</t>
+    <t xml:space="preserve">-0.7057</t>
   </si>
   <si>
     <t xml:space="preserve">Kansas State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3194</t>
+    <t xml:space="preserve">1.3092</t>
   </si>
   <si>
     <t xml:space="preserve">Kansas</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3192</t>
+    <t xml:space="preserve">2.3045</t>
   </si>
   <si>
     <t xml:space="preserve">Kennesaw State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3295</t>
+    <t xml:space="preserve">-1.338</t>
   </si>
   <si>
     <t xml:space="preserve">Kent State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8286</t>
+    <t xml:space="preserve">0.8249</t>
   </si>
   <si>
     <t xml:space="preserve">Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1446</t>
+    <t xml:space="preserve">2.1356</t>
   </si>
   <si>
     <t xml:space="preserve">La Salle</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8042</t>
+    <t xml:space="preserve">-0.8142</t>
   </si>
   <si>
     <t xml:space="preserve">Lafayette</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5128</t>
+    <t xml:space="preserve">-1.5087</t>
   </si>
   <si>
     <t xml:space="preserve">Lamar</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7676</t>
+    <t xml:space="preserve">-0.7735</t>
   </si>
   <si>
     <t xml:space="preserve">Lehigh</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1804</t>
+    <t xml:space="preserve">0.1877</t>
   </si>
   <si>
     <t xml:space="preserve">Liberty</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4116</t>
+    <t xml:space="preserve">0.4167</t>
   </si>
   <si>
     <t xml:space="preserve">Lipscomb</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887</t>
+    <t xml:space="preserve">0.8964</t>
   </si>
   <si>
     <t xml:space="preserve">Long Beach State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0112</t>
+    <t xml:space="preserve">-0.0134</t>
   </si>
   <si>
     <t xml:space="preserve">Long Island University</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0338</t>
+    <t xml:space="preserve">-1.0275</t>
   </si>
   <si>
     <t xml:space="preserve">Longwood</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.88</t>
+    <t xml:space="preserve">-0.871</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2456</t>
+    <t xml:space="preserve">0.2462</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana-Monroe</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2338</t>
+    <t xml:space="preserve">-0.2343</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7842</t>
+    <t xml:space="preserve">1.7809</t>
   </si>
   <si>
     <t xml:space="preserve">Louisiana Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0028</t>
+    <t xml:space="preserve">0.0013</t>
   </si>
   <si>
     <t xml:space="preserve">Louisville</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0505</t>
+    <t xml:space="preserve">2.0409</t>
   </si>
   <si>
     <t xml:space="preserve">Loyola (IL)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2692</t>
+    <t xml:space="preserve">0.2654</t>
   </si>
   <si>
     <t xml:space="preserve">Loyola Marymount</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6744</t>
+    <t xml:space="preserve">0.6727</t>
   </si>
   <si>
     <t xml:space="preserve">Loyola (MD)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9741</t>
+    <t xml:space="preserve">-0.9713</t>
   </si>
   <si>
     <t xml:space="preserve">Maine</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4974</t>
+    <t xml:space="preserve">-1.4449</t>
   </si>
   <si>
     <t xml:space="preserve">Manhattan</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.8029</t>
+    <t xml:space="preserve">-1.807</t>
   </si>
   <si>
     <t xml:space="preserve">Marist</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.514</t>
+    <t xml:space="preserve">-1.5111</t>
   </si>
   <si>
     <t xml:space="preserve">Marquette</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0148</t>
+    <t xml:space="preserve">2.0048</t>
   </si>
   <si>
     <t xml:space="preserve">Marshall</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2401</t>
+    <t xml:space="preserve">0.2355</t>
   </si>
   <si>
     <t xml:space="preserve">Maryland-Baltimore County</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3289</t>
+    <t xml:space="preserve">-0.328</t>
   </si>
   <si>
     <t xml:space="preserve">Maryland-Eastern Shore</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6744</t>
+    <t xml:space="preserve">-1.6825</t>
   </si>
   <si>
     <t xml:space="preserve">Maryland</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7457</t>
+    <t xml:space="preserve">1.7374</t>
   </si>
   <si>
     <t xml:space="preserve">Massachusetts-Lowell</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5625</t>
+    <t xml:space="preserve">-0.5529</t>
   </si>
   <si>
     <t xml:space="preserve">Massachusetts</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6745</t>
+    <t xml:space="preserve">-0.6786</t>
   </si>
   <si>
     <t xml:space="preserve">McNeese State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4213</t>
+    <t xml:space="preserve">-1.4259</t>
   </si>
   <si>
     <t xml:space="preserve">Memphis</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6976</t>
+    <t xml:space="preserve">0.6876</t>
   </si>
   <si>
     <t xml:space="preserve">Mercer</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5335</t>
+    <t xml:space="preserve">-0.5376</t>
   </si>
   <si>
     <t xml:space="preserve">Miami (FL)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6978</t>
+    <t xml:space="preserve">0.6865</t>
   </si>
   <si>
     <t xml:space="preserve">Miami (OH)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3842</t>
+    <t xml:space="preserve">0.3706</t>
   </si>
   <si>
     <t xml:space="preserve">Michigan State</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3844</t>
+    <t xml:space="preserve">2.3769</t>
   </si>
   <si>
     <t xml:space="preserve">Michigan</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0987</t>
+    <t xml:space="preserve">2.0929</t>
   </si>
   <si>
     <t xml:space="preserve">Middle Tennessee</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3907</t>
+    <t xml:space="preserve">-0.4044</t>
   </si>
   <si>
     <t xml:space="preserve">Milwaukee</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1051</t>
+    <t xml:space="preserve">-1.1233</t>
   </si>
   <si>
     <t xml:space="preserve">Minnesota</t>
   </si>
   <si>
-    <t xml:space="preserve">1.616</t>
+    <t xml:space="preserve">1.5988</t>
   </si>
   <si>
     <t xml:space="preserve">Mississippi State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7583</t>
+    <t xml:space="preserve">1.7568</t>
   </si>
   <si>
     <t xml:space="preserve">Mississippi Valley State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.7282</t>
+    <t xml:space="preserve">-1.731</t>
   </si>
   <si>
     <t xml:space="preserve">Mississippi</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2848</t>
+    <t xml:space="preserve">1.2769</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri-Kansas City</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7698</t>
+    <t xml:space="preserve">-0.7693</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.218</t>
+    <t xml:space="preserve">-0.2189</t>
   </si>
   <si>
     <t xml:space="preserve">Missouri</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7726</t>
+    <t xml:space="preserve">0.7537</t>
   </si>
   <si>
     <t xml:space="preserve">Monmouth</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0336</t>
+    <t xml:space="preserve">-1.0366</t>
   </si>
   <si>
     <t xml:space="preserve">Montana State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8013</t>
+    <t xml:space="preserve">-0.7984</t>
   </si>
   <si>
     <t xml:space="preserve">Montana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2721</t>
+    <t xml:space="preserve">0.2815</t>
   </si>
   <si>
     <t xml:space="preserve">Morehead State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.513</t>
+    <t xml:space="preserve">-0.5172</t>
   </si>
   <si>
     <t xml:space="preserve">Morgan State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3429</t>
+    <t xml:space="preserve">-1.3386</t>
   </si>
   <si>
     <t xml:space="preserve">Mount St. Mary's</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.4159</t>
+    <t xml:space="preserve">-1.418</t>
   </si>
   <si>
     <t xml:space="preserve">Murray State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5776</t>
+    <t xml:space="preserve">0.5809</t>
   </si>
   <si>
     <t xml:space="preserve">Navy</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0808</t>
+    <t xml:space="preserve">-1.0834</t>
   </si>
   <si>
     <t xml:space="preserve">Omaha</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1503</t>
+    <t xml:space="preserve">-0.0791</t>
   </si>
   <si>
     <t xml:space="preserve">Nebraska</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2266</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nevada-Las Vegas</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2542</t>
+    <t xml:space="preserve">0.2524</t>
   </si>
   <si>
     <t xml:space="preserve">Nevada</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0112</t>
+    <t xml:space="preserve">2.0139</t>
   </si>
   <si>
     <t xml:space="preserve">New Hampshire</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.0209</t>
+    <t xml:space="preserve">-2.0741</t>
   </si>
   <si>
     <t xml:space="preserve">New Mexico State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9403</t>
+    <t xml:space="preserve">0.9429</t>
   </si>
   <si>
     <t xml:space="preserve">New Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0918</t>
+    <t xml:space="preserve">0.0886</t>
   </si>
   <si>
     <t xml:space="preserve">New Orleans</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6042</t>
+    <t xml:space="preserve">-0.6078</t>
   </si>
   <si>
     <t xml:space="preserve">Niagara</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0061</t>
+    <t xml:space="preserve">-1.0279</t>
   </si>
   <si>
     <t xml:space="preserve">Nicholls State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.1153</t>
+    <t xml:space="preserve">-1.1199</t>
   </si>
   <si>
     <t xml:space="preserve">NJIT</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1264</t>
+    <t xml:space="preserve">0.1324</t>
   </si>
   <si>
     <t xml:space="preserve">Norfolk State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5378</t>
+    <t xml:space="preserve">-0.5326</t>
   </si>
   <si>
     <t xml:space="preserve">North Alabama</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6956</t>
+    <t xml:space="preserve">-0.7011</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina-Asheville</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.5569</t>
+    <t xml:space="preserve">-1.5667</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina A&amp;T</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.679</t>
+    <t xml:space="preserve">-0.6852</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina Central</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0797</t>
+    <t xml:space="preserve">-1.0712</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina-Greensboro</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9294</t>
+    <t xml:space="preserve">0.9348</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4873</t>
+    <t xml:space="preserve">1.4908</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina-Wilmington</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6278</t>
+    <t xml:space="preserve">-0.6328</t>
   </si>
   <si>
     <t xml:space="preserve">North Carolina</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49</t>
+    <t xml:space="preserve">2.4856</t>
   </si>
   <si>
     <t xml:space="preserve">North Dakota State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3411</t>
+    <t xml:space="preserve">-0.3445</t>
   </si>
   <si>
     <t xml:space="preserve">North Dakota</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.8579</t>
+    <t xml:space="preserve">-0.8786</t>
   </si>
   <si>
     <t xml:space="preserve">North Florida</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2938</t>
+    <t xml:space="preserve">-0.2953</t>
   </si>
   <si>
     <t xml:space="preserve">North Texas</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4764</t>
+    <t xml:space="preserve">0.4799</t>
   </si>
   <si>
     <t xml:space="preserve">Northeastern</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3755</t>
+    <t xml:space="preserve">0.3729</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Arizona</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.208</t>
+    <t xml:space="preserve">-1.2032</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Colorado</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0504</t>
+    <t xml:space="preserve">-0.0404</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3579</t>
+    <t xml:space="preserve">0.3506</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Iowa</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1221</t>
+    <t xml:space="preserve">-0.1341</t>
   </si>
   <si>
     <t xml:space="preserve">Northern Kentucky</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3663</t>
+    <t xml:space="preserve">0.2852</t>
   </si>
   <si>
     <t xml:space="preserve">Northwestern State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.2683</t>
-  </si>
-  <si>
     <t xml:space="preserve">Northwestern</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8934</t>
+    <t xml:space="preserve">0.8814</t>
   </si>
   <si>
     <t xml:space="preserve">Notre Dame</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1272</t>
+    <t xml:space="preserve">1.1245</t>
   </si>
   <si>
     <t xml:space="preserve">Oakland</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5841</t>
+    <t xml:space="preserve">-0.5976</t>
   </si>
   <si>
     <t xml:space="preserve">Ohio State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.385</t>
+    <t xml:space="preserve">1.3793</t>
   </si>
   <si>
     <t xml:space="preserve">Ohio</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2606</t>
+    <t xml:space="preserve">0.2465</t>
   </si>
   <si>
     <t xml:space="preserve">Oklahoma State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6284</t>
+    <t xml:space="preserve">0.6129</t>
   </si>
   <si>
     <t xml:space="preserve">Oklahoma</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6623</t>
+    <t xml:space="preserve">1.6539</t>
   </si>
   <si>
     <t xml:space="preserve">Old Dominion</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4506</t>
+    <t xml:space="preserve">0.4486</t>
   </si>
   <si>
     <t xml:space="preserve">Oral Roberts</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.7409</t>
+    <t xml:space="preserve">-0.7493</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6179</t>
+    <t xml:space="preserve">0.6087</t>
   </si>
   <si>
     <t xml:space="preserve">Oregon</t>
   </si>
   <si>
-    <t xml:space="preserve">0.522</t>
+    <t xml:space="preserve">0.5126</t>
   </si>
   <si>
     <t xml:space="preserve">Pacific</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1496</t>
+    <t xml:space="preserve">0.1499</t>
   </si>
   <si>
     <t xml:space="preserve">Penn State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5034</t>
+    <t xml:space="preserve">0.4863</t>
   </si>
   <si>
     <t xml:space="preserve">Pennsylvania</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4022</t>
+    <t xml:space="preserve">0.4044</t>
   </si>
   <si>
     <t xml:space="preserve">Pepperdine</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3315</t>
+    <t xml:space="preserve">-0.3285</t>
   </si>
   <si>
     <t xml:space="preserve">Pittsburgh</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9244</t>
+    <t xml:space="preserve">0.9235</t>
   </si>
   <si>
     <t xml:space="preserve">Portland State</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.5744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prairie View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presbyterian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Providence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purdue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinnipiac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.9505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.9727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Morris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacred Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Francis (PA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Joseph's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Mary's (CA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Peter's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Houston State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Jose State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Clara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seton Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.0425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina Upstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.8218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast Missouri State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeastern Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIU Edwardsville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Methodist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Mississippi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Bonaventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Francis (NY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. John's (NY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen F. Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.5758</t>
   </si>
   <si>
-    <t xml:space="preserve">Portland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prairie View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presbyterian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princeton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purdue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinnipiac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhode Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.9595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Morris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutgers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacred Heart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Francis (PA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Joseph's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Mary's (CA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Peter's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam Houston State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Clara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savannah State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seattle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seton Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina Upstate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Dakota State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southeast Missouri State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southeastern Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIU Edwardsville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Methodist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Mississippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.6725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Bonaventure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Francis (NY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. John's (NY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen F. Austin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5697</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stetson</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.3315</t>
+    <t xml:space="preserve">-1.3338</t>
   </si>
   <si>
     <t xml:space="preserve">Stony Brook</t>
   </si>
   <si>
-    <t xml:space="preserve">0.3155</t>
+    <t xml:space="preserve">0.3269</t>
   </si>
   <si>
     <t xml:space="preserve">Syracuse</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7828</t>
+    <t xml:space="preserve">1.7849</t>
   </si>
   <si>
     <t xml:space="preserve">Temple</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0458</t>
+    <t xml:space="preserve">1.038</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee-Martin</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.268</t>
+    <t xml:space="preserve">-1.2719</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9262</t>
+    <t xml:space="preserve">-0.9318</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9598</t>
+    <t xml:space="preserve">-0.9655</t>
   </si>
   <si>
     <t xml:space="preserve">Tennessee</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4404</t>
+    <t xml:space="preserve">2.4321</t>
   </si>
   <si>
     <t xml:space="preserve">Texas A&amp;M-Corpus Christi</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9364</t>
+    <t xml:space="preserve">-0.9466</t>
   </si>
   <si>
     <t xml:space="preserve">Texas A&amp;M</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4531</t>
+    <t xml:space="preserve">0.4388</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-Arlington</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0839</t>
+    <t xml:space="preserve">0.0766</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Christian</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4065</t>
+    <t xml:space="preserve">1.3966</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-El Paso</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.9304</t>
+    <t xml:space="preserve">-0.9404</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-Rio Grande Valley</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2033</t>
+    <t xml:space="preserve">-0.2116</t>
   </si>
   <si>
     <t xml:space="preserve">Texas-San Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1515</t>
+    <t xml:space="preserve">0.1458</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Southern</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1988</t>
+    <t xml:space="preserve">-0.1973</t>
   </si>
   <si>
     <t xml:space="preserve">Texas State</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6435</t>
+    <t xml:space="preserve">0.6464</t>
   </si>
   <si>
     <t xml:space="preserve">Texas Tech</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3812</t>
+    <t xml:space="preserve">1.3728</t>
   </si>
   <si>
     <t xml:space="preserve">Texas</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2261</t>
+    <t xml:space="preserve">1.211</t>
   </si>
   <si>
     <t xml:space="preserve">Toledo</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1001</t>
+    <t xml:space="preserve">1.1033</t>
   </si>
   <si>
     <t xml:space="preserve">Towson</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.883</t>
+    <t xml:space="preserve">-0.8851</t>
   </si>
   <si>
     <t xml:space="preserve">Troy</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.2161</t>
+    <t xml:space="preserve">-0.2183</t>
   </si>
   <si>
     <t xml:space="preserve">Tulane</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.185</t>
+    <t xml:space="preserve">-1.201</t>
   </si>
   <si>
     <t xml:space="preserve">Tulsa</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4758</t>
+    <t xml:space="preserve">0.4671</t>
   </si>
   <si>
     <t xml:space="preserve">UCLA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6798</t>
+    <t xml:space="preserve">0.6664</t>
   </si>
   <si>
     <t xml:space="preserve">Utah State</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0401</t>
+    <t xml:space="preserve">1.0449</t>
   </si>
   <si>
     <t xml:space="preserve">Utah Valley</t>
   </si>
   <si>
+    <t xml:space="preserve">0.4614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valparaiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderbilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wake Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.6275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita State</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.4599</t>
   </si>
   <si>
-    <t xml:space="preserve">Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valparaiso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanderbilt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vermont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villanova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Commonwealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wagner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wake Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.8852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weber State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4733</t>
-  </si>
-  <si>
     <t xml:space="preserve">William &amp; Mary</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.4977</t>
+    <t xml:space="preserve">-0.4973</t>
   </si>
   <si>
     <t xml:space="preserve">Winthrop</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0821</t>
+    <t xml:space="preserve">0.088</t>
   </si>
   <si>
     <t xml:space="preserve">Wisconsin</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6488</t>
+    <t xml:space="preserve">1.6316</t>
   </si>
   <si>
     <t xml:space="preserve">Wofford</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2905</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wright State</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.3419</t>
+    <t xml:space="preserve">-0.2482</t>
   </si>
   <si>
     <t xml:space="preserve">Wyoming</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0237</t>
+    <t xml:space="preserve">-1.03</t>
   </si>
   <si>
     <t xml:space="preserve">Xavier</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9216</t>
+    <t xml:space="preserve">0.8916</t>
   </si>
   <si>
     <t xml:space="preserve">Yale</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7428</t>
+    <t xml:space="preserve">0.7453</t>
   </si>
   <si>
     <t xml:space="preserve">Youngstown State</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.0195</t>
+    <t xml:space="preserve">-1.0305</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2597,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3143</v>
+        <v>0.2801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5055</v>
+        <v>0.504</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2620,10 +2617,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9183</v>
+        <v>-0.951</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.4548</v>
+        <v>-1.456</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -2640,10 +2637,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8076</v>
+        <v>-0.8404</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2096</v>
+        <v>-0.2102</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -2660,10 +2657,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.8283</v>
+        <v>-1.8599</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5013</v>
+        <v>-0.5029</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -2680,10 +2677,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455</v>
+        <v>0.1116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.508</v>
+        <v>0.5076</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -2700,16 +2697,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.1811</v>
+        <v>-2.2123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3101</v>
+        <v>0.3096</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
@@ -2720,10 +2717,10 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2081</v>
+        <v>-0.2416</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2901</v>
+        <v>1.2916</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -2740,10 +2737,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.332</v>
+        <v>-0.3653</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5802</v>
+        <v>-0.5812</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -2760,10 +2757,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.608</v>
+        <v>-1.6399</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0308</v>
+        <v>0.0291</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -2780,16 +2777,16 @@
         <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6918</v>
+        <v>-0.7247</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6793</v>
+        <v>-0.6815</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12">
@@ -2800,16 +2797,16 @@
         <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>1.1962</v>
+        <v>1.161</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8308</v>
+        <v>-0.8316</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
@@ -2820,10 +2817,10 @@
         <v>38</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3718</v>
+        <v>0.3376</v>
       </c>
       <c r="D13" t="n">
-        <v>1.1303</v>
+        <v>1.1312</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -2840,16 +2837,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0619</v>
+        <v>0.0281</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2773</v>
+        <v>-0.2779</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
       <c r="F14" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -2860,10 +2857,10 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5191</v>
+        <v>0.4847</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.0717</v>
+        <v>-1.0731</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -2880,16 +2877,16 @@
         <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.4277</v>
+        <v>-1.4598</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4635</v>
+        <v>-0.4647</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17">
@@ -2900,16 +2897,16 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1258</v>
+        <v>0.0918</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1629</v>
+        <v>1.1635</v>
       </c>
       <c r="E17" t="s">
         <v>47</v>
       </c>
       <c r="F17" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -2920,10 +2917,10 @@
         <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>0.204</v>
+        <v>0.17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4204</v>
+        <v>0.4193</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -2940,16 +2937,16 @@
         <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3191</v>
+        <v>0.2849</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.9185</v>
+        <v>-1.9208</v>
       </c>
       <c r="E19" t="s">
         <v>51</v>
       </c>
       <c r="F19" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20">
@@ -2960,10 +2957,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0109</v>
+        <v>0.976</v>
       </c>
       <c r="D20" t="n">
-        <v>2.6641</v>
+        <v>2.6644</v>
       </c>
       <c r="E20" t="s">
         <v>53</v>
@@ -2980,16 +2977,16 @@
         <v>55</v>
       </c>
       <c r="C21" t="n">
-        <v>1.8149</v>
+        <v>1.7789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6317</v>
+        <v>0.6309</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
       </c>
       <c r="F21" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
@@ -3000,16 +2997,16 @@
         <v>58</v>
       </c>
       <c r="C22" t="n">
-        <v>0.887</v>
+        <v>0.8521</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0562</v>
+        <v>0.0558</v>
       </c>
       <c r="E22" t="s">
         <v>59</v>
       </c>
       <c r="F22" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -3020,10 +3017,10 @@
         <v>61</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4718</v>
+        <v>-0.505</v>
       </c>
       <c r="D23" t="n">
-        <v>2.5488</v>
+        <v>2.5501</v>
       </c>
       <c r="E23" t="s">
         <v>62</v>
@@ -3040,16 +3037,16 @@
         <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>1.3456</v>
+        <v>1.3102</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7834</v>
+        <v>-0.7849</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -3060,7 +3057,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0549</v>
+        <v>-0.0886</v>
       </c>
       <c r="D25" t="n">
         <v>1.0822</v>
@@ -3069,7 +3066,7 @@
         <v>67</v>
       </c>
       <c r="F25" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26">
@@ -3080,16 +3077,16 @@
         <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.8226</v>
+        <v>-0.8555</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.2885</v>
+        <v>-1.2905</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27">
@@ -3100,16 +3097,16 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3503</v>
+        <v>-0.3836</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7595</v>
+        <v>-0.7607</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
       </c>
       <c r="F27" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -3120,10 +3117,10 @@
         <v>73</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8395</v>
+        <v>-0.8723</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1676</v>
+        <v>-0.1681</v>
       </c>
       <c r="E28" t="s">
         <v>74</v>
@@ -3140,10 +3137,10 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2873</v>
+        <v>0.2531</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0994</v>
+        <v>-0.0997</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
@@ -3160,10 +3157,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2881</v>
+        <v>0.254</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7437</v>
+        <v>0.744</v>
       </c>
       <c r="E30" t="s">
         <v>78</v>
@@ -3180,16 +3177,16 @@
         <v>80</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5576</v>
+        <v>-0.5907</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1192</v>
+        <v>0.1186</v>
       </c>
       <c r="E31" t="s">
         <v>81</v>
       </c>
       <c r="F31" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
@@ -3200,10 +3197,10 @@
         <v>83</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0723</v>
+        <v>2.0361</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.1499</v>
+        <v>-1.1515</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
@@ -3220,10 +3217,10 @@
         <v>86</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.7755</v>
+        <v>-0.8084</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3889</v>
+        <v>-0.3906</v>
       </c>
       <c r="E33" t="s">
         <v>87</v>
@@ -3240,16 +3237,16 @@
         <v>89</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.2147</v>
+        <v>-1.247</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.9535</v>
+        <v>-0.9547</v>
       </c>
       <c r="E34" t="s">
         <v>90</v>
       </c>
       <c r="F34" t="n">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
@@ -3260,10 +3257,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3006</v>
+        <v>0.2664</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.1472</v>
+        <v>-1.1483</v>
       </c>
       <c r="E35" t="s">
         <v>92</v>
@@ -3280,10 +3277,10 @@
         <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>1.6353</v>
+        <v>1.5996</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7912</v>
+        <v>0.7911</v>
       </c>
       <c r="E36" t="s">
         <v>94</v>
@@ -3300,10 +3297,10 @@
         <v>96</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3909</v>
+        <v>0.3566</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8134</v>
+        <v>-0.8145</v>
       </c>
       <c r="E37" t="s">
         <v>97</v>
@@ -3320,10 +3317,10 @@
         <v>99</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.9748</v>
+        <v>-2.0063</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.6269</v>
+        <v>-0.6277</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
@@ -3340,16 +3337,16 @@
         <v>102</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.015</v>
+        <v>-0.0488</v>
       </c>
       <c r="D39" t="n">
-        <v>2.2417</v>
+        <v>2.2428</v>
       </c>
       <c r="E39" t="s">
         <v>103</v>
       </c>
       <c r="F39" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -3360,10 +3357,10 @@
         <v>99</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.4023</v>
+        <v>-0.4356</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.2505</v>
+        <v>-1.252</v>
       </c>
       <c r="E40" t="s">
         <v>105</v>
@@ -3380,10 +3377,10 @@
         <v>99</v>
       </c>
       <c r="C41" t="n">
-        <v>1.1702</v>
+        <v>1.135</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2345</v>
+        <v>0.234</v>
       </c>
       <c r="E41" t="s">
         <v>107</v>
@@ -3400,10 +3397,10 @@
         <v>102</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3459</v>
+        <v>0.3117</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.8765</v>
+        <v>-0.8771</v>
       </c>
       <c r="E42" t="s">
         <v>109</v>
@@ -3420,16 +3417,16 @@
         <v>99</v>
       </c>
       <c r="C43" t="n">
-        <v>-2.5355</v>
+        <v>-2.0257</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.5073</v>
+        <v>-1.4358</v>
       </c>
       <c r="E43" t="s">
         <v>111</v>
       </c>
       <c r="F43" t="n">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44">
@@ -3440,16 +3437,16 @@
         <v>99</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6221</v>
+        <v>0.5876</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0827</v>
+        <v>1.0833</v>
       </c>
       <c r="E44" t="s">
         <v>113</v>
       </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -3460,16 +3457,16 @@
         <v>99</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.4729</v>
+        <v>-0.0494</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8232</v>
+        <v>-0.6904</v>
       </c>
       <c r="E45" t="s">
         <v>115</v>
       </c>
       <c r="F45" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
@@ -3480,16 +3477,16 @@
         <v>99</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2457</v>
+        <v>-0.2792</v>
       </c>
       <c r="D46" t="n">
-        <v>1.4819</v>
+        <v>1.4834</v>
       </c>
       <c r="E46" t="s">
         <v>117</v>
       </c>
       <c r="F46" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -3500,10 +3497,10 @@
         <v>38</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.3879</v>
+        <v>-0.899</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.2463</v>
+        <v>-1.2804</v>
       </c>
       <c r="E47" t="s">
         <v>119</v>
@@ -3520,10 +3517,10 @@
         <v>121</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4751</v>
+        <v>0.4408</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.8573</v>
+        <v>-0.8593</v>
       </c>
       <c r="E48" t="s">
         <v>122</v>
@@ -3540,16 +3537,16 @@
         <v>124</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.8727</v>
+        <v>-0.9055</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2665</v>
+        <v>-0.2676</v>
       </c>
       <c r="E49" t="s">
         <v>125</v>
       </c>
       <c r="F49" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50">
@@ -3560,16 +3557,16 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3509</v>
+        <v>0.3167</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.9675</v>
+        <v>-0.969</v>
       </c>
       <c r="E50" t="s">
         <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
@@ -3580,16 +3577,16 @@
         <v>89</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3188</v>
+        <v>0.2847</v>
       </c>
       <c r="D51" t="n">
-        <v>0.331</v>
+        <v>0.3311</v>
       </c>
       <c r="E51" t="s">
         <v>129</v>
       </c>
       <c r="F51" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52">
@@ -3600,16 +3597,16 @@
         <v>131</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.91</v>
+        <v>-0.9427</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3831</v>
+        <v>0.3826</v>
       </c>
       <c r="E52" t="s">
         <v>132</v>
       </c>
       <c r="F52" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
@@ -3620,16 +3617,16 @@
         <v>58</v>
       </c>
       <c r="C53" t="n">
-        <v>1.6155</v>
+        <v>1.5798</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8193</v>
+        <v>0.8189</v>
       </c>
       <c r="E53" t="s">
         <v>134</v>
       </c>
       <c r="F53" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
@@ -3640,16 +3637,16 @@
         <v>121</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1396</v>
+        <v>0.1057</v>
       </c>
       <c r="D54" t="n">
-        <v>1.2168</v>
+        <v>1.2166</v>
       </c>
       <c r="E54" t="s">
         <v>136</v>
       </c>
       <c r="F54" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55">
@@ -3660,16 +3657,16 @@
         <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.9438</v>
+        <v>-1.9753</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.6681</v>
+        <v>-1.6699</v>
       </c>
       <c r="E55" t="s">
         <v>138</v>
       </c>
       <c r="F55" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56">
@@ -3680,16 +3677,16 @@
         <v>140</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9054</v>
+        <v>0.8705</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.4174</v>
+        <v>-1.4185</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
       </c>
       <c r="F56" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57">
@@ -3700,16 +3697,16 @@
         <v>102</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.1651</v>
+        <v>-1.1975</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.4596</v>
+        <v>-1.4614</v>
       </c>
       <c r="E57" t="s">
         <v>143</v>
       </c>
       <c r="F57" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58">
@@ -3720,16 +3717,16 @@
         <v>131</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2502</v>
+        <v>0.2161</v>
       </c>
       <c r="D58" t="n">
-        <v>2.3714</v>
+        <v>2.3724</v>
       </c>
       <c r="E58" t="s">
         <v>145</v>
       </c>
       <c r="F58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -3740,16 +3737,16 @@
         <v>140</v>
       </c>
       <c r="C59" t="n">
-        <v>2.0083</v>
+        <v>1.9722</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.3183</v>
+        <v>-0.3194</v>
       </c>
       <c r="E59" t="s">
         <v>147</v>
       </c>
       <c r="F59" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60">
@@ -3760,16 +3757,16 @@
         <v>73</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.1618</v>
+        <v>-0.7825</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1024</v>
+        <v>0.1237</v>
       </c>
       <c r="E60" t="s">
         <v>149</v>
       </c>
       <c r="F60" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -3780,16 +3777,16 @@
         <v>151</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9374</v>
+        <v>0.9025</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4017</v>
+        <v>-0.4021</v>
       </c>
       <c r="E61" t="s">
         <v>152</v>
       </c>
       <c r="F61" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
@@ -3800,16 +3797,16 @@
         <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>0.108</v>
+        <v>0.0741</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6157</v>
+        <v>0.616</v>
       </c>
       <c r="E62" t="s">
         <v>154</v>
       </c>
       <c r="F62" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63">
@@ -3820,7 +3817,7 @@
         <v>32</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4616</v>
+        <v>0.4273</v>
       </c>
       <c r="D63" t="n">
         <v>0.2057</v>
@@ -3829,7 +3826,7 @@
         <v>156</v>
       </c>
       <c r="F63" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64">
@@ -3840,16 +3837,16 @@
         <v>158</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7127</v>
+        <v>0.6781</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.95</v>
+        <v>-0.9521</v>
       </c>
       <c r="E64" t="s">
         <v>159</v>
       </c>
       <c r="F64" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
@@ -3860,16 +3857,16 @@
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2881</v>
+        <v>0.2539</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.0559</v>
+        <v>-1.0575</v>
       </c>
       <c r="E65" t="s">
         <v>161</v>
       </c>
       <c r="F65" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66">
@@ -3880,10 +3877,10 @@
         <v>38</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.2019</v>
+        <v>-0.2354</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2418</v>
+        <v>0.242</v>
       </c>
       <c r="E66" t="s">
         <v>163</v>
@@ -3900,16 +3897,16 @@
         <v>86</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.9088</v>
+        <v>-1.9403</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.2659</v>
+        <v>-0.2677</v>
       </c>
       <c r="E67" t="s">
         <v>165</v>
       </c>
       <c r="F67" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68">
@@ -3920,16 +3917,16 @@
         <v>131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1979</v>
+        <v>0.6528</v>
       </c>
       <c r="D68" t="n">
-        <v>1.2562</v>
+        <v>1.3271</v>
       </c>
       <c r="E68" t="s">
         <v>167</v>
       </c>
       <c r="F68" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
@@ -3940,16 +3937,16 @@
         <v>66</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.7271</v>
+        <v>-0.76</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7592</v>
+        <v>-0.76</v>
       </c>
       <c r="E69" t="s">
         <v>169</v>
       </c>
       <c r="F69" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
@@ -3960,16 +3957,16 @@
         <v>86</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.4653</v>
+        <v>-1.4974</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.1853</v>
+        <v>-2.1876</v>
       </c>
       <c r="E70" t="s">
         <v>171</v>
       </c>
       <c r="F70" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71">
@@ -3980,16 +3977,16 @@
         <v>96</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7981</v>
+        <v>1.2523</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.0727</v>
+        <v>-1.0041</v>
       </c>
       <c r="E71" t="s">
         <v>173</v>
       </c>
       <c r="F71" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -4000,16 +3997,16 @@
         <v>86</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.8325</v>
+        <v>-0.8653</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.7589</v>
+        <v>-0.7595</v>
       </c>
       <c r="E72" t="s">
         <v>175</v>
       </c>
       <c r="F72" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73">
@@ -4020,16 +4017,16 @@
         <v>177</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.6913</v>
+        <v>-0.7243</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.4557</v>
+        <v>-1.4573</v>
       </c>
       <c r="E73" t="s">
         <v>178</v>
       </c>
       <c r="F73" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
@@ -4040,10 +4037,10 @@
         <v>177</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1724</v>
+        <v>0.1385</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.6795</v>
+        <v>-0.6803</v>
       </c>
       <c r="E74" t="s">
         <v>180</v>
@@ -4060,10 +4057,10 @@
         <v>66</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.7572</v>
+        <v>-1.789</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.6623</v>
+        <v>-0.6636</v>
       </c>
       <c r="E75" t="s">
         <v>182</v>
@@ -4080,16 +4077,16 @@
         <v>158</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6609</v>
+        <v>0.6263</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.1996</v>
+        <v>-1.2006</v>
       </c>
       <c r="E76" t="s">
         <v>184</v>
       </c>
       <c r="F76" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77">
@@ -4100,16 +4097,16 @@
         <v>186</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.5379</v>
+        <v>-0.0435</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.5824</v>
+        <v>-0.5498</v>
       </c>
       <c r="E77" t="s">
         <v>187</v>
       </c>
       <c r="F77" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78">
@@ -4120,7 +4117,7 @@
         <v>96</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1049</v>
+        <v>-0.1386</v>
       </c>
       <c r="D78" t="n">
         <v>0.8188</v>
@@ -4140,16 +4137,16 @@
         <v>151</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3706</v>
+        <v>0.3364</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.2364</v>
+        <v>-0.238</v>
       </c>
       <c r="E79" t="s">
         <v>191</v>
       </c>
       <c r="F79" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80">
@@ -4160,16 +4157,16 @@
         <v>80</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9577</v>
+        <v>0.9228</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.778</v>
+        <v>-0.7789</v>
       </c>
       <c r="E80" t="s">
         <v>193</v>
       </c>
       <c r="F80" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
@@ -4180,16 +4177,16 @@
         <v>158</v>
       </c>
       <c r="C81" t="n">
-        <v>1.5569</v>
+        <v>1.5213</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.5592</v>
+        <v>-0.5593</v>
       </c>
       <c r="E81" t="s">
         <v>195</v>
       </c>
       <c r="F81" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82">
@@ -4200,10 +4197,10 @@
         <v>73</v>
       </c>
       <c r="C82" t="n">
-        <v>1.4362</v>
+        <v>1.4007</v>
       </c>
       <c r="D82" t="n">
-        <v>2.8874</v>
+        <v>2.8876</v>
       </c>
       <c r="E82" t="s">
         <v>197</v>
@@ -4220,16 +4217,16 @@
         <v>177</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1584</v>
+        <v>0.1245</v>
       </c>
       <c r="D83" t="n">
-        <v>1.1129</v>
+        <v>1.1126</v>
       </c>
       <c r="E83" t="s">
         <v>199</v>
       </c>
       <c r="F83" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84">
@@ -4240,16 +4237,16 @@
         <v>131</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.6012</v>
+        <v>-1.2988</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4807</v>
+        <v>0.3385</v>
       </c>
       <c r="E84" t="s">
         <v>201</v>
       </c>
       <c r="F84" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85">
@@ -4260,16 +4257,16 @@
         <v>140</v>
       </c>
       <c r="C85" t="n">
-        <v>2.002</v>
+        <v>1.9659</v>
       </c>
       <c r="D85" t="n">
-        <v>2.4596</v>
+        <v>2.4609</v>
       </c>
       <c r="E85" t="s">
         <v>203</v>
       </c>
       <c r="F85" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86">
@@ -4280,16 +4277,16 @@
         <v>55</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2416</v>
+        <v>0.2076</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1985</v>
+        <v>0.198</v>
       </c>
       <c r="E86" t="s">
         <v>205</v>
       </c>
       <c r="F86" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87">
@@ -4300,10 +4297,10 @@
         <v>55</v>
       </c>
       <c r="C87" t="n">
-        <v>2.1937</v>
+        <v>2.1573</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.2763</v>
+        <v>-0.2787</v>
       </c>
       <c r="E87" t="s">
         <v>207</v>
@@ -4320,16 +4317,16 @@
         <v>58</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.344</v>
+        <v>-0.3774</v>
       </c>
       <c r="D88" t="n">
-        <v>2.362</v>
+        <v>2.363</v>
       </c>
       <c r="E88" t="s">
         <v>209</v>
       </c>
       <c r="F88" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
@@ -4340,10 +4337,10 @@
         <v>211</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.3947</v>
+        <v>-1.4268</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.339</v>
+        <v>-1.3407</v>
       </c>
       <c r="E89" t="s">
         <v>212</v>
@@ -4360,16 +4357,16 @@
         <v>158</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3574</v>
+        <v>0.3232</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.6041</v>
+        <v>-1.6051</v>
       </c>
       <c r="E90" t="s">
         <v>214</v>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91">
@@ -4380,10 +4377,10 @@
         <v>80</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2412</v>
+        <v>0.2071</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.5175</v>
+        <v>-2.5202</v>
       </c>
       <c r="E91" t="s">
         <v>216</v>
@@ -4400,10 +4397,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1065</v>
+        <v>-0.1402</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.0953</v>
+        <v>-1.0969</v>
       </c>
       <c r="E92" t="s">
         <v>218</v>
@@ -4420,10 +4417,10 @@
         <v>89</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2941</v>
+        <v>0.2599</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0029</v>
+        <v>-0.0044</v>
       </c>
       <c r="E93" t="s">
         <v>220</v>
@@ -4440,16 +4437,16 @@
         <v>66</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.0995</v>
+        <v>-1.132</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.2643</v>
+        <v>-0.266</v>
       </c>
       <c r="E94" t="s">
         <v>222</v>
       </c>
       <c r="F94" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95">
@@ -4460,16 +4457,16 @@
         <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4479</v>
+        <v>0.4135</v>
       </c>
       <c r="D95" t="n">
-        <v>0.691</v>
+        <v>0.6915</v>
       </c>
       <c r="E95" t="s">
         <v>224</v>
       </c>
       <c r="F95" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96">
@@ -4480,16 +4477,16 @@
         <v>226</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7567</v>
+        <v>0.722</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5065</v>
+        <v>-0.5079</v>
       </c>
       <c r="E96" t="s">
         <v>227</v>
       </c>
       <c r="F96" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97">
@@ -4500,10 +4497,10 @@
         <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>2.3422</v>
+        <v>2.3056</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4197</v>
+        <v>-0.4223</v>
       </c>
       <c r="E97" t="s">
         <v>229</v>
@@ -4520,10 +4517,10 @@
         <v>73</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0046</v>
+        <v>-0.0291</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6325</v>
+        <v>1.6329</v>
       </c>
       <c r="E98" t="s">
         <v>231</v>
@@ -4540,16 +4537,16 @@
         <v>24</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.0461</v>
+        <v>-1.0786</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8811</v>
+        <v>0.8802</v>
       </c>
       <c r="E99" t="s">
         <v>233</v>
       </c>
       <c r="F99" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
@@ -4560,16 +4557,16 @@
         <v>177</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.2271</v>
+        <v>-1.2595</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5293</v>
+        <v>-0.5305</v>
       </c>
       <c r="E100" t="s">
         <v>235</v>
       </c>
       <c r="F100" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101">
@@ -4580,16 +4577,16 @@
         <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0467</v>
+        <v>-0.0804</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0482</v>
+        <v>0.0472</v>
       </c>
       <c r="E101" t="s">
         <v>237</v>
       </c>
       <c r="F101" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102">
@@ -4600,10 +4597,10 @@
         <v>140</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2225</v>
+        <v>1.1873</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5815</v>
+        <v>0.58</v>
       </c>
       <c r="E102" t="s">
         <v>239</v>
@@ -4620,10 +4617,10 @@
         <v>121</v>
       </c>
       <c r="C103" t="n">
-        <v>1.2932</v>
+        <v>1.2579</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.3347</v>
+        <v>-0.3366</v>
       </c>
       <c r="E103" t="s">
         <v>241</v>
@@ -4640,10 +4637,10 @@
         <v>177</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2992</v>
+        <v>-0.3326</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7924</v>
+        <v>-0.794</v>
       </c>
       <c r="E104" t="s">
         <v>243</v>
@@ -4660,16 +4657,16 @@
         <v>177</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.6018</v>
+        <v>-1.6337</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.2005</v>
+        <v>-1.2021</v>
       </c>
       <c r="E105" t="s">
         <v>245</v>
       </c>
       <c r="F105" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106">
@@ -4680,16 +4677,16 @@
         <v>96</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8682</v>
+        <v>1.2514</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0335</v>
+        <v>0.0116</v>
       </c>
       <c r="E106" t="s">
         <v>247</v>
       </c>
       <c r="F106" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107">
@@ -4700,16 +4697,16 @@
         <v>35</v>
       </c>
       <c r="C107" t="n">
-        <v>1.4408</v>
+        <v>1.4053</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.3527</v>
+        <v>-0.3542</v>
       </c>
       <c r="E107" t="s">
         <v>249</v>
       </c>
       <c r="F107" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
@@ -4720,10 +4717,10 @@
         <v>35</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4681</v>
+        <v>0.4338</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.4018</v>
+        <v>-0.4038</v>
       </c>
       <c r="E108" t="s">
         <v>251</v>
@@ -4740,16 +4737,16 @@
         <v>73</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.912</v>
+        <v>-0.9447</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.3106</v>
+        <v>-0.3125</v>
       </c>
       <c r="E109" t="s">
         <v>253</v>
       </c>
       <c r="F109" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110">
@@ -4760,10 +4757,10 @@
         <v>24</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.2019</v>
+        <v>-0.2355</v>
       </c>
       <c r="D110" t="n">
-        <v>1.6173</v>
+        <v>1.6186</v>
       </c>
       <c r="E110" t="s">
         <v>255</v>
@@ -4780,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="C111" t="n">
-        <v>3.1315</v>
+        <v>3.094</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0567</v>
+        <v>1.0564</v>
       </c>
       <c r="E111" t="s">
         <v>257</v>
@@ -4800,16 +4797,16 @@
         <v>16</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.8151</v>
+        <v>-0.8479</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1866</v>
+        <v>-0.1873</v>
       </c>
       <c r="E112" t="s">
         <v>259</v>
       </c>
       <c r="F112" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113">
@@ -4820,10 +4817,10 @@
         <v>102</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2401</v>
+        <v>-0.2736</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0918</v>
+        <v>0.0913</v>
       </c>
       <c r="E113" t="s">
         <v>261</v>
@@ -4840,10 +4837,10 @@
         <v>151</v>
       </c>
       <c r="C114" t="n">
-        <v>2.0268</v>
+        <v>1.9907</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.7304</v>
+        <v>-0.7324</v>
       </c>
       <c r="E114" t="s">
         <v>263</v>
@@ -4860,10 +4857,10 @@
         <v>121</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4554</v>
+        <v>0.421</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0042</v>
+        <v>0.0036</v>
       </c>
       <c r="E115" t="s">
         <v>265</v>
@@ -4880,16 +4877,16 @@
         <v>27</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5773</v>
+        <v>0.5428</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.9904</v>
+        <v>-0.9923</v>
       </c>
       <c r="E116" t="s">
         <v>267</v>
       </c>
       <c r="F116" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117">
@@ -4900,16 +4897,16 @@
         <v>86</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.8043</v>
+        <v>-2.8348</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1844</v>
+        <v>-0.1847</v>
       </c>
       <c r="E117" t="s">
         <v>269</v>
       </c>
       <c r="F117" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118">
@@ -4920,16 +4917,16 @@
         <v>99</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.6011</v>
+        <v>-0.6342</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.6583</v>
+        <v>-0.6591</v>
       </c>
       <c r="E118" t="s">
         <v>271</v>
       </c>
       <c r="F118" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
@@ -4940,16 +4937,16 @@
         <v>121</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.6597</v>
+        <v>-0.6927</v>
       </c>
       <c r="D119" t="n">
-        <v>1.4725</v>
+        <v>1.4732</v>
       </c>
       <c r="E119" t="s">
         <v>273</v>
       </c>
       <c r="F119" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120">
@@ -4960,16 +4957,16 @@
         <v>158</v>
       </c>
       <c r="C120" t="n">
-        <v>1.7126</v>
+        <v>1.6769</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1403</v>
+        <v>-0.1413</v>
       </c>
       <c r="E120" t="s">
         <v>275</v>
       </c>
       <c r="F120" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121">
@@ -4980,16 +4977,16 @@
         <v>32</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.4086</v>
+        <v>-0.4419</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.2976</v>
+        <v>-1.3004</v>
       </c>
       <c r="E121" t="s">
         <v>277</v>
       </c>
       <c r="F121" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122">
@@ -5000,16 +4997,16 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1245</v>
+        <v>-0.1581</v>
       </c>
       <c r="D122" t="n">
-        <v>1.2102</v>
+        <v>1.2107</v>
       </c>
       <c r="E122" t="s">
         <v>279</v>
       </c>
       <c r="F122" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123">
@@ -5020,10 +5017,10 @@
         <v>131</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3208</v>
+        <v>0.2867</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6042</v>
+        <v>1.6046</v>
       </c>
       <c r="E123" t="s">
         <v>281</v>
@@ -5040,16 +5037,16 @@
         <v>66</v>
       </c>
       <c r="C124" t="n">
-        <v>1.3049</v>
+        <v>1.2696</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2816</v>
+        <v>0.2818</v>
       </c>
       <c r="E124" t="s">
         <v>283</v>
       </c>
       <c r="F124" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125">
@@ -5060,10 +5057,10 @@
         <v>211</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.0069</v>
+        <v>-1.0394</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1524</v>
+        <v>-0.1526</v>
       </c>
       <c r="E125" t="s">
         <v>285</v>
@@ -5080,10 +5077,10 @@
         <v>211</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.4458</v>
+        <v>-1.4779</v>
       </c>
       <c r="D126" t="n">
-        <v>-1.1206</v>
+        <v>-1.1213</v>
       </c>
       <c r="E126" t="s">
         <v>287</v>
@@ -5100,16 +5097,16 @@
         <v>151</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7381</v>
+        <v>1.1472</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9302</v>
+        <v>-0.8396</v>
       </c>
       <c r="E127" t="s">
         <v>289</v>
       </c>
       <c r="F127" t="n">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128">
@@ -5120,16 +5117,16 @@
         <v>80</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2035</v>
+        <v>0.1695</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.6646</v>
+        <v>-0.6654</v>
       </c>
       <c r="E128" t="s">
         <v>291</v>
       </c>
       <c r="F128" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129">
@@ -5140,16 +5137,16 @@
         <v>293</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0486</v>
+        <v>0.0147</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0104</v>
+        <v>0.0092</v>
       </c>
       <c r="E129" t="s">
         <v>294</v>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130">
@@ -5160,10 +5157,10 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.9571</v>
+        <v>-0.9898</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.352</v>
+        <v>-1.3538</v>
       </c>
       <c r="E130" t="s">
         <v>296</v>
@@ -5180,10 +5177,10 @@
         <v>80</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.5833</v>
+        <v>-0.6164</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.0139</v>
+        <v>-1.0154</v>
       </c>
       <c r="E131" t="s">
         <v>298</v>
@@ -5200,10 +5197,10 @@
         <v>293</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1314</v>
+        <v>-0.165</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1004</v>
+        <v>-0.1012</v>
       </c>
       <c r="E132" t="s">
         <v>300</v>
@@ -5220,16 +5217,16 @@
         <v>124</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2363</v>
+        <v>0.2022</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.9704</v>
+        <v>-0.9721</v>
       </c>
       <c r="E133" t="s">
         <v>302</v>
       </c>
       <c r="F133" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134">
@@ -5240,10 +5237,10 @@
         <v>61</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8043</v>
+        <v>0.7696</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0323</v>
+        <v>0.0309</v>
       </c>
       <c r="E134" t="s">
         <v>304</v>
@@ -5260,16 +5257,16 @@
         <v>293</v>
       </c>
       <c r="C135" t="n">
-        <v>1.2168</v>
+        <v>1.1816</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3779</v>
+        <v>0.3775</v>
       </c>
       <c r="E135" t="s">
         <v>306</v>
       </c>
       <c r="F135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136">
@@ -5280,10 +5277,10 @@
         <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>3.1226</v>
+        <v>3.0851</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.7285</v>
+        <v>-0.7304</v>
       </c>
       <c r="E136" t="s">
         <v>308</v>
@@ -5300,16 +5297,16 @@
         <v>151</v>
       </c>
       <c r="C137" t="n">
-        <v>1.0543</v>
+        <v>1.4952</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8981</v>
+        <v>0.9358</v>
       </c>
       <c r="E137" t="s">
         <v>310</v>
       </c>
       <c r="F137" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138">
@@ -5320,16 +5317,16 @@
         <v>16</v>
       </c>
       <c r="C138" t="n">
-        <v>-2.1631</v>
+        <v>-2.1943</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0088</v>
+        <v>0.0082</v>
       </c>
       <c r="E138" t="s">
         <v>312</v>
       </c>
       <c r="F138" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139">
@@ -5340,16 +5337,16 @@
         <v>55</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9573</v>
+        <v>0.9224</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9719</v>
+        <v>0.9713</v>
       </c>
       <c r="E139" t="s">
         <v>314</v>
       </c>
       <c r="F139" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140">
@@ -5360,10 +5357,10 @@
         <v>226</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2079</v>
+        <v>1.1727</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2028</v>
+        <v>0.2023</v>
       </c>
       <c r="E140" t="s">
         <v>316</v>
@@ -5380,16 +5377,16 @@
         <v>158</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5316</v>
+        <v>0.4972</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3821</v>
+        <v>0.3816</v>
       </c>
       <c r="E141" t="s">
         <v>318</v>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142">
@@ -5400,10 +5397,10 @@
         <v>61</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.5814</v>
+        <v>-1.6133</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.3115</v>
+        <v>-0.3133</v>
       </c>
       <c r="E142" t="s">
         <v>320</v>
@@ -5420,10 +5417,10 @@
         <v>61</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4938</v>
+        <v>0.4595</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0369</v>
+        <v>-0.038</v>
       </c>
       <c r="E143" t="s">
         <v>322</v>
@@ -5440,16 +5437,16 @@
         <v>226</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.1132</v>
+        <v>-1.1457</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.2151</v>
+        <v>-0.2156</v>
       </c>
       <c r="E144" t="s">
         <v>324</v>
       </c>
       <c r="F144" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145">
@@ -5460,10 +5457,10 @@
         <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0692</v>
+        <v>0.0353</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5981</v>
+        <v>0.5976</v>
       </c>
       <c r="E145" t="s">
         <v>326</v>
@@ -5480,10 +5477,10 @@
         <v>24</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3277</v>
+        <v>0.2935</v>
       </c>
       <c r="D146" t="n">
-        <v>2.3455</v>
+        <v>2.3468</v>
       </c>
       <c r="E146" t="s">
         <v>328</v>
@@ -5500,10 +5497,10 @@
         <v>177</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.5882</v>
+        <v>-1.6201</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1564</v>
+        <v>-0.1579</v>
       </c>
       <c r="E147" t="s">
         <v>330</v>
@@ -5520,10 +5517,10 @@
         <v>32</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.4668</v>
+        <v>-0.5</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.3107</v>
+        <v>-1.3121</v>
       </c>
       <c r="E148" t="s">
         <v>332</v>
@@ -5540,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="C149" t="n">
-        <v>0.7903</v>
+        <v>0.7556</v>
       </c>
       <c r="D149" t="n">
         <v>1.766</v>
@@ -5549,7 +5546,7 @@
         <v>334</v>
       </c>
       <c r="F149" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150">
@@ -5560,16 +5557,16 @@
         <v>32</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6301</v>
+        <v>0.5956</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.8092</v>
+        <v>-1.8112</v>
       </c>
       <c r="E150" t="s">
         <v>336</v>
       </c>
       <c r="F150" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151">
@@ -5580,10 +5577,10 @@
         <v>226</v>
       </c>
       <c r="C151" t="n">
-        <v>1.2809</v>
+        <v>1.2456</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.4348</v>
+        <v>-0.4366</v>
       </c>
       <c r="E151" t="s">
         <v>338</v>
@@ -5600,16 +5597,16 @@
         <v>226</v>
       </c>
       <c r="C152" t="n">
-        <v>1.7382</v>
+        <v>1.7024</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.778</v>
+        <v>-0.7798</v>
       </c>
       <c r="E152" t="s">
         <v>340</v>
       </c>
       <c r="F152" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153">
@@ -5620,16 +5617,16 @@
         <v>99</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7246</v>
+        <v>0.6899</v>
       </c>
       <c r="D153" t="n">
-        <v>0.2101</v>
+        <v>0.2097</v>
       </c>
       <c r="E153" t="s">
         <v>342</v>
       </c>
       <c r="F153" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154">
@@ -5640,16 +5637,16 @@
         <v>89</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2096</v>
+        <v>0.1756</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0318</v>
+        <v>0.031</v>
       </c>
       <c r="E154" t="s">
         <v>344</v>
       </c>
       <c r="F154" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155">
@@ -5660,16 +5657,16 @@
         <v>121</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8145</v>
+        <v>0.7798</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.7278</v>
+        <v>-0.7293</v>
       </c>
       <c r="E155" t="s">
         <v>346</v>
       </c>
       <c r="F155" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156">
@@ -5680,10 +5677,10 @@
         <v>35</v>
       </c>
       <c r="C156" t="n">
-        <v>1.4024</v>
+        <v>1.3669</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3206</v>
+        <v>0.3198</v>
       </c>
       <c r="E156" t="s">
         <v>348</v>
@@ -5700,10 +5697,10 @@
         <v>35</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1147</v>
+        <v>0.0808</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.6047</v>
+        <v>-0.6057</v>
       </c>
       <c r="E157" t="s">
         <v>350</v>
@@ -5720,16 +5717,16 @@
         <v>24</v>
       </c>
       <c r="C158" t="n">
-        <v>0.8364</v>
+        <v>0.8016</v>
       </c>
       <c r="D158" t="n">
-        <v>2.1525</v>
+        <v>2.1524</v>
       </c>
       <c r="E158" t="s">
         <v>352</v>
       </c>
       <c r="F158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -5740,10 +5737,10 @@
         <v>19</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9896</v>
+        <v>0.9547</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4897</v>
+        <v>0.4898</v>
       </c>
       <c r="E159" t="s">
         <v>354</v>
@@ -5760,16 +5757,16 @@
         <v>73</v>
       </c>
       <c r="C160" t="n">
-        <v>0.8233</v>
+        <v>0.7885</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1171</v>
+        <v>0.1172</v>
       </c>
       <c r="E160" t="s">
         <v>356</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
@@ -5780,16 +5777,16 @@
         <v>80</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.4988</v>
+        <v>-0.532</v>
       </c>
       <c r="D161" t="n">
-        <v>-2.1736</v>
+        <v>-2.1768</v>
       </c>
       <c r="E161" t="s">
         <v>358</v>
       </c>
       <c r="F161" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162">
@@ -5800,16 +5797,16 @@
         <v>83</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.3183</v>
+        <v>-0.3517</v>
       </c>
       <c r="D162" t="n">
-        <v>0.686</v>
+        <v>0.6855</v>
       </c>
       <c r="E162" t="s">
         <v>360</v>
       </c>
       <c r="F162" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163">
@@ -5820,10 +5817,10 @@
         <v>32</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3705</v>
+        <v>0.3363</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.3713</v>
+        <v>-0.3731</v>
       </c>
       <c r="E163" t="s">
         <v>362</v>
@@ -5840,16 +5837,16 @@
         <v>27</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.4599</v>
+        <v>-1.0932</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.2542</v>
+        <v>-0.3553</v>
       </c>
       <c r="E164" t="s">
         <v>364</v>
       </c>
       <c r="F164" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165">
@@ -5860,10 +5857,10 @@
         <v>124</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.4788</v>
+        <v>-2.5097</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4266</v>
+        <v>0.4256</v>
       </c>
       <c r="E165" t="s">
         <v>366</v>
@@ -5880,10 +5877,10 @@
         <v>124</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.718</v>
+        <v>-0.7509</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.399</v>
+        <v>-1.4009</v>
       </c>
       <c r="E166" t="s">
         <v>368</v>
@@ -5900,16 +5897,16 @@
         <v>96</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8808</v>
+        <v>0.846</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0478</v>
+        <v>0.0477</v>
       </c>
       <c r="E167" t="s">
         <v>370</v>
       </c>
       <c r="F167" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -5920,10 +5917,10 @@
         <v>19</v>
       </c>
       <c r="C168" t="n">
-        <v>1.6011</v>
+        <v>1.5654</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.9947</v>
+        <v>-0.9978</v>
       </c>
       <c r="E168" t="s">
         <v>372</v>
@@ -5940,16 +5937,16 @@
         <v>27</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.2481</v>
+        <v>-0.2816</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.5227</v>
+        <v>-0.5249</v>
       </c>
       <c r="E169" t="s">
         <v>374</v>
       </c>
       <c r="F169" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170">
@@ -5960,10 +5957,10 @@
         <v>66</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.7774</v>
+        <v>-1.8091</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.4807</v>
+        <v>-1.4828</v>
       </c>
       <c r="E170" t="s">
         <v>376</v>
@@ -5980,10 +5977,10 @@
         <v>293</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6298</v>
+        <v>0.5953</v>
       </c>
       <c r="D171" t="n">
-        <v>1.6932</v>
+        <v>1.6949</v>
       </c>
       <c r="E171" t="s">
         <v>378</v>
@@ -6000,16 +5997,16 @@
         <v>27</v>
       </c>
       <c r="C172" t="n">
-        <v>1.4086</v>
+        <v>1.3732</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.4795</v>
+        <v>-0.4801</v>
       </c>
       <c r="E172" t="s">
         <v>380</v>
       </c>
       <c r="F172" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="173">
@@ -6020,16 +6017,16 @@
         <v>177</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2538</v>
+        <v>-0.2873</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1441</v>
+        <v>0.1442</v>
       </c>
       <c r="E173" t="s">
         <v>382</v>
       </c>
       <c r="F173" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="174">
@@ -6040,10 +6037,10 @@
         <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.627</v>
+        <v>-0.6601</v>
       </c>
       <c r="D174" t="n">
-        <v>1.0226</v>
+        <v>1.0239</v>
       </c>
       <c r="E174" t="s">
         <v>384</v>
@@ -6060,7 +6057,7 @@
         <v>131</v>
       </c>
       <c r="C175" t="n">
-        <v>1.3508</v>
+        <v>1.3154</v>
       </c>
       <c r="D175" t="n">
         <v>1.4616</v>
@@ -6069,7 +6066,7 @@
         <v>386</v>
       </c>
       <c r="F175" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176">
@@ -6080,16 +6077,16 @@
         <v>140</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6483</v>
+        <v>0.6138</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.0117</v>
+        <v>-0.0126</v>
       </c>
       <c r="E176" t="s">
         <v>388</v>
       </c>
       <c r="F176" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177">
@@ -6100,16 +6097,16 @@
         <v>73</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.4983</v>
+        <v>-0.5315</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.7539</v>
+        <v>-0.7554</v>
       </c>
       <c r="E177" t="s">
         <v>390</v>
       </c>
       <c r="F177" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178">
@@ -6120,7 +6117,7 @@
         <v>13</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.144</v>
+        <v>-0.1776</v>
       </c>
       <c r="D178" t="n">
         <v>0.326</v>
@@ -6129,7 +6126,7 @@
         <v>392</v>
       </c>
       <c r="F178" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179">
@@ -6140,10 +6137,10 @@
         <v>293</v>
       </c>
       <c r="C179" t="n">
-        <v>1.2946</v>
+        <v>1.2593</v>
       </c>
       <c r="D179" t="n">
-        <v>1.8731</v>
+        <v>1.8746</v>
       </c>
       <c r="E179" t="s">
         <v>394</v>
@@ -6160,16 +6157,16 @@
         <v>293</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.3499</v>
+        <v>-0.3833</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.4821</v>
+        <v>-0.4837</v>
       </c>
       <c r="E180" t="s">
         <v>396</v>
       </c>
       <c r="F180" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
@@ -6180,7 +6177,7 @@
         <v>19</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.4747</v>
+        <v>-0.5079</v>
       </c>
       <c r="D181" t="n">
         <v>0.2023</v>
@@ -6189,7 +6186,7 @@
         <v>398</v>
       </c>
       <c r="F181" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182">
@@ -6200,16 +6197,16 @@
         <v>151</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0094</v>
+        <v>-0.0243</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.1647</v>
+        <v>-1.1656</v>
       </c>
       <c r="E182" t="s">
         <v>400</v>
       </c>
       <c r="F182" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183">
@@ -6220,10 +6217,10 @@
         <v>293</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.2529</v>
+        <v>0.1188</v>
       </c>
       <c r="D183" t="n">
-        <v>1.2355</v>
+        <v>1.1796</v>
       </c>
       <c r="E183" t="s">
         <v>402</v>
@@ -6240,10 +6237,10 @@
         <v>24</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2438</v>
+        <v>0.2097</v>
       </c>
       <c r="D184" t="n">
-        <v>1.8999</v>
+        <v>1.9003</v>
       </c>
       <c r="E184" t="s">
         <v>404</v>
@@ -6260,10 +6257,10 @@
         <v>16</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.3834</v>
+        <v>-1.4155</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.3565</v>
+        <v>-0.3572</v>
       </c>
       <c r="E185" t="s">
         <v>406</v>
@@ -6280,10 +6277,10 @@
         <v>24</v>
       </c>
       <c r="C186" t="n">
-        <v>0.1598</v>
+        <v>0.1258</v>
       </c>
       <c r="D186" t="n">
-        <v>1.0181</v>
+        <v>1.018</v>
       </c>
       <c r="E186" t="s">
         <v>408</v>
@@ -6300,10 +6297,10 @@
         <v>102</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.0681</v>
+        <v>-0.1018</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.0474</v>
+        <v>-1.0497</v>
       </c>
       <c r="E187" t="s">
         <v>410</v>
@@ -6320,10 +6317,10 @@
         <v>80</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2743</v>
+        <v>0.2402</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0385</v>
+        <v>0.0372</v>
       </c>
       <c r="E188" t="s">
         <v>412</v>
@@ -6340,16 +6337,16 @@
         <v>24</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.5747</v>
+        <v>-1.6067</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1825</v>
+        <v>-0.1823</v>
       </c>
       <c r="E189" t="s">
         <v>414</v>
       </c>
       <c r="F189" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190">
@@ -6360,16 +6357,16 @@
         <v>124</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.4105</v>
+        <v>-0.4439</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1156</v>
+        <v>0.1147</v>
       </c>
       <c r="E190" t="s">
         <v>416</v>
       </c>
       <c r="F190" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191">
@@ -6380,16 +6377,16 @@
         <v>211</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.4398</v>
+        <v>-0.473</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.8399</v>
+        <v>-0.8407</v>
       </c>
       <c r="E191" t="s">
         <v>418</v>
       </c>
       <c r="F191" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192">
@@ -6400,10 +6397,10 @@
         <v>211</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1111</v>
+        <v>-0.1447</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.5278</v>
+        <v>-0.5292</v>
       </c>
       <c r="E192" t="s">
         <v>420</v>
@@ -6420,16 +6417,16 @@
         <v>55</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5898</v>
+        <v>0.5553</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1893</v>
+        <v>0.1889</v>
       </c>
       <c r="E193" t="s">
         <v>422</v>
       </c>
       <c r="F193" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194">
@@ -6440,10 +6437,10 @@
         <v>66</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.3325</v>
+        <v>-0.3659</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2833</v>
+        <v>0.2826</v>
       </c>
       <c r="E194" t="s">
         <v>424</v>
@@ -6460,10 +6457,10 @@
         <v>89</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.384</v>
+        <v>-0.4174</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.2518</v>
+        <v>-0.2519</v>
       </c>
       <c r="E195" t="s">
         <v>426</v>
@@ -6480,16 +6477,16 @@
         <v>55</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7533</v>
+        <v>0.7186</v>
       </c>
       <c r="D196" t="n">
-        <v>1.0451</v>
+        <v>1.0445</v>
       </c>
       <c r="E196" t="s">
         <v>428</v>
       </c>
       <c r="F196" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -6500,10 +6497,10 @@
         <v>32</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.627</v>
+        <v>-1.6589</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4265</v>
+        <v>0.427</v>
       </c>
       <c r="E197" t="s">
         <v>430</v>
@@ -6520,16 +6517,16 @@
         <v>186</v>
       </c>
       <c r="C198" t="n">
-        <v>0.314</v>
+        <v>0.8589</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.4226</v>
+        <v>-1.3573</v>
       </c>
       <c r="E198" t="s">
         <v>432</v>
       </c>
       <c r="F198" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199">
@@ -6540,73 +6537,73 @@
         <v>293</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1915</v>
+        <v>0.1575</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3561</v>
+        <v>0.3548</v>
       </c>
       <c r="E199" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="F199" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.2275</v>
+        <v>-0.261</v>
       </c>
       <c r="D200" t="n">
-        <v>2.0383</v>
+        <v>2.0398</v>
       </c>
       <c r="E200" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F200" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="n">
-        <v>1.1523</v>
+        <v>1.1172</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.5335</v>
+        <v>-0.5348</v>
       </c>
       <c r="E201" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F201" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B202" t="s">
         <v>27</v>
       </c>
       <c r="C202" t="n">
-        <v>-2.446</v>
+        <v>-2.1361</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.206</v>
+        <v>-1.3152</v>
       </c>
       <c r="E202" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F202" t="n">
         <v>352</v>
@@ -6614,19 +6611,19 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B203" t="s">
         <v>102</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6432</v>
+        <v>0.6087</v>
       </c>
       <c r="D203" t="n">
-        <v>1.6309</v>
+        <v>1.6323</v>
       </c>
       <c r="E203" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F203" t="n">
         <v>62</v>
@@ -6634,19 +6631,19 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.054</v>
+        <v>-0.0877</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.0718</v>
+        <v>-0.0728</v>
       </c>
       <c r="E204" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F204" t="n">
         <v>160</v>
@@ -6654,19 +6651,19 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.6474</v>
+        <v>-0.6805</v>
       </c>
       <c r="D205" t="n">
-        <v>1.1126</v>
+        <v>1.1114</v>
       </c>
       <c r="E205" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F205" t="n">
         <v>236</v>
@@ -6674,39 +6671,39 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B206" t="s">
         <v>124</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.0223</v>
+        <v>0.4136</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.5653</v>
+        <v>-0.4207</v>
       </c>
       <c r="E206" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F206" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.1127</v>
+        <v>-0.1464</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.711</v>
+        <v>-0.7123</v>
       </c>
       <c r="E207" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F207" t="n">
         <v>305</v>
@@ -6714,19 +6711,19 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B208" t="s">
         <v>226</v>
       </c>
       <c r="C208" t="n">
-        <v>0.5956</v>
+        <v>0.5611</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.4948</v>
+        <v>-1.4971</v>
       </c>
       <c r="E208" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F208" t="n">
         <v>156</v>
@@ -6734,19 +6731,19 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B209" t="s">
         <v>66</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5832</v>
+        <v>0.5487</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.0181</v>
+        <v>-0.0187</v>
       </c>
       <c r="E209" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F209" t="n">
         <v>228</v>
@@ -6754,39 +6751,39 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B210" t="s">
         <v>226</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.1335</v>
+        <v>-0.1672</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.8318</v>
+        <v>-0.8332</v>
       </c>
       <c r="E210" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F210" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B211" t="s">
         <v>121</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.4346</v>
+        <v>-1.4667</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1497</v>
+        <v>0.1489</v>
       </c>
       <c r="E211" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F211" t="n">
         <v>343</v>
@@ -6794,39 +6791,39 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B212" t="s">
         <v>66</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.8078</v>
+        <v>-0.8406</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.718</v>
+        <v>-0.7196</v>
       </c>
       <c r="E212" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F212" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B213" t="s">
         <v>66</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.2603</v>
+        <v>-0.2937</v>
       </c>
       <c r="D213" t="n">
-        <v>1.1909</v>
+        <v>1.1914</v>
       </c>
       <c r="E213" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F213" t="n">
         <v>302</v>
@@ -6834,39 +6831,39 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B214" t="s">
         <v>140</v>
       </c>
       <c r="C214" t="n">
-        <v>1.2803</v>
+        <v>1.245</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7984</v>
+        <v>0.7973</v>
       </c>
       <c r="E214" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F214" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B215" t="s">
         <v>73</v>
       </c>
       <c r="C215" t="n">
-        <v>1.1841</v>
+        <v>1.149</v>
       </c>
       <c r="D215" t="n">
-        <v>1.9318</v>
+        <v>1.9326</v>
       </c>
       <c r="E215" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F215" t="n">
         <v>29</v>
@@ -6874,39 +6871,39 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B216" t="s">
         <v>158</v>
       </c>
       <c r="C216" t="n">
-        <v>1.6923</v>
+        <v>1.6565</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5016</v>
+        <v>0.5026</v>
       </c>
       <c r="E216" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F216" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B217" t="s">
         <v>73</v>
       </c>
       <c r="C217" t="n">
-        <v>1.4038</v>
+        <v>1.3683</v>
       </c>
       <c r="D217" t="n">
-        <v>1.3185</v>
+        <v>1.3188</v>
       </c>
       <c r="E217" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F217" t="n">
         <v>2</v>
@@ -6914,59 +6911,59 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B218" t="s">
         <v>186</v>
       </c>
       <c r="C218" t="n">
-        <v>0.4356</v>
+        <v>0.4013</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.8385</v>
+        <v>-1.8403</v>
       </c>
       <c r="E218" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F218" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B219" t="s">
         <v>186</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1133</v>
+        <v>0.5425</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.3326</v>
+        <v>-1.3451</v>
       </c>
       <c r="E219" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F219" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B220" t="s">
         <v>226</v>
       </c>
       <c r="C220" t="n">
-        <v>1.4206</v>
+        <v>1.3851</v>
       </c>
       <c r="D220" t="n">
-        <v>0.5985</v>
+        <v>0.5987</v>
       </c>
       <c r="E220" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F220" t="n">
         <v>199</v>
@@ -6974,19 +6971,19 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B221" t="s">
         <v>19</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5005</v>
+        <v>0.4661</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6815</v>
+        <v>0.6813</v>
       </c>
       <c r="E221" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F221" t="n">
         <v>109</v>
@@ -6994,19 +6991,19 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B222" t="s">
         <v>158</v>
       </c>
       <c r="C222" t="n">
-        <v>0.3142</v>
+        <v>0.2801</v>
       </c>
       <c r="D222" t="n">
-        <v>-1.5454</v>
+        <v>-1.5475</v>
       </c>
       <c r="E222" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F222" t="n">
         <v>127</v>
@@ -7014,19 +7011,19 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B223" t="s">
         <v>211</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.0978</v>
+        <v>-1.1303</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.0534</v>
+        <v>-1.0551</v>
       </c>
       <c r="E223" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F223" t="n">
         <v>314</v>
@@ -7034,39 +7031,39 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B224" t="s">
         <v>211</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2049</v>
+        <v>0.1709</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.0539</v>
+        <v>-0.0538</v>
       </c>
       <c r="E224" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F224" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B225" t="s">
         <v>58</v>
       </c>
       <c r="C225" t="n">
-        <v>0.3845</v>
+        <v>0.3503</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.4702</v>
+        <v>-0.4706</v>
       </c>
       <c r="E225" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F225" t="n">
         <v>131</v>
@@ -7074,62 +7071,62 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B226" t="s">
         <v>80</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.6864</v>
+        <v>-0.7193</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.1494</v>
+        <v>-1.1505</v>
       </c>
       <c r="E226" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F226" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B227" t="s">
         <v>151</v>
       </c>
       <c r="C227" t="n">
-        <v>1.3774</v>
+        <v>1.7728</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3684</v>
+        <v>0.3894</v>
       </c>
       <c r="E227" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F227" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.0675</v>
+        <v>-1.1</v>
       </c>
       <c r="D228" t="n">
-        <v>0.3479</v>
+        <v>0.3474</v>
       </c>
       <c r="E228" t="s">
-        <v>491</v>
+        <v>90</v>
       </c>
       <c r="F228" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="229">
@@ -7140,16 +7137,16 @@
         <v>293</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.1236</v>
+        <v>-1.156</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.4981</v>
+        <v>-0.499</v>
       </c>
       <c r="E229" t="s">
         <v>493</v>
       </c>
       <c r="F229" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230">
@@ -7160,10 +7157,10 @@
         <v>73</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.0729</v>
+        <v>-0.1066</v>
       </c>
       <c r="D230" t="n">
-        <v>0.636</v>
+        <v>0.6362</v>
       </c>
       <c r="E230" t="s">
         <v>495</v>
@@ -7180,16 +7177,16 @@
         <v>151</v>
       </c>
       <c r="C231" t="n">
-        <v>1.5898</v>
+        <v>1.5541</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.9065</v>
+        <v>-0.9076</v>
       </c>
       <c r="E231" t="s">
         <v>497</v>
       </c>
       <c r="F231" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232">
@@ -7200,16 +7197,16 @@
         <v>293</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.4848</v>
+        <v>-0.518</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.17</v>
+        <v>-0.1706</v>
       </c>
       <c r="E232" t="s">
         <v>499</v>
       </c>
       <c r="F232" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233">
@@ -7220,16 +7217,16 @@
         <v>13</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.9376</v>
+        <v>-0.9702</v>
       </c>
       <c r="D233" t="n">
-        <v>0.4752</v>
+        <v>0.4748</v>
       </c>
       <c r="E233" t="s">
         <v>501</v>
       </c>
       <c r="F233" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234">
@@ -7240,10 +7237,10 @@
         <v>61</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.0591</v>
+        <v>-1.0917</v>
       </c>
       <c r="D234" t="n">
-        <v>0.2462</v>
+        <v>0.2458</v>
       </c>
       <c r="E234" t="s">
         <v>503</v>
@@ -7260,10 +7257,10 @@
         <v>61</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.0931</v>
+        <v>-0.1268</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.3515</v>
+        <v>-0.3524</v>
       </c>
       <c r="E235" t="s">
         <v>505</v>
@@ -7280,10 +7277,10 @@
         <v>19</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1775</v>
+        <v>0.1435</v>
       </c>
       <c r="D236" t="n">
-        <v>0.975</v>
+        <v>0.9753</v>
       </c>
       <c r="E236" t="s">
         <v>507</v>
@@ -7300,16 +7297,16 @@
         <v>186</v>
       </c>
       <c r="C237" t="n">
-        <v>1.0853</v>
+        <v>1.0503</v>
       </c>
       <c r="D237" t="n">
-        <v>0.3483</v>
+        <v>0.3489</v>
       </c>
       <c r="E237" t="s">
         <v>509</v>
       </c>
       <c r="F237" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238">
@@ -7320,16 +7317,16 @@
         <v>38</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.2849</v>
+        <v>-0.3183</v>
       </c>
       <c r="D238" t="n">
-        <v>1.4171</v>
+        <v>1.4177</v>
       </c>
       <c r="E238" t="s">
         <v>511</v>
       </c>
       <c r="F238" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="239">
@@ -7340,10 +7337,10 @@
         <v>38</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.3373</v>
+        <v>-0.3707</v>
       </c>
       <c r="D239" t="n">
-        <v>0.5472</v>
+        <v>0.546</v>
       </c>
       <c r="E239" t="s">
         <v>513</v>
@@ -7360,16 +7357,16 @@
         <v>83</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3961</v>
+        <v>0.3618</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.6949</v>
+        <v>-0.696</v>
       </c>
       <c r="E240" t="s">
         <v>515</v>
       </c>
       <c r="F240" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241">
@@ -7380,16 +7377,16 @@
         <v>293</v>
       </c>
       <c r="C241" t="n">
-        <v>-1.124</v>
+        <v>-1.1565</v>
       </c>
       <c r="D241" t="n">
-        <v>0.6553</v>
+        <v>0.6547</v>
       </c>
       <c r="E241" t="s">
         <v>517</v>
       </c>
       <c r="F241" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="242">
@@ -7400,16 +7397,16 @@
         <v>86</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.8074</v>
+        <v>-0.8403</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.9187</v>
+        <v>-0.9203</v>
       </c>
       <c r="E242" t="s">
         <v>519</v>
       </c>
       <c r="F242" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="243">
@@ -7420,16 +7417,16 @@
         <v>83</v>
       </c>
       <c r="C243" t="n">
-        <v>1.0477</v>
+        <v>1.0127</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.137</v>
+        <v>-1.139</v>
       </c>
       <c r="E243" t="s">
         <v>521</v>
       </c>
       <c r="F243" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="244">
@@ -7440,7 +7437,7 @@
         <v>73</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0037</v>
+        <v>-0.0301</v>
       </c>
       <c r="D244" t="n">
         <v>0.8226</v>
@@ -7460,10 +7457,10 @@
         <v>211</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1267</v>
+        <v>0.0927</v>
       </c>
       <c r="D245" t="n">
-        <v>2.828</v>
+        <v>2.8291</v>
       </c>
       <c r="E245" t="s">
         <v>525</v>
@@ -7480,16 +7477,16 @@
         <v>83</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0667</v>
+        <v>0.0329</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.506</v>
+        <v>-1.508</v>
       </c>
       <c r="E246" t="s">
         <v>527</v>
       </c>
       <c r="F246" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247">
@@ -7500,16 +7497,16 @@
         <v>16</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.6861</v>
+        <v>-0.7191</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.0895</v>
+        <v>-0.091</v>
       </c>
       <c r="E247" t="s">
         <v>529</v>
       </c>
       <c r="F247" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248">
@@ -7520,10 +7517,10 @@
         <v>121</v>
       </c>
       <c r="C248" t="n">
-        <v>1.7378</v>
+        <v>1.702</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.0238</v>
+        <v>-1.0252</v>
       </c>
       <c r="E248" t="s">
         <v>531</v>
@@ -7540,16 +7537,16 @@
         <v>86</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.6632</v>
+        <v>-2.6938</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.3956</v>
+        <v>-0.3964</v>
       </c>
       <c r="E249" t="s">
         <v>533</v>
       </c>
       <c r="F249" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="250">
@@ -7560,10 +7557,10 @@
         <v>96</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.1636</v>
+        <v>-0.1972</v>
       </c>
       <c r="D250" t="n">
-        <v>0.938</v>
+        <v>0.9377</v>
       </c>
       <c r="E250" t="s">
         <v>535</v>
@@ -7580,16 +7577,16 @@
         <v>293</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2959</v>
+        <v>0.7313</v>
       </c>
       <c r="D251" t="n">
-        <v>1.6083</v>
+        <v>1.5733</v>
       </c>
       <c r="E251" t="s">
         <v>537</v>
       </c>
       <c r="F251" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
@@ -7600,16 +7597,16 @@
         <v>124</v>
       </c>
       <c r="C252" t="n">
-        <v>-1.2069</v>
+        <v>-0.6988</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.0583</v>
+        <v>-0.0446</v>
       </c>
       <c r="E252" t="s">
         <v>539</v>
       </c>
       <c r="F252" t="n">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="253">
@@ -7620,16 +7617,16 @@
         <v>121</v>
       </c>
       <c r="C253" t="n">
-        <v>0.6554</v>
+        <v>0.6209</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0404</v>
+        <v>0.0397</v>
       </c>
       <c r="E253" t="s">
         <v>541</v>
       </c>
       <c r="F253" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="254">
@@ -7640,10 +7637,10 @@
         <v>177</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.8081</v>
+        <v>-0.8409</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9069</v>
+        <v>0.9064</v>
       </c>
       <c r="E254" t="s">
         <v>543</v>
@@ -7660,16 +7657,16 @@
         <v>19</v>
       </c>
       <c r="C255" t="n">
-        <v>0.7963</v>
+        <v>0.7616</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.6685</v>
+        <v>-0.669</v>
       </c>
       <c r="E255" t="s">
         <v>545</v>
       </c>
       <c r="F255" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="256">
@@ -7680,16 +7677,16 @@
         <v>177</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.5243</v>
+        <v>-0.5574</v>
       </c>
       <c r="D256" t="n">
-        <v>-2.1671</v>
+        <v>-2.1707</v>
       </c>
       <c r="E256" t="s">
         <v>547</v>
       </c>
       <c r="F256" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="257">
@@ -7700,16 +7697,16 @@
         <v>124</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.0411</v>
+        <v>-0.0748</v>
       </c>
       <c r="D257" t="n">
-        <v>0.5028</v>
+        <v>0.5014</v>
       </c>
       <c r="E257" t="s">
         <v>549</v>
       </c>
       <c r="F257" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="258">
@@ -7720,10 +7717,10 @@
         <v>89</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0292</v>
+        <v>-0.0047</v>
       </c>
       <c r="D258" t="n">
-        <v>0.2755</v>
+        <v>0.2745</v>
       </c>
       <c r="E258" t="s">
         <v>551</v>
@@ -7740,16 +7737,16 @@
         <v>293</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.3367</v>
+        <v>-1.3689</v>
       </c>
       <c r="D259" t="n">
-        <v>1.5497</v>
+        <v>1.5504</v>
       </c>
       <c r="E259" t="s">
         <v>553</v>
       </c>
       <c r="F259" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260">
@@ -7760,16 +7757,16 @@
         <v>211</v>
       </c>
       <c r="C260" t="n">
-        <v>-1.7357</v>
+        <v>-1.7674</v>
       </c>
       <c r="D260" t="n">
-        <v>0.2536</v>
+        <v>0.2525</v>
       </c>
       <c r="E260" t="s">
         <v>555</v>
       </c>
       <c r="F260" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261">
@@ -7780,16 +7777,16 @@
         <v>89</v>
       </c>
       <c r="C261" t="n">
-        <v>1.4731</v>
+        <v>1.4375</v>
       </c>
       <c r="D261" t="n">
-        <v>0.5081</v>
+        <v>0.5086</v>
       </c>
       <c r="E261" t="s">
         <v>557</v>
       </c>
       <c r="F261" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262">
@@ -7800,16 +7797,16 @@
         <v>89</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.1891</v>
+        <v>-0.2226</v>
       </c>
       <c r="D262" t="n">
-        <v>1.1919</v>
+        <v>1.1923</v>
       </c>
       <c r="E262" t="s">
         <v>559</v>
       </c>
       <c r="F262" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="263">
@@ -7820,16 +7817,16 @@
         <v>177</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.5442</v>
+        <v>-0.5774</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.3363</v>
+        <v>-1.3381</v>
       </c>
       <c r="E263" t="s">
         <v>561</v>
       </c>
       <c r="F263" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="264">
@@ -7840,16 +7837,16 @@
         <v>177</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.9117</v>
+        <v>-0.9444</v>
       </c>
       <c r="D264" t="n">
-        <v>1.6705</v>
+        <v>1.6706</v>
       </c>
       <c r="E264" t="s">
         <v>563</v>
       </c>
       <c r="F264" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265">
@@ -7860,10 +7857,10 @@
         <v>83</v>
       </c>
       <c r="C265" t="n">
-        <v>1.0232</v>
+        <v>0.9882</v>
       </c>
       <c r="D265" t="n">
-        <v>0.359</v>
+        <v>0.3585</v>
       </c>
       <c r="E265" t="s">
         <v>565</v>
@@ -7880,7 +7877,7 @@
         <v>124</v>
       </c>
       <c r="C266" t="n">
-        <v>-1.8789</v>
+        <v>-1.9104</v>
       </c>
       <c r="D266" t="n">
         <v>0.582</v>
@@ -7900,16 +7897,16 @@
         <v>7</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.1247</v>
+        <v>-0.1583</v>
       </c>
       <c r="D267" t="n">
-        <v>0.3843</v>
+        <v>0.3833</v>
       </c>
       <c r="E267" t="s">
         <v>569</v>
       </c>
       <c r="F267" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="268">
@@ -7920,16 +7917,16 @@
         <v>140</v>
       </c>
       <c r="C268" t="n">
-        <v>1.8015</v>
+        <v>1.7656</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.0623</v>
+        <v>-0.0632</v>
       </c>
       <c r="E268" t="s">
         <v>571</v>
       </c>
       <c r="F268" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="269">
@@ -7940,16 +7937,16 @@
         <v>10</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.1947</v>
+        <v>-0.2283</v>
       </c>
       <c r="D269" t="n">
-        <v>0.2308</v>
+        <v>0.2306</v>
       </c>
       <c r="E269" t="s">
         <v>573</v>
       </c>
       <c r="F269" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270">
@@ -7960,10 +7957,10 @@
         <v>83</v>
       </c>
       <c r="C270" t="n">
-        <v>0.6034</v>
+        <v>0.569</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.782</v>
+        <v>-0.783</v>
       </c>
       <c r="E270" t="s">
         <v>575</v>
@@ -7980,7 +7977,7 @@
         <v>83</v>
       </c>
       <c r="C271" t="n">
-        <v>0.4885</v>
+        <v>0.4542</v>
       </c>
       <c r="D271" t="n">
         <v>0.6401</v>
@@ -7989,7 +7986,7 @@
         <v>577</v>
       </c>
       <c r="F271" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272">
@@ -8000,16 +7997,16 @@
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.563</v>
+        <v>-1.5949</v>
       </c>
       <c r="D272" t="n">
-        <v>0.0029</v>
+        <v>0.0038</v>
       </c>
       <c r="E272" t="s">
         <v>579</v>
       </c>
       <c r="F272" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="273">
@@ -8020,16 +8017,16 @@
         <v>83</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.1837</v>
+        <v>-0.2173</v>
       </c>
       <c r="D273" t="n">
-        <v>-1.0555</v>
+        <v>-1.0563</v>
       </c>
       <c r="E273" t="s">
         <v>581</v>
       </c>
       <c r="F273" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="274">
@@ -8040,10 +8037,10 @@
         <v>66</v>
       </c>
       <c r="C274" t="n">
-        <v>0.048</v>
+        <v>0.0141</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.5123</v>
+        <v>-0.5136</v>
       </c>
       <c r="E274" t="s">
         <v>583</v>
@@ -8060,16 +8057,16 @@
         <v>102</v>
       </c>
       <c r="C275" t="n">
-        <v>0.906</v>
+        <v>0.8712</v>
       </c>
       <c r="D275" t="n">
-        <v>0.1855</v>
+        <v>0.1858</v>
       </c>
       <c r="E275" t="s">
         <v>585</v>
       </c>
       <c r="F275" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276">
@@ -8080,16 +8077,16 @@
         <v>96</v>
       </c>
       <c r="C276" t="n">
-        <v>0.036</v>
+        <v>0.0022</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.338</v>
+        <v>-0.3393</v>
       </c>
       <c r="E276" t="s">
         <v>587</v>
       </c>
       <c r="F276" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="277">
@@ -8100,16 +8097,16 @@
         <v>124</v>
       </c>
       <c r="C277" t="n">
-        <v>-1.4265</v>
+        <v>-1.4586</v>
       </c>
       <c r="D277" t="n">
-        <v>-1.0529</v>
+        <v>-1.0545</v>
       </c>
       <c r="E277" t="s">
         <v>589</v>
       </c>
       <c r="F277" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278">
@@ -8120,10 +8117,10 @@
         <v>35</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1264</v>
+        <v>0.0924</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.2236</v>
+        <v>-0.2245</v>
       </c>
       <c r="E278" t="s">
         <v>591</v>
@@ -8140,10 +8137,10 @@
         <v>66</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.2227</v>
+        <v>-0.2562</v>
       </c>
       <c r="D279" t="n">
-        <v>0.4381</v>
+        <v>0.4388</v>
       </c>
       <c r="E279" t="s">
         <v>593</v>
@@ -8160,10 +8157,10 @@
         <v>121</v>
       </c>
       <c r="C280" t="n">
-        <v>0.6596</v>
+        <v>0.625</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.463</v>
+        <v>-0.4643</v>
       </c>
       <c r="E280" t="s">
         <v>595</v>
@@ -8180,10 +8177,10 @@
         <v>24</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.2152</v>
+        <v>-0.2487</v>
       </c>
       <c r="D281" t="n">
-        <v>1.1045</v>
+        <v>1.1051</v>
       </c>
       <c r="E281" t="s">
         <v>597</v>
@@ -8200,16 +8197,16 @@
         <v>186</v>
       </c>
       <c r="C282" t="n">
-        <v>2.7174</v>
+        <v>3.2723</v>
       </c>
       <c r="D282" t="n">
-        <v>-1.476</v>
+        <v>-1.4996</v>
       </c>
       <c r="E282" t="s">
         <v>599</v>
       </c>
       <c r="F282" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="283">
@@ -8220,10 +8217,10 @@
         <v>186</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.8536</v>
+        <v>-0.8864</v>
       </c>
       <c r="D283" t="n">
-        <v>-1.6194</v>
+        <v>-1.6214</v>
       </c>
       <c r="E283" t="s">
         <v>601</v>
@@ -8240,16 +8237,16 @@
         <v>131</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.4343</v>
+        <v>-0.4675</v>
       </c>
       <c r="D284" t="n">
-        <v>1.8029</v>
+        <v>1.8028</v>
       </c>
       <c r="E284" t="s">
         <v>603</v>
       </c>
       <c r="F284" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="285">
@@ -8260,16 +8257,16 @@
         <v>55</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1059</v>
+        <v>0.072</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.757</v>
+        <v>-0.758</v>
       </c>
       <c r="E285" t="s">
         <v>605</v>
       </c>
       <c r="F285" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286">
@@ -8280,10 +8277,10 @@
         <v>7</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.2021</v>
+        <v>-1.2345</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.0298</v>
+        <v>-0.0306</v>
       </c>
       <c r="E286" t="s">
         <v>607</v>
@@ -8300,16 +8297,16 @@
         <v>38</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6162</v>
+        <v>0.5816</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.4416</v>
+        <v>-0.4427</v>
       </c>
       <c r="E287" t="s">
         <v>609</v>
       </c>
       <c r="F287" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="288">
@@ -8320,16 +8317,16 @@
         <v>55</v>
       </c>
       <c r="C288" t="n">
-        <v>0.2736</v>
+        <v>0.2395</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1525</v>
+        <v>0.1521</v>
       </c>
       <c r="E288" t="s">
         <v>611</v>
       </c>
       <c r="F288" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="289">
@@ -8340,10 +8337,10 @@
         <v>80</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.2992</v>
+        <v>-0.3326</v>
       </c>
       <c r="D289" t="n">
-        <v>0.5231</v>
+        <v>0.5223</v>
       </c>
       <c r="E289" t="s">
         <v>613</v>
@@ -8360,10 +8357,10 @@
         <v>131</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.3039</v>
+        <v>-0.3373</v>
       </c>
       <c r="D290" t="n">
-        <v>1.698</v>
+        <v>1.6987</v>
       </c>
       <c r="E290" t="s">
         <v>615</v>
@@ -8380,10 +8377,10 @@
         <v>19</v>
       </c>
       <c r="C291" t="n">
-        <v>0.3844</v>
+        <v>0.3502</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.7729</v>
+        <v>-0.7753</v>
       </c>
       <c r="E291" t="s">
         <v>617</v>
@@ -8400,10 +8397,10 @@
         <v>211</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.8723</v>
+        <v>-0.905</v>
       </c>
       <c r="D292" t="n">
-        <v>-1.1576</v>
+        <v>-1.1592</v>
       </c>
       <c r="E292" t="s">
         <v>619</v>
@@ -8420,10 +8417,10 @@
         <v>16</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.9317</v>
+        <v>-0.9644</v>
       </c>
       <c r="D293" t="n">
-        <v>0.3746</v>
+        <v>0.3743</v>
       </c>
       <c r="E293" t="s">
         <v>620</v>
@@ -8440,16 +8437,16 @@
         <v>177</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.2401</v>
+        <v>-1.2724</v>
       </c>
       <c r="D294" t="n">
-        <v>0.3518</v>
+        <v>0.3513</v>
       </c>
       <c r="E294" t="s">
         <v>622</v>
       </c>
       <c r="F294" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="295">
@@ -8460,7 +8457,7 @@
         <v>89</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1319</v>
+        <v>0.098</v>
       </c>
       <c r="D295" t="n">
         <v>0.0476</v>
@@ -8469,7 +8466,7 @@
         <v>624</v>
       </c>
       <c r="F295" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="296">
@@ -8480,10 +8477,10 @@
         <v>96</v>
       </c>
       <c r="C296" t="n">
-        <v>1.1255</v>
+        <v>1.0904</v>
       </c>
       <c r="D296" t="n">
-        <v>-1.5312</v>
+        <v>-1.5345</v>
       </c>
       <c r="E296" t="s">
         <v>626</v>
@@ -8500,16 +8497,16 @@
         <v>38</v>
       </c>
       <c r="C297" t="n">
-        <v>-1.0271</v>
+        <v>-0.5192</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0623</v>
+        <v>0.0544</v>
       </c>
       <c r="E297" t="s">
         <v>628</v>
       </c>
       <c r="F297" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="298">
@@ -8520,16 +8517,16 @@
         <v>7</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.2657</v>
+        <v>-1.298</v>
       </c>
       <c r="D298" t="n">
-        <v>1.1546</v>
+        <v>1.155</v>
       </c>
       <c r="E298" t="s">
         <v>630</v>
       </c>
       <c r="F298" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="299">
@@ -8540,16 +8537,16 @@
         <v>226</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3761</v>
+        <v>0.3418</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1452</v>
+        <v>0.1443</v>
       </c>
       <c r="E299" t="s">
         <v>632</v>
       </c>
       <c r="F299" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="300">
@@ -8560,10 +8557,10 @@
         <v>27</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1707</v>
+        <v>0.1367</v>
       </c>
       <c r="D300" t="n">
-        <v>1.3782</v>
+        <v>1.3792</v>
       </c>
       <c r="E300" t="s">
         <v>634</v>
@@ -8580,16 +8577,16 @@
         <v>73</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.318</v>
+        <v>-0.3514</v>
       </c>
       <c r="D301" t="n">
-        <v>1.0614</v>
+        <v>1.0606</v>
       </c>
       <c r="E301" t="s">
         <v>636</v>
       </c>
       <c r="F301" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302">
@@ -8600,16 +8597,16 @@
         <v>131</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2294</v>
+        <v>0.1954</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.8955</v>
+        <v>-0.8982</v>
       </c>
       <c r="E302" t="s">
         <v>638</v>
       </c>
       <c r="F302" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="303">
@@ -8620,16 +8617,16 @@
         <v>55</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.1505</v>
+        <v>-0.1841</v>
       </c>
       <c r="D303" t="n">
-        <v>0.7215</v>
+        <v>0.7212</v>
       </c>
       <c r="E303" t="s">
         <v>640</v>
       </c>
       <c r="F303" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="304">
@@ -8640,10 +8637,10 @@
         <v>55</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.171</v>
+        <v>-0.2046</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1417</v>
+        <v>0.1408</v>
       </c>
       <c r="E304" t="s">
         <v>642</v>
@@ -8660,10 +8657,10 @@
         <v>55</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.0944</v>
+        <v>-0.1281</v>
       </c>
       <c r="D305" t="n">
-        <v>0.1008</v>
+        <v>0.0999</v>
       </c>
       <c r="E305" t="s">
         <v>644</v>
@@ -8680,10 +8677,10 @@
         <v>24</v>
       </c>
       <c r="C306" t="n">
-        <v>1.3403</v>
+        <v>1.3049</v>
       </c>
       <c r="D306" t="n">
-        <v>1.2717</v>
+        <v>1.2723</v>
       </c>
       <c r="E306" t="s">
         <v>646</v>
@@ -8700,10 +8697,10 @@
         <v>7</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.2274</v>
+        <v>-1.2597</v>
       </c>
       <c r="D307" t="n">
-        <v>0.6573</v>
+        <v>0.6571</v>
       </c>
       <c r="E307" t="s">
         <v>648</v>
@@ -8720,16 +8717,16 @@
         <v>24</v>
       </c>
       <c r="C308" t="n">
-        <v>-1.1429</v>
+        <v>-1.1753</v>
       </c>
       <c r="D308" t="n">
-        <v>1.2749</v>
+        <v>1.2755</v>
       </c>
       <c r="E308" t="s">
         <v>650</v>
       </c>
       <c r="F308" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="309">
@@ -8740,16 +8737,16 @@
         <v>35</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.8542</v>
+        <v>-0.887</v>
       </c>
       <c r="D309" t="n">
-        <v>0.3171</v>
+        <v>0.3166</v>
       </c>
       <c r="E309" t="s">
         <v>652</v>
       </c>
       <c r="F309" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="310">
@@ -8760,16 +8757,16 @@
         <v>61</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.1368</v>
+        <v>-0.1704</v>
       </c>
       <c r="D310" t="n">
-        <v>0.7562</v>
+        <v>0.7561</v>
       </c>
       <c r="E310" t="s">
         <v>654</v>
       </c>
       <c r="F310" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="311">
@@ -8780,7 +8777,7 @@
         <v>19</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.4792</v>
+        <v>-1.5113</v>
       </c>
       <c r="D311" t="n">
         <v>-0.3381</v>
@@ -8800,16 +8797,16 @@
         <v>102</v>
       </c>
       <c r="C312" t="n">
-        <v>0.202</v>
+        <v>0.1679</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.5852</v>
+        <v>-0.588</v>
       </c>
       <c r="E312" t="s">
         <v>658</v>
       </c>
       <c r="F312" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="313">
@@ -8820,16 +8817,16 @@
         <v>19</v>
       </c>
       <c r="C313" t="n">
-        <v>1.2855</v>
+        <v>1.2502</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.7765</v>
+        <v>-0.778</v>
       </c>
       <c r="E313" t="s">
         <v>660</v>
       </c>
       <c r="F313" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="314">
@@ -8840,10 +8837,10 @@
         <v>16</v>
       </c>
       <c r="C314" t="n">
-        <v>0.081</v>
+        <v>0.0471</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.1265</v>
+        <v>-0.1274</v>
       </c>
       <c r="E314" t="s">
         <v>662</v>
@@ -8860,10 +8857,10 @@
         <v>35</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2816</v>
+        <v>0.2475</v>
       </c>
       <c r="D315" t="n">
-        <v>0.6996</v>
+        <v>0.6993</v>
       </c>
       <c r="E315" t="s">
         <v>664</v>
@@ -8880,16 +8877,16 @@
         <v>61</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.4149</v>
+        <v>-0.4482</v>
       </c>
       <c r="D316" t="n">
-        <v>0.3227</v>
+        <v>0.3217</v>
       </c>
       <c r="E316" t="s">
         <v>666</v>
       </c>
       <c r="F316" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="317">
@@ -8900,10 +8897,10 @@
         <v>61</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.2601</v>
+        <v>-0.2936</v>
       </c>
       <c r="D317" t="n">
-        <v>0.303</v>
+        <v>0.3023</v>
       </c>
       <c r="E317" t="s">
         <v>668</v>
@@ -8920,16 +8917,16 @@
         <v>58</v>
       </c>
       <c r="C318" t="n">
-        <v>0.875</v>
+        <v>0.8402</v>
       </c>
       <c r="D318" t="n">
-        <v>0.2542</v>
+        <v>0.2545</v>
       </c>
       <c r="E318" t="s">
         <v>670</v>
       </c>
       <c r="F318" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319">
@@ -8940,10 +8937,10 @@
         <v>158</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.1</v>
+        <v>-0.1336</v>
       </c>
       <c r="D319" t="n">
-        <v>1.4853</v>
+        <v>1.4868</v>
       </c>
       <c r="E319" t="s">
         <v>672</v>
@@ -8960,7 +8957,7 @@
         <v>35</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.0082</v>
+        <v>-0.0419</v>
       </c>
       <c r="D320" t="n">
         <v>0.25</v>
@@ -8980,7 +8977,7 @@
         <v>131</v>
       </c>
       <c r="C321" t="n">
-        <v>-1.3307</v>
+        <v>-1.3629</v>
       </c>
       <c r="D321" t="n">
         <v>-0.2178</v>
@@ -8989,7 +8986,7 @@
         <v>676</v>
       </c>
       <c r="F321" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="322">
@@ -9000,10 +8997,10 @@
         <v>131</v>
       </c>
       <c r="C322" t="n">
-        <v>0.171</v>
+        <v>0.137</v>
       </c>
       <c r="D322" t="n">
-        <v>-1.887</v>
+        <v>-1.8892</v>
       </c>
       <c r="E322" t="s">
         <v>678</v>
@@ -9020,16 +9017,16 @@
         <v>38</v>
       </c>
       <c r="C323" t="n">
-        <v>0.6225</v>
+        <v>0.5879</v>
       </c>
       <c r="D323" t="n">
-        <v>0.7781</v>
+        <v>0.7783</v>
       </c>
       <c r="E323" t="s">
         <v>680</v>
       </c>
       <c r="F323" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="324">
@@ -9040,16 +9037,16 @@
         <v>10</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9202</v>
+        <v>0.8853</v>
       </c>
       <c r="D324" t="n">
-        <v>1.0889</v>
+        <v>1.0891</v>
       </c>
       <c r="E324" t="s">
         <v>682</v>
       </c>
       <c r="F324" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="325">
@@ -9060,16 +9057,16 @@
         <v>102</v>
       </c>
       <c r="C325" t="n">
-        <v>1.0094</v>
+        <v>0.9745</v>
       </c>
       <c r="D325" t="n">
-        <v>-1.0373</v>
+        <v>-1.0388</v>
       </c>
       <c r="E325" t="s">
         <v>684</v>
       </c>
       <c r="F325" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="326">
@@ -9080,16 +9077,16 @@
         <v>38</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.2461</v>
+        <v>-0.2796</v>
       </c>
       <c r="D326" t="n">
-        <v>0.3782</v>
+        <v>0.3789</v>
       </c>
       <c r="E326" t="s">
         <v>686</v>
       </c>
       <c r="F326" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="327">
@@ -9100,16 +9097,16 @@
         <v>80</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.209</v>
+        <v>-0.2425</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.4621</v>
+        <v>-0.4632</v>
       </c>
       <c r="E327" t="s">
         <v>688</v>
       </c>
       <c r="F327" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="328">
@@ -9120,16 +9117,16 @@
         <v>24</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.3438</v>
+        <v>-0.3772</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.1169</v>
+        <v>-0.1168</v>
       </c>
       <c r="E328" t="s">
         <v>690</v>
       </c>
       <c r="F328" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="329">
@@ -9140,16 +9137,16 @@
         <v>27</v>
       </c>
       <c r="C329" t="n">
-        <v>0.2945</v>
+        <v>0.2604</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.0375</v>
+        <v>-0.038</v>
       </c>
       <c r="E329" t="s">
         <v>692</v>
       </c>
       <c r="F329" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="330">
@@ -9160,16 +9157,16 @@
         <v>96</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.0006</v>
+        <v>0.4609</v>
       </c>
       <c r="D330" t="n">
-        <v>0.5288</v>
+        <v>0.4311</v>
       </c>
       <c r="E330" t="s">
         <v>694</v>
       </c>
       <c r="F330" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -9180,10 +9177,10 @@
         <v>177</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.8921</v>
+        <v>-0.9248</v>
       </c>
       <c r="D331" t="n">
-        <v>0.5653</v>
+        <v>0.5644</v>
       </c>
       <c r="E331" t="s">
         <v>696</v>
@@ -9200,16 +9197,16 @@
         <v>140</v>
       </c>
       <c r="C332" t="n">
-        <v>0.2676</v>
+        <v>0.2335</v>
       </c>
       <c r="D332" t="n">
-        <v>-1.3704</v>
+        <v>-1.3723</v>
       </c>
       <c r="E332" t="s">
         <v>698</v>
       </c>
       <c r="F332" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="333">
@@ -9220,16 +9217,16 @@
         <v>73</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0708</v>
+        <v>0.037</v>
       </c>
       <c r="D333" t="n">
-        <v>0.3995</v>
+        <v>0.3986</v>
       </c>
       <c r="E333" t="s">
         <v>700</v>
       </c>
       <c r="F333" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334">
@@ -9240,7 +9237,7 @@
         <v>73</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.5285</v>
+        <v>-0.5616</v>
       </c>
       <c r="D334" t="n">
         <v>0.6668</v>
@@ -9260,16 +9257,16 @@
         <v>89</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.1624</v>
+        <v>-1.1948</v>
       </c>
       <c r="D335" t="n">
-        <v>1.0935</v>
+        <v>1.0937</v>
       </c>
       <c r="E335" t="s">
         <v>704</v>
       </c>
       <c r="F335" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="336">
@@ -9280,16 +9277,16 @@
         <v>73</v>
       </c>
       <c r="C336" t="n">
-        <v>-1.3427</v>
+        <v>-1.1372</v>
       </c>
       <c r="D336" t="n">
-        <v>0.9474</v>
+        <v>1.0217</v>
       </c>
       <c r="E336" t="s">
         <v>706</v>
       </c>
       <c r="F336" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="337">
@@ -9300,16 +9297,16 @@
         <v>38</v>
       </c>
       <c r="C337" t="n">
-        <v>0.5649</v>
+        <v>0.5305</v>
       </c>
       <c r="D337" t="n">
-        <v>-1.0406</v>
+        <v>-1.0417</v>
       </c>
       <c r="E337" t="s">
         <v>708</v>
       </c>
       <c r="F337" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="338">
@@ -9320,16 +9317,16 @@
         <v>38</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.1376</v>
+        <v>-0.1712</v>
       </c>
       <c r="D338" t="n">
-        <v>1.1448</v>
+        <v>1.1436</v>
       </c>
       <c r="E338" t="s">
         <v>710</v>
       </c>
       <c r="F338" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="339">
@@ -9340,16 +9337,16 @@
         <v>211</v>
       </c>
       <c r="C339" t="n">
-        <v>1.164</v>
+        <v>1.1288</v>
       </c>
       <c r="D339" t="n">
-        <v>-1.3028</v>
+        <v>-1.3041</v>
       </c>
       <c r="E339" t="s">
         <v>712</v>
       </c>
       <c r="F339" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="340">
@@ -9360,16 +9357,16 @@
         <v>61</v>
       </c>
       <c r="C340" t="n">
-        <v>0.107</v>
+        <v>0.073</v>
       </c>
       <c r="D340" t="n">
-        <v>1.9269</v>
+        <v>1.9285</v>
       </c>
       <c r="E340" t="s">
         <v>714</v>
       </c>
       <c r="F340" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341">
@@ -9380,10 +9377,10 @@
         <v>140</v>
       </c>
       <c r="C341" t="n">
-        <v>0.7181</v>
+        <v>0.6835</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.0727</v>
+        <v>-0.072</v>
       </c>
       <c r="E341" t="s">
         <v>716</v>
@@ -9400,16 +9397,16 @@
         <v>186</v>
       </c>
       <c r="C342" t="n">
-        <v>0.3383</v>
+        <v>0.3041</v>
       </c>
       <c r="D342" t="n">
-        <v>-1.1956</v>
+        <v>-1.1974</v>
       </c>
       <c r="E342" t="s">
         <v>718</v>
       </c>
       <c r="F342" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="343">
@@ -9420,16 +9417,16 @@
         <v>19</v>
       </c>
       <c r="C343" t="n">
-        <v>0.3256</v>
+        <v>0.2915</v>
       </c>
       <c r="D343" t="n">
-        <v>0.4169</v>
+        <v>0.4163</v>
       </c>
       <c r="E343" t="s">
         <v>720</v>
       </c>
       <c r="F343" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="344">
@@ -9440,16 +9437,16 @@
         <v>58</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.7631</v>
+        <v>-0.796</v>
       </c>
       <c r="D344" t="n">
-        <v>0.1166</v>
+        <v>0.1172</v>
       </c>
       <c r="E344" t="s">
         <v>722</v>
       </c>
       <c r="F344" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="345">
@@ -9460,16 +9457,16 @@
         <v>131</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.9757</v>
+        <v>-1.0084</v>
       </c>
       <c r="D345" t="n">
-        <v>0.7581</v>
+        <v>0.7589</v>
       </c>
       <c r="E345" t="s">
         <v>724</v>
       </c>
       <c r="F345" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="346">
@@ -9480,16 +9477,16 @@
         <v>158</v>
       </c>
       <c r="C346" t="n">
-        <v>0.6742</v>
+        <v>0.6396</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.7377</v>
+        <v>-0.7383</v>
       </c>
       <c r="E346" t="s">
         <v>726</v>
       </c>
       <c r="F346" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="347">
@@ -9500,16 +9497,16 @@
         <v>121</v>
       </c>
       <c r="C347" t="n">
-        <v>1.6608</v>
+        <v>1.6251</v>
       </c>
       <c r="D347" t="n">
-        <v>0.06</v>
+        <v>0.0607</v>
       </c>
       <c r="E347" t="s">
         <v>728</v>
       </c>
       <c r="F347" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="348">
@@ -9520,10 +9517,10 @@
         <v>293</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.1694</v>
+        <v>-0.203</v>
       </c>
       <c r="D348" t="n">
-        <v>-1.1386</v>
+        <v>-1.1403</v>
       </c>
       <c r="E348" t="s">
         <v>730</v>
@@ -9540,13 +9537,13 @@
         <v>140</v>
       </c>
       <c r="C349" t="n">
-        <v>1.9582</v>
+        <v>1.9221</v>
       </c>
       <c r="D349" t="n">
-        <v>1.2975</v>
+        <v>1.2979</v>
       </c>
       <c r="E349" t="s">
-        <v>732</v>
+        <v>300</v>
       </c>
       <c r="F349" t="n">
         <v>40</v>
@@ -9554,102 +9551,102 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B350" t="s">
         <v>151</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3651</v>
+        <v>0.8391</v>
       </c>
       <c r="D350" t="n">
-        <v>0.3925</v>
+        <v>0.3617</v>
       </c>
       <c r="E350" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F350" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B351" t="s">
         <v>10</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.5376</v>
+        <v>-1.5696</v>
       </c>
       <c r="D351" t="n">
-        <v>-2.6356</v>
+        <v>-2.6387</v>
       </c>
       <c r="E351" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F351" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B352" t="s">
         <v>96</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0497</v>
+        <v>0.3631</v>
       </c>
       <c r="D352" t="n">
-        <v>0.8063</v>
+        <v>0.864</v>
       </c>
       <c r="E352" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F352" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B353" t="s">
         <v>86</v>
       </c>
       <c r="C353" t="n">
-        <v>-1.4955</v>
+        <v>-1.5275</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.1266</v>
+        <v>-0.1269</v>
       </c>
       <c r="E353" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F353" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B354" t="s">
         <v>151</v>
       </c>
       <c r="C354" t="n">
-        <v>1.2339</v>
+        <v>1.1987</v>
       </c>
       <c r="D354" t="n">
-        <v>1.4088</v>
+        <v>1.4095</v>
       </c>
       <c r="E354" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F354" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/ncaa_bracket/teams.xlsx
+++ b/ncaa_bracket/teams.xlsx
@@ -12,29 +12,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
-  <si>
-    <t xml:space="preserve">team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFENSE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf</t>
   </si>
   <si>
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
+    <t xml:space="preserve">upper</t>
+  </si>
+  <si>
     <t xml:space="preserve">lower</t>
   </si>
   <si>
-    <t xml:space="preserve">upper</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abilene Christian</t>
   </si>
   <si>
@@ -587,7 +581,7 @@
     <t xml:space="preserve">Lipscomb</t>
   </si>
   <si>
-    <t xml:space="preserve">Long Beach State</t>
+    <t xml:space="preserve">Cal State Long Beach</t>
   </si>
   <si>
     <t xml:space="preserve">Long Island University</t>
@@ -659,6 +653,9 @@
     <t xml:space="preserve">Mercer</t>
   </si>
   <si>
+    <t xml:space="preserve">Merrimack</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miami (FL)</t>
   </si>
   <si>
@@ -948,9 +945,6 @@
   </si>
   <si>
     <t xml:space="preserve">Santa Clara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savannah State</t>
   </si>
   <si>
     <t xml:space="preserve">Seattle</t>
@@ -1535,8130 +1529,6006 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.394</v>
+        <v>0.542</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.161</v>
+        <v>0.561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.691</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.744</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.85</v>
+        <v>0.607</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.37</v>
+        <v>0.646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.395</v>
+        <v>0.567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.496</v>
+        <v>0.727</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.483</v>
+        <v>0.758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.626</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.778</v>
+        <v>0.265</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.424</v>
+        <v>0.296</v>
       </c>
       <c r="E5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.251</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.271</v>
+        <v>0.595</v>
       </c>
       <c r="D6" t="n">
-        <v>0.082</v>
+        <v>0.62</v>
       </c>
       <c r="E6" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.585</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.208</v>
+        <v>0.151</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.721</v>
+        <v>0.177</v>
       </c>
       <c r="E7" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.353</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.186</v>
+        <v>0.604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.457</v>
+        <v>0.642</v>
       </c>
       <c r="E8" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.518</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.961</v>
+        <v>0.51</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.834</v>
+        <v>0.541</v>
       </c>
       <c r="E9" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.458</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.559</v>
+        <v>0.194</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.965</v>
+        <v>0.228</v>
       </c>
       <c r="E10" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.28</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.919</v>
+        <v>0.512</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.703</v>
+        <v>0.537</v>
       </c>
       <c r="E11" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.612</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>0.606</v>
+        <v>0.511</v>
       </c>
       <c r="D12" t="n">
-        <v>1.088</v>
+        <v>0.53</v>
       </c>
       <c r="E12" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.479</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>0.918</v>
+        <v>0.601</v>
       </c>
       <c r="D13" t="n">
-        <v>0.82</v>
+        <v>0.633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.633</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.503</v>
+        <v>0.898</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9</v>
+        <v>0.922</v>
       </c>
       <c r="E14" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.554</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.38</v>
+        <v>0.592</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.019</v>
+        <v>0.613</v>
       </c>
       <c r="E15" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.451</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.123</v>
+        <v>0.111</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.519</v>
+        <v>0.141</v>
       </c>
       <c r="E16" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.372</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.157</v>
+        <v>0.506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.707</v>
+        <v>0.521</v>
       </c>
       <c r="E17" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.388</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.614</v>
+        <v>0.775</v>
       </c>
       <c r="D18" t="n">
-        <v>0.606</v>
+        <v>0.801</v>
       </c>
       <c r="E18" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.592</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.507</v>
+        <v>0.414</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.305</v>
+        <v>0.454</v>
       </c>
       <c r="E19" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.462</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>3.036</v>
+        <v>0.872</v>
       </c>
       <c r="D20" t="n">
-        <v>2.343</v>
+        <v>0.9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>1.203</v>
+        <v>0.564</v>
       </c>
       <c r="D21" t="n">
-        <v>0.338</v>
+        <v>0.586</v>
       </c>
       <c r="E21" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.683</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.722</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.302</v>
+        <v>0.683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.034</v>
+        <v>0.707</v>
       </c>
       <c r="E22" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.589</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>0.163</v>
+        <v>0.842</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.322</v>
+        <v>0.877</v>
       </c>
       <c r="E23" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.616</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>1.804</v>
+        <v>0.814</v>
       </c>
       <c r="D24" t="n">
-        <v>0.493</v>
+        <v>0.842</v>
       </c>
       <c r="E24" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.838</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.422</v>
+        <v>0.483</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.662</v>
+        <v>0.514</v>
       </c>
       <c r="E25" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.519</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.954</v>
+        <v>0.308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118</v>
+        <v>0.335</v>
       </c>
       <c r="E26" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.303</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.137</v>
+        <v>0.611</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.555</v>
+        <v>0.637</v>
       </c>
       <c r="E27" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.586</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.784</v>
+        <v>0.459</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.596</v>
+        <v>0.491</v>
       </c>
       <c r="E28" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.446</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.056</v>
+        <v>0.584</v>
       </c>
       <c r="D29" t="n">
-        <v>0.183</v>
+        <v>0.612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.508</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>1.033</v>
+        <v>0.569</v>
       </c>
       <c r="D30" t="n">
-        <v>0.832</v>
+        <v>0.592</v>
       </c>
       <c r="E30" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.638</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.272</v>
+        <v>0.701</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.424</v>
+        <v>0.727</v>
       </c>
       <c r="E31" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.543</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" t="n">
-        <v>0.491</v>
+        <v>0.766</v>
       </c>
       <c r="D32" t="n">
-        <v>0.475</v>
+        <v>0.804</v>
       </c>
       <c r="E32" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.593</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.172</v>
+        <v>0.432</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.906</v>
+        <v>0.464</v>
       </c>
       <c r="E33" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.616</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.2</v>
+        <v>0.569</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.251</v>
+        <v>0.595</v>
       </c>
       <c r="E34" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.333</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>0.518</v>
+        <v>0.392</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368</v>
+        <v>0.415</v>
       </c>
       <c r="E35" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.627</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>2.455</v>
+        <v>0.564</v>
       </c>
       <c r="D36" t="n">
-        <v>1.153</v>
+        <v>0.585</v>
       </c>
       <c r="E36" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.827</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.86</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.099</v>
+        <v>0.854</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.114</v>
+        <v>0.886</v>
       </c>
       <c r="E37" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.533</v>
+        <v>0.816</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.809</v>
+        <v>0.248</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.031</v>
+        <v>0.277</v>
       </c>
       <c r="E38" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.271</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" t="n">
-        <v>0.047</v>
+        <v>0.432</v>
       </c>
       <c r="D39" t="n">
-        <v>0.332</v>
+        <v>0.462</v>
       </c>
       <c r="E39" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.481</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143</v>
+        <v>0.359</v>
       </c>
       <c r="D40" t="n">
-        <v>0.344</v>
+        <v>0.379</v>
       </c>
       <c r="E40" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.494</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" t="n">
-        <v>0.775</v>
+        <v>0.324</v>
       </c>
       <c r="D41" t="n">
-        <v>2.052</v>
+        <v>0.353</v>
       </c>
       <c r="E41" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.461</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>0.013</v>
+        <v>0.683</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.685</v>
+        <v>0.715</v>
       </c>
       <c r="E42" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.551</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.595</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.393</v>
+        <v>0.453</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.358</v>
+        <v>0.478</v>
       </c>
       <c r="E43" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.4</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>1.06</v>
+        <v>0.613</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.019</v>
+        <v>0.637</v>
       </c>
       <c r="E44" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.759</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.95</v>
+        <v>0.562</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.459</v>
+        <v>0.586</v>
       </c>
       <c r="E45" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.354</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.191</v>
+        <v>0.69</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.441</v>
+        <v>0.717</v>
       </c>
       <c r="E46" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.676</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.073</v>
+        <v>0.437</v>
       </c>
       <c r="D47" t="n">
-        <v>0.183</v>
+        <v>0.472</v>
       </c>
       <c r="E47" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.285</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>0.368</v>
+        <v>0.569</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.168</v>
+        <v>0.594</v>
       </c>
       <c r="E48" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.607</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.576</v>
+        <v>0.5</v>
       </c>
       <c r="D49" t="n">
-        <v>0.118</v>
+        <v>0.53</v>
       </c>
       <c r="E49" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.419</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.064</v>
+        <v>0.206</v>
       </c>
       <c r="D50" t="n">
-        <v>0.844</v>
+        <v>0.233</v>
       </c>
       <c r="E50" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.387</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.75</v>
+        <v>0.129</v>
       </c>
       <c r="D51" t="n">
-        <v>0.064</v>
+        <v>0.151</v>
       </c>
       <c r="E51" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.355</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.056</v>
+        <v>0.573</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.358</v>
+        <v>0.598</v>
       </c>
       <c r="E52" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.712</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" t="n">
-        <v>1.911</v>
+        <v>0.538</v>
       </c>
       <c r="D53" t="n">
-        <v>1.986</v>
+        <v>0.557</v>
       </c>
       <c r="E53" t="n">
-        <v>0.646</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.668</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>0.671</v>
+        <v>0.273</v>
       </c>
       <c r="D54" t="n">
-        <v>0.076</v>
+        <v>0.294</v>
       </c>
       <c r="E54" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.639</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.402</v>
+        <v>0.685</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.167</v>
+        <v>0.721</v>
       </c>
       <c r="E55" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.313</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.507</v>
+        <v>0.584</v>
       </c>
       <c r="D56" t="n">
-        <v>0.118</v>
+        <v>0.602</v>
       </c>
       <c r="E56" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.372</v>
+        <v>0.563</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.655</v>
+        <v>0.074</v>
       </c>
       <c r="D57" t="n">
-        <v>2.105</v>
+        <v>0.094</v>
       </c>
       <c r="E57" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="G57" t="n">
         <v>0.057</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>0.425</v>
+        <v>0.686</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.965</v>
+        <v>0.713</v>
       </c>
       <c r="E58" t="n">
-        <v>0.734</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.751</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" t="n">
-        <v>0.591</v>
+        <v>0.385</v>
       </c>
       <c r="D59" t="n">
-        <v>1.355</v>
+        <v>0.414</v>
       </c>
       <c r="E59" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.339</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.416</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.234</v>
+        <v>0.602</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.084</v>
+        <v>0.635</v>
       </c>
       <c r="E60" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.633</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.384</v>
+        <v>0.31</v>
       </c>
       <c r="D61" t="n">
-        <v>0.481</v>
+        <v>0.341</v>
       </c>
       <c r="E61" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.37</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>0.93</v>
+        <v>0.649</v>
       </c>
       <c r="D62" t="n">
-        <v>0.975</v>
+        <v>0.674</v>
       </c>
       <c r="E62" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.597</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>0.957</v>
+        <v>0.63</v>
       </c>
       <c r="D63" t="n">
-        <v>0.606</v>
+        <v>0.659</v>
       </c>
       <c r="E63" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.646</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.682</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206</v>
+        <v>0.592</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.543</v>
+        <v>0.607</v>
       </c>
       <c r="E64" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.674</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.025</v>
+        <v>0.58</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296</v>
+        <v>0.604</v>
       </c>
       <c r="E65" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.482</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>0.956</v>
+        <v>0.742</v>
       </c>
       <c r="D66" t="n">
-        <v>0.433</v>
+        <v>0.792</v>
       </c>
       <c r="E66" t="n">
-        <v>0.674</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.688</v>
+        <v>0.687</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.312</v>
+        <v>0.418</v>
       </c>
       <c r="D67" t="n">
-        <v>-1.81</v>
+        <v>0.445</v>
       </c>
       <c r="E67" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.467</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" t="n">
-        <v>0.14</v>
+        <v>0.686</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.013</v>
+        <v>0.714</v>
       </c>
       <c r="E68" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.576</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.085</v>
+        <v>0.306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.897</v>
+        <v>0.34</v>
       </c>
       <c r="E69" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.235</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.965</v>
+        <v>0.364</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.864</v>
+        <v>0.401</v>
       </c>
       <c r="E70" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.423</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C71" t="n">
-        <v>1.261</v>
+        <v>0.691</v>
       </c>
       <c r="D71" t="n">
-        <v>1.219</v>
+        <v>0.724</v>
       </c>
       <c r="E71" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.631</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.923</v>
+        <v>0.549</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.429</v>
+        <v>0.578</v>
       </c>
       <c r="E72" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.493</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C73" t="n">
-        <v>0.036</v>
+        <v>0.574</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.757</v>
+        <v>0.604</v>
       </c>
       <c r="E73" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.643</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" t="n">
-        <v>0.025</v>
+        <v>0.924</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.031</v>
+        <v>0.948</v>
       </c>
       <c r="E74" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.691</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.709</v>
+        <v>0.202</v>
       </c>
       <c r="D75" t="n">
-        <v>0.088</v>
+        <v>0.226</v>
       </c>
       <c r="E75" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.173</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.183</v>
+        <v>0.661</v>
       </c>
       <c r="D76" t="n">
-        <v>0.142</v>
+        <v>0.69</v>
       </c>
       <c r="E76" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.465</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.208</v>
+        <v>0.34</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.221</v>
+        <v>0.368</v>
       </c>
       <c r="E77" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.299</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" t="n">
-        <v>1.623</v>
+        <v>0.71</v>
       </c>
       <c r="D78" t="n">
-        <v>2.349</v>
+        <v>0.734</v>
       </c>
       <c r="E78" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.544</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.596</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.465</v>
+        <v>0.256</v>
       </c>
       <c r="D79" t="n">
-        <v>0.641</v>
+        <v>0.3</v>
       </c>
       <c r="E79" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.36</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>0.629</v>
+        <v>0.604</v>
       </c>
       <c r="D80" t="n">
-        <v>0.183</v>
+        <v>0.624</v>
       </c>
       <c r="E80" t="n">
-        <v>0.622</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.635</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C81" t="n">
-        <v>0.098</v>
+        <v>0.482</v>
       </c>
       <c r="D81" t="n">
-        <v>0.707</v>
+        <v>0.504</v>
       </c>
       <c r="E81" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.442</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C82" t="n">
-        <v>2.863</v>
+        <v>0.934</v>
       </c>
       <c r="D82" t="n">
-        <v>1.308</v>
+        <v>0.953</v>
       </c>
       <c r="E82" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.887</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.187</v>
+        <v>0.779</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.251</v>
+        <v>0.802</v>
       </c>
       <c r="E83" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.548</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.2</v>
+        <v>0.548</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.34</v>
+        <v>0.572</v>
       </c>
       <c r="E84" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.327</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" t="n">
-        <v>1.184</v>
+        <v>0.72</v>
       </c>
       <c r="D85" t="n">
-        <v>0.088</v>
+        <v>0.74</v>
       </c>
       <c r="E85" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.752</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.388</v>
+        <v>0.607</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6</v>
+        <v>0.636</v>
       </c>
       <c r="E86" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.365</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" t="n">
-        <v>0.625</v>
+        <v>0.302</v>
       </c>
       <c r="D87" t="n">
-        <v>1.314</v>
+        <v>0.335</v>
       </c>
       <c r="E87" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.457</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.757</v>
+        <v>0.374</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.852</v>
+        <v>0.397</v>
       </c>
       <c r="E88" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.443</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89" t="n">
-        <v>0.232</v>
+        <v>0.555</v>
       </c>
       <c r="D89" t="n">
-        <v>1.016</v>
+        <v>0.58</v>
       </c>
       <c r="E89" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.47</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.515</v>
+        <v>0.317</v>
       </c>
       <c r="D90" t="n">
-        <v>0.528</v>
+        <v>0.361</v>
       </c>
       <c r="E90" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.338</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.638</v>
+        <v>0.44</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.233</v>
+        <v>0.46</v>
       </c>
       <c r="E91" t="n">
-        <v>0.404</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.416</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.262</v>
+        <v>0.466</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.126</v>
+        <v>0.499</v>
       </c>
       <c r="E92" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.442</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C93" t="n">
-        <v>0.849</v>
+        <v>0.309</v>
       </c>
       <c r="D93" t="n">
-        <v>0.945</v>
+        <v>0.334</v>
       </c>
       <c r="E93" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.565</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.601</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.821</v>
+        <v>0.261</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.78</v>
+        <v>0.295</v>
       </c>
       <c r="E94" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.389</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.299</v>
+        <v>0.559</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.674</v>
+        <v>0.58</v>
       </c>
       <c r="E95" t="n">
         <v>0.536</v>
       </c>
-      <c r="F95" t="n">
-        <v>0.524</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.548</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.461</v>
+        <v>0.284</v>
       </c>
       <c r="D96" t="n">
-        <v>0.023</v>
+        <v>0.314</v>
       </c>
       <c r="E96" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.404</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.427</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>1.534</v>
+        <v>0.634</v>
       </c>
       <c r="D97" t="n">
-        <v>2.248</v>
+        <v>0.658</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.531</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C98" t="n">
-        <v>1.43</v>
+        <v>0.839</v>
       </c>
       <c r="D98" t="n">
-        <v>0.766</v>
+        <v>0.872</v>
       </c>
       <c r="E98" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.729</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C99" t="n">
-        <v>0.155</v>
+        <v>0.656</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.4</v>
+        <v>0.687</v>
       </c>
       <c r="E99" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.619</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.123</v>
+        <v>0.472</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.281</v>
+        <v>0.517</v>
       </c>
       <c r="E100" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.457</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>0.187</v>
+        <v>0.498</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.156</v>
+        <v>0.528</v>
       </c>
       <c r="E101" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.739</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C102" t="n">
-        <v>0.626</v>
+        <v>0.756</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.037</v>
+        <v>0.782</v>
       </c>
       <c r="E102" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.748</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.784</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C103" t="n">
-        <v>1.226</v>
+        <v>0.344</v>
       </c>
       <c r="D103" t="n">
-        <v>0.665</v>
+        <v>0.367</v>
       </c>
       <c r="E103" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.67</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.33</v>
+        <v>0.587</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.4</v>
+        <v>0.609</v>
       </c>
       <c r="E104" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.533</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.166</v>
+        <v>0.465</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.001</v>
+        <v>0.489</v>
       </c>
       <c r="E105" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.301</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C106" t="n">
-        <v>0.868</v>
+        <v>0.673</v>
       </c>
       <c r="D106" t="n">
-        <v>1.308</v>
+        <v>0.702</v>
       </c>
       <c r="E106" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.563</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C107" t="n">
-        <v>1.257</v>
+        <v>0.543</v>
       </c>
       <c r="D107" t="n">
-        <v>0.79</v>
+        <v>0.575</v>
       </c>
       <c r="E107" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.672</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" t="n">
-        <v>0.764</v>
+        <v>0.673</v>
       </c>
       <c r="D108" t="n">
-        <v>0.802</v>
+        <v>0.705</v>
       </c>
       <c r="E108" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.589</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.189</v>
+        <v>0.529</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.346</v>
+        <v>0.572</v>
       </c>
       <c r="E109" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.46</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.484</v>
+        <v>0.654</v>
       </c>
       <c r="D110" t="n">
-        <v>0.046</v>
+        <v>0.686</v>
       </c>
       <c r="E110" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.425</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" t="n">
-        <v>3.248</v>
+        <v>0.944</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261</v>
+        <v>0.963</v>
       </c>
       <c r="E111" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.967</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.101</v>
+        <v>0.456</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.12</v>
+        <v>0.493</v>
       </c>
       <c r="E112" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.568</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C113" t="n">
-        <v>0.618</v>
+        <v>0.436</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.019</v>
+        <v>0.457</v>
       </c>
       <c r="E113" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.679</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C114" t="n">
-        <v>2.658</v>
+        <v>0.455</v>
       </c>
       <c r="D114" t="n">
-        <v>4.045</v>
+        <v>0.495</v>
       </c>
       <c r="E114" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.565</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C115" t="n">
-        <v>1.723</v>
+        <v>0.323</v>
       </c>
       <c r="D115" t="n">
-        <v>1.861</v>
+        <v>0.357</v>
       </c>
       <c r="E115" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.647</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" t="n">
-        <v>0.298</v>
+        <v>0.471</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302</v>
+        <v>0.503</v>
       </c>
       <c r="E116" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.571</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.684</v>
+        <v>0.672</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.084</v>
+        <v>0.697</v>
       </c>
       <c r="E117" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.544</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.611</v>
+        <v>0.577</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.34</v>
+        <v>0.595</v>
       </c>
       <c r="E118" t="n">
-        <v>0.577</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.559</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.595</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.096</v>
+        <v>0.147</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.495</v>
+        <v>0.17</v>
       </c>
       <c r="E119" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>0.657</v>
       </c>
       <c r="D120" t="n">
-        <v>1.171</v>
+        <v>0.685</v>
       </c>
       <c r="E120" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.802</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.707</v>
+        <v>0.264</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.358</v>
+        <v>0.287</v>
       </c>
       <c r="E121" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.453</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>0.252</v>
+        <v>0.128</v>
       </c>
       <c r="D122" t="n">
-        <v>0.76</v>
+        <v>0.159</v>
       </c>
       <c r="E122" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.467</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C123" t="n">
-        <v>1.492</v>
+        <v>0.743</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.584</v>
+        <v>0.767</v>
       </c>
       <c r="E123" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.871</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C124" t="n">
-        <v>1.095</v>
+        <v>0.159</v>
       </c>
       <c r="D124" t="n">
-        <v>1.814</v>
+        <v>0.182</v>
       </c>
       <c r="E124" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.479</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.527</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.776</v>
+        <v>0.408</v>
       </c>
       <c r="D125" t="n">
-        <v>0.076</v>
+        <v>0.451</v>
       </c>
       <c r="E125" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.335</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.869</v>
+        <v>0.428</v>
       </c>
       <c r="D126" t="n">
-        <v>0.618</v>
+        <v>0.465</v>
       </c>
       <c r="E126" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.251</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.033</v>
+        <v>0.366</v>
       </c>
       <c r="D127" t="n">
-        <v>0.171</v>
+        <v>0.388</v>
       </c>
       <c r="E127" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.501</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.55</v>
+        <v>0.43</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.251</v>
+        <v>0.451</v>
       </c>
       <c r="E128" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.451</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.007</v>
+        <v>0.735</v>
       </c>
       <c r="D129" t="n">
-        <v>0.754</v>
+        <v>0.771</v>
       </c>
       <c r="E129" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.383</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.435</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.37</v>
+        <v>0.226</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.007</v>
+        <v>0.255</v>
       </c>
       <c r="E130" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.225</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B131" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.977</v>
+        <v>0.585</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.822</v>
+        <v>0.622</v>
       </c>
       <c r="E131" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.426</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C132" t="n">
-        <v>0.402</v>
+        <v>0.748</v>
       </c>
       <c r="D132" t="n">
-        <v>0.106</v>
+        <v>0.778</v>
       </c>
       <c r="E132" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.608</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C133" t="n">
-        <v>0.51</v>
+        <v>0.359</v>
       </c>
       <c r="D133" t="n">
-        <v>0.903</v>
+        <v>0.419</v>
       </c>
       <c r="E133" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.562</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C134" t="n">
-        <v>1.126</v>
+        <v>0.683</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171</v>
+        <v>0.709</v>
       </c>
       <c r="E134" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.745</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C135" t="n">
-        <v>1.311</v>
+        <v>0.738</v>
       </c>
       <c r="D135" t="n">
-        <v>1.361</v>
+        <v>0.766</v>
       </c>
       <c r="E135" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.641</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C136" t="n">
-        <v>1.265</v>
+        <v>0.482</v>
       </c>
       <c r="D136" t="n">
-        <v>1.189</v>
+        <v>0.514</v>
       </c>
       <c r="E136" t="n">
-        <v>0.589</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.615</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C137" t="n">
-        <v>0.414</v>
+        <v>0.299</v>
       </c>
       <c r="D137" t="n">
-        <v>0.433</v>
+        <v>0.324</v>
       </c>
       <c r="E137" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.559</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.64</v>
+        <v>0.264</v>
       </c>
       <c r="D138" t="n">
-        <v>-1.483</v>
+        <v>0.293</v>
       </c>
       <c r="E138" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.397</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C139" t="n">
-        <v>0.671</v>
+        <v>0.486</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.436</v>
+        <v>0.51</v>
       </c>
       <c r="E139" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.742</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.057</v>
+        <v>0.488</v>
       </c>
       <c r="D140" t="n">
-        <v>0.272</v>
+        <v>0.514</v>
       </c>
       <c r="E140" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.465</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.299</v>
+        <v>0.439</v>
       </c>
       <c r="D141" t="n">
-        <v>0.314</v>
+        <v>0.46</v>
       </c>
       <c r="E141" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="G141" t="n">
         <v>0.421</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.63</v>
+        <v>0.577</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.971</v>
+        <v>0.607</v>
       </c>
       <c r="E142" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.668</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C143" t="n">
-        <v>1.253</v>
+        <v>0.87</v>
       </c>
       <c r="D143" t="n">
-        <v>1.004</v>
+        <v>0.904</v>
       </c>
       <c r="E143" t="n">
-        <v>0.646</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.668</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.424</v>
+        <v>0.134</v>
       </c>
       <c r="D144" t="n">
-        <v>0.588</v>
+        <v>0.16</v>
       </c>
       <c r="E144" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.176</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>0.313</v>
+        <v>0.746</v>
       </c>
       <c r="D145" t="n">
-        <v>0.362</v>
+        <v>0.768</v>
       </c>
       <c r="E145" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.548</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C146" t="n">
-        <v>1.565</v>
+        <v>0.824</v>
       </c>
       <c r="D146" t="n">
-        <v>0.225</v>
+        <v>0.859</v>
       </c>
       <c r="E146" t="n">
-        <v>0.789</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.807</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B147" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.189</v>
+        <v>0.531</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.674</v>
+        <v>0.553</v>
       </c>
       <c r="E147" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.373</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.734</v>
+        <v>0.627</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.043</v>
+        <v>0.668</v>
       </c>
       <c r="E148" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.373</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>0.76</v>
+        <v>0.496</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.203</v>
+        <v>0.525</v>
       </c>
       <c r="E149" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.675</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C150" t="n">
-        <v>0.306</v>
+        <v>0.379</v>
       </c>
       <c r="D150" t="n">
-        <v>0.338</v>
+        <v>0.407</v>
       </c>
       <c r="E150" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.592</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C151" t="n">
-        <v>0.98</v>
+        <v>0.829</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.876</v>
+        <v>0.855</v>
       </c>
       <c r="E151" t="n">
-        <v>0.792</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.814</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B152" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C152" t="n">
-        <v>2.605</v>
+        <v>0.441</v>
       </c>
       <c r="D152" t="n">
-        <v>1.433</v>
+        <v>0.461</v>
       </c>
       <c r="E152" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.804</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.844</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B153" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C153" t="n">
-        <v>0.559</v>
+        <v>0.246</v>
       </c>
       <c r="D153" t="n">
-        <v>1.355</v>
+        <v>0.28</v>
       </c>
       <c r="E153" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.451</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B154" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.103</v>
+        <v>0.493</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.114</v>
+        <v>0.522</v>
       </c>
       <c r="E154" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.513</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.555</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C155" t="n">
-        <v>0.028</v>
+        <v>0.418</v>
       </c>
       <c r="D155" t="n">
-        <v>0.308</v>
+        <v>0.461</v>
       </c>
       <c r="E155" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.503</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C156" t="n">
-        <v>0.818</v>
+        <v>0.391</v>
       </c>
       <c r="D156" t="n">
-        <v>1.302</v>
+        <v>0.418</v>
       </c>
       <c r="E156" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.536</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B157" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" t="n">
-        <v>1.438</v>
+        <v>0.383</v>
       </c>
       <c r="D157" t="n">
-        <v>1.671</v>
+        <v>0.407</v>
       </c>
       <c r="E157" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.634</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>1.6</v>
+        <v>0.802</v>
       </c>
       <c r="D158" t="n">
-        <v>1.201</v>
+        <v>0.83</v>
       </c>
       <c r="E158" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.719</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.052</v>
+        <v>0.797</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.721</v>
+        <v>0.822</v>
       </c>
       <c r="E159" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.623</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B160" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C160" t="n">
-        <v>0.525</v>
+        <v>0.841</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.192</v>
+        <v>0.874</v>
       </c>
       <c r="E160" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.673</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.649</v>
+        <v>0.754</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.727</v>
+        <v>0.791</v>
       </c>
       <c r="E161" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.635</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B162" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.468</v>
+        <v>0.472</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.376</v>
+        <v>0.507</v>
       </c>
       <c r="E162" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.598</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.261</v>
+        <v>0.542</v>
       </c>
       <c r="D163" t="n">
-        <v>0.719</v>
+        <v>0.575</v>
       </c>
       <c r="E163" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.409</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.585</v>
+        <v>0.224</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.507</v>
+        <v>0.248</v>
       </c>
       <c r="E164" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.258</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.183</v>
+        <v>0.441</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.054</v>
+        <v>0.5</v>
       </c>
       <c r="E165" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.371</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.208</v>
+        <v>0.306</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.245</v>
+        <v>0.358</v>
       </c>
       <c r="E166" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.474</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B167" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C167" t="n">
-        <v>0.883</v>
+        <v>0.668</v>
       </c>
       <c r="D167" t="n">
-        <v>0.04</v>
+        <v>0.713</v>
       </c>
       <c r="E167" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.721</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C168" t="n">
-        <v>2.227</v>
+        <v>0.616</v>
       </c>
       <c r="D168" t="n">
-        <v>3.706</v>
+        <v>0.648</v>
       </c>
       <c r="E168" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.569</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.399</v>
+        <v>0.366</v>
       </c>
       <c r="D169" t="n">
-        <v>-1.066</v>
+        <v>0.392</v>
       </c>
       <c r="E169" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.572</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" t="n">
-        <v>-2.183</v>
+        <v>0.076</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.388</v>
+        <v>0.1</v>
       </c>
       <c r="E170" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.159</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C171" t="n">
-        <v>0.113</v>
+        <v>0.768</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.763</v>
+        <v>0.815</v>
       </c>
       <c r="E171" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.662</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C172" t="n">
-        <v>0.217</v>
+        <v>0.572</v>
       </c>
       <c r="D172" t="n">
-        <v>0.38</v>
+        <v>0.602</v>
       </c>
       <c r="E172" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.497</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.527</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B173" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.526</v>
+        <v>0.487</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.013</v>
+        <v>0.513</v>
       </c>
       <c r="E173" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.435</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.965</v>
+        <v>0.443</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.317</v>
+        <v>0.505</v>
       </c>
       <c r="E174" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.343</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B175" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C175" t="n">
-        <v>1.857</v>
+        <v>0.868</v>
       </c>
       <c r="D175" t="n">
-        <v>1.927</v>
+        <v>0.898</v>
       </c>
       <c r="E175" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.69</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B176" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.584</v>
+        <v>0.437</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.656</v>
+        <v>0.456</v>
       </c>
       <c r="E176" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.471</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B177" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.395</v>
+        <v>0.418</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.483</v>
+        <v>0.446</v>
       </c>
       <c r="E177" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.518</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.511</v>
+        <v>0.518</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.733</v>
+        <v>0.556</v>
       </c>
       <c r="E178" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.496</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B179" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>2.408</v>
+        <v>0.474</v>
       </c>
       <c r="D179" t="n">
-        <v>1.058</v>
+        <v>0.494</v>
       </c>
       <c r="E179" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.809</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.847</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B180" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C180" t="n">
-        <v>0.675</v>
+        <v>0.886</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.179</v>
+        <v>0.913</v>
       </c>
       <c r="E180" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.803</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.996</v>
+        <v>0.801</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.257</v>
+        <v>0.842</v>
       </c>
       <c r="E181" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.332</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B182" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.977</v>
+        <v>0.235</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.245</v>
+        <v>0.264</v>
       </c>
       <c r="E182" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.354</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B183" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C183" t="n">
-        <v>0.552</v>
+        <v>0.444</v>
       </c>
       <c r="D183" t="n">
-        <v>0.844</v>
+        <v>0.47</v>
       </c>
       <c r="E183" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.545</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B184" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="C184" t="n">
-        <v>0.88</v>
+        <v>0.641</v>
       </c>
       <c r="D184" t="n">
-        <v>0.225</v>
+        <v>0.68</v>
       </c>
       <c r="E184" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.662</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.695</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.316</v>
+        <v>0.653</v>
       </c>
       <c r="D185" t="n">
-        <v>0.844</v>
+        <v>0.682</v>
       </c>
       <c r="E185" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.177</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B186" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C186" t="n">
-        <v>0.329</v>
+        <v>0.038</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.055</v>
+        <v>0.053</v>
       </c>
       <c r="E186" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.619</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.692</v>
+        <v>0.601</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.09</v>
+        <v>0.626</v>
       </c>
       <c r="E187" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.389</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.746</v>
+        <v>0.434</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.185</v>
+        <v>0.463</v>
       </c>
       <c r="E188" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.525</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.961</v>
+        <v>0.569</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.12</v>
+        <v>0.586</v>
       </c>
       <c r="E189" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.432</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.48</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.438</v>
+        <v>0.713</v>
       </c>
       <c r="D190" t="n">
-        <v>0.796</v>
+        <v>0.739</v>
       </c>
       <c r="E190" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.371</v>
+        <v>0.684</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B191" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C191" t="n">
-        <v>0.394</v>
+        <v>0.462</v>
       </c>
       <c r="D191" t="n">
-        <v>1.165</v>
+        <v>0.495</v>
       </c>
       <c r="E191" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.49</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B192" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C192" t="n">
-        <v>1.022</v>
+        <v>0.508</v>
       </c>
       <c r="D192" t="n">
-        <v>0.243</v>
+        <v>0.53</v>
       </c>
       <c r="E192" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.73</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B193" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="C193" t="n">
-        <v>0.121</v>
+        <v>0.477</v>
       </c>
       <c r="D193" t="n">
-        <v>1.111</v>
+        <v>0.504</v>
       </c>
       <c r="E193" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.394</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B194" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.927</v>
+        <v>0.539</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.311</v>
+        <v>0.569</v>
       </c>
       <c r="E194" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.402</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B195" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.185</v>
+        <v>0.405</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.418</v>
+        <v>0.438</v>
       </c>
       <c r="E195" t="n">
-        <v>0.307</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.322</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C196" t="n">
-        <v>1.261</v>
+        <v>0.417</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.602</v>
+        <v>0.449</v>
       </c>
       <c r="E196" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.848</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.304</v>
+        <v>0.761</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.632</v>
+        <v>0.794</v>
       </c>
       <c r="E197" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.354</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B198" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C198" t="n">
-        <v>0.475</v>
+        <v>0.506</v>
       </c>
       <c r="D198" t="n">
-        <v>0.582</v>
+        <v>0.549</v>
       </c>
       <c r="E198" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.57</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C199" t="n">
-        <v>0.718</v>
+        <v>0.484</v>
       </c>
       <c r="D199" t="n">
-        <v>0.386</v>
+        <v>0.521</v>
       </c>
       <c r="E199" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.622</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.476</v>
+        <v>0.473</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.679</v>
+        <v>0.503</v>
       </c>
       <c r="E200" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.54</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>1.246</v>
+        <v>0.553</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.513</v>
+        <v>0.576</v>
       </c>
       <c r="E201" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.815</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.847</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C202" t="n">
-        <v>-2.533</v>
+        <v>0.603</v>
       </c>
       <c r="D202" t="n">
-        <v>-2.179</v>
+        <v>0.641</v>
       </c>
       <c r="E202" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.253</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B203" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C203" t="n">
-        <v>1.288</v>
+        <v>0.465</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.578</v>
+        <v>0.496</v>
       </c>
       <c r="E203" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.851</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C204" t="n">
-        <v>0.167</v>
+        <v>0.656</v>
       </c>
       <c r="D204" t="n">
-        <v>0.582</v>
+        <v>0.676</v>
       </c>
       <c r="E204" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.476</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.06</v>
+        <v>0.759</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.186</v>
+        <v>0.789</v>
       </c>
       <c r="E205" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.518</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B206" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.315</v>
+        <v>0.25</v>
       </c>
       <c r="D206" t="n">
-        <v>0.451</v>
+        <v>0.289</v>
       </c>
       <c r="E206" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.442</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.538</v>
+        <v>0.304</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.323</v>
+        <v>0.331</v>
       </c>
       <c r="E207" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.437</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B208" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C208" t="n">
-        <v>0.278</v>
+        <v>0.528</v>
       </c>
       <c r="D208" t="n">
-        <v>0.267</v>
+        <v>0.554</v>
       </c>
       <c r="E208" t="n">
-        <v>0.559</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.573</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C209" t="n">
-        <v>0.971</v>
+        <v>0.306</v>
       </c>
       <c r="D209" t="n">
-        <v>0.873</v>
+        <v>0.333</v>
       </c>
       <c r="E209" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.618</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B210" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.981</v>
+        <v>0.444</v>
       </c>
       <c r="D210" t="n">
-        <v>0.011</v>
+        <v>0.469</v>
       </c>
       <c r="E210" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.301</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B211" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C211" t="n">
-        <v>-2.09</v>
+        <v>0.402</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.257</v>
+        <v>0.419</v>
       </c>
       <c r="E211" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.146</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B212" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.611</v>
+        <v>0.569</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.876</v>
+        <v>0.597</v>
       </c>
       <c r="E212" t="n">
-        <v>0.506</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.527</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B213" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C213" t="n">
-        <v>0.113</v>
+        <v>0.328</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.537</v>
+        <v>0.354</v>
       </c>
       <c r="E213" t="n">
-        <v>0.581</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.608</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B214" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C214" t="n">
-        <v>1.303</v>
+        <v>0.304</v>
       </c>
       <c r="D214" t="n">
-        <v>0.516</v>
+        <v>0.334</v>
       </c>
       <c r="E214" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.676</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.714</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B215" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C215" t="n">
-        <v>1.858</v>
+        <v>0.71</v>
       </c>
       <c r="D215" t="n">
-        <v>1.26</v>
+        <v>0.74</v>
       </c>
       <c r="E215" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.761</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B216" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C216" t="n">
-        <v>0.444</v>
+        <v>0.714</v>
       </c>
       <c r="D216" t="n">
-        <v>1.867</v>
+        <v>0.737</v>
       </c>
       <c r="E216" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.389</v>
+        <v>0.689</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B217" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C217" t="n">
-        <v>2.655</v>
+        <v>0.297</v>
       </c>
       <c r="D217" t="n">
-        <v>1.665</v>
+        <v>0.326</v>
       </c>
       <c r="E217" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.843</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B218" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C218" t="n">
-        <v>0.602</v>
+        <v>0.489</v>
       </c>
       <c r="D218" t="n">
-        <v>1.1</v>
+        <v>0.532</v>
       </c>
       <c r="E218" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.505</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B219" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.692</v>
+        <v>0.61</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.953</v>
+        <v>0.638</v>
       </c>
       <c r="E219" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.46</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B220" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C220" t="n">
-        <v>0.329</v>
+        <v>0.451</v>
       </c>
       <c r="D220" t="n">
-        <v>1.04</v>
+        <v>0.485</v>
       </c>
       <c r="E220" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.463</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.376</v>
+        <v>0.5</v>
       </c>
       <c r="D221" t="n">
-        <v>-1.661</v>
+        <v>0.56</v>
       </c>
       <c r="E221" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.656</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B222" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="C222" t="n">
-        <v>0.633</v>
+        <v>0.628</v>
       </c>
       <c r="D222" t="n">
-        <v>0.296</v>
+        <v>0.66</v>
       </c>
       <c r="E222" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.622</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.653</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B223" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.53</v>
+        <v>0.698</v>
       </c>
       <c r="D223" t="n">
-        <v>0.273</v>
+        <v>0.732</v>
       </c>
       <c r="E223" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.41</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B224" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C224" t="n">
-        <v>0.194</v>
+        <v>0.46</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.757</v>
+        <v>0.491</v>
       </c>
       <c r="E224" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.661</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C225" t="n">
-        <v>0.409</v>
+        <v>0.667</v>
       </c>
       <c r="D225" t="n">
-        <v>0.338</v>
+        <v>0.698</v>
       </c>
       <c r="E225" t="n">
-        <v>0.561</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.551</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.571</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.711</v>
+        <v>0.562</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.751</v>
+        <v>0.589</v>
       </c>
       <c r="E226" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.466</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B227" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C227" t="n">
-        <v>1.338</v>
+        <v>0.729</v>
       </c>
       <c r="D227" t="n">
-        <v>0.32</v>
+        <v>0.757</v>
       </c>
       <c r="E227" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.756</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.343</v>
+        <v>0.617</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.453</v>
+        <v>0.633</v>
       </c>
       <c r="E228" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.28</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B229" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.123</v>
+        <v>0.338</v>
       </c>
       <c r="D229" t="n">
-        <v>-1.632</v>
+        <v>0.365</v>
       </c>
       <c r="E229" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.516</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B230" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.515</v>
+        <v>0.527</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.477</v>
+        <v>0.555</v>
       </c>
       <c r="E230" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.491</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B231" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C231" t="n">
-        <v>0.518</v>
+        <v>0.706</v>
       </c>
       <c r="D231" t="n">
-        <v>0.945</v>
+        <v>0.737</v>
       </c>
       <c r="E231" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.52</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B232" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="C232" t="n">
-        <v>0.074</v>
+        <v>0.44</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.227</v>
+        <v>0.46</v>
       </c>
       <c r="E232" t="n">
-        <v>0.561</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.582</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.869</v>
+        <v>0.824</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.406</v>
+        <v>0.862</v>
       </c>
       <c r="E233" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.385</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.854</v>
+        <v>0.51</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.406</v>
+        <v>0.536</v>
       </c>
       <c r="E234" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.351</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.404</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B235" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C235" t="n">
-        <v>0.09</v>
+        <v>0.563</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.227</v>
+        <v>0.609</v>
       </c>
       <c r="E235" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.586</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.384</v>
+        <v>0.605</v>
       </c>
       <c r="D236" t="n">
-        <v>-1.358</v>
+        <v>0.635</v>
       </c>
       <c r="E236" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.654</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B237" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.33</v>
+        <v>0.478</v>
       </c>
       <c r="D237" t="n">
-        <v>0.754</v>
+        <v>0.517</v>
       </c>
       <c r="E237" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.348</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B238" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.48</v>
+        <v>0.548</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.138</v>
+        <v>0.574</v>
       </c>
       <c r="E238" t="n">
-        <v>0.581</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.598</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B239" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C239" t="n">
-        <v>1.006</v>
+        <v>0.766</v>
       </c>
       <c r="D239" t="n">
-        <v>0.046</v>
+        <v>0.793</v>
       </c>
       <c r="E239" t="n">
-        <v>0.718</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.733</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C240" t="n">
-        <v>-1.008</v>
+        <v>0.815</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.685</v>
+        <v>0.858</v>
       </c>
       <c r="E240" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.397</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B241" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.657</v>
+        <v>0.711</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.953</v>
+        <v>0.738</v>
       </c>
       <c r="E241" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.524</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.576</v>
+        <v>0.792</v>
       </c>
       <c r="D242" t="n">
-        <v>-1.423</v>
+        <v>0.833</v>
       </c>
       <c r="E242" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.604</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B243" t="s">
         <v>54</v>
       </c>
       <c r="C243" t="n">
-        <v>0.664</v>
+        <v>0.52</v>
       </c>
       <c r="D243" t="n">
-        <v>1.028</v>
+        <v>0.551</v>
       </c>
       <c r="E243" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.542</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B244" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.361</v>
+        <v>0.513</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.531</v>
+        <v>0.537</v>
       </c>
       <c r="E244" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.533</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B245" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="C245" t="n">
-        <v>0.29</v>
+        <v>0.636</v>
       </c>
       <c r="D245" t="n">
-        <v>0.284</v>
+        <v>0.668</v>
       </c>
       <c r="E245" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="F245" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.519</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B246" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.239</v>
+        <v>0.535</v>
       </c>
       <c r="D246" t="n">
-        <v>0.195</v>
+        <v>0.567</v>
       </c>
       <c r="E246" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.243</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C247" t="n">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="D247" t="n">
-        <v>1.135</v>
+        <v>0.499</v>
       </c>
       <c r="E247" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0.561</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.616</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B248" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C248" t="n">
-        <v>1.607</v>
+        <v>0.43</v>
       </c>
       <c r="D248" t="n">
-        <v>1.51</v>
+        <v>0.456</v>
       </c>
       <c r="E248" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.657</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C249" t="n">
-        <v>-1.739</v>
+        <v>0.317</v>
       </c>
       <c r="D249" t="n">
-        <v>-2.411</v>
+        <v>0.344</v>
       </c>
       <c r="E249" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.467</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B250" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C250" t="n">
-        <v>0.109</v>
+        <v>0.487</v>
       </c>
       <c r="D250" t="n">
-        <v>0.106</v>
+        <v>0.517</v>
       </c>
       <c r="E250" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="F250" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.549</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B251" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="C251" t="n">
-        <v>1.388</v>
+        <v>0.628</v>
       </c>
       <c r="D251" t="n">
-        <v>0.386</v>
+        <v>0.663</v>
       </c>
       <c r="E251" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="F251" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.764</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.407</v>
+        <v>0.666</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.602</v>
+        <v>0.701</v>
       </c>
       <c r="E252" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="F252" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.573</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
         <v>76</v>
       </c>
       <c r="C253" t="n">
-        <v>0.156</v>
+        <v>0.588</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.65</v>
+        <v>0.644</v>
       </c>
       <c r="E253" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="F253" t="n">
-        <v>0.612</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.641</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B254" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.411</v>
+        <v>0.535</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.697</v>
+        <v>0.56</v>
       </c>
       <c r="E254" t="n">
-        <v>0.539</v>
-      </c>
-      <c r="F254" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.554</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.126</v>
+        <v>0.604</v>
       </c>
       <c r="D255" t="n">
-        <v>0.743</v>
+        <v>0.639</v>
       </c>
       <c r="E255" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="F255" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.412</v>
+        <v>0.569</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B256" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.33</v>
+        <v>0.439</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.138</v>
+        <v>0.466</v>
       </c>
       <c r="E256" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="F256" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.499</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.072</v>
+        <v>0.702</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.138</v>
+        <v>0.725</v>
       </c>
       <c r="E257" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="F257" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.579</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C258" t="n">
-        <v>0.186</v>
+        <v>0.547</v>
       </c>
       <c r="D258" t="n">
-        <v>0.278</v>
+        <v>0.578</v>
       </c>
       <c r="E258" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F258" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.526</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B259" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.135</v>
+        <v>0.542</v>
       </c>
       <c r="D259" t="n">
-        <v>-1.334</v>
+        <v>0.572</v>
       </c>
       <c r="E259" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="F259" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.78</v>
+        <v>0.769</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.197</v>
+        <v>0.802</v>
       </c>
       <c r="E260" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="F260" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.51</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C261" t="n">
-        <v>0.61</v>
+        <v>0.589</v>
       </c>
       <c r="D261" t="n">
-        <v>0.909</v>
+        <v>0.625</v>
       </c>
       <c r="E261" t="n">
-        <v>0.548</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.569</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B262" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C262" t="n">
-        <v>0.452</v>
+        <v>0.594</v>
       </c>
       <c r="D262" t="n">
-        <v>0.903</v>
+        <v>0.624</v>
       </c>
       <c r="E262" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="F262" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.501</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B263" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.276</v>
+        <v>0.615</v>
       </c>
       <c r="D263" t="n">
-        <v>0.243</v>
+        <v>0.639</v>
       </c>
       <c r="E263" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F263" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.453</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B264" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.003</v>
+        <v>0.22</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.352</v>
+        <v>0.263</v>
       </c>
       <c r="E264" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="F264" t="n">
-        <v>0.565</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.59</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B265" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="C265" t="n">
-        <v>0.244</v>
+        <v>0.699</v>
       </c>
       <c r="D265" t="n">
-        <v>-1.019</v>
+        <v>0.729</v>
       </c>
       <c r="E265" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="F265" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.728</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B266" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C266" t="n">
-        <v>-1.493</v>
+        <v>0.761</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.953</v>
+        <v>0.793</v>
       </c>
       <c r="E266" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="F266" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.366</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C267" t="n">
-        <v>0.294</v>
+        <v>0.48</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.293</v>
+        <v>0.529</v>
       </c>
       <c r="E267" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="F267" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.634</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B268" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C268" t="n">
-        <v>0.706</v>
+        <v>0.618</v>
       </c>
       <c r="D268" t="n">
-        <v>0.778</v>
+        <v>0.645</v>
       </c>
       <c r="E268" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="F268" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.608</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C269" t="n">
-        <v>0.144</v>
+        <v>0.393</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.388</v>
+        <v>0.426</v>
       </c>
       <c r="E269" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="F269" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.606</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B270" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C270" t="n">
-        <v>0.737</v>
+        <v>0.891</v>
       </c>
       <c r="D270" t="n">
-        <v>0.588</v>
+        <v>0.918</v>
       </c>
       <c r="E270" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="F270" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.604</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.16</v>
+        <v>0.413</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.518</v>
+        <v>0.443</v>
       </c>
       <c r="E271" t="n">
-        <v>0.697</v>
-      </c>
-      <c r="F271" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.715</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.378</v>
+        <v>0.682</v>
       </c>
       <c r="D272" t="n">
-        <v>1.058</v>
+        <v>0.716</v>
       </c>
       <c r="E272" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="F272" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.145</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B273" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.096</v>
+        <v>0.259</v>
       </c>
       <c r="D273" t="n">
-        <v>-1.096</v>
+        <v>0.299</v>
       </c>
       <c r="E273" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="F273" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.437</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B274" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.153</v>
+        <v>0.744</v>
       </c>
       <c r="D274" t="n">
-        <v>2.01</v>
+        <v>0.769</v>
       </c>
       <c r="E274" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="F274" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.269</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B275" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C275" t="n">
-        <v>0.078</v>
+        <v>0.512</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.436</v>
+        <v>0.556</v>
       </c>
       <c r="E275" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="F275" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.611</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B276" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C276" t="n">
-        <v>0.417</v>
+        <v>0.742</v>
       </c>
       <c r="D276" t="n">
-        <v>0.516</v>
+        <v>0.773</v>
       </c>
       <c r="E276" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="F276" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.562</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B277" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C277" t="n">
-        <v>-1.035</v>
+        <v>0.545</v>
       </c>
       <c r="D277" t="n">
-        <v>-1.06</v>
+        <v>0.578</v>
       </c>
       <c r="E277" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="F277" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.487</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B278" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C278" t="n">
-        <v>0.302</v>
+        <v>0.575</v>
       </c>
       <c r="D278" t="n">
-        <v>0.647</v>
+        <v>0.603</v>
       </c>
       <c r="E278" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="F278" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.501</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B279" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.045</v>
+        <v>0.263</v>
       </c>
       <c r="D279" t="n">
-        <v>1.409</v>
+        <v>0.295</v>
       </c>
       <c r="E279" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F279" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.341</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B280" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.888</v>
+        <v>0.349</v>
       </c>
       <c r="D280" t="n">
-        <v>0.231</v>
+        <v>0.37</v>
       </c>
       <c r="E280" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="F280" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.284</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B281" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.28</v>
+        <v>0.596</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.239</v>
+        <v>0.631</v>
       </c>
       <c r="E281" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="F281" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.485</v>
+        <v>0.561</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B282" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C282" t="n">
-        <v>1.5</v>
+        <v>0.736</v>
       </c>
       <c r="D282" t="n">
-        <v>0.409</v>
+        <v>0.77</v>
       </c>
       <c r="E282" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="F282" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.814</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B283" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C283" t="n">
-        <v>-1.084</v>
+        <v>0.586</v>
       </c>
       <c r="D283" t="n">
-        <v>-1.31</v>
+        <v>0.614</v>
       </c>
       <c r="E283" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="F283" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.466</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B284" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C284" t="n">
-        <v>1.357</v>
+        <v>0.554</v>
       </c>
       <c r="D284" t="n">
-        <v>1.171</v>
+        <v>0.577</v>
       </c>
       <c r="E284" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="F284" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.665</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B285" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.707</v>
+        <v>0.291</v>
       </c>
       <c r="D285" t="n">
-        <v>0.13</v>
+        <v>0.314</v>
       </c>
       <c r="E285" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="F285" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.355</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B286" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.676</v>
+        <v>0.257</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.763</v>
+        <v>0.28</v>
       </c>
       <c r="E286" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="F286" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.503</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C287" t="n">
-        <v>0.456</v>
+        <v>0.643</v>
       </c>
       <c r="D287" t="n">
-        <v>0.32</v>
+        <v>0.664</v>
       </c>
       <c r="E287" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="F287" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.601</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B288" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.519</v>
+        <v>0.308</v>
       </c>
       <c r="D288" t="n">
-        <v>0.975</v>
+        <v>0.335</v>
       </c>
       <c r="E288" t="n">
         <v>0.282</v>
       </c>
-      <c r="F288" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B289" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.792</v>
+        <v>0.552</v>
       </c>
       <c r="D289" t="n">
-        <v>-1.263</v>
+        <v>0.575</v>
       </c>
       <c r="E289" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="F289" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.553</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B290" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.372</v>
+        <v>0.757</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.638</v>
+        <v>0.781</v>
       </c>
       <c r="E290" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="F290" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.549</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.029</v>
+        <v>0.257</v>
       </c>
       <c r="D291" t="n">
-        <v>-1.167</v>
+        <v>0.297</v>
       </c>
       <c r="E291" t="n">
-        <v>0.637</v>
-      </c>
-      <c r="F291" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.657</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B292" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C292" t="n">
-        <v>0.667</v>
+        <v>0.634</v>
       </c>
       <c r="D292" t="n">
-        <v>1.248</v>
+        <v>0.66</v>
       </c>
       <c r="E292" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="F292" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.503</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.243</v>
+        <v>0.248</v>
       </c>
       <c r="D293" t="n">
-        <v>0.023</v>
+        <v>0.272</v>
       </c>
       <c r="E293" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F293" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.288</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B294" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.577</v>
+        <v>0.646</v>
       </c>
       <c r="D294" t="n">
-        <v>-1.257</v>
+        <v>0.668</v>
       </c>
       <c r="E294" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F294" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.597</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B295" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.211</v>
+        <v>0.442</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.215</v>
+        <v>0.475</v>
       </c>
       <c r="E295" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F295" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.516</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B296" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C296" t="n">
-        <v>0.86</v>
+        <v>0.705</v>
       </c>
       <c r="D296" t="n">
-        <v>1.105</v>
+        <v>0.75</v>
       </c>
       <c r="E296" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="F296" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.586</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.557</v>
+        <v>0.828</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.769</v>
+        <v>0.852</v>
       </c>
       <c r="E297" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="F297" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.525</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B298" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.135</v>
+        <v>0.802</v>
       </c>
       <c r="D298" t="n">
-        <v>-1.162</v>
+        <v>0.833</v>
       </c>
       <c r="E298" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="F298" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.422</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B299" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.958</v>
+        <v>0.392</v>
       </c>
       <c r="D299" t="n">
-        <v>0.433</v>
+        <v>0.417</v>
       </c>
       <c r="E299" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="F299" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.258</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B300" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.137</v>
+        <v>0.609</v>
       </c>
       <c r="D300" t="n">
-        <v>-1.001</v>
+        <v>0.644</v>
       </c>
       <c r="E300" t="n">
-        <v>0.642</v>
-      </c>
-      <c r="F300" t="n">
-        <v>0.622</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.663</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B301" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.114</v>
+        <v>0.649</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.656</v>
+        <v>0.687</v>
       </c>
       <c r="E301" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F301" t="n">
-        <v>0.559</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.6</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B302" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C302" t="n">
-        <v>0.252</v>
+        <v>0.596</v>
       </c>
       <c r="D302" t="n">
-        <v>0.011</v>
+        <v>0.631</v>
       </c>
       <c r="E302" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="F302" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.597</v>
+        <v>0.563</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B303" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.168</v>
+        <v>0.282</v>
       </c>
       <c r="D303" t="n">
-        <v>0.772</v>
+        <v>0.315</v>
       </c>
       <c r="E303" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="F303" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.379</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.838</v>
+        <v>0.615</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.144</v>
+        <v>0.648</v>
       </c>
       <c r="E304" t="n">
-        <v>0.321</v>
-      </c>
-      <c r="F304" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.339</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B305" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C305" t="n">
-        <v>-1.139</v>
+        <v>0.221</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.037</v>
+        <v>0.245</v>
       </c>
       <c r="E305" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="F305" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.265</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B306" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C306" t="n">
-        <v>2.447</v>
+        <v>0.642</v>
       </c>
       <c r="D306" t="n">
-        <v>1.332</v>
+        <v>0.677</v>
       </c>
       <c r="E306" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="F306" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.831</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.054</v>
+        <v>0.355</v>
       </c>
       <c r="D307" t="n">
-        <v>-1.382</v>
+        <v>0.388</v>
       </c>
       <c r="E307" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="F307" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.469</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B308" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.565</v>
+        <v>0.464</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.352</v>
+        <v>0.508</v>
       </c>
       <c r="E308" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="F308" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.461</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B309" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.446</v>
+        <v>0.46</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.317</v>
+        <v>0.498</v>
       </c>
       <c r="E309" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="F309" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.478</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B310" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C310" t="n">
-        <v>1.272</v>
+        <v>0.734</v>
       </c>
       <c r="D310" t="n">
-        <v>1.296</v>
+        <v>0.763</v>
       </c>
       <c r="E310" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="F310" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.638</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C311" t="n">
-        <v>-2.082</v>
+        <v>0.574</v>
       </c>
       <c r="D311" t="n">
-        <v>-2.114</v>
+        <v>0.592</v>
       </c>
       <c r="E311" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="F311" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.355</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B312" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C312" t="n">
-        <v>0.902</v>
+        <v>0.404</v>
       </c>
       <c r="D312" t="n">
-        <v>1.587</v>
+        <v>0.422</v>
       </c>
       <c r="E312" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="F312" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.533</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C313" t="n">
-        <v>0.313</v>
+        <v>0.443</v>
       </c>
       <c r="D313" t="n">
-        <v>0.302</v>
+        <v>0.479</v>
       </c>
       <c r="E313" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="F313" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.553</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C314" t="n">
-        <v>2.704</v>
+        <v>0.246</v>
       </c>
       <c r="D314" t="n">
-        <v>3.878</v>
+        <v>0.279</v>
       </c>
       <c r="E314" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="F314" t="n">
-        <v>0.568</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.645</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B315" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C315" t="n">
-        <v>0.271</v>
+        <v>0.637</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.906</v>
+        <v>0.658</v>
       </c>
       <c r="E315" t="n">
-        <v>0.672</v>
-      </c>
-      <c r="F315" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.692</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B316" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C316" t="n">
-        <v>1.11</v>
+        <v>0.795</v>
       </c>
       <c r="D316" t="n">
-        <v>-1.072</v>
+        <v>0.835</v>
       </c>
       <c r="E316" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="F316" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.856</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B317" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C317" t="n">
-        <v>0.879</v>
+        <v>0.64</v>
       </c>
       <c r="D317" t="n">
-        <v>0.606</v>
+        <v>0.666</v>
       </c>
       <c r="E317" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F317" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.64</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B318" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C318" t="n">
-        <v>0.529</v>
+        <v>0.642</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.596</v>
+        <v>0.67</v>
       </c>
       <c r="E318" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="F318" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.729</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B319" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.884</v>
+        <v>0.528</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.37</v>
+        <v>0.551</v>
       </c>
       <c r="E319" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="F319" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.394</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B320" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.85</v>
+        <v>0.414</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.68</v>
+        <v>0.446</v>
       </c>
       <c r="E320" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="F320" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.411</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B321" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C321" t="n">
-        <v>-1.224</v>
+        <v>0.606</v>
       </c>
       <c r="D321" t="n">
-        <v>0.278</v>
+        <v>0.633</v>
       </c>
       <c r="E321" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="F321" t="n">
-        <v>0.211</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.248</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B322" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.399</v>
+        <v>0.64</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.507</v>
+        <v>0.66</v>
       </c>
       <c r="E322" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="F322" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.525</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B323" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C323" t="n">
-        <v>0.694</v>
+        <v>0.561</v>
       </c>
       <c r="D323" t="n">
-        <v>1.254</v>
+        <v>0.589</v>
       </c>
       <c r="E323" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="F323" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.528</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C324" t="n">
-        <v>1.361</v>
+        <v>0.732</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.043</v>
+        <v>0.763</v>
       </c>
       <c r="E324" t="n">
-        <v>0.799</v>
-      </c>
-      <c r="F324" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.815</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B325" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C325" t="n">
-        <v>1.145</v>
+        <v>0.455</v>
       </c>
       <c r="D325" t="n">
-        <v>0.701</v>
+        <v>0.482</v>
       </c>
       <c r="E325" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="F325" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.693</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B326" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.218</v>
+        <v>0.728</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.269</v>
+        <v>0.762</v>
       </c>
       <c r="E326" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="F326" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.531</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B327" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.75</v>
+        <v>0.544</v>
       </c>
       <c r="D327" t="n">
-        <v>-1.007</v>
+        <v>0.563</v>
       </c>
       <c r="E327" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="F327" t="n">
-        <v>0.448</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.481</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B328" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.846</v>
+        <v>0.634</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.245</v>
+        <v>0.665</v>
       </c>
       <c r="E328" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="F328" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.385</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B329" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C329" t="n">
-        <v>0.417</v>
+        <v>0.68</v>
       </c>
       <c r="D329" t="n">
-        <v>-1.269</v>
+        <v>0.704</v>
       </c>
       <c r="E329" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="F329" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.785</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B330" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C330" t="n">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
       <c r="D330" t="n">
-        <v>0.409</v>
+        <v>0.79</v>
       </c>
       <c r="E330" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="F330" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.689</v>
+        <v>0.688</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B331" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.214</v>
+        <v>0.717</v>
       </c>
       <c r="D331" t="n">
-        <v>-1.858</v>
+        <v>0.744</v>
       </c>
       <c r="E331" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="F331" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.748</v>
+        <v>0.691</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B332" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C332" t="n">
-        <v>0.128</v>
+        <v>0.422</v>
       </c>
       <c r="D332" t="n">
-        <v>1.552</v>
+        <v>0.468</v>
       </c>
       <c r="E332" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="F332" t="n">
-        <v>0.258</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.312</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B333" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C333" t="n">
-        <v>0.672</v>
+        <v>0.72</v>
       </c>
       <c r="D333" t="n">
-        <v>-1.096</v>
+        <v>0.755</v>
       </c>
       <c r="E333" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="F333" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.804</v>
+        <v>0.687</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B334" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C334" t="n">
-        <v>0.884</v>
+        <v>0.683</v>
       </c>
       <c r="D334" t="n">
-        <v>-1.792</v>
+        <v>0.741</v>
       </c>
       <c r="E334" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="F334" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.882</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B335" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C335" t="n">
-        <v>-1.639</v>
+        <v>0.275</v>
       </c>
       <c r="D335" t="n">
-        <v>-1.858</v>
+        <v>0.303</v>
       </c>
       <c r="E335" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="F335" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.414</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B336" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C336" t="n">
-        <v>-1.081</v>
+        <v>0.474</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.073</v>
+        <v>0.511</v>
       </c>
       <c r="E336" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="F336" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.311</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.026</v>
+        <v>0.616</v>
       </c>
       <c r="D337" t="n">
-        <v>0.957</v>
+        <v>0.658</v>
       </c>
       <c r="E337" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="F337" t="n">
-        <v>0.377</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.413</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B338" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C338" t="n">
-        <v>0.428</v>
+        <v>0.725</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.15</v>
+        <v>0.75</v>
       </c>
       <c r="E338" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="F338" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.647</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B339" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C339" t="n">
-        <v>0.837</v>
+        <v>0.296</v>
       </c>
       <c r="D339" t="n">
-        <v>0.582</v>
+        <v>0.328</v>
       </c>
       <c r="E339" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F339" t="n">
-        <v>0.594</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.627</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B340" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C340" t="n">
-        <v>0.983</v>
+        <v>0.779</v>
       </c>
       <c r="D340" t="n">
-        <v>2.557</v>
+        <v>0.82</v>
       </c>
       <c r="E340" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="F340" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.424</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B341" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.369</v>
+        <v>0.661</v>
       </c>
       <c r="D341" t="n">
-        <v>1.23</v>
+        <v>0.696</v>
       </c>
       <c r="E341" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F341" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.289</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B342" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.777</v>
+        <v>0.332</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.501</v>
+        <v>0.358</v>
       </c>
       <c r="E342" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="F342" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.417</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B343" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C343" t="n">
-        <v>0.113</v>
+        <v>0.637</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.007</v>
+        <v>0.658</v>
       </c>
       <c r="E343" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="F343" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.575</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B344" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.592</v>
+        <v>0.387</v>
       </c>
       <c r="D344" t="n">
-        <v>0.493</v>
+        <v>0.406</v>
       </c>
       <c r="E344" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="F344" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.327</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B345" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C345" t="n">
-        <v>0.806</v>
+        <v>0.827</v>
       </c>
       <c r="D345" t="n">
-        <v>1.106</v>
+        <v>0.865</v>
       </c>
       <c r="E345" t="n">
-        <v>0.552</v>
-      </c>
-      <c r="F345" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.571</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B346" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.303</v>
+        <v>0.664</v>
       </c>
       <c r="D346" t="n">
-        <v>0.171</v>
+        <v>0.69</v>
       </c>
       <c r="E346" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="F346" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.451</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B347" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C347" t="n">
-        <v>0.383</v>
+        <v>0.648</v>
       </c>
       <c r="D347" t="n">
-        <v>0.011</v>
+        <v>0.672</v>
       </c>
       <c r="E347" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="F347" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.594</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B348" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.257</v>
+        <v>0.658</v>
       </c>
       <c r="D348" t="n">
-        <v>-1.53</v>
+        <v>0.695</v>
       </c>
       <c r="E348" t="n">
-        <v>0.662</v>
-      </c>
-      <c r="F348" t="n">
-        <v>0.637</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.685</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B349" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C349" t="n">
-        <v>1.847</v>
+        <v>0.582</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.364</v>
+        <v>0.616</v>
       </c>
       <c r="E349" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="F349" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.882</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B350" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C350" t="n">
-        <v>0.622</v>
+        <v>0.785</v>
       </c>
       <c r="D350" t="n">
-        <v>0.052</v>
+        <v>0.817</v>
       </c>
       <c r="E350" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="F350" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.656</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.135</v>
+        <v>0.325</v>
       </c>
       <c r="D351" t="n">
-        <v>0.326</v>
+        <v>0.353</v>
       </c>
       <c r="E351" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="F351" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.262</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B352" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C352" t="n">
-        <v>0.487</v>
+        <v>0.661</v>
       </c>
       <c r="D352" t="n">
-        <v>0.689</v>
+        <v>0.693</v>
       </c>
       <c r="E352" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="F352" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.554</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B353" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C353" t="n">
-        <v>0.106</v>
+        <v>0.673</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.918</v>
+        <v>0.707</v>
       </c>
       <c r="E353" t="n">
-        <v>0.685</v>
-      </c>
-      <c r="F353" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.702</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B354" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C354" t="n">
-        <v>0.059</v>
+        <v>0.529</v>
       </c>
       <c r="D354" t="n">
-        <v>1.01</v>
+        <v>0.562</v>
       </c>
       <c r="E354" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="F354" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.397</v>
+        <v>0.493</v>
       </c>
     </row>
   </sheetData>

--- a/ncaa_bracket/teams.xlsx
+++ b/ncaa_bracket/teams.xlsx
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="D2" t="n">
-        <v>0.561</v>
+        <v>0.578</v>
       </c>
       <c r="E2" t="n">
-        <v>0.521</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="3">
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.607</v>
+        <v>0.544</v>
       </c>
       <c r="D3" t="n">
-        <v>0.646</v>
+        <v>0.583</v>
       </c>
       <c r="E3" t="n">
-        <v>0.567</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="4">
@@ -1572,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.727</v>
+        <v>0.736</v>
       </c>
       <c r="D4" t="n">
-        <v>0.758</v>
+        <v>0.777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.696</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="5">
@@ -1589,13 +1589,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265</v>
+        <v>0.274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.296</v>
+        <v>0.307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.236</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="6">
@@ -1606,13 +1606,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.595</v>
+        <v>0.533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.569</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="7">
@@ -1623,13 +1623,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.151</v>
+        <v>0.168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.177</v>
+        <v>0.203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.129</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="8">
@@ -1640,13 +1640,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.604</v>
+        <v>0.656</v>
       </c>
       <c r="D8" t="n">
-        <v>0.642</v>
+        <v>0.682</v>
       </c>
       <c r="E8" t="n">
-        <v>0.57</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="9">
@@ -1657,13 +1657,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.51</v>
+        <v>0.536</v>
       </c>
       <c r="D9" t="n">
-        <v>0.541</v>
+        <v>0.564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.48</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="10">
@@ -1674,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.194</v>
+        <v>0.394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.228</v>
+        <v>0.421</v>
       </c>
       <c r="E10" t="n">
-        <v>0.165</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="11">
@@ -1691,13 +1691,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>0.512</v>
+        <v>0.514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.537</v>
+        <v>0.565</v>
       </c>
       <c r="E11" t="n">
-        <v>0.485</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="12">
@@ -1708,13 +1708,13 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>0.511</v>
+        <v>0.459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.53</v>
+        <v>0.495</v>
       </c>
       <c r="E12" t="n">
-        <v>0.492</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="13">
@@ -1725,10 +1725,10 @@
         <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>0.601</v>
+        <v>0.594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.633</v>
+        <v>0.623</v>
       </c>
       <c r="E13" t="n">
         <v>0.57</v>
@@ -1742,13 +1742,13 @@
         <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>0.898</v>
+        <v>0.875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.922</v>
+        <v>0.901</v>
       </c>
       <c r="E14" t="n">
-        <v>0.868</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="15">
@@ -1759,13 +1759,13 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>0.592</v>
+        <v>0.626</v>
       </c>
       <c r="D15" t="n">
-        <v>0.613</v>
+        <v>0.66</v>
       </c>
       <c r="E15" t="n">
-        <v>0.57</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="16">
@@ -1776,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111</v>
+        <v>0.127</v>
       </c>
       <c r="D16" t="n">
-        <v>0.141</v>
+        <v>0.149</v>
       </c>
       <c r="E16" t="n">
-        <v>0.087</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="17">
@@ -1793,13 +1793,13 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>0.506</v>
+        <v>0.493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="E17" t="n">
-        <v>0.491</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="18">
@@ -1810,13 +1810,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="D18" t="n">
-        <v>0.801</v>
+        <v>0.769</v>
       </c>
       <c r="E18" t="n">
-        <v>0.749</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="19">
@@ -1827,13 +1827,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>0.414</v>
+        <v>0.467</v>
       </c>
       <c r="D19" t="n">
-        <v>0.454</v>
+        <v>0.523</v>
       </c>
       <c r="E19" t="n">
-        <v>0.378</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="20">
@@ -1844,13 +1844,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>0.872</v>
+        <v>0.798</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9</v>
+        <v>0.837</v>
       </c>
       <c r="E20" t="n">
-        <v>0.84</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="21">
@@ -1861,13 +1861,13 @@
         <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>0.564</v>
+        <v>0.622</v>
       </c>
       <c r="D21" t="n">
-        <v>0.586</v>
+        <v>0.661</v>
       </c>
       <c r="E21" t="n">
-        <v>0.541</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="22">
@@ -1878,13 +1878,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.683</v>
+        <v>0.691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.707</v>
+        <v>0.722</v>
       </c>
       <c r="E22" t="n">
-        <v>0.658</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="23">
@@ -1895,13 +1895,13 @@
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>0.842</v>
+        <v>0.814</v>
       </c>
       <c r="D23" t="n">
-        <v>0.877</v>
+        <v>0.86</v>
       </c>
       <c r="E23" t="n">
-        <v>0.803</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="24">
@@ -1912,13 +1912,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>0.814</v>
+        <v>0.815</v>
       </c>
       <c r="D24" t="n">
-        <v>0.842</v>
+        <v>0.844</v>
       </c>
       <c r="E24" t="n">
-        <v>0.781</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="25">
@@ -1929,13 +1929,13 @@
         <v>42</v>
       </c>
       <c r="C25" t="n">
-        <v>0.483</v>
+        <v>0.465</v>
       </c>
       <c r="D25" t="n">
-        <v>0.514</v>
+        <v>0.477</v>
       </c>
       <c r="E25" t="n">
-        <v>0.451</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="26">
@@ -1946,13 +1946,13 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>0.308</v>
+        <v>0.275</v>
       </c>
       <c r="D26" t="n">
-        <v>0.335</v>
+        <v>0.315</v>
       </c>
       <c r="E26" t="n">
-        <v>0.282</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="27">
@@ -1963,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.611</v>
+        <v>0.595</v>
       </c>
       <c r="D27" t="n">
-        <v>0.637</v>
+        <v>0.616</v>
       </c>
       <c r="E27" t="n">
-        <v>0.585</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="28">
@@ -1980,13 +1980,13 @@
         <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>0.459</v>
+        <v>0.426</v>
       </c>
       <c r="D28" t="n">
-        <v>0.491</v>
+        <v>0.43</v>
       </c>
       <c r="E28" t="n">
-        <v>0.43</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="29">
@@ -1997,13 +1997,13 @@
         <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>0.584</v>
+        <v>0.59</v>
       </c>
       <c r="D29" t="n">
         <v>0.612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.553</v>
+        <v>0.565</v>
       </c>
     </row>
     <row r="30">
@@ -2014,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.569</v>
+        <v>0.587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.592</v>
+        <v>0.591</v>
       </c>
       <c r="E30" t="n">
-        <v>0.546</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="31">
@@ -2031,13 +2031,13 @@
         <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>0.701</v>
+        <v>0.695</v>
       </c>
       <c r="D31" t="n">
-        <v>0.727</v>
+        <v>0.712</v>
       </c>
       <c r="E31" t="n">
-        <v>0.675</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="32">
@@ -2048,13 +2048,13 @@
         <v>52</v>
       </c>
       <c r="C32" t="n">
-        <v>0.766</v>
+        <v>0.75</v>
       </c>
       <c r="D32" t="n">
-        <v>0.804</v>
+        <v>0.796</v>
       </c>
       <c r="E32" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="33">
@@ -2065,13 +2065,13 @@
         <v>54</v>
       </c>
       <c r="C33" t="n">
-        <v>0.432</v>
+        <v>0.404</v>
       </c>
       <c r="D33" t="n">
-        <v>0.464</v>
+        <v>0.421</v>
       </c>
       <c r="E33" t="n">
-        <v>0.403</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="34">
@@ -2082,13 +2082,13 @@
         <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>0.569</v>
+        <v>0.566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="E34" t="n">
-        <v>0.542</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="35">
@@ -2099,13 +2099,13 @@
         <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="D35" t="n">
-        <v>0.415</v>
+        <v>0.424</v>
       </c>
       <c r="E35" t="n">
-        <v>0.37</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="36">
@@ -2116,13 +2116,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.564</v>
+        <v>0.59</v>
       </c>
       <c r="D36" t="n">
-        <v>0.585</v>
+        <v>0.628</v>
       </c>
       <c r="E36" t="n">
-        <v>0.544</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="37">
@@ -2133,13 +2133,13 @@
         <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>0.854</v>
+        <v>0.79</v>
       </c>
       <c r="D37" t="n">
-        <v>0.886</v>
+        <v>0.82</v>
       </c>
       <c r="E37" t="n">
-        <v>0.816</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="38">
@@ -2150,13 +2150,13 @@
         <v>62</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248</v>
+        <v>0.223</v>
       </c>
       <c r="D38" t="n">
-        <v>0.277</v>
+        <v>0.249</v>
       </c>
       <c r="E38" t="n">
-        <v>0.222</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="39">
@@ -2167,13 +2167,13 @@
         <v>64</v>
       </c>
       <c r="C39" t="n">
-        <v>0.432</v>
+        <v>0.504</v>
       </c>
       <c r="D39" t="n">
-        <v>0.462</v>
+        <v>0.503</v>
       </c>
       <c r="E39" t="n">
-        <v>0.401</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="40">
@@ -2184,13 +2184,13 @@
         <v>62</v>
       </c>
       <c r="C40" t="n">
-        <v>0.359</v>
+        <v>0.37</v>
       </c>
       <c r="D40" t="n">
-        <v>0.379</v>
+        <v>0.387</v>
       </c>
       <c r="E40" t="n">
-        <v>0.339</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2201,13 @@
         <v>62</v>
       </c>
       <c r="C41" t="n">
-        <v>0.324</v>
+        <v>0.363</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353</v>
+        <v>0.394</v>
       </c>
       <c r="E41" t="n">
-        <v>0.294</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="42">
@@ -2218,13 +2218,13 @@
         <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>0.683</v>
+        <v>0.723</v>
       </c>
       <c r="D42" t="n">
-        <v>0.715</v>
+        <v>0.754</v>
       </c>
       <c r="E42" t="n">
-        <v>0.65</v>
+        <v>0.693</v>
       </c>
     </row>
     <row r="43">
@@ -2235,13 +2235,13 @@
         <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>0.453</v>
+        <v>0.486</v>
       </c>
       <c r="D43" t="n">
-        <v>0.478</v>
+        <v>0.483</v>
       </c>
       <c r="E43" t="n">
-        <v>0.427</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="44">
@@ -2252,13 +2252,13 @@
         <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>0.613</v>
+        <v>0.621</v>
       </c>
       <c r="D44" t="n">
-        <v>0.637</v>
+        <v>0.645</v>
       </c>
       <c r="E44" t="n">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="45">
@@ -2269,10 +2269,10 @@
         <v>62</v>
       </c>
       <c r="C45" t="n">
-        <v>0.562</v>
+        <v>0.575</v>
       </c>
       <c r="D45" t="n">
-        <v>0.586</v>
+        <v>0.581</v>
       </c>
       <c r="E45" t="n">
         <v>0.539</v>
@@ -2286,13 +2286,13 @@
         <v>62</v>
       </c>
       <c r="C46" t="n">
-        <v>0.69</v>
+        <v>0.634</v>
       </c>
       <c r="D46" t="n">
-        <v>0.717</v>
+        <v>0.675</v>
       </c>
       <c r="E46" t="n">
-        <v>0.663</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="47">
@@ -2303,13 +2303,13 @@
         <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>0.437</v>
+        <v>0.384</v>
       </c>
       <c r="D47" t="n">
-        <v>0.472</v>
+        <v>0.405</v>
       </c>
       <c r="E47" t="n">
-        <v>0.404</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="48">
@@ -2320,13 +2320,13 @@
         <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>0.569</v>
+        <v>0.57</v>
       </c>
       <c r="D48" t="n">
-        <v>0.594</v>
+        <v>0.575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.544</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="49">
@@ -2337,13 +2337,13 @@
         <v>76</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53</v>
+        <v>0.563</v>
       </c>
       <c r="E49" t="n">
-        <v>0.471</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="50">
@@ -2357,10 +2357,10 @@
         <v>0.206</v>
       </c>
       <c r="D50" t="n">
-        <v>0.233</v>
+        <v>0.241</v>
       </c>
       <c r="E50" t="n">
-        <v>0.182</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="51">
@@ -2371,13 +2371,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="n">
-        <v>0.129</v>
+        <v>0.11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.151</v>
+        <v>0.134</v>
       </c>
       <c r="E51" t="n">
-        <v>0.109</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="52">
@@ -2388,13 +2388,13 @@
         <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>0.573</v>
+        <v>0.566</v>
       </c>
       <c r="D52" t="n">
-        <v>0.598</v>
+        <v>0.601</v>
       </c>
       <c r="E52" t="n">
-        <v>0.548</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="53">
@@ -2405,13 +2405,13 @@
         <v>37</v>
       </c>
       <c r="C53" t="n">
-        <v>0.538</v>
+        <v>0.516</v>
       </c>
       <c r="D53" t="n">
-        <v>0.557</v>
+        <v>0.516</v>
       </c>
       <c r="E53" t="n">
-        <v>0.517</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="54">
@@ -2422,13 +2422,13 @@
         <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>0.273</v>
+        <v>0.35</v>
       </c>
       <c r="D54" t="n">
-        <v>0.294</v>
+        <v>0.388</v>
       </c>
       <c r="E54" t="n">
-        <v>0.252</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="55">
@@ -2439,13 +2439,13 @@
         <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.685</v>
+        <v>0.651</v>
       </c>
       <c r="D55" t="n">
-        <v>0.721</v>
+        <v>0.67</v>
       </c>
       <c r="E55" t="n">
-        <v>0.645</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="56">
@@ -2456,13 +2456,13 @@
         <v>85</v>
       </c>
       <c r="C56" t="n">
-        <v>0.584</v>
+        <v>0.601</v>
       </c>
       <c r="D56" t="n">
-        <v>0.602</v>
+        <v>0.613</v>
       </c>
       <c r="E56" t="n">
-        <v>0.563</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="57">
@@ -2473,13 +2473,13 @@
         <v>64</v>
       </c>
       <c r="C57" t="n">
-        <v>0.074</v>
+        <v>0.065</v>
       </c>
       <c r="D57" t="n">
-        <v>0.094</v>
+        <v>0.09</v>
       </c>
       <c r="E57" t="n">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="58">
@@ -2490,13 +2490,13 @@
         <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>0.686</v>
+        <v>0.679</v>
       </c>
       <c r="D58" t="n">
-        <v>0.713</v>
+        <v>0.702</v>
       </c>
       <c r="E58" t="n">
-        <v>0.657</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="59">
@@ -2507,13 +2507,13 @@
         <v>85</v>
       </c>
       <c r="C59" t="n">
-        <v>0.385</v>
+        <v>0.338</v>
       </c>
       <c r="D59" t="n">
-        <v>0.414</v>
+        <v>0.37</v>
       </c>
       <c r="E59" t="n">
-        <v>0.359</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="60">
@@ -2524,13 +2524,13 @@
         <v>46</v>
       </c>
       <c r="C60" t="n">
-        <v>0.602</v>
+        <v>0.594</v>
       </c>
       <c r="D60" t="n">
-        <v>0.635</v>
+        <v>0.626</v>
       </c>
       <c r="E60" t="n">
-        <v>0.571</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="61">
@@ -2541,13 +2541,13 @@
         <v>91</v>
       </c>
       <c r="C61" t="n">
-        <v>0.31</v>
+        <v>0.278</v>
       </c>
       <c r="D61" t="n">
-        <v>0.341</v>
+        <v>0.303</v>
       </c>
       <c r="E61" t="n">
-        <v>0.278</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="62">
@@ -2558,13 +2558,13 @@
         <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>0.649</v>
+        <v>0.597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.674</v>
+        <v>0.616</v>
       </c>
       <c r="E62" t="n">
-        <v>0.62</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="63">
@@ -2575,13 +2575,13 @@
         <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>0.63</v>
+        <v>0.642</v>
       </c>
       <c r="D63" t="n">
-        <v>0.659</v>
+        <v>0.673</v>
       </c>
       <c r="E63" t="n">
-        <v>0.599</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="64">
@@ -2592,13 +2592,13 @@
         <v>95</v>
       </c>
       <c r="C64" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="D64" t="n">
         <v>0.592</v>
       </c>
-      <c r="D64" t="n">
-        <v>0.607</v>
-      </c>
       <c r="E64" t="n">
-        <v>0.576</v>
+        <v>0.562</v>
       </c>
     </row>
     <row r="65">
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>0.58</v>
+        <v>0.642</v>
       </c>
       <c r="D65" t="n">
-        <v>0.604</v>
+        <v>0.672</v>
       </c>
       <c r="E65" t="n">
-        <v>0.556</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="66">
@@ -2629,10 +2629,10 @@
         <v>0.742</v>
       </c>
       <c r="D66" t="n">
-        <v>0.792</v>
+        <v>0.801</v>
       </c>
       <c r="E66" t="n">
-        <v>0.687</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="67">
@@ -2643,13 +2643,13 @@
         <v>54</v>
       </c>
       <c r="C67" t="n">
-        <v>0.418</v>
+        <v>0.43</v>
       </c>
       <c r="D67" t="n">
-        <v>0.445</v>
+        <v>0.465</v>
       </c>
       <c r="E67" t="n">
-        <v>0.393</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="68">
@@ -2660,13 +2660,13 @@
         <v>80</v>
       </c>
       <c r="C68" t="n">
-        <v>0.686</v>
+        <v>0.628</v>
       </c>
       <c r="D68" t="n">
-        <v>0.714</v>
+        <v>0.665</v>
       </c>
       <c r="E68" t="n">
-        <v>0.659</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="69">
@@ -2677,10 +2677,10 @@
         <v>42</v>
       </c>
       <c r="C69" t="n">
-        <v>0.306</v>
+        <v>0.308</v>
       </c>
       <c r="D69" t="n">
-        <v>0.34</v>
+        <v>0.332</v>
       </c>
       <c r="E69" t="n">
         <v>0.273</v>
@@ -2694,13 +2694,13 @@
         <v>54</v>
       </c>
       <c r="C70" t="n">
-        <v>0.364</v>
+        <v>0.339</v>
       </c>
       <c r="D70" t="n">
-        <v>0.401</v>
+        <v>0.374</v>
       </c>
       <c r="E70" t="n">
-        <v>0.326</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="71">
@@ -2711,13 +2711,13 @@
         <v>60</v>
       </c>
       <c r="C71" t="n">
-        <v>0.691</v>
+        <v>0.696</v>
       </c>
       <c r="D71" t="n">
-        <v>0.724</v>
+        <v>0.715</v>
       </c>
       <c r="E71" t="n">
-        <v>0.659</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="72">
@@ -2728,13 +2728,13 @@
         <v>54</v>
       </c>
       <c r="C72" t="n">
-        <v>0.549</v>
+        <v>0.52</v>
       </c>
       <c r="D72" t="n">
-        <v>0.578</v>
+        <v>0.559</v>
       </c>
       <c r="E72" t="n">
-        <v>0.518</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="73">
@@ -2745,13 +2745,13 @@
         <v>105</v>
       </c>
       <c r="C73" t="n">
-        <v>0.574</v>
+        <v>0.597</v>
       </c>
       <c r="D73" t="n">
-        <v>0.604</v>
+        <v>0.613</v>
       </c>
       <c r="E73" t="n">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="74">
@@ -2762,13 +2762,13 @@
         <v>105</v>
       </c>
       <c r="C74" t="n">
-        <v>0.924</v>
+        <v>0.92</v>
       </c>
       <c r="D74" t="n">
-        <v>0.948</v>
+        <v>0.939</v>
       </c>
       <c r="E74" t="n">
-        <v>0.897</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="75">
@@ -2779,13 +2779,13 @@
         <v>42</v>
       </c>
       <c r="C75" t="n">
-        <v>0.202</v>
+        <v>0.172</v>
       </c>
       <c r="D75" t="n">
-        <v>0.226</v>
+        <v>0.204</v>
       </c>
       <c r="E75" t="n">
-        <v>0.18</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="76">
@@ -2796,13 +2796,13 @@
         <v>95</v>
       </c>
       <c r="C76" t="n">
-        <v>0.661</v>
+        <v>0.626</v>
       </c>
       <c r="D76" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="E76" t="n">
-        <v>0.631</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="77">
@@ -2813,13 +2813,13 @@
         <v>110</v>
       </c>
       <c r="C77" t="n">
-        <v>0.34</v>
+        <v>0.339</v>
       </c>
       <c r="D77" t="n">
-        <v>0.368</v>
+        <v>0.376</v>
       </c>
       <c r="E77" t="n">
-        <v>0.314</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="78">
@@ -2830,13 +2830,13 @@
         <v>60</v>
       </c>
       <c r="C78" t="n">
-        <v>0.71</v>
+        <v>0.652</v>
       </c>
       <c r="D78" t="n">
-        <v>0.734</v>
+        <v>0.691</v>
       </c>
       <c r="E78" t="n">
-        <v>0.683</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="79">
@@ -2847,13 +2847,13 @@
         <v>91</v>
       </c>
       <c r="C79" t="n">
-        <v>0.256</v>
+        <v>0.305</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3</v>
+        <v>0.343</v>
       </c>
       <c r="E79" t="n">
-        <v>0.219</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="80">
@@ -2864,13 +2864,13 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>0.604</v>
+        <v>0.623</v>
       </c>
       <c r="D80" t="n">
-        <v>0.624</v>
+        <v>0.629</v>
       </c>
       <c r="E80" t="n">
-        <v>0.582</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="81">
@@ -2881,13 +2881,13 @@
         <v>95</v>
       </c>
       <c r="C81" t="n">
-        <v>0.482</v>
+        <v>0.512</v>
       </c>
       <c r="D81" t="n">
-        <v>0.504</v>
+        <v>0.52</v>
       </c>
       <c r="E81" t="n">
-        <v>0.462</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="82">
@@ -2898,13 +2898,13 @@
         <v>46</v>
       </c>
       <c r="C82" t="n">
-        <v>0.934</v>
+        <v>0.909</v>
       </c>
       <c r="D82" t="n">
-        <v>0.953</v>
+        <v>0.935</v>
       </c>
       <c r="E82" t="n">
-        <v>0.911</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="83">
@@ -2915,13 +2915,13 @@
         <v>105</v>
       </c>
       <c r="C83" t="n">
-        <v>0.779</v>
+        <v>0.715</v>
       </c>
       <c r="D83" t="n">
-        <v>0.802</v>
+        <v>0.751</v>
       </c>
       <c r="E83" t="n">
-        <v>0.756</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="84">
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="C84" t="n">
-        <v>0.548</v>
+        <v>0.439</v>
       </c>
       <c r="D84" t="n">
-        <v>0.572</v>
+        <v>0.473</v>
       </c>
       <c r="E84" t="n">
-        <v>0.523</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="85">
@@ -2949,13 +2949,13 @@
         <v>85</v>
       </c>
       <c r="C85" t="n">
-        <v>0.72</v>
+        <v>0.745</v>
       </c>
       <c r="D85" t="n">
-        <v>0.74</v>
+        <v>0.772</v>
       </c>
       <c r="E85" t="n">
-        <v>0.698</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="86">
@@ -2966,13 +2966,13 @@
         <v>35</v>
       </c>
       <c r="C86" t="n">
-        <v>0.607</v>
+        <v>0.667</v>
       </c>
       <c r="D86" t="n">
-        <v>0.636</v>
+        <v>0.683</v>
       </c>
       <c r="E86" t="n">
-        <v>0.578</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="87">
@@ -2983,13 +2983,13 @@
         <v>35</v>
       </c>
       <c r="C87" t="n">
-        <v>0.302</v>
+        <v>0.295</v>
       </c>
       <c r="D87" t="n">
-        <v>0.335</v>
+        <v>0.332</v>
       </c>
       <c r="E87" t="n">
-        <v>0.272</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="88">
@@ -3000,13 +3000,13 @@
         <v>37</v>
       </c>
       <c r="C88" t="n">
-        <v>0.374</v>
+        <v>0.363</v>
       </c>
       <c r="D88" t="n">
-        <v>0.397</v>
+        <v>0.376</v>
       </c>
       <c r="E88" t="n">
-        <v>0.351</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="89">
@@ -3017,13 +3017,13 @@
         <v>123</v>
       </c>
       <c r="C89" t="n">
-        <v>0.555</v>
+        <v>0.563</v>
       </c>
       <c r="D89" t="n">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="E89" t="n">
-        <v>0.531</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="90">
@@ -3034,13 +3034,13 @@
         <v>95</v>
       </c>
       <c r="C90" t="n">
-        <v>0.317</v>
+        <v>0.324</v>
       </c>
       <c r="D90" t="n">
-        <v>0.361</v>
+        <v>0.339</v>
       </c>
       <c r="E90" t="n">
-        <v>0.277</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="91">
@@ -3051,13 +3051,13 @@
         <v>50</v>
       </c>
       <c r="C91" t="n">
-        <v>0.44</v>
+        <v>0.359</v>
       </c>
       <c r="D91" t="n">
-        <v>0.46</v>
+        <v>0.384</v>
       </c>
       <c r="E91" t="n">
-        <v>0.421</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="92">
@@ -3068,13 +3068,13 @@
         <v>76</v>
       </c>
       <c r="C92" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="D92" t="n">
-        <v>0.499</v>
+        <v>0.484</v>
       </c>
       <c r="E92" t="n">
-        <v>0.432</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="93">
@@ -3085,13 +3085,13 @@
         <v>56</v>
       </c>
       <c r="C93" t="n">
-        <v>0.309</v>
+        <v>0.343</v>
       </c>
       <c r="D93" t="n">
-        <v>0.334</v>
+        <v>0.372</v>
       </c>
       <c r="E93" t="n">
-        <v>0.284</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="94">
@@ -3102,13 +3102,13 @@
         <v>42</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261</v>
+        <v>0.28</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295</v>
+        <v>0.326</v>
       </c>
       <c r="E94" t="n">
-        <v>0.227</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="95">
@@ -3119,13 +3119,13 @@
         <v>14</v>
       </c>
       <c r="C95" t="n">
-        <v>0.559</v>
+        <v>0.557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.58</v>
+        <v>0.568</v>
       </c>
       <c r="E95" t="n">
-        <v>0.536</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="96">
@@ -3136,13 +3136,13 @@
         <v>131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.284</v>
+        <v>0.345</v>
       </c>
       <c r="D96" t="n">
-        <v>0.314</v>
+        <v>0.345</v>
       </c>
       <c r="E96" t="n">
-        <v>0.258</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="97">
@@ -3153,13 +3153,13 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.634</v>
+        <v>0.672</v>
       </c>
       <c r="D97" t="n">
-        <v>0.658</v>
+        <v>0.695</v>
       </c>
       <c r="E97" t="n">
-        <v>0.606</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="98">
@@ -3170,13 +3170,13 @@
         <v>46</v>
       </c>
       <c r="C98" t="n">
-        <v>0.839</v>
+        <v>0.82</v>
       </c>
       <c r="D98" t="n">
-        <v>0.872</v>
+        <v>0.847</v>
       </c>
       <c r="E98" t="n">
-        <v>0.801</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="99">
@@ -3187,13 +3187,13 @@
         <v>17</v>
       </c>
       <c r="C99" t="n">
-        <v>0.656</v>
+        <v>0.668</v>
       </c>
       <c r="D99" t="n">
-        <v>0.687</v>
+        <v>0.711</v>
       </c>
       <c r="E99" t="n">
-        <v>0.624</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="100">
@@ -3204,13 +3204,13 @@
         <v>105</v>
       </c>
       <c r="C100" t="n">
-        <v>0.472</v>
+        <v>0.454</v>
       </c>
       <c r="D100" t="n">
-        <v>0.517</v>
+        <v>0.5</v>
       </c>
       <c r="E100" t="n">
-        <v>0.428</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="101">
@@ -3221,13 +3221,13 @@
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>0.498</v>
+        <v>0.478</v>
       </c>
       <c r="D101" t="n">
-        <v>0.528</v>
+        <v>0.506</v>
       </c>
       <c r="E101" t="n">
-        <v>0.471</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="102">
@@ -3238,13 +3238,13 @@
         <v>85</v>
       </c>
       <c r="C102" t="n">
-        <v>0.756</v>
+        <v>0.752</v>
       </c>
       <c r="D102" t="n">
-        <v>0.782</v>
+        <v>0.768</v>
       </c>
       <c r="E102" t="n">
-        <v>0.728</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="103">
@@ -3255,13 +3255,13 @@
         <v>74</v>
       </c>
       <c r="C103" t="n">
-        <v>0.344</v>
+        <v>0.377</v>
       </c>
       <c r="D103" t="n">
-        <v>0.367</v>
+        <v>0.416</v>
       </c>
       <c r="E103" t="n">
-        <v>0.322</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="104">
@@ -3272,13 +3272,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="n">
-        <v>0.587</v>
+        <v>0.58</v>
       </c>
       <c r="D104" t="n">
-        <v>0.609</v>
+        <v>0.589</v>
       </c>
       <c r="E104" t="n">
-        <v>0.564</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="105">
@@ -3289,13 +3289,13 @@
         <v>105</v>
       </c>
       <c r="C105" t="n">
-        <v>0.465</v>
+        <v>0.496</v>
       </c>
       <c r="D105" t="n">
-        <v>0.489</v>
+        <v>0.524</v>
       </c>
       <c r="E105" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="106">
@@ -3306,13 +3306,13 @@
         <v>60</v>
       </c>
       <c r="C106" t="n">
-        <v>0.673</v>
+        <v>0.626</v>
       </c>
       <c r="D106" t="n">
-        <v>0.702</v>
+        <v>0.669</v>
       </c>
       <c r="E106" t="n">
-        <v>0.641</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="107">
@@ -3323,13 +3323,13 @@
         <v>24</v>
       </c>
       <c r="C107" t="n">
-        <v>0.543</v>
+        <v>0.524</v>
       </c>
       <c r="D107" t="n">
-        <v>0.575</v>
+        <v>0.576</v>
       </c>
       <c r="E107" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="108">
@@ -3340,13 +3340,13 @@
         <v>24</v>
       </c>
       <c r="C108" t="n">
-        <v>0.673</v>
+        <v>0.665</v>
       </c>
       <c r="D108" t="n">
-        <v>0.705</v>
+        <v>0.674</v>
       </c>
       <c r="E108" t="n">
-        <v>0.638</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="109">
@@ -3357,13 +3357,13 @@
         <v>46</v>
       </c>
       <c r="C109" t="n">
-        <v>0.529</v>
+        <v>0.49</v>
       </c>
       <c r="D109" t="n">
-        <v>0.572</v>
+        <v>0.546</v>
       </c>
       <c r="E109" t="n">
-        <v>0.485</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="110">
@@ -3374,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>0.654</v>
+        <v>0.603</v>
       </c>
       <c r="D110" t="n">
-        <v>0.686</v>
+        <v>0.62</v>
       </c>
       <c r="E110" t="n">
-        <v>0.62</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="111">
@@ -3391,13 +3391,13 @@
         <v>52</v>
       </c>
       <c r="C111" t="n">
-        <v>0.944</v>
+        <v>0.952</v>
       </c>
       <c r="D111" t="n">
-        <v>0.963</v>
+        <v>0.966</v>
       </c>
       <c r="E111" t="n">
-        <v>0.918</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="112">
@@ -3408,13 +3408,13 @@
         <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.456</v>
+        <v>0.42</v>
       </c>
       <c r="D112" t="n">
-        <v>0.493</v>
+        <v>0.447</v>
       </c>
       <c r="E112" t="n">
-        <v>0.418</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="113">
@@ -3425,13 +3425,13 @@
         <v>64</v>
       </c>
       <c r="C113" t="n">
-        <v>0.436</v>
+        <v>0.484</v>
       </c>
       <c r="D113" t="n">
-        <v>0.457</v>
+        <v>0.498</v>
       </c>
       <c r="E113" t="n">
-        <v>0.414</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="114">
@@ -3442,13 +3442,13 @@
         <v>91</v>
       </c>
       <c r="C114" t="n">
-        <v>0.455</v>
+        <v>0.46</v>
       </c>
       <c r="D114" t="n">
-        <v>0.495</v>
+        <v>0.511</v>
       </c>
       <c r="E114" t="n">
-        <v>0.414</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="115">
@@ -3459,13 +3459,13 @@
         <v>74</v>
       </c>
       <c r="C115" t="n">
-        <v>0.323</v>
+        <v>0.347</v>
       </c>
       <c r="D115" t="n">
-        <v>0.357</v>
+        <v>0.376</v>
       </c>
       <c r="E115" t="n">
-        <v>0.292</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="116">
@@ -3476,13 +3476,13 @@
         <v>19</v>
       </c>
       <c r="C116" t="n">
-        <v>0.471</v>
+        <v>0.432</v>
       </c>
       <c r="D116" t="n">
-        <v>0.503</v>
+        <v>0.466</v>
       </c>
       <c r="E116" t="n">
-        <v>0.441</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="117">
@@ -3493,13 +3493,13 @@
         <v>54</v>
       </c>
       <c r="C117" t="n">
-        <v>0.672</v>
+        <v>0.661</v>
       </c>
       <c r="D117" t="n">
-        <v>0.697</v>
+        <v>0.689</v>
       </c>
       <c r="E117" t="n">
-        <v>0.646</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="118">
@@ -3510,13 +3510,13 @@
         <v>62</v>
       </c>
       <c r="C118" t="n">
-        <v>0.577</v>
+        <v>0.568</v>
       </c>
       <c r="D118" t="n">
-        <v>0.595</v>
+        <v>0.597</v>
       </c>
       <c r="E118" t="n">
-        <v>0.56</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="119">
@@ -3527,13 +3527,13 @@
         <v>74</v>
       </c>
       <c r="C119" t="n">
-        <v>0.147</v>
+        <v>0.185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17</v>
+        <v>0.215</v>
       </c>
       <c r="E119" t="n">
-        <v>0.126</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="120">
@@ -3544,13 +3544,13 @@
         <v>95</v>
       </c>
       <c r="C120" t="n">
-        <v>0.657</v>
+        <v>0.634</v>
       </c>
       <c r="D120" t="n">
-        <v>0.685</v>
+        <v>0.658</v>
       </c>
       <c r="E120" t="n">
-        <v>0.627</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="121">
@@ -3561,13 +3561,13 @@
         <v>22</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264</v>
+        <v>0.268</v>
       </c>
       <c r="D121" t="n">
-        <v>0.287</v>
+        <v>0.297</v>
       </c>
       <c r="E121" t="n">
-        <v>0.241</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="122">
@@ -3578,13 +3578,13 @@
         <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>0.128</v>
+        <v>0.142</v>
       </c>
       <c r="D122" t="n">
-        <v>0.159</v>
+        <v>0.178</v>
       </c>
       <c r="E122" t="n">
-        <v>0.102</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="123">
@@ -3595,13 +3595,13 @@
         <v>80</v>
       </c>
       <c r="C123" t="n">
-        <v>0.743</v>
+        <v>0.775</v>
       </c>
       <c r="D123" t="n">
-        <v>0.767</v>
+        <v>0.811</v>
       </c>
       <c r="E123" t="n">
-        <v>0.718</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="124">
@@ -3612,13 +3612,13 @@
         <v>42</v>
       </c>
       <c r="C124" t="n">
-        <v>0.159</v>
+        <v>0.163</v>
       </c>
       <c r="D124" t="n">
-        <v>0.182</v>
+        <v>0.193</v>
       </c>
       <c r="E124" t="n">
-        <v>0.138</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="125">
@@ -3629,13 +3629,13 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>0.408</v>
+        <v>0.4</v>
       </c>
       <c r="D125" t="n">
-        <v>0.451</v>
+        <v>0.431</v>
       </c>
       <c r="E125" t="n">
-        <v>0.367</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="126">
@@ -3646,13 +3646,13 @@
         <v>123</v>
       </c>
       <c r="C126" t="n">
-        <v>0.428</v>
+        <v>0.399</v>
       </c>
       <c r="D126" t="n">
-        <v>0.465</v>
+        <v>0.444</v>
       </c>
       <c r="E126" t="n">
-        <v>0.391</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="127">
@@ -3663,13 +3663,13 @@
         <v>91</v>
       </c>
       <c r="C127" t="n">
-        <v>0.366</v>
+        <v>0.45</v>
       </c>
       <c r="D127" t="n">
-        <v>0.388</v>
+        <v>0.459</v>
       </c>
       <c r="E127" t="n">
-        <v>0.345</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="128">
@@ -3680,13 +3680,13 @@
         <v>50</v>
       </c>
       <c r="C128" t="n">
-        <v>0.43</v>
+        <v>0.418</v>
       </c>
       <c r="D128" t="n">
-        <v>0.451</v>
+        <v>0.406</v>
       </c>
       <c r="E128" t="n">
-        <v>0.41</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="129">
@@ -3697,13 +3697,13 @@
         <v>165</v>
       </c>
       <c r="C129" t="n">
-        <v>0.735</v>
+        <v>0.783</v>
       </c>
       <c r="D129" t="n">
-        <v>0.771</v>
+        <v>0.814</v>
       </c>
       <c r="E129" t="n">
-        <v>0.698</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="130">
@@ -3714,13 +3714,13 @@
         <v>6</v>
       </c>
       <c r="C130" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="D130" t="n">
         <v>0.226</v>
       </c>
-      <c r="D130" t="n">
-        <v>0.255</v>
-      </c>
       <c r="E130" t="n">
-        <v>0.199</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="131">
@@ -3731,13 +3731,13 @@
         <v>50</v>
       </c>
       <c r="C131" t="n">
-        <v>0.585</v>
+        <v>0.577</v>
       </c>
       <c r="D131" t="n">
-        <v>0.622</v>
+        <v>0.599</v>
       </c>
       <c r="E131" t="n">
-        <v>0.549</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="132">
@@ -3748,13 +3748,13 @@
         <v>165</v>
       </c>
       <c r="C132" t="n">
-        <v>0.748</v>
+        <v>0.704</v>
       </c>
       <c r="D132" t="n">
-        <v>0.778</v>
+        <v>0.743</v>
       </c>
       <c r="E132" t="n">
-        <v>0.714</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="133">
@@ -3765,13 +3765,13 @@
         <v>76</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359</v>
+        <v>0.396</v>
       </c>
       <c r="D133" t="n">
-        <v>0.419</v>
+        <v>0.451</v>
       </c>
       <c r="E133" t="n">
-        <v>0.308</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="134">
@@ -3782,13 +3782,13 @@
         <v>39</v>
       </c>
       <c r="C134" t="n">
-        <v>0.683</v>
+        <v>0.63</v>
       </c>
       <c r="D134" t="n">
-        <v>0.709</v>
+        <v>0.644</v>
       </c>
       <c r="E134" t="n">
-        <v>0.656</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="135">
@@ -3799,13 +3799,13 @@
         <v>165</v>
       </c>
       <c r="C135" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="E135" t="n">
         <v>0.738</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.709</v>
       </c>
     </row>
     <row r="136">
@@ -3816,13 +3816,13 @@
         <v>110</v>
       </c>
       <c r="C136" t="n">
-        <v>0.482</v>
+        <v>0.402</v>
       </c>
       <c r="D136" t="n">
-        <v>0.514</v>
+        <v>0.433</v>
       </c>
       <c r="E136" t="n">
-        <v>0.448</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="137">
@@ -3833,13 +3833,13 @@
         <v>91</v>
       </c>
       <c r="C137" t="n">
-        <v>0.299</v>
+        <v>0.28</v>
       </c>
       <c r="D137" t="n">
-        <v>0.324</v>
+        <v>0.296</v>
       </c>
       <c r="E137" t="n">
-        <v>0.275</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="138">
@@ -3850,13 +3850,13 @@
         <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>0.264</v>
+        <v>0.26</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293</v>
+        <v>0.285</v>
       </c>
       <c r="E138" t="n">
-        <v>0.236</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="139">
@@ -3867,13 +3867,13 @@
         <v>35</v>
       </c>
       <c r="C139" t="n">
-        <v>0.486</v>
+        <v>0.503</v>
       </c>
       <c r="D139" t="n">
-        <v>0.51</v>
+        <v>0.519</v>
       </c>
       <c r="E139" t="n">
-        <v>0.462</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="140">
@@ -3884,13 +3884,13 @@
         <v>131</v>
       </c>
       <c r="C140" t="n">
-        <v>0.488</v>
+        <v>0.495</v>
       </c>
       <c r="D140" t="n">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
       <c r="E140" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="141">
@@ -3901,13 +3901,13 @@
         <v>95</v>
       </c>
       <c r="C141" t="n">
-        <v>0.439</v>
+        <v>0.397</v>
       </c>
       <c r="D141" t="n">
-        <v>0.46</v>
+        <v>0.418</v>
       </c>
       <c r="E141" t="n">
-        <v>0.421</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="142">
@@ -3918,13 +3918,13 @@
         <v>39</v>
       </c>
       <c r="C142" t="n">
-        <v>0.577</v>
+        <v>0.535</v>
       </c>
       <c r="D142" t="n">
-        <v>0.607</v>
+        <v>0.57</v>
       </c>
       <c r="E142" t="n">
-        <v>0.548</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="143">
@@ -3935,13 +3935,13 @@
         <v>39</v>
       </c>
       <c r="C143" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
       <c r="D143" t="n">
-        <v>0.904</v>
+        <v>0.896</v>
       </c>
       <c r="E143" t="n">
-        <v>0.828</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="144">
@@ -3952,13 +3952,13 @@
         <v>131</v>
       </c>
       <c r="C144" t="n">
-        <v>0.134</v>
+        <v>0.122</v>
       </c>
       <c r="D144" t="n">
-        <v>0.16</v>
+        <v>0.143</v>
       </c>
       <c r="E144" t="n">
-        <v>0.111</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="145">
@@ -3969,13 +3969,13 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>0.746</v>
+        <v>0.679</v>
       </c>
       <c r="D145" t="n">
-        <v>0.768</v>
+        <v>0.721</v>
       </c>
       <c r="E145" t="n">
-        <v>0.724</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="146">
@@ -3986,13 +3986,13 @@
         <v>17</v>
       </c>
       <c r="C146" t="n">
-        <v>0.824</v>
+        <v>0.809</v>
       </c>
       <c r="D146" t="n">
-        <v>0.859</v>
+        <v>0.84</v>
       </c>
       <c r="E146" t="n">
-        <v>0.781</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="147">
@@ -4003,13 +4003,13 @@
         <v>105</v>
       </c>
       <c r="C147" t="n">
-        <v>0.531</v>
+        <v>0.486</v>
       </c>
       <c r="D147" t="n">
-        <v>0.553</v>
+        <v>0.512</v>
       </c>
       <c r="E147" t="n">
-        <v>0.509</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="148">
@@ -4020,13 +4020,13 @@
         <v>22</v>
       </c>
       <c r="C148" t="n">
-        <v>0.627</v>
+        <v>0.576</v>
       </c>
       <c r="D148" t="n">
-        <v>0.668</v>
+        <v>0.619</v>
       </c>
       <c r="E148" t="n">
-        <v>0.587</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="149">
@@ -4037,13 +4037,13 @@
         <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>0.496</v>
+        <v>0.491</v>
       </c>
       <c r="D149" t="n">
-        <v>0.525</v>
+        <v>0.532</v>
       </c>
       <c r="E149" t="n">
-        <v>0.464</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="150">
@@ -4054,13 +4054,13 @@
         <v>22</v>
       </c>
       <c r="C150" t="n">
-        <v>0.379</v>
+        <v>0.361</v>
       </c>
       <c r="D150" t="n">
-        <v>0.407</v>
+        <v>0.395</v>
       </c>
       <c r="E150" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="151">
@@ -4071,13 +4071,13 @@
         <v>131</v>
       </c>
       <c r="C151" t="n">
-        <v>0.829</v>
+        <v>0.809</v>
       </c>
       <c r="D151" t="n">
-        <v>0.855</v>
+        <v>0.839</v>
       </c>
       <c r="E151" t="n">
-        <v>0.802</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="152">
@@ -4088,13 +4088,13 @@
         <v>131</v>
       </c>
       <c r="C152" t="n">
-        <v>0.441</v>
+        <v>0.407</v>
       </c>
       <c r="D152" t="n">
-        <v>0.461</v>
+        <v>0.427</v>
       </c>
       <c r="E152" t="n">
-        <v>0.42</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="153">
@@ -4105,13 +4105,13 @@
         <v>62</v>
       </c>
       <c r="C153" t="n">
-        <v>0.246</v>
+        <v>0.27</v>
       </c>
       <c r="D153" t="n">
-        <v>0.28</v>
+        <v>0.303</v>
       </c>
       <c r="E153" t="n">
-        <v>0.214</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="154">
@@ -4122,13 +4122,13 @@
         <v>56</v>
       </c>
       <c r="C154" t="n">
-        <v>0.493</v>
+        <v>0.502</v>
       </c>
       <c r="D154" t="n">
-        <v>0.522</v>
+        <v>0.547</v>
       </c>
       <c r="E154" t="n">
-        <v>0.464</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="155">
@@ -4139,13 +4139,13 @@
         <v>74</v>
       </c>
       <c r="C155" t="n">
-        <v>0.418</v>
+        <v>0.403</v>
       </c>
       <c r="D155" t="n">
-        <v>0.461</v>
+        <v>0.435</v>
       </c>
       <c r="E155" t="n">
-        <v>0.377</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="156">
@@ -4156,13 +4156,13 @@
         <v>24</v>
       </c>
       <c r="C156" t="n">
-        <v>0.391</v>
+        <v>0.347</v>
       </c>
       <c r="D156" t="n">
-        <v>0.418</v>
+        <v>0.38</v>
       </c>
       <c r="E156" t="n">
-        <v>0.366</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="157">
@@ -4173,13 +4173,13 @@
         <v>24</v>
       </c>
       <c r="C157" t="n">
-        <v>0.383</v>
+        <v>0.354</v>
       </c>
       <c r="D157" t="n">
-        <v>0.407</v>
+        <v>0.387</v>
       </c>
       <c r="E157" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="158">
@@ -4190,13 +4190,13 @@
         <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>0.802</v>
+        <v>0.77</v>
       </c>
       <c r="D158" t="n">
-        <v>0.83</v>
+        <v>0.796</v>
       </c>
       <c r="E158" t="n">
-        <v>0.77</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="159">
@@ -4207,13 +4207,13 @@
         <v>14</v>
       </c>
       <c r="C159" t="n">
-        <v>0.797</v>
+        <v>0.791</v>
       </c>
       <c r="D159" t="n">
-        <v>0.822</v>
+        <v>0.806</v>
       </c>
       <c r="E159" t="n">
-        <v>0.77</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="160">
@@ -4224,13 +4224,13 @@
         <v>46</v>
       </c>
       <c r="C160" t="n">
-        <v>0.841</v>
+        <v>0.822</v>
       </c>
       <c r="D160" t="n">
-        <v>0.874</v>
+        <v>0.851</v>
       </c>
       <c r="E160" t="n">
-        <v>0.803</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="161">
@@ -4241,13 +4241,13 @@
         <v>50</v>
       </c>
       <c r="C161" t="n">
-        <v>0.754</v>
+        <v>0.773</v>
       </c>
       <c r="D161" t="n">
-        <v>0.791</v>
+        <v>0.804</v>
       </c>
       <c r="E161" t="n">
-        <v>0.713</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="162">
@@ -4258,13 +4258,13 @@
         <v>52</v>
       </c>
       <c r="C162" t="n">
-        <v>0.472</v>
+        <v>0.469</v>
       </c>
       <c r="D162" t="n">
-        <v>0.507</v>
+        <v>0.491</v>
       </c>
       <c r="E162" t="n">
-        <v>0.439</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="163">
@@ -4275,13 +4275,13 @@
         <v>22</v>
       </c>
       <c r="C163" t="n">
-        <v>0.542</v>
+        <v>0.494</v>
       </c>
       <c r="D163" t="n">
-        <v>0.575</v>
+        <v>0.52</v>
       </c>
       <c r="E163" t="n">
-        <v>0.511</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="164">
@@ -4292,13 +4292,13 @@
         <v>19</v>
       </c>
       <c r="C164" t="n">
-        <v>0.224</v>
+        <v>0.255</v>
       </c>
       <c r="D164" t="n">
-        <v>0.248</v>
+        <v>0.308</v>
       </c>
       <c r="E164" t="n">
-        <v>0.202</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="165">
@@ -4309,13 +4309,13 @@
         <v>76</v>
       </c>
       <c r="C165" t="n">
-        <v>0.441</v>
+        <v>0.489</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="E165" t="n">
-        <v>0.387</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="166">
@@ -4326,13 +4326,13 @@
         <v>76</v>
       </c>
       <c r="C166" t="n">
-        <v>0.306</v>
+        <v>0.326</v>
       </c>
       <c r="D166" t="n">
-        <v>0.358</v>
+        <v>0.366</v>
       </c>
       <c r="E166" t="n">
-        <v>0.261</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="167">
@@ -4343,13 +4343,13 @@
         <v>60</v>
       </c>
       <c r="C167" t="n">
-        <v>0.668</v>
+        <v>0.667</v>
       </c>
       <c r="D167" t="n">
-        <v>0.713</v>
+        <v>0.724</v>
       </c>
       <c r="E167" t="n">
-        <v>0.624</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="168">
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C168" t="n">
-        <v>0.616</v>
+        <v>0.562</v>
       </c>
       <c r="D168" t="n">
-        <v>0.648</v>
+        <v>0.615</v>
       </c>
       <c r="E168" t="n">
-        <v>0.581</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="169">
@@ -4377,13 +4377,13 @@
         <v>19</v>
       </c>
       <c r="C169" t="n">
-        <v>0.366</v>
+        <v>0.385</v>
       </c>
       <c r="D169" t="n">
-        <v>0.392</v>
+        <v>0.395</v>
       </c>
       <c r="E169" t="n">
-        <v>0.341</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="170">
@@ -4394,13 +4394,13 @@
         <v>42</v>
       </c>
       <c r="C170" t="n">
-        <v>0.076</v>
+        <v>0.091</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="E170" t="n">
-        <v>0.058</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="171">
@@ -4411,13 +4411,13 @@
         <v>165</v>
       </c>
       <c r="C171" t="n">
-        <v>0.768</v>
+        <v>0.743</v>
       </c>
       <c r="D171" t="n">
-        <v>0.815</v>
+        <v>0.794</v>
       </c>
       <c r="E171" t="n">
-        <v>0.716</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="172">
@@ -4428,13 +4428,13 @@
         <v>19</v>
       </c>
       <c r="C172" t="n">
-        <v>0.572</v>
+        <v>0.533</v>
       </c>
       <c r="D172" t="n">
-        <v>0.602</v>
+        <v>0.549</v>
       </c>
       <c r="E172" t="n">
-        <v>0.541</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="173">
@@ -4445,13 +4445,13 @@
         <v>105</v>
       </c>
       <c r="C173" t="n">
-        <v>0.487</v>
+        <v>0.428</v>
       </c>
       <c r="D173" t="n">
-        <v>0.513</v>
+        <v>0.452</v>
       </c>
       <c r="E173" t="n">
-        <v>0.462</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="174">
@@ -4462,13 +4462,13 @@
         <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>0.443</v>
+        <v>0.536</v>
       </c>
       <c r="D174" t="n">
-        <v>0.505</v>
+        <v>0.581</v>
       </c>
       <c r="E174" t="n">
-        <v>0.384</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="175">
@@ -4479,13 +4479,13 @@
         <v>80</v>
       </c>
       <c r="C175" t="n">
-        <v>0.868</v>
+        <v>0.81</v>
       </c>
       <c r="D175" t="n">
-        <v>0.898</v>
+        <v>0.842</v>
       </c>
       <c r="E175" t="n">
-        <v>0.833</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="176">
@@ -4496,13 +4496,13 @@
         <v>85</v>
       </c>
       <c r="C176" t="n">
-        <v>0.437</v>
+        <v>0.486</v>
       </c>
       <c r="D176" t="n">
-        <v>0.456</v>
+        <v>0.513</v>
       </c>
       <c r="E176" t="n">
-        <v>0.417</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="177">
@@ -4513,13 +4513,13 @@
         <v>56</v>
       </c>
       <c r="C177" t="n">
-        <v>0.418</v>
+        <v>0.461</v>
       </c>
       <c r="D177" t="n">
-        <v>0.446</v>
+        <v>0.494</v>
       </c>
       <c r="E177" t="n">
-        <v>0.392</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="178">
@@ -4530,13 +4530,13 @@
         <v>46</v>
       </c>
       <c r="C178" t="n">
-        <v>0.518</v>
+        <v>0.459</v>
       </c>
       <c r="D178" t="n">
-        <v>0.556</v>
+        <v>0.486</v>
       </c>
       <c r="E178" t="n">
-        <v>0.484</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="179">
@@ -4547,13 +4547,13 @@
         <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>0.474</v>
+        <v>0.437</v>
       </c>
       <c r="D179" t="n">
-        <v>0.494</v>
+        <v>0.458</v>
       </c>
       <c r="E179" t="n">
-        <v>0.455</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="180">
@@ -4564,13 +4564,13 @@
         <v>165</v>
       </c>
       <c r="C180" t="n">
-        <v>0.886</v>
+        <v>0.832</v>
       </c>
       <c r="D180" t="n">
-        <v>0.913</v>
+        <v>0.868</v>
       </c>
       <c r="E180" t="n">
-        <v>0.855</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="181">
@@ -4581,13 +4581,13 @@
         <v>165</v>
       </c>
       <c r="C181" t="n">
-        <v>0.801</v>
+        <v>0.706</v>
       </c>
       <c r="D181" t="n">
-        <v>0.842</v>
+        <v>0.726</v>
       </c>
       <c r="E181" t="n">
-        <v>0.754</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="182">
@@ -4598,13 +4598,13 @@
         <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="D182" t="n">
-        <v>0.264</v>
+        <v>0.269</v>
       </c>
       <c r="E182" t="n">
-        <v>0.207</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="183">
@@ -4615,13 +4615,13 @@
         <v>91</v>
       </c>
       <c r="C183" t="n">
-        <v>0.444</v>
+        <v>0.474</v>
       </c>
       <c r="D183" t="n">
-        <v>0.47</v>
+        <v>0.487</v>
       </c>
       <c r="E183" t="n">
-        <v>0.419</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="184">
@@ -4632,13 +4632,13 @@
         <v>165</v>
       </c>
       <c r="C184" t="n">
-        <v>0.641</v>
+        <v>0.618</v>
       </c>
       <c r="D184" t="n">
-        <v>0.68</v>
+        <v>0.661</v>
       </c>
       <c r="E184" t="n">
-        <v>0.603</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="185">
@@ -4649,13 +4649,13 @@
         <v>17</v>
       </c>
       <c r="C185" t="n">
-        <v>0.653</v>
+        <v>0.724</v>
       </c>
       <c r="D185" t="n">
-        <v>0.682</v>
+        <v>0.741</v>
       </c>
       <c r="E185" t="n">
-        <v>0.621</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="186">
@@ -4666,13 +4666,13 @@
         <v>12</v>
       </c>
       <c r="C186" t="n">
-        <v>0.038</v>
+        <v>0.052</v>
       </c>
       <c r="D186" t="n">
-        <v>0.053</v>
+        <v>0.07</v>
       </c>
       <c r="E186" t="n">
-        <v>0.027</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="187">
@@ -4683,13 +4683,13 @@
         <v>17</v>
       </c>
       <c r="C187" t="n">
-        <v>0.601</v>
+        <v>0.535</v>
       </c>
       <c r="D187" t="n">
-        <v>0.626</v>
+        <v>0.543</v>
       </c>
       <c r="E187" t="n">
-        <v>0.575</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="188">
@@ -4700,13 +4700,13 @@
         <v>64</v>
       </c>
       <c r="C188" t="n">
-        <v>0.434</v>
+        <v>0.397</v>
       </c>
       <c r="D188" t="n">
-        <v>0.463</v>
+        <v>0.428</v>
       </c>
       <c r="E188" t="n">
-        <v>0.406</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="189">
@@ -4717,13 +4717,13 @@
         <v>50</v>
       </c>
       <c r="C189" t="n">
-        <v>0.569</v>
+        <v>0.555</v>
       </c>
       <c r="D189" t="n">
-        <v>0.586</v>
+        <v>0.572</v>
       </c>
       <c r="E189" t="n">
-        <v>0.552</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="190">
@@ -4734,13 +4734,13 @@
         <v>17</v>
       </c>
       <c r="C190" t="n">
-        <v>0.713</v>
+        <v>0.626</v>
       </c>
       <c r="D190" t="n">
-        <v>0.739</v>
+        <v>0.646</v>
       </c>
       <c r="E190" t="n">
-        <v>0.684</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="191">
@@ -4751,13 +4751,13 @@
         <v>76</v>
       </c>
       <c r="C191" t="n">
-        <v>0.462</v>
+        <v>0.527</v>
       </c>
       <c r="D191" t="n">
-        <v>0.495</v>
+        <v>0.522</v>
       </c>
       <c r="E191" t="n">
-        <v>0.431</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="192">
@@ -4768,13 +4768,13 @@
         <v>123</v>
       </c>
       <c r="C192" t="n">
-        <v>0.508</v>
+        <v>0.468</v>
       </c>
       <c r="D192" t="n">
-        <v>0.53</v>
+        <v>0.494</v>
       </c>
       <c r="E192" t="n">
-        <v>0.487</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="193">
@@ -4785,13 +4785,13 @@
         <v>123</v>
       </c>
       <c r="C193" t="n">
-        <v>0.477</v>
+        <v>0.531</v>
       </c>
       <c r="D193" t="n">
-        <v>0.504</v>
+        <v>0.541</v>
       </c>
       <c r="E193" t="n">
-        <v>0.45</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="194">
@@ -4802,13 +4802,13 @@
         <v>35</v>
       </c>
       <c r="C194" t="n">
-        <v>0.539</v>
+        <v>0.488</v>
       </c>
       <c r="D194" t="n">
-        <v>0.569</v>
+        <v>0.503</v>
       </c>
       <c r="E194" t="n">
-        <v>0.506</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="195">
@@ -4819,13 +4819,13 @@
         <v>42</v>
       </c>
       <c r="C195" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="D195" t="n">
-        <v>0.438</v>
+        <v>0.443</v>
       </c>
       <c r="E195" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="196">
@@ -4836,13 +4836,13 @@
         <v>56</v>
       </c>
       <c r="C196" t="n">
-        <v>0.417</v>
+        <v>0.467</v>
       </c>
       <c r="D196" t="n">
-        <v>0.449</v>
+        <v>0.516</v>
       </c>
       <c r="E196" t="n">
-        <v>0.382</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="197">
@@ -4853,13 +4853,13 @@
         <v>35</v>
       </c>
       <c r="C197" t="n">
-        <v>0.761</v>
+        <v>0.769</v>
       </c>
       <c r="D197" t="n">
-        <v>0.794</v>
+        <v>0.8</v>
       </c>
       <c r="E197" t="n">
-        <v>0.724</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="198">
@@ -4870,13 +4870,13 @@
         <v>22</v>
       </c>
       <c r="C198" t="n">
-        <v>0.506</v>
+        <v>0.516</v>
       </c>
       <c r="D198" t="n">
-        <v>0.549</v>
+        <v>0.564</v>
       </c>
       <c r="E198" t="n">
-        <v>0.464</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="199">
@@ -4887,13 +4887,13 @@
         <v>110</v>
       </c>
       <c r="C199" t="n">
-        <v>0.484</v>
+        <v>0.444</v>
       </c>
       <c r="D199" t="n">
-        <v>0.521</v>
+        <v>0.489</v>
       </c>
       <c r="E199" t="n">
-        <v>0.442</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="200">
@@ -4904,13 +4904,13 @@
         <v>165</v>
       </c>
       <c r="C200" t="n">
-        <v>0.473</v>
+        <v>0.412</v>
       </c>
       <c r="D200" t="n">
-        <v>0.503</v>
+        <v>0.46</v>
       </c>
       <c r="E200" t="n">
-        <v>0.447</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="201">
@@ -4921,13 +4921,13 @@
         <v>8</v>
       </c>
       <c r="C201" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="E201" t="n">
         <v>0.553</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.531</v>
       </c>
     </row>
     <row r="202">
@@ -4938,13 +4938,13 @@
         <v>8</v>
       </c>
       <c r="C202" t="n">
-        <v>0.603</v>
+        <v>0.605</v>
       </c>
       <c r="D202" t="n">
-        <v>0.641</v>
+        <v>0.622</v>
       </c>
       <c r="E202" t="n">
-        <v>0.569</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="203">
@@ -4955,13 +4955,13 @@
         <v>19</v>
       </c>
       <c r="C203" t="n">
-        <v>0.465</v>
+        <v>0.46</v>
       </c>
       <c r="D203" t="n">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
       <c r="E203" t="n">
-        <v>0.435</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="204">
@@ -4972,13 +4972,13 @@
         <v>64</v>
       </c>
       <c r="C204" t="n">
-        <v>0.656</v>
+        <v>0.654</v>
       </c>
       <c r="D204" t="n">
-        <v>0.676</v>
+        <v>0.683</v>
       </c>
       <c r="E204" t="n">
-        <v>0.634</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="205">
@@ -4989,13 +4989,13 @@
         <v>8</v>
       </c>
       <c r="C205" t="n">
-        <v>0.759</v>
+        <v>0.704</v>
       </c>
       <c r="D205" t="n">
-        <v>0.789</v>
+        <v>0.735</v>
       </c>
       <c r="E205" t="n">
-        <v>0.726</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="206">
@@ -5006,13 +5006,13 @@
         <v>6</v>
       </c>
       <c r="C206" t="n">
-        <v>0.25</v>
+        <v>0.263</v>
       </c>
       <c r="D206" t="n">
-        <v>0.289</v>
+        <v>0.32</v>
       </c>
       <c r="E206" t="n">
-        <v>0.214</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="207">
@@ -5023,13 +5023,13 @@
         <v>76</v>
       </c>
       <c r="C207" t="n">
-        <v>0.304</v>
+        <v>0.333</v>
       </c>
       <c r="D207" t="n">
-        <v>0.331</v>
+        <v>0.362</v>
       </c>
       <c r="E207" t="n">
-        <v>0.279</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="208">
@@ -5040,13 +5040,13 @@
         <v>6</v>
       </c>
       <c r="C208" t="n">
-        <v>0.528</v>
+        <v>0.549</v>
       </c>
       <c r="D208" t="n">
-        <v>0.554</v>
+        <v>0.578</v>
       </c>
       <c r="E208" t="n">
-        <v>0.499</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="209">
@@ -5057,13 +5057,13 @@
         <v>131</v>
       </c>
       <c r="C209" t="n">
-        <v>0.306</v>
+        <v>0.392</v>
       </c>
       <c r="D209" t="n">
-        <v>0.333</v>
+        <v>0.409</v>
       </c>
       <c r="E209" t="n">
-        <v>0.281</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="210">
@@ -5074,13 +5074,13 @@
         <v>42</v>
       </c>
       <c r="C210" t="n">
-        <v>0.444</v>
+        <v>0.453</v>
       </c>
       <c r="D210" t="n">
-        <v>0.469</v>
+        <v>0.472</v>
       </c>
       <c r="E210" t="n">
-        <v>0.418</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="211">
@@ -5091,13 +5091,13 @@
         <v>131</v>
       </c>
       <c r="C211" t="n">
-        <v>0.402</v>
+        <v>0.442</v>
       </c>
       <c r="D211" t="n">
-        <v>0.419</v>
+        <v>0.468</v>
       </c>
       <c r="E211" t="n">
-        <v>0.385</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="212">
@@ -5108,13 +5108,13 @@
         <v>74</v>
       </c>
       <c r="C212" t="n">
-        <v>0.569</v>
+        <v>0.6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.597</v>
+        <v>0.616</v>
       </c>
       <c r="E212" t="n">
-        <v>0.539</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="213">
@@ -5125,13 +5125,13 @@
         <v>42</v>
       </c>
       <c r="C213" t="n">
-        <v>0.328</v>
+        <v>0.381</v>
       </c>
       <c r="D213" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="E213" t="n">
         <v>0.354</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0.302</v>
       </c>
     </row>
     <row r="214">
@@ -5142,13 +5142,13 @@
         <v>42</v>
       </c>
       <c r="C214" t="n">
-        <v>0.304</v>
+        <v>0.37</v>
       </c>
       <c r="D214" t="n">
-        <v>0.334</v>
+        <v>0.404</v>
       </c>
       <c r="E214" t="n">
-        <v>0.275</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="215">
@@ -5159,13 +5159,13 @@
         <v>85</v>
       </c>
       <c r="C215" t="n">
-        <v>0.71</v>
+        <v>0.732</v>
       </c>
       <c r="D215" t="n">
-        <v>0.74</v>
+        <v>0.751</v>
       </c>
       <c r="E215" t="n">
-        <v>0.678</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="216">
@@ -5176,13 +5176,13 @@
         <v>46</v>
       </c>
       <c r="C216" t="n">
-        <v>0.714</v>
+        <v>0.709</v>
       </c>
       <c r="D216" t="n">
-        <v>0.737</v>
+        <v>0.727</v>
       </c>
       <c r="E216" t="n">
-        <v>0.689</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="217">
@@ -5193,13 +5193,13 @@
         <v>95</v>
       </c>
       <c r="C217" t="n">
-        <v>0.297</v>
+        <v>0.301</v>
       </c>
       <c r="D217" t="n">
-        <v>0.326</v>
+        <v>0.332</v>
       </c>
       <c r="E217" t="n">
-        <v>0.267</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="218">
@@ -5210,13 +5210,13 @@
         <v>46</v>
       </c>
       <c r="C218" t="n">
-        <v>0.489</v>
+        <v>0.456</v>
       </c>
       <c r="D218" t="n">
-        <v>0.532</v>
+        <v>0.495</v>
       </c>
       <c r="E218" t="n">
-        <v>0.447</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="219">
@@ -5227,13 +5227,13 @@
         <v>110</v>
       </c>
       <c r="C219" t="n">
-        <v>0.61</v>
+        <v>0.624</v>
       </c>
       <c r="D219" t="n">
-        <v>0.638</v>
+        <v>0.635</v>
       </c>
       <c r="E219" t="n">
-        <v>0.582</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="220">
@@ -5244,13 +5244,13 @@
         <v>110</v>
       </c>
       <c r="C220" t="n">
-        <v>0.451</v>
+        <v>0.399</v>
       </c>
       <c r="D220" t="n">
-        <v>0.485</v>
+        <v>0.452</v>
       </c>
       <c r="E220" t="n">
-        <v>0.417</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="221">
@@ -5261,13 +5261,13 @@
         <v>131</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="D221" t="n">
-        <v>0.56</v>
+        <v>0.557</v>
       </c>
       <c r="E221" t="n">
-        <v>0.443</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="222">
@@ -5278,13 +5278,13 @@
         <v>14</v>
       </c>
       <c r="C222" t="n">
-        <v>0.628</v>
+        <v>0.7</v>
       </c>
       <c r="D222" t="n">
-        <v>0.66</v>
+        <v>0.714</v>
       </c>
       <c r="E222" t="n">
-        <v>0.594</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="223">
@@ -5295,13 +5295,13 @@
         <v>95</v>
       </c>
       <c r="C223" t="n">
-        <v>0.698</v>
+        <v>0.714</v>
       </c>
       <c r="D223" t="n">
-        <v>0.732</v>
+        <v>0.744</v>
       </c>
       <c r="E223" t="n">
-        <v>0.664</v>
+        <v>0.685</v>
       </c>
     </row>
     <row r="224">
@@ -5312,13 +5312,13 @@
         <v>123</v>
       </c>
       <c r="C224" t="n">
-        <v>0.46</v>
+        <v>0.497</v>
       </c>
       <c r="D224" t="n">
-        <v>0.491</v>
+        <v>0.502</v>
       </c>
       <c r="E224" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="225">
@@ -5329,13 +5329,13 @@
         <v>123</v>
       </c>
       <c r="C225" t="n">
-        <v>0.667</v>
+        <v>0.664</v>
       </c>
       <c r="D225" t="n">
-        <v>0.698</v>
+        <v>0.694</v>
       </c>
       <c r="E225" t="n">
-        <v>0.637</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="226">
@@ -5346,13 +5346,13 @@
         <v>37</v>
       </c>
       <c r="C226" t="n">
-        <v>0.562</v>
+        <v>0.522</v>
       </c>
       <c r="D226" t="n">
-        <v>0.589</v>
+        <v>0.543</v>
       </c>
       <c r="E226" t="n">
-        <v>0.535</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="227">
@@ -5363,13 +5363,13 @@
         <v>50</v>
       </c>
       <c r="C227" t="n">
-        <v>0.729</v>
+        <v>0.709</v>
       </c>
       <c r="D227" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="E227" t="n">
-        <v>0.698</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="228">
@@ -5380,13 +5380,13 @@
         <v>91</v>
       </c>
       <c r="C228" t="n">
-        <v>0.617</v>
+        <v>0.665</v>
       </c>
       <c r="D228" t="n">
-        <v>0.633</v>
+        <v>0.682</v>
       </c>
       <c r="E228" t="n">
-        <v>0.598</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="229">
@@ -5397,13 +5397,13 @@
         <v>6</v>
       </c>
       <c r="C229" t="n">
-        <v>0.338</v>
+        <v>0.328</v>
       </c>
       <c r="D229" t="n">
-        <v>0.365</v>
+        <v>0.356</v>
       </c>
       <c r="E229" t="n">
-        <v>0.313</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="230">
@@ -5414,13 +5414,13 @@
         <v>165</v>
       </c>
       <c r="C230" t="n">
-        <v>0.527</v>
+        <v>0.5</v>
       </c>
       <c r="D230" t="n">
-        <v>0.555</v>
+        <v>0.508</v>
       </c>
       <c r="E230" t="n">
-        <v>0.498</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="231">
@@ -5431,13 +5431,13 @@
         <v>46</v>
       </c>
       <c r="C231" t="n">
-        <v>0.706</v>
+        <v>0.69</v>
       </c>
       <c r="D231" t="n">
-        <v>0.737</v>
+        <v>0.718</v>
       </c>
       <c r="E231" t="n">
-        <v>0.675</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="232">
@@ -5448,13 +5448,13 @@
         <v>91</v>
       </c>
       <c r="C232" t="n">
-        <v>0.44</v>
+        <v>0.396</v>
       </c>
       <c r="D232" t="n">
-        <v>0.46</v>
+        <v>0.416</v>
       </c>
       <c r="E232" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="233">
@@ -5465,13 +5465,13 @@
         <v>165</v>
       </c>
       <c r="C233" t="n">
-        <v>0.824</v>
+        <v>0.749</v>
       </c>
       <c r="D233" t="n">
-        <v>0.862</v>
+        <v>0.784</v>
       </c>
       <c r="E233" t="n">
-        <v>0.78</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="234">
@@ -5482,13 +5482,13 @@
         <v>10</v>
       </c>
       <c r="C234" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="D234" t="n">
         <v>0.51</v>
       </c>
-      <c r="D234" t="n">
-        <v>0.536</v>
-      </c>
       <c r="E234" t="n">
-        <v>0.485</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="235">
@@ -5499,13 +5499,13 @@
         <v>39</v>
       </c>
       <c r="C235" t="n">
-        <v>0.563</v>
+        <v>0.511</v>
       </c>
       <c r="D235" t="n">
-        <v>0.609</v>
+        <v>0.553</v>
       </c>
       <c r="E235" t="n">
-        <v>0.524</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="236">
@@ -5516,13 +5516,13 @@
         <v>39</v>
       </c>
       <c r="C236" t="n">
-        <v>0.605</v>
+        <v>0.552</v>
       </c>
       <c r="D236" t="n">
-        <v>0.635</v>
+        <v>0.608</v>
       </c>
       <c r="E236" t="n">
-        <v>0.576</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="237">
@@ -5533,13 +5533,13 @@
         <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
       <c r="D237" t="n">
         <v>0.517</v>
       </c>
       <c r="E237" t="n">
-        <v>0.438</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="238">
@@ -5550,13 +5550,13 @@
         <v>110</v>
       </c>
       <c r="C238" t="n">
-        <v>0.548</v>
+        <v>0.625</v>
       </c>
       <c r="D238" t="n">
-        <v>0.574</v>
+        <v>0.631</v>
       </c>
       <c r="E238" t="n">
-        <v>0.521</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="239">
@@ -5567,13 +5567,13 @@
         <v>26</v>
       </c>
       <c r="C239" t="n">
-        <v>0.766</v>
+        <v>0.716</v>
       </c>
       <c r="D239" t="n">
-        <v>0.793</v>
+        <v>0.737</v>
       </c>
       <c r="E239" t="n">
-        <v>0.738</v>
+        <v>0.685</v>
       </c>
     </row>
     <row r="240">
@@ -5584,13 +5584,13 @@
         <v>26</v>
       </c>
       <c r="C240" t="n">
-        <v>0.815</v>
+        <v>0.771</v>
       </c>
       <c r="D240" t="n">
-        <v>0.858</v>
+        <v>0.822</v>
       </c>
       <c r="E240" t="n">
-        <v>0.768</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="241">
@@ -5601,13 +5601,13 @@
         <v>52</v>
       </c>
       <c r="C241" t="n">
-        <v>0.711</v>
+        <v>0.677</v>
       </c>
       <c r="D241" t="n">
-        <v>0.738</v>
+        <v>0.693</v>
       </c>
       <c r="E241" t="n">
-        <v>0.68</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="242">
@@ -5618,13 +5618,13 @@
         <v>165</v>
       </c>
       <c r="C242" t="n">
-        <v>0.792</v>
+        <v>0.734</v>
       </c>
       <c r="D242" t="n">
-        <v>0.833</v>
+        <v>0.76</v>
       </c>
       <c r="E242" t="n">
-        <v>0.746</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="243">
@@ -5635,13 +5635,13 @@
         <v>54</v>
       </c>
       <c r="C243" t="n">
-        <v>0.52</v>
+        <v>0.495</v>
       </c>
       <c r="D243" t="n">
-        <v>0.551</v>
+        <v>0.537</v>
       </c>
       <c r="E243" t="n">
-        <v>0.489</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="244">
@@ -5652,13 +5652,13 @@
         <v>52</v>
       </c>
       <c r="C244" t="n">
-        <v>0.513</v>
+        <v>0.516</v>
       </c>
       <c r="D244" t="n">
-        <v>0.537</v>
+        <v>0.539</v>
       </c>
       <c r="E244" t="n">
-        <v>0.489</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="245">
@@ -5669,13 +5669,13 @@
         <v>46</v>
       </c>
       <c r="C245" t="n">
-        <v>0.636</v>
+        <v>0.611</v>
       </c>
       <c r="D245" t="n">
-        <v>0.668</v>
+        <v>0.64</v>
       </c>
       <c r="E245" t="n">
-        <v>0.602</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="246">
@@ -5686,13 +5686,13 @@
         <v>123</v>
       </c>
       <c r="C246" t="n">
-        <v>0.535</v>
+        <v>0.514</v>
       </c>
       <c r="D246" t="n">
-        <v>0.567</v>
+        <v>0.576</v>
       </c>
       <c r="E246" t="n">
-        <v>0.501</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="247">
@@ -5703,13 +5703,13 @@
         <v>52</v>
       </c>
       <c r="C247" t="n">
-        <v>0.475</v>
+        <v>0.413</v>
       </c>
       <c r="D247" t="n">
-        <v>0.499</v>
+        <v>0.447</v>
       </c>
       <c r="E247" t="n">
-        <v>0.452</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="248">
@@ -5720,13 +5720,13 @@
         <v>12</v>
       </c>
       <c r="C248" t="n">
-        <v>0.43</v>
+        <v>0.444</v>
       </c>
       <c r="D248" t="n">
-        <v>0.456</v>
+        <v>0.476</v>
       </c>
       <c r="E248" t="n">
-        <v>0.404</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="249">
@@ -5737,13 +5737,13 @@
         <v>74</v>
       </c>
       <c r="C249" t="n">
-        <v>0.317</v>
+        <v>0.357</v>
       </c>
       <c r="D249" t="n">
-        <v>0.344</v>
+        <v>0.38</v>
       </c>
       <c r="E249" t="n">
-        <v>0.29</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="250">
@@ -5754,13 +5754,13 @@
         <v>54</v>
       </c>
       <c r="C250" t="n">
-        <v>0.487</v>
+        <v>0.454</v>
       </c>
       <c r="D250" t="n">
-        <v>0.517</v>
+        <v>0.514</v>
       </c>
       <c r="E250" t="n">
-        <v>0.457</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="251">
@@ -5771,13 +5771,13 @@
         <v>60</v>
       </c>
       <c r="C251" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="D251" t="n">
         <v>0.628</v>
       </c>
-      <c r="D251" t="n">
-        <v>0.663</v>
-      </c>
       <c r="E251" t="n">
-        <v>0.596</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="252">
@@ -5788,13 +5788,13 @@
         <v>165</v>
       </c>
       <c r="C252" t="n">
-        <v>0.666</v>
+        <v>0.669</v>
       </c>
       <c r="D252" t="n">
-        <v>0.701</v>
+        <v>0.695</v>
       </c>
       <c r="E252" t="n">
-        <v>0.631</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="253">
@@ -5805,13 +5805,13 @@
         <v>76</v>
       </c>
       <c r="C253" t="n">
-        <v>0.588</v>
+        <v>0.561</v>
       </c>
       <c r="D253" t="n">
-        <v>0.644</v>
+        <v>0.61</v>
       </c>
       <c r="E253" t="n">
-        <v>0.534</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="254">
@@ -5822,13 +5822,13 @@
         <v>74</v>
       </c>
       <c r="C254" t="n">
-        <v>0.535</v>
+        <v>0.529</v>
       </c>
       <c r="D254" t="n">
-        <v>0.56</v>
+        <v>0.549</v>
       </c>
       <c r="E254" t="n">
-        <v>0.509</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="255">
@@ -5839,13 +5839,13 @@
         <v>105</v>
       </c>
       <c r="C255" t="n">
-        <v>0.604</v>
+        <v>0.637</v>
       </c>
       <c r="D255" t="n">
-        <v>0.639</v>
+        <v>0.662</v>
       </c>
       <c r="E255" t="n">
-        <v>0.569</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="256">
@@ -5856,13 +5856,13 @@
         <v>14</v>
       </c>
       <c r="C256" t="n">
-        <v>0.439</v>
+        <v>0.383</v>
       </c>
       <c r="D256" t="n">
-        <v>0.466</v>
+        <v>0.408</v>
       </c>
       <c r="E256" t="n">
-        <v>0.413</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="257">
@@ -5873,13 +5873,13 @@
         <v>105</v>
       </c>
       <c r="C257" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="E257" t="n">
         <v>0.702</v>
-      </c>
-      <c r="D257" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="E257" t="n">
-        <v>0.68</v>
       </c>
     </row>
     <row r="258">
@@ -5890,13 +5890,13 @@
         <v>76</v>
       </c>
       <c r="C258" t="n">
-        <v>0.547</v>
+        <v>0.55</v>
       </c>
       <c r="D258" t="n">
-        <v>0.578</v>
+        <v>0.588</v>
       </c>
       <c r="E258" t="n">
-        <v>0.516</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="259">
@@ -5907,13 +5907,13 @@
         <v>56</v>
       </c>
       <c r="C259" t="n">
-        <v>0.542</v>
+        <v>0.505</v>
       </c>
       <c r="D259" t="n">
-        <v>0.572</v>
+        <v>0.547</v>
       </c>
       <c r="E259" t="n">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="260">
@@ -5924,13 +5924,13 @@
         <v>165</v>
       </c>
       <c r="C260" t="n">
-        <v>0.769</v>
+        <v>0.779</v>
       </c>
       <c r="D260" t="n">
-        <v>0.802</v>
+        <v>0.818</v>
       </c>
       <c r="E260" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="261">
@@ -5941,13 +5941,13 @@
         <v>123</v>
       </c>
       <c r="C261" t="n">
-        <v>0.589</v>
+        <v>0.488</v>
       </c>
       <c r="D261" t="n">
-        <v>0.625</v>
+        <v>0.551</v>
       </c>
       <c r="E261" t="n">
-        <v>0.549</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="262">
@@ -5958,13 +5958,13 @@
         <v>56</v>
       </c>
       <c r="C262" t="n">
-        <v>0.594</v>
+        <v>0.598</v>
       </c>
       <c r="D262" t="n">
-        <v>0.624</v>
+        <v>0.635</v>
       </c>
       <c r="E262" t="n">
-        <v>0.564</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="263">
@@ -5975,13 +5975,13 @@
         <v>56</v>
       </c>
       <c r="C263" t="n">
-        <v>0.615</v>
+        <v>0.631</v>
       </c>
       <c r="D263" t="n">
-        <v>0.639</v>
+        <v>0.636</v>
       </c>
       <c r="E263" t="n">
-        <v>0.591</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="264">
@@ -5992,13 +5992,13 @@
         <v>105</v>
       </c>
       <c r="C264" t="n">
-        <v>0.22</v>
+        <v>0.235</v>
       </c>
       <c r="D264" t="n">
-        <v>0.263</v>
+        <v>0.272</v>
       </c>
       <c r="E264" t="n">
-        <v>0.185</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="265">
@@ -6009,13 +6009,13 @@
         <v>105</v>
       </c>
       <c r="C265" t="n">
-        <v>0.699</v>
+        <v>0.65</v>
       </c>
       <c r="D265" t="n">
-        <v>0.729</v>
+        <v>0.676</v>
       </c>
       <c r="E265" t="n">
-        <v>0.669</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="266">
@@ -6026,13 +6026,13 @@
         <v>52</v>
       </c>
       <c r="C266" t="n">
-        <v>0.761</v>
+        <v>0.766</v>
       </c>
       <c r="D266" t="n">
-        <v>0.793</v>
+        <v>0.785</v>
       </c>
       <c r="E266" t="n">
-        <v>0.726</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="267">
@@ -6043,13 +6043,13 @@
         <v>76</v>
       </c>
       <c r="C267" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
       <c r="D267" t="n">
-        <v>0.529</v>
+        <v>0.528</v>
       </c>
       <c r="E267" t="n">
-        <v>0.435</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="268">
@@ -6060,13 +6060,13 @@
         <v>6</v>
       </c>
       <c r="C268" t="n">
-        <v>0.618</v>
+        <v>0.658</v>
       </c>
       <c r="D268" t="n">
-        <v>0.645</v>
+        <v>0.678</v>
       </c>
       <c r="E268" t="n">
-        <v>0.588</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="269">
@@ -6077,13 +6077,13 @@
         <v>85</v>
       </c>
       <c r="C269" t="n">
-        <v>0.393</v>
+        <v>0.315</v>
       </c>
       <c r="D269" t="n">
-        <v>0.426</v>
+        <v>0.355</v>
       </c>
       <c r="E269" t="n">
-        <v>0.36</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="270">
@@ -6094,13 +6094,13 @@
         <v>8</v>
       </c>
       <c r="C270" t="n">
-        <v>0.891</v>
+        <v>0.88</v>
       </c>
       <c r="D270" t="n">
-        <v>0.918</v>
+        <v>0.912</v>
       </c>
       <c r="E270" t="n">
-        <v>0.861</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="271">
@@ -6111,13 +6111,13 @@
         <v>52</v>
       </c>
       <c r="C271" t="n">
-        <v>0.413</v>
+        <v>0.397</v>
       </c>
       <c r="D271" t="n">
-        <v>0.443</v>
+        <v>0.414</v>
       </c>
       <c r="E271" t="n">
-        <v>0.384</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="272">
@@ -6128,13 +6128,13 @@
         <v>52</v>
       </c>
       <c r="C272" t="n">
-        <v>0.682</v>
+        <v>0.649</v>
       </c>
       <c r="D272" t="n">
-        <v>0.716</v>
+        <v>0.686</v>
       </c>
       <c r="E272" t="n">
-        <v>0.642</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="273">
@@ -6145,13 +6145,13 @@
         <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>0.259</v>
+        <v>0.232</v>
       </c>
       <c r="D273" t="n">
-        <v>0.299</v>
+        <v>0.261</v>
       </c>
       <c r="E273" t="n">
-        <v>0.226</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="274">
@@ -6162,13 +6162,13 @@
         <v>52</v>
       </c>
       <c r="C274" t="n">
-        <v>0.744</v>
+        <v>0.675</v>
       </c>
       <c r="D274" t="n">
-        <v>0.769</v>
+        <v>0.677</v>
       </c>
       <c r="E274" t="n">
-        <v>0.717</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="275">
@@ -6179,13 +6179,13 @@
         <v>64</v>
       </c>
       <c r="C275" t="n">
-        <v>0.512</v>
+        <v>0.503</v>
       </c>
       <c r="D275" t="n">
-        <v>0.556</v>
+        <v>0.552</v>
       </c>
       <c r="E275" t="n">
-        <v>0.465</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="276">
@@ -6196,13 +6196,13 @@
         <v>60</v>
       </c>
       <c r="C276" t="n">
-        <v>0.742</v>
+        <v>0.763</v>
       </c>
       <c r="D276" t="n">
-        <v>0.773</v>
+        <v>0.816</v>
       </c>
       <c r="E276" t="n">
-        <v>0.71</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="277">
@@ -6213,13 +6213,13 @@
         <v>76</v>
       </c>
       <c r="C277" t="n">
-        <v>0.545</v>
+        <v>0.558</v>
       </c>
       <c r="D277" t="n">
-        <v>0.578</v>
+        <v>0.558</v>
       </c>
       <c r="E277" t="n">
-        <v>0.511</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="278">
@@ -6230,13 +6230,13 @@
         <v>24</v>
       </c>
       <c r="C278" t="n">
-        <v>0.575</v>
+        <v>0.548</v>
       </c>
       <c r="D278" t="n">
-        <v>0.603</v>
+        <v>0.576</v>
       </c>
       <c r="E278" t="n">
-        <v>0.547</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="279">
@@ -6247,13 +6247,13 @@
         <v>42</v>
       </c>
       <c r="C279" t="n">
-        <v>0.263</v>
+        <v>0.376</v>
       </c>
       <c r="D279" t="n">
-        <v>0.295</v>
+        <v>0.402</v>
       </c>
       <c r="E279" t="n">
-        <v>0.233</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="280">
@@ -6264,13 +6264,13 @@
         <v>74</v>
       </c>
       <c r="C280" t="n">
-        <v>0.349</v>
+        <v>0.313</v>
       </c>
       <c r="D280" t="n">
-        <v>0.37</v>
+        <v>0.336</v>
       </c>
       <c r="E280" t="n">
-        <v>0.328</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="281">
@@ -6281,13 +6281,13 @@
         <v>17</v>
       </c>
       <c r="C281" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="D281" t="n">
-        <v>0.631</v>
+        <v>0.606</v>
       </c>
       <c r="E281" t="n">
-        <v>0.561</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="282">
@@ -6298,13 +6298,13 @@
         <v>110</v>
       </c>
       <c r="C282" t="n">
-        <v>0.736</v>
+        <v>0.747</v>
       </c>
       <c r="D282" t="n">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="E282" t="n">
-        <v>0.696</v>
+        <v>0.686</v>
       </c>
     </row>
     <row r="283">
@@ -6315,13 +6315,13 @@
         <v>110</v>
       </c>
       <c r="C283" t="n">
-        <v>0.586</v>
+        <v>0.61</v>
       </c>
       <c r="D283" t="n">
-        <v>0.614</v>
+        <v>0.652</v>
       </c>
       <c r="E283" t="n">
-        <v>0.556</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="284">
@@ -6332,13 +6332,13 @@
         <v>80</v>
       </c>
       <c r="C284" t="n">
-        <v>0.554</v>
+        <v>0.504</v>
       </c>
       <c r="D284" t="n">
-        <v>0.577</v>
+        <v>0.537</v>
       </c>
       <c r="E284" t="n">
-        <v>0.531</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="285">
@@ -6349,13 +6349,13 @@
         <v>35</v>
       </c>
       <c r="C285" t="n">
-        <v>0.291</v>
+        <v>0.267</v>
       </c>
       <c r="D285" t="n">
-        <v>0.314</v>
+        <v>0.285</v>
       </c>
       <c r="E285" t="n">
-        <v>0.27</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="286">
@@ -6366,13 +6366,13 @@
         <v>6</v>
       </c>
       <c r="C286" t="n">
-        <v>0.257</v>
+        <v>0.254</v>
       </c>
       <c r="D286" t="n">
-        <v>0.28</v>
+        <v>0.271</v>
       </c>
       <c r="E286" t="n">
-        <v>0.236</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="287">
@@ -6383,13 +6383,13 @@
         <v>26</v>
       </c>
       <c r="C287" t="n">
-        <v>0.643</v>
+        <v>0.667</v>
       </c>
       <c r="D287" t="n">
-        <v>0.664</v>
+        <v>0.665</v>
       </c>
       <c r="E287" t="n">
-        <v>0.622</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="288">
@@ -6400,13 +6400,13 @@
         <v>35</v>
       </c>
       <c r="C288" t="n">
-        <v>0.308</v>
+        <v>0.348</v>
       </c>
       <c r="D288" t="n">
-        <v>0.335</v>
+        <v>0.369</v>
       </c>
       <c r="E288" t="n">
-        <v>0.282</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="289">
@@ -6417,13 +6417,13 @@
         <v>50</v>
       </c>
       <c r="C289" t="n">
-        <v>0.552</v>
+        <v>0.539</v>
       </c>
       <c r="D289" t="n">
-        <v>0.575</v>
+        <v>0.559</v>
       </c>
       <c r="E289" t="n">
-        <v>0.53</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="290">
@@ -6434,13 +6434,13 @@
         <v>80</v>
       </c>
       <c r="C290" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="D290" t="n">
-        <v>0.781</v>
+        <v>0.772</v>
       </c>
       <c r="E290" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="291">
@@ -6451,13 +6451,13 @@
         <v>14</v>
       </c>
       <c r="C291" t="n">
-        <v>0.257</v>
+        <v>0.285</v>
       </c>
       <c r="D291" t="n">
-        <v>0.297</v>
+        <v>0.323</v>
       </c>
       <c r="E291" t="n">
-        <v>0.217</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="292">
@@ -6468,13 +6468,13 @@
         <v>123</v>
       </c>
       <c r="C292" t="n">
-        <v>0.634</v>
+        <v>0.641</v>
       </c>
       <c r="D292" t="n">
-        <v>0.66</v>
+        <v>0.669</v>
       </c>
       <c r="E292" t="n">
-        <v>0.607</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="293">
@@ -6485,13 +6485,13 @@
         <v>12</v>
       </c>
       <c r="C293" t="n">
-        <v>0.248</v>
+        <v>0.306</v>
       </c>
       <c r="D293" t="n">
-        <v>0.272</v>
+        <v>0.348</v>
       </c>
       <c r="E293" t="n">
-        <v>0.226</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="294">
@@ -6502,13 +6502,13 @@
         <v>105</v>
       </c>
       <c r="C294" t="n">
-        <v>0.646</v>
+        <v>0.56</v>
       </c>
       <c r="D294" t="n">
-        <v>0.668</v>
+        <v>0.582</v>
       </c>
       <c r="E294" t="n">
-        <v>0.624</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="295">
@@ -6519,13 +6519,13 @@
         <v>56</v>
       </c>
       <c r="C295" t="n">
-        <v>0.442</v>
+        <v>0.462</v>
       </c>
       <c r="D295" t="n">
-        <v>0.475</v>
+        <v>0.482</v>
       </c>
       <c r="E295" t="n">
-        <v>0.408</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="296">
@@ -6536,13 +6536,13 @@
         <v>60</v>
       </c>
       <c r="C296" t="n">
-        <v>0.705</v>
+        <v>0.641</v>
       </c>
       <c r="D296" t="n">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="E296" t="n">
-        <v>0.66</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="297">
@@ -6553,13 +6553,13 @@
         <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>0.828</v>
+        <v>0.805</v>
       </c>
       <c r="D297" t="n">
-        <v>0.852</v>
+        <v>0.838</v>
       </c>
       <c r="E297" t="n">
-        <v>0.802</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="298">
@@ -6570,13 +6570,13 @@
         <v>6</v>
       </c>
       <c r="C298" t="n">
-        <v>0.802</v>
+        <v>0.791</v>
       </c>
       <c r="D298" t="n">
-        <v>0.833</v>
+        <v>0.828</v>
       </c>
       <c r="E298" t="n">
-        <v>0.766</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="299">
@@ -6587,13 +6587,13 @@
         <v>131</v>
       </c>
       <c r="C299" t="n">
-        <v>0.392</v>
+        <v>0.424</v>
       </c>
       <c r="D299" t="n">
-        <v>0.417</v>
+        <v>0.444</v>
       </c>
       <c r="E299" t="n">
-        <v>0.368</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="300">
@@ -6604,13 +6604,13 @@
         <v>19</v>
       </c>
       <c r="C300" t="n">
-        <v>0.609</v>
+        <v>0.605</v>
       </c>
       <c r="D300" t="n">
-        <v>0.644</v>
+        <v>0.635</v>
       </c>
       <c r="E300" t="n">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="301">
@@ -6621,13 +6621,13 @@
         <v>46</v>
       </c>
       <c r="C301" t="n">
-        <v>0.649</v>
+        <v>0.662</v>
       </c>
       <c r="D301" t="n">
-        <v>0.687</v>
+        <v>0.703</v>
       </c>
       <c r="E301" t="n">
-        <v>0.615</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="302">
@@ -6638,13 +6638,13 @@
         <v>80</v>
       </c>
       <c r="C302" t="n">
-        <v>0.596</v>
+        <v>0.562</v>
       </c>
       <c r="D302" t="n">
-        <v>0.631</v>
+        <v>0.597</v>
       </c>
       <c r="E302" t="n">
-        <v>0.563</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="303">
@@ -6655,13 +6655,13 @@
         <v>35</v>
       </c>
       <c r="C303" t="n">
-        <v>0.282</v>
+        <v>0.248</v>
       </c>
       <c r="D303" t="n">
-        <v>0.315</v>
+        <v>0.29</v>
       </c>
       <c r="E303" t="n">
-        <v>0.251</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="304">
@@ -6672,13 +6672,13 @@
         <v>35</v>
       </c>
       <c r="C304" t="n">
-        <v>0.615</v>
+        <v>0.596</v>
       </c>
       <c r="D304" t="n">
-        <v>0.648</v>
+        <v>0.612</v>
       </c>
       <c r="E304" t="n">
-        <v>0.583</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="305">
@@ -6689,13 +6689,13 @@
         <v>35</v>
       </c>
       <c r="C305" t="n">
-        <v>0.221</v>
+        <v>0.238</v>
       </c>
       <c r="D305" t="n">
-        <v>0.245</v>
+        <v>0.269</v>
       </c>
       <c r="E305" t="n">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="306">
@@ -6706,13 +6706,13 @@
         <v>17</v>
       </c>
       <c r="C306" t="n">
-        <v>0.642</v>
+        <v>0.664</v>
       </c>
       <c r="D306" t="n">
-        <v>0.677</v>
+        <v>0.696</v>
       </c>
       <c r="E306" t="n">
-        <v>0.607</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="307">
@@ -6723,13 +6723,13 @@
         <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>0.355</v>
+        <v>0.374</v>
       </c>
       <c r="D307" t="n">
-        <v>0.388</v>
+        <v>0.417</v>
       </c>
       <c r="E307" t="n">
-        <v>0.325</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="308">
@@ -6740,13 +6740,13 @@
         <v>17</v>
       </c>
       <c r="C308" t="n">
-        <v>0.464</v>
+        <v>0.442</v>
       </c>
       <c r="D308" t="n">
-        <v>0.508</v>
+        <v>0.479</v>
       </c>
       <c r="E308" t="n">
-        <v>0.417</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="309">
@@ -6757,13 +6757,13 @@
         <v>24</v>
       </c>
       <c r="C309" t="n">
-        <v>0.46</v>
+        <v>0.491</v>
       </c>
       <c r="D309" t="n">
-        <v>0.498</v>
+        <v>0.535</v>
       </c>
       <c r="E309" t="n">
-        <v>0.424</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="310">
@@ -6774,13 +6774,13 @@
         <v>39</v>
       </c>
       <c r="C310" t="n">
-        <v>0.734</v>
+        <v>0.655</v>
       </c>
       <c r="D310" t="n">
-        <v>0.763</v>
+        <v>0.673</v>
       </c>
       <c r="E310" t="n">
-        <v>0.705</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="311">
@@ -6791,13 +6791,13 @@
         <v>14</v>
       </c>
       <c r="C311" t="n">
-        <v>0.574</v>
+        <v>0.571</v>
       </c>
       <c r="D311" t="n">
-        <v>0.592</v>
+        <v>0.57</v>
       </c>
       <c r="E311" t="n">
-        <v>0.556</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="312">
@@ -6808,13 +6808,13 @@
         <v>64</v>
       </c>
       <c r="C312" t="n">
-        <v>0.404</v>
+        <v>0.394</v>
       </c>
       <c r="D312" t="n">
-        <v>0.422</v>
+        <v>0.399</v>
       </c>
       <c r="E312" t="n">
-        <v>0.386</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="313">
@@ -6825,13 +6825,13 @@
         <v>14</v>
       </c>
       <c r="C313" t="n">
-        <v>0.443</v>
+        <v>0.459</v>
       </c>
       <c r="D313" t="n">
         <v>0.479</v>
       </c>
       <c r="E313" t="n">
-        <v>0.406</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="314">
@@ -6842,13 +6842,13 @@
         <v>12</v>
       </c>
       <c r="C314" t="n">
-        <v>0.246</v>
+        <v>0.299</v>
       </c>
       <c r="D314" t="n">
-        <v>0.279</v>
+        <v>0.309</v>
       </c>
       <c r="E314" t="n">
-        <v>0.216</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="315">
@@ -6859,13 +6859,13 @@
         <v>24</v>
       </c>
       <c r="C315" t="n">
-        <v>0.637</v>
+        <v>0.631</v>
       </c>
       <c r="D315" t="n">
-        <v>0.658</v>
+        <v>0.645</v>
       </c>
       <c r="E315" t="n">
-        <v>0.617</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="316">
@@ -6876,13 +6876,13 @@
         <v>39</v>
       </c>
       <c r="C316" t="n">
-        <v>0.795</v>
+        <v>0.786</v>
       </c>
       <c r="D316" t="n">
-        <v>0.835</v>
+        <v>0.823</v>
       </c>
       <c r="E316" t="n">
-        <v>0.75</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="317">
@@ -6893,13 +6893,13 @@
         <v>39</v>
       </c>
       <c r="C317" t="n">
-        <v>0.64</v>
+        <v>0.572</v>
       </c>
       <c r="D317" t="n">
-        <v>0.666</v>
+        <v>0.594</v>
       </c>
       <c r="E317" t="n">
-        <v>0.615</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="318">
@@ -6910,13 +6910,13 @@
         <v>37</v>
       </c>
       <c r="C318" t="n">
-        <v>0.642</v>
+        <v>0.651</v>
       </c>
       <c r="D318" t="n">
         <v>0.67</v>
       </c>
       <c r="E318" t="n">
-        <v>0.616</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="319">
@@ -6927,13 +6927,13 @@
         <v>95</v>
       </c>
       <c r="C319" t="n">
-        <v>0.528</v>
+        <v>0.529</v>
       </c>
       <c r="D319" t="n">
-        <v>0.551</v>
+        <v>0.559</v>
       </c>
       <c r="E319" t="n">
-        <v>0.504</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="320">
@@ -6944,13 +6944,13 @@
         <v>24</v>
       </c>
       <c r="C320" t="n">
-        <v>0.414</v>
+        <v>0.397</v>
       </c>
       <c r="D320" t="n">
-        <v>0.446</v>
+        <v>0.425</v>
       </c>
       <c r="E320" t="n">
-        <v>0.384</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="321">
@@ -6961,13 +6961,13 @@
         <v>80</v>
       </c>
       <c r="C321" t="n">
-        <v>0.606</v>
+        <v>0.532</v>
       </c>
       <c r="D321" t="n">
-        <v>0.633</v>
+        <v>0.573</v>
       </c>
       <c r="E321" t="n">
-        <v>0.58</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="322">
@@ -6978,13 +6978,13 @@
         <v>80</v>
       </c>
       <c r="C322" t="n">
-        <v>0.64</v>
+        <v>0.669</v>
       </c>
       <c r="D322" t="n">
-        <v>0.66</v>
+        <v>0.716</v>
       </c>
       <c r="E322" t="n">
-        <v>0.619</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="323">
@@ -6995,13 +6995,13 @@
         <v>26</v>
       </c>
       <c r="C323" t="n">
-        <v>0.561</v>
+        <v>0.516</v>
       </c>
       <c r="D323" t="n">
-        <v>0.589</v>
+        <v>0.563</v>
       </c>
       <c r="E323" t="n">
-        <v>0.532</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="324">
@@ -7012,13 +7012,13 @@
         <v>8</v>
       </c>
       <c r="C324" t="n">
-        <v>0.732</v>
+        <v>0.722</v>
       </c>
       <c r="D324" t="n">
-        <v>0.763</v>
+        <v>0.753</v>
       </c>
       <c r="E324" t="n">
-        <v>0.699</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="325">
@@ -7029,13 +7029,13 @@
         <v>64</v>
       </c>
       <c r="C325" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="D325" t="n">
         <v>0.455</v>
       </c>
-      <c r="D325" t="n">
-        <v>0.482</v>
-      </c>
       <c r="E325" t="n">
-        <v>0.429</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="326">
@@ -7046,13 +7046,13 @@
         <v>26</v>
       </c>
       <c r="C326" t="n">
-        <v>0.728</v>
+        <v>0.578</v>
       </c>
       <c r="D326" t="n">
-        <v>0.762</v>
+        <v>0.615</v>
       </c>
       <c r="E326" t="n">
-        <v>0.694</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="327">
@@ -7063,13 +7063,13 @@
         <v>50</v>
       </c>
       <c r="C327" t="n">
-        <v>0.544</v>
+        <v>0.514</v>
       </c>
       <c r="D327" t="n">
-        <v>0.563</v>
+        <v>0.547</v>
       </c>
       <c r="E327" t="n">
-        <v>0.525</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="328">
@@ -7080,13 +7080,13 @@
         <v>17</v>
       </c>
       <c r="C328" t="n">
-        <v>0.634</v>
+        <v>0.518</v>
       </c>
       <c r="D328" t="n">
-        <v>0.665</v>
+        <v>0.547</v>
       </c>
       <c r="E328" t="n">
-        <v>0.604</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="329">
@@ -7097,13 +7097,13 @@
         <v>19</v>
       </c>
       <c r="C329" t="n">
-        <v>0.68</v>
+        <v>0.708</v>
       </c>
       <c r="D329" t="n">
-        <v>0.704</v>
+        <v>0.733</v>
       </c>
       <c r="E329" t="n">
-        <v>0.655</v>
+        <v>0.682</v>
       </c>
     </row>
     <row r="330">
@@ -7114,13 +7114,13 @@
         <v>60</v>
       </c>
       <c r="C330" t="n">
-        <v>0.74</v>
+        <v>0.717</v>
       </c>
       <c r="D330" t="n">
-        <v>0.79</v>
+        <v>0.777</v>
       </c>
       <c r="E330" t="n">
-        <v>0.688</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="331">
@@ -7131,13 +7131,13 @@
         <v>105</v>
       </c>
       <c r="C331" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="D331" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="E331" t="n">
-        <v>0.691</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="332">
@@ -7148,13 +7148,13 @@
         <v>85</v>
       </c>
       <c r="C332" t="n">
-        <v>0.422</v>
+        <v>0.442</v>
       </c>
       <c r="D332" t="n">
-        <v>0.468</v>
+        <v>0.459</v>
       </c>
       <c r="E332" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="333">
@@ -7165,13 +7165,13 @@
         <v>46</v>
       </c>
       <c r="C333" t="n">
-        <v>0.72</v>
+        <v>0.708</v>
       </c>
       <c r="D333" t="n">
-        <v>0.755</v>
+        <v>0.739</v>
       </c>
       <c r="E333" t="n">
-        <v>0.687</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="334">
@@ -7182,13 +7182,13 @@
         <v>46</v>
       </c>
       <c r="C334" t="n">
-        <v>0.683</v>
+        <v>0.627</v>
       </c>
       <c r="D334" t="n">
-        <v>0.741</v>
+        <v>0.651</v>
       </c>
       <c r="E334" t="n">
-        <v>0.619</v>
+        <v>0.565</v>
       </c>
     </row>
     <row r="335">
@@ -7202,10 +7202,10 @@
         <v>0.275</v>
       </c>
       <c r="D335" t="n">
-        <v>0.303</v>
+        <v>0.31</v>
       </c>
       <c r="E335" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="336">
@@ -7216,13 +7216,13 @@
         <v>46</v>
       </c>
       <c r="C336" t="n">
-        <v>0.474</v>
+        <v>0.493</v>
       </c>
       <c r="D336" t="n">
-        <v>0.511</v>
+        <v>0.514</v>
       </c>
       <c r="E336" t="n">
-        <v>0.444</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="337">
@@ -7233,13 +7233,13 @@
         <v>26</v>
       </c>
       <c r="C337" t="n">
-        <v>0.616</v>
+        <v>0.604</v>
       </c>
       <c r="D337" t="n">
-        <v>0.658</v>
+        <v>0.63</v>
       </c>
       <c r="E337" t="n">
-        <v>0.574</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="338">
@@ -7250,13 +7250,13 @@
         <v>26</v>
       </c>
       <c r="C338" t="n">
-        <v>0.725</v>
+        <v>0.687</v>
       </c>
       <c r="D338" t="n">
-        <v>0.75</v>
+        <v>0.717</v>
       </c>
       <c r="E338" t="n">
-        <v>0.699</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="339">
@@ -7267,13 +7267,13 @@
         <v>123</v>
       </c>
       <c r="C339" t="n">
-        <v>0.296</v>
+        <v>0.302</v>
       </c>
       <c r="D339" t="n">
-        <v>0.328</v>
+        <v>0.345</v>
       </c>
       <c r="E339" t="n">
-        <v>0.266</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="340">
@@ -7284,13 +7284,13 @@
         <v>39</v>
       </c>
       <c r="C340" t="n">
-        <v>0.779</v>
+        <v>0.807</v>
       </c>
       <c r="D340" t="n">
-        <v>0.82</v>
+        <v>0.844</v>
       </c>
       <c r="E340" t="n">
-        <v>0.726</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="341">
@@ -7301,13 +7301,13 @@
         <v>85</v>
       </c>
       <c r="C341" t="n">
-        <v>0.661</v>
+        <v>0.602</v>
       </c>
       <c r="D341" t="n">
-        <v>0.696</v>
+        <v>0.63</v>
       </c>
       <c r="E341" t="n">
-        <v>0.625</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="342">
@@ -7318,13 +7318,13 @@
         <v>110</v>
       </c>
       <c r="C342" t="n">
-        <v>0.332</v>
+        <v>0.3</v>
       </c>
       <c r="D342" t="n">
-        <v>0.358</v>
+        <v>0.335</v>
       </c>
       <c r="E342" t="n">
-        <v>0.308</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="343">
@@ -7335,13 +7335,13 @@
         <v>14</v>
       </c>
       <c r="C343" t="n">
-        <v>0.637</v>
+        <v>0.632</v>
       </c>
       <c r="D343" t="n">
-        <v>0.658</v>
+        <v>0.661</v>
       </c>
       <c r="E343" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="344">
@@ -7352,13 +7352,13 @@
         <v>37</v>
       </c>
       <c r="C344" t="n">
-        <v>0.387</v>
+        <v>0.399</v>
       </c>
       <c r="D344" t="n">
-        <v>0.406</v>
+        <v>0.411</v>
       </c>
       <c r="E344" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="345">
@@ -7369,13 +7369,13 @@
         <v>80</v>
       </c>
       <c r="C345" t="n">
-        <v>0.827</v>
+        <v>0.735</v>
       </c>
       <c r="D345" t="n">
-        <v>0.865</v>
+        <v>0.761</v>
       </c>
       <c r="E345" t="n">
-        <v>0.783</v>
+        <v>0.692</v>
       </c>
     </row>
     <row r="346">
@@ -7386,13 +7386,13 @@
         <v>95</v>
       </c>
       <c r="C346" t="n">
-        <v>0.664</v>
+        <v>0.633</v>
       </c>
       <c r="D346" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="E346" t="n">
-        <v>0.637</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="347">
@@ -7403,13 +7403,13 @@
         <v>74</v>
       </c>
       <c r="C347" t="n">
-        <v>0.648</v>
+        <v>0.723</v>
       </c>
       <c r="D347" t="n">
-        <v>0.672</v>
+        <v>0.724</v>
       </c>
       <c r="E347" t="n">
-        <v>0.623</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="348">
@@ -7420,13 +7420,13 @@
         <v>165</v>
       </c>
       <c r="C348" t="n">
-        <v>0.658</v>
+        <v>0.61</v>
       </c>
       <c r="D348" t="n">
-        <v>0.695</v>
+        <v>0.648</v>
       </c>
       <c r="E348" t="n">
-        <v>0.62</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="349">
@@ -7437,13 +7437,13 @@
         <v>85</v>
       </c>
       <c r="C349" t="n">
-        <v>0.582</v>
+        <v>0.588</v>
       </c>
       <c r="D349" t="n">
-        <v>0.616</v>
+        <v>0.62</v>
       </c>
       <c r="E349" t="n">
-        <v>0.548</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="350">
@@ -7454,13 +7454,13 @@
         <v>91</v>
       </c>
       <c r="C350" t="n">
-        <v>0.785</v>
+        <v>0.789</v>
       </c>
       <c r="D350" t="n">
-        <v>0.817</v>
+        <v>0.824</v>
       </c>
       <c r="E350" t="n">
-        <v>0.746</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="351">
@@ -7471,13 +7471,13 @@
         <v>8</v>
       </c>
       <c r="C351" t="n">
-        <v>0.325</v>
+        <v>0.302</v>
       </c>
       <c r="D351" t="n">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="E351" t="n">
-        <v>0.299</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="352">
@@ -7488,13 +7488,13 @@
         <v>60</v>
       </c>
       <c r="C352" t="n">
-        <v>0.661</v>
+        <v>0.6</v>
       </c>
       <c r="D352" t="n">
-        <v>0.693</v>
+        <v>0.649</v>
       </c>
       <c r="E352" t="n">
-        <v>0.627</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="353">
@@ -7505,13 +7505,13 @@
         <v>54</v>
       </c>
       <c r="C353" t="n">
-        <v>0.673</v>
+        <v>0.733</v>
       </c>
       <c r="D353" t="n">
-        <v>0.707</v>
+        <v>0.74</v>
       </c>
       <c r="E353" t="n">
-        <v>0.641</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="354">
@@ -7522,13 +7522,13 @@
         <v>91</v>
       </c>
       <c r="C354" t="n">
-        <v>0.529</v>
+        <v>0.487</v>
       </c>
       <c r="D354" t="n">
-        <v>0.562</v>
+        <v>0.507</v>
       </c>
       <c r="E354" t="n">
-        <v>0.493</v>
+        <v>0.442</v>
       </c>
     </row>
   </sheetData>

--- a/ncaa_bracket/teams.xlsx
+++ b/ncaa_bracket/teams.xlsx
@@ -1538,13 +1538,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.54</v>
+        <v>0.658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.578</v>
+        <v>0.68</v>
       </c>
       <c r="E2" t="n">
-        <v>0.535</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="3">
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.544</v>
+        <v>0.426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.583</v>
+        <v>0.448</v>
       </c>
       <c r="E3" t="n">
-        <v>0.518</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="4">
@@ -1572,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.736</v>
+        <v>0.713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.777</v>
+        <v>0.73</v>
       </c>
       <c r="E4" t="n">
-        <v>0.722</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="5">
@@ -1589,13 +1589,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.274</v>
+        <v>0.266</v>
       </c>
       <c r="D5" t="n">
-        <v>0.307</v>
+        <v>0.296</v>
       </c>
       <c r="E5" t="n">
-        <v>0.243</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="6">
@@ -1606,13 +1606,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.533</v>
+        <v>0.547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.568</v>
+        <v>0.564</v>
       </c>
       <c r="E6" t="n">
-        <v>0.523</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="7">
@@ -1623,13 +1623,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168</v>
+        <v>0.27</v>
       </c>
       <c r="D7" t="n">
-        <v>0.203</v>
+        <v>0.297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.153</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="8">
@@ -1640,13 +1640,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.656</v>
+        <v>0.572</v>
       </c>
       <c r="D8" t="n">
-        <v>0.682</v>
+        <v>0.601</v>
       </c>
       <c r="E8" t="n">
-        <v>0.617</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="9">
@@ -1657,13 +1657,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.536</v>
+        <v>0.444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.564</v>
+        <v>0.465</v>
       </c>
       <c r="E9" t="n">
-        <v>0.511</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="10">
@@ -1674,13 +1674,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.394</v>
+        <v>0.427</v>
       </c>
       <c r="D10" t="n">
-        <v>0.421</v>
+        <v>0.445</v>
       </c>
       <c r="E10" t="n">
-        <v>0.364</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="11">
@@ -1691,13 +1691,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>0.514</v>
+        <v>0.608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.565</v>
+        <v>0.627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.517</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="12">
@@ -1708,13 +1708,13 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>0.459</v>
+        <v>0.499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.495</v>
+        <v>0.511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.461</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="13">
@@ -1725,13 +1725,13 @@
         <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>0.594</v>
+        <v>0.572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.623</v>
+        <v>0.595</v>
       </c>
       <c r="E13" t="n">
-        <v>0.57</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="14">
@@ -1742,13 +1742,13 @@
         <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>0.875</v>
+        <v>0.771</v>
       </c>
       <c r="D14" t="n">
-        <v>0.901</v>
+        <v>0.791</v>
       </c>
       <c r="E14" t="n">
-        <v>0.845</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
@@ -1759,13 +1759,13 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>0.626</v>
+        <v>0.631</v>
       </c>
       <c r="D15" t="n">
-        <v>0.66</v>
+        <v>0.655</v>
       </c>
       <c r="E15" t="n">
-        <v>0.614</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="16">
@@ -1776,13 +1776,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.127</v>
+        <v>0.163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.149</v>
+        <v>0.191</v>
       </c>
       <c r="E16" t="n">
-        <v>0.095</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="17">
@@ -1793,13 +1793,13 @@
         <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>0.493</v>
+        <v>0.461</v>
       </c>
       <c r="D17" t="n">
-        <v>0.52</v>
+        <v>0.477</v>
       </c>
       <c r="E17" t="n">
-        <v>0.493</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="18">
@@ -1810,13 +1810,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.75</v>
+        <v>0.648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.769</v>
+        <v>0.666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.718</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="19">
@@ -1827,13 +1827,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>0.467</v>
+        <v>0.494</v>
       </c>
       <c r="D19" t="n">
-        <v>0.523</v>
+        <v>0.524</v>
       </c>
       <c r="E19" t="n">
-        <v>0.448</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="20">
@@ -1844,13 +1844,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>0.798</v>
+        <v>0.739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.837</v>
+        <v>0.773</v>
       </c>
       <c r="E20" t="n">
-        <v>0.762</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="21">
@@ -1861,13 +1861,13 @@
         <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>0.622</v>
+        <v>0.635</v>
       </c>
       <c r="D21" t="n">
-        <v>0.661</v>
+        <v>0.656</v>
       </c>
       <c r="E21" t="n">
-        <v>0.617</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="22">
@@ -1878,13 +1878,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.691</v>
+        <v>0.666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.722</v>
+        <v>0.685</v>
       </c>
       <c r="E22" t="n">
-        <v>0.673</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="23">
@@ -1895,13 +1895,13 @@
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>0.814</v>
+        <v>0.798</v>
       </c>
       <c r="D23" t="n">
-        <v>0.86</v>
+        <v>0.828</v>
       </c>
       <c r="E23" t="n">
-        <v>0.786</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="24">
@@ -1912,13 +1912,13 @@
         <v>35</v>
       </c>
       <c r="C24" t="n">
-        <v>0.815</v>
+        <v>0.813</v>
       </c>
       <c r="D24" t="n">
-        <v>0.844</v>
+        <v>0.837</v>
       </c>
       <c r="E24" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="25">
@@ -1929,13 +1929,13 @@
         <v>42</v>
       </c>
       <c r="C25" t="n">
-        <v>0.465</v>
+        <v>0.514</v>
       </c>
       <c r="D25" t="n">
-        <v>0.477</v>
+        <v>0.537</v>
       </c>
       <c r="E25" t="n">
-        <v>0.423</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="26">
@@ -1946,13 +1946,13 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>0.275</v>
+        <v>0.252</v>
       </c>
       <c r="D26" t="n">
-        <v>0.315</v>
+        <v>0.273</v>
       </c>
       <c r="E26" t="n">
-        <v>0.264</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="27">
@@ -1963,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>0.595</v>
+        <v>0.619</v>
       </c>
       <c r="D27" t="n">
-        <v>0.616</v>
+        <v>0.636</v>
       </c>
       <c r="E27" t="n">
-        <v>0.571</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="28">
@@ -1980,13 +1980,13 @@
         <v>46</v>
       </c>
       <c r="C28" t="n">
-        <v>0.426</v>
+        <v>0.323</v>
       </c>
       <c r="D28" t="n">
-        <v>0.43</v>
+        <v>0.344</v>
       </c>
       <c r="E28" t="n">
-        <v>0.377</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="29">
@@ -1997,13 +1997,13 @@
         <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>0.59</v>
+        <v>0.641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.612</v>
+        <v>0.663</v>
       </c>
       <c r="E29" t="n">
-        <v>0.565</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="30">
@@ -2014,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587</v>
+        <v>0.51</v>
       </c>
       <c r="D30" t="n">
-        <v>0.591</v>
+        <v>0.537</v>
       </c>
       <c r="E30" t="n">
-        <v>0.545</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="31">
@@ -2031,13 +2031,13 @@
         <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>0.695</v>
+        <v>0.643</v>
       </c>
       <c r="D31" t="n">
-        <v>0.712</v>
+        <v>0.66</v>
       </c>
       <c r="E31" t="n">
-        <v>0.669</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="32">
@@ -2048,13 +2048,13 @@
         <v>52</v>
       </c>
       <c r="C32" t="n">
-        <v>0.75</v>
+        <v>0.836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.796</v>
+        <v>0.864</v>
       </c>
       <c r="E32" t="n">
-        <v>0.72</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="33">
@@ -2065,13 +2065,13 @@
         <v>54</v>
       </c>
       <c r="C33" t="n">
-        <v>0.404</v>
+        <v>0.422</v>
       </c>
       <c r="D33" t="n">
-        <v>0.421</v>
+        <v>0.447</v>
       </c>
       <c r="E33" t="n">
-        <v>0.353</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="34">
@@ -2082,13 +2082,13 @@
         <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>0.566</v>
+        <v>0.53</v>
       </c>
       <c r="D34" t="n">
-        <v>0.59</v>
+        <v>0.556</v>
       </c>
       <c r="E34" t="n">
-        <v>0.537</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="35">
@@ -2099,13 +2099,13 @@
         <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>0.393</v>
+        <v>0.433</v>
       </c>
       <c r="D35" t="n">
-        <v>0.424</v>
+        <v>0.45</v>
       </c>
       <c r="E35" t="n">
-        <v>0.386</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="36">
@@ -2116,13 +2116,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.59</v>
+        <v>0.572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.628</v>
+        <v>0.603</v>
       </c>
       <c r="E36" t="n">
-        <v>0.57</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="37">
@@ -2133,13 +2133,13 @@
         <v>60</v>
       </c>
       <c r="C37" t="n">
-        <v>0.79</v>
+        <v>0.661</v>
       </c>
       <c r="D37" t="n">
-        <v>0.82</v>
+        <v>0.684</v>
       </c>
       <c r="E37" t="n">
-        <v>0.742</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="38">
@@ -2150,13 +2150,13 @@
         <v>62</v>
       </c>
       <c r="C38" t="n">
-        <v>0.223</v>
+        <v>0.266</v>
       </c>
       <c r="D38" t="n">
-        <v>0.249</v>
+        <v>0.283</v>
       </c>
       <c r="E38" t="n">
-        <v>0.194</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39">
@@ -2167,13 +2167,13 @@
         <v>64</v>
       </c>
       <c r="C39" t="n">
-        <v>0.504</v>
+        <v>0.428</v>
       </c>
       <c r="D39" t="n">
-        <v>0.503</v>
+        <v>0.442</v>
       </c>
       <c r="E39" t="n">
-        <v>0.451</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="40">
@@ -2184,13 +2184,13 @@
         <v>62</v>
       </c>
       <c r="C40" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="E40" t="n">
-        <v>0.352</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2201,13 @@
         <v>62</v>
       </c>
       <c r="C41" t="n">
-        <v>0.363</v>
+        <v>0.39</v>
       </c>
       <c r="D41" t="n">
-        <v>0.394</v>
+        <v>0.418</v>
       </c>
       <c r="E41" t="n">
-        <v>0.334</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="42">
@@ -2218,13 +2218,13 @@
         <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>0.723</v>
+        <v>0.668</v>
       </c>
       <c r="D42" t="n">
-        <v>0.754</v>
+        <v>0.687</v>
       </c>
       <c r="E42" t="n">
-        <v>0.693</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="43">
@@ -2235,13 +2235,13 @@
         <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>0.486</v>
+        <v>0.488</v>
       </c>
       <c r="D43" t="n">
-        <v>0.483</v>
+        <v>0.505</v>
       </c>
       <c r="E43" t="n">
-        <v>0.439</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="44">
@@ -2252,13 +2252,13 @@
         <v>62</v>
       </c>
       <c r="C44" t="n">
-        <v>0.621</v>
+        <v>0.703</v>
       </c>
       <c r="D44" t="n">
-        <v>0.645</v>
+        <v>0.723</v>
       </c>
       <c r="E44" t="n">
-        <v>0.597</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="45">
@@ -2269,13 +2269,13 @@
         <v>62</v>
       </c>
       <c r="C45" t="n">
-        <v>0.575</v>
+        <v>0.546</v>
       </c>
       <c r="D45" t="n">
-        <v>0.581</v>
+        <v>0.561</v>
       </c>
       <c r="E45" t="n">
-        <v>0.539</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="46">
@@ -2286,13 +2286,13 @@
         <v>62</v>
       </c>
       <c r="C46" t="n">
-        <v>0.634</v>
+        <v>0.633</v>
       </c>
       <c r="D46" t="n">
-        <v>0.675</v>
+        <v>0.652</v>
       </c>
       <c r="E46" t="n">
-        <v>0.617</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="47">
@@ -2303,13 +2303,13 @@
         <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>0.384</v>
+        <v>0.305</v>
       </c>
       <c r="D47" t="n">
-        <v>0.405</v>
+        <v>0.329</v>
       </c>
       <c r="E47" t="n">
-        <v>0.338</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="48">
@@ -2320,13 +2320,13 @@
         <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>0.57</v>
+        <v>0.548</v>
       </c>
       <c r="D48" t="n">
-        <v>0.575</v>
+        <v>0.569</v>
       </c>
       <c r="E48" t="n">
-        <v>0.525</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="49">
@@ -2337,13 +2337,13 @@
         <v>76</v>
       </c>
       <c r="C49" t="n">
-        <v>0.533</v>
+        <v>0.487</v>
       </c>
       <c r="D49" t="n">
-        <v>0.563</v>
+        <v>0.501</v>
       </c>
       <c r="E49" t="n">
-        <v>0.516</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="50">
@@ -2354,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>0.206</v>
+        <v>0.302</v>
       </c>
       <c r="D50" t="n">
-        <v>0.241</v>
+        <v>0.329</v>
       </c>
       <c r="E50" t="n">
-        <v>0.191</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="51">
@@ -2371,13 +2371,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="D51" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.134</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.094</v>
       </c>
     </row>
     <row r="52">
@@ -2388,13 +2388,13 @@
         <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>0.566</v>
+        <v>0.489</v>
       </c>
       <c r="D52" t="n">
-        <v>0.601</v>
+        <v>0.506</v>
       </c>
       <c r="E52" t="n">
-        <v>0.559</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="53">
@@ -2405,13 +2405,13 @@
         <v>37</v>
       </c>
       <c r="C53" t="n">
-        <v>0.516</v>
+        <v>0.45</v>
       </c>
       <c r="D53" t="n">
-        <v>0.516</v>
+        <v>0.471</v>
       </c>
       <c r="E53" t="n">
-        <v>0.486</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="54">
@@ -2422,13 +2422,13 @@
         <v>74</v>
       </c>
       <c r="C54" t="n">
-        <v>0.35</v>
+        <v>0.372</v>
       </c>
       <c r="D54" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="E54" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="55">
@@ -2439,13 +2439,13 @@
         <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.651</v>
+        <v>0.565</v>
       </c>
       <c r="D55" t="n">
-        <v>0.67</v>
+        <v>0.594</v>
       </c>
       <c r="E55" t="n">
-        <v>0.603</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="56">
@@ -2456,13 +2456,13 @@
         <v>85</v>
       </c>
       <c r="C56" t="n">
-        <v>0.601</v>
+        <v>0.599</v>
       </c>
       <c r="D56" t="n">
-        <v>0.613</v>
+        <v>0.615</v>
       </c>
       <c r="E56" t="n">
-        <v>0.579</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="57">
@@ -2473,13 +2473,13 @@
         <v>64</v>
       </c>
       <c r="C57" t="n">
-        <v>0.065</v>
+        <v>0.047</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09</v>
+        <v>0.062</v>
       </c>
       <c r="E57" t="n">
-        <v>0.053</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="58">
@@ -2490,13 +2490,13 @@
         <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>0.679</v>
+        <v>0.644</v>
       </c>
       <c r="D58" t="n">
-        <v>0.702</v>
+        <v>0.664</v>
       </c>
       <c r="E58" t="n">
-        <v>0.653</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="59">
@@ -2507,13 +2507,13 @@
         <v>85</v>
       </c>
       <c r="C59" t="n">
-        <v>0.338</v>
+        <v>0.207</v>
       </c>
       <c r="D59" t="n">
-        <v>0.37</v>
+        <v>0.229</v>
       </c>
       <c r="E59" t="n">
-        <v>0.315</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="60">
@@ -2524,13 +2524,13 @@
         <v>46</v>
       </c>
       <c r="C60" t="n">
-        <v>0.594</v>
+        <v>0.538</v>
       </c>
       <c r="D60" t="n">
-        <v>0.626</v>
+        <v>0.56</v>
       </c>
       <c r="E60" t="n">
-        <v>0.566</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="61">
@@ -2541,13 +2541,13 @@
         <v>91</v>
       </c>
       <c r="C61" t="n">
-        <v>0.278</v>
+        <v>0.293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.303</v>
+        <v>0.314</v>
       </c>
       <c r="E61" t="n">
-        <v>0.245</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="62">
@@ -2558,13 +2558,13 @@
         <v>24</v>
       </c>
       <c r="C62" t="n">
-        <v>0.597</v>
+        <v>0.527</v>
       </c>
       <c r="D62" t="n">
-        <v>0.616</v>
+        <v>0.56</v>
       </c>
       <c r="E62" t="n">
-        <v>0.578</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="63">
@@ -2575,13 +2575,13 @@
         <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>0.642</v>
+        <v>0.719</v>
       </c>
       <c r="D63" t="n">
-        <v>0.673</v>
+        <v>0.743</v>
       </c>
       <c r="E63" t="n">
-        <v>0.618</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="64">
@@ -2592,13 +2592,13 @@
         <v>95</v>
       </c>
       <c r="C64" t="n">
-        <v>0.582</v>
+        <v>0.565</v>
       </c>
       <c r="D64" t="n">
-        <v>0.592</v>
+        <v>0.586</v>
       </c>
       <c r="E64" t="n">
-        <v>0.562</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="65">
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>0.642</v>
+        <v>0.596</v>
       </c>
       <c r="D65" t="n">
-        <v>0.672</v>
+        <v>0.615</v>
       </c>
       <c r="E65" t="n">
-        <v>0.619</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="66">
@@ -2626,13 +2626,13 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>0.742</v>
+        <v>0.674</v>
       </c>
       <c r="D66" t="n">
-        <v>0.801</v>
+        <v>0.694</v>
       </c>
       <c r="E66" t="n">
-        <v>0.717</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="67">
@@ -2643,13 +2643,13 @@
         <v>54</v>
       </c>
       <c r="C67" t="n">
-        <v>0.43</v>
+        <v>0.305</v>
       </c>
       <c r="D67" t="n">
-        <v>0.465</v>
+        <v>0.331</v>
       </c>
       <c r="E67" t="n">
-        <v>0.412</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="68">
@@ -2660,13 +2660,13 @@
         <v>80</v>
       </c>
       <c r="C68" t="n">
-        <v>0.628</v>
+        <v>0.64</v>
       </c>
       <c r="D68" t="n">
-        <v>0.665</v>
+        <v>0.663</v>
       </c>
       <c r="E68" t="n">
-        <v>0.61</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="69">
@@ -2677,13 +2677,13 @@
         <v>42</v>
       </c>
       <c r="C69" t="n">
-        <v>0.308</v>
+        <v>0.359</v>
       </c>
       <c r="D69" t="n">
-        <v>0.332</v>
+        <v>0.385</v>
       </c>
       <c r="E69" t="n">
-        <v>0.273</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="70">
@@ -2694,13 +2694,13 @@
         <v>54</v>
       </c>
       <c r="C70" t="n">
-        <v>0.339</v>
+        <v>0.346</v>
       </c>
       <c r="D70" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="E70" t="n">
-        <v>0.298</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="71">
@@ -2711,13 +2711,13 @@
         <v>60</v>
       </c>
       <c r="C71" t="n">
-        <v>0.696</v>
+        <v>0.748</v>
       </c>
       <c r="D71" t="n">
-        <v>0.715</v>
+        <v>0.783</v>
       </c>
       <c r="E71" t="n">
-        <v>0.652</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="72">
@@ -2728,13 +2728,13 @@
         <v>54</v>
       </c>
       <c r="C72" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D72" t="n">
-        <v>0.559</v>
+        <v>0.523</v>
       </c>
       <c r="E72" t="n">
-        <v>0.486</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="73">
@@ -2745,13 +2745,13 @@
         <v>105</v>
       </c>
       <c r="C73" t="n">
-        <v>0.597</v>
+        <v>0.645</v>
       </c>
       <c r="D73" t="n">
-        <v>0.613</v>
+        <v>0.667</v>
       </c>
       <c r="E73" t="n">
-        <v>0.554</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="74">
@@ -2762,13 +2762,13 @@
         <v>105</v>
       </c>
       <c r="C74" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D74" t="n">
-        <v>0.939</v>
+        <v>0.929</v>
       </c>
       <c r="E74" t="n">
-        <v>0.89</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="75">
@@ -2779,13 +2779,13 @@
         <v>42</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172</v>
+        <v>0.245</v>
       </c>
       <c r="D75" t="n">
-        <v>0.204</v>
+        <v>0.264</v>
       </c>
       <c r="E75" t="n">
-        <v>0.159</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="76">
@@ -2796,13 +2796,13 @@
         <v>95</v>
       </c>
       <c r="C76" t="n">
-        <v>0.626</v>
+        <v>0.625</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66</v>
+        <v>0.647</v>
       </c>
       <c r="E76" t="n">
-        <v>0.609</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="77">
@@ -2813,13 +2813,13 @@
         <v>110</v>
       </c>
       <c r="C77" t="n">
-        <v>0.339</v>
+        <v>0.319</v>
       </c>
       <c r="D77" t="n">
-        <v>0.376</v>
+        <v>0.338</v>
       </c>
       <c r="E77" t="n">
-        <v>0.331</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="78">
@@ -2830,13 +2830,13 @@
         <v>60</v>
       </c>
       <c r="C78" t="n">
-        <v>0.652</v>
+        <v>0.446</v>
       </c>
       <c r="D78" t="n">
-        <v>0.691</v>
+        <v>0.472</v>
       </c>
       <c r="E78" t="n">
-        <v>0.636</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="79">
@@ -2847,13 +2847,13 @@
         <v>91</v>
       </c>
       <c r="C79" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
       <c r="D79" t="n">
-        <v>0.343</v>
+        <v>0.309</v>
       </c>
       <c r="E79" t="n">
-        <v>0.269</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="80">
@@ -2864,13 +2864,13 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>0.623</v>
+        <v>0.526</v>
       </c>
       <c r="D80" t="n">
-        <v>0.629</v>
+        <v>0.544</v>
       </c>
       <c r="E80" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="81">
@@ -2881,13 +2881,13 @@
         <v>95</v>
       </c>
       <c r="C81" t="n">
-        <v>0.512</v>
+        <v>0.46</v>
       </c>
       <c r="D81" t="n">
-        <v>0.52</v>
+        <v>0.475</v>
       </c>
       <c r="E81" t="n">
-        <v>0.487</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="82">
@@ -2898,13 +2898,13 @@
         <v>46</v>
       </c>
       <c r="C82" t="n">
-        <v>0.909</v>
+        <v>0.879</v>
       </c>
       <c r="D82" t="n">
-        <v>0.935</v>
+        <v>0.9</v>
       </c>
       <c r="E82" t="n">
-        <v>0.89</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="83">
@@ -2915,13 +2915,13 @@
         <v>105</v>
       </c>
       <c r="C83" t="n">
-        <v>0.715</v>
+        <v>0.645</v>
       </c>
       <c r="D83" t="n">
-        <v>0.751</v>
+        <v>0.661</v>
       </c>
       <c r="E83" t="n">
-        <v>0.697</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="84">
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="C84" t="n">
-        <v>0.439</v>
+        <v>0.415</v>
       </c>
       <c r="D84" t="n">
-        <v>0.473</v>
+        <v>0.43</v>
       </c>
       <c r="E84" t="n">
-        <v>0.428</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85">
@@ -2949,13 +2949,13 @@
         <v>85</v>
       </c>
       <c r="C85" t="n">
-        <v>0.745</v>
+        <v>0.763</v>
       </c>
       <c r="D85" t="n">
-        <v>0.772</v>
+        <v>0.781</v>
       </c>
       <c r="E85" t="n">
-        <v>0.73</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="86">
@@ -2966,13 +2966,13 @@
         <v>35</v>
       </c>
       <c r="C86" t="n">
-        <v>0.667</v>
+        <v>0.622</v>
       </c>
       <c r="D86" t="n">
-        <v>0.683</v>
+        <v>0.645</v>
       </c>
       <c r="E86" t="n">
-        <v>0.626</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="87">
@@ -2983,13 +2983,13 @@
         <v>35</v>
       </c>
       <c r="C87" t="n">
-        <v>0.295</v>
+        <v>0.395</v>
       </c>
       <c r="D87" t="n">
-        <v>0.332</v>
+        <v>0.427</v>
       </c>
       <c r="E87" t="n">
-        <v>0.273</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="88">
@@ -3000,13 +3000,13 @@
         <v>37</v>
       </c>
       <c r="C88" t="n">
-        <v>0.363</v>
+        <v>0.403</v>
       </c>
       <c r="D88" t="n">
-        <v>0.376</v>
+        <v>0.421</v>
       </c>
       <c r="E88" t="n">
-        <v>0.328</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="89">
@@ -3017,13 +3017,13 @@
         <v>123</v>
       </c>
       <c r="C89" t="n">
-        <v>0.563</v>
+        <v>0.643</v>
       </c>
       <c r="D89" t="n">
-        <v>0.584</v>
+        <v>0.665</v>
       </c>
       <c r="E89" t="n">
-        <v>0.543</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="90">
@@ -3034,13 +3034,13 @@
         <v>95</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324</v>
+        <v>0.351</v>
       </c>
       <c r="D90" t="n">
-        <v>0.339</v>
+        <v>0.365</v>
       </c>
       <c r="E90" t="n">
-        <v>0.266</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="91">
@@ -3051,13 +3051,13 @@
         <v>50</v>
       </c>
       <c r="C91" t="n">
-        <v>0.359</v>
+        <v>0.306</v>
       </c>
       <c r="D91" t="n">
-        <v>0.384</v>
+        <v>0.321</v>
       </c>
       <c r="E91" t="n">
-        <v>0.347</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="92">
@@ -3068,13 +3068,13 @@
         <v>76</v>
       </c>
       <c r="C92" t="n">
-        <v>0.464</v>
+        <v>0.388</v>
       </c>
       <c r="D92" t="n">
-        <v>0.484</v>
+        <v>0.414</v>
       </c>
       <c r="E92" t="n">
-        <v>0.423</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="93">
@@ -3085,13 +3085,13 @@
         <v>56</v>
       </c>
       <c r="C93" t="n">
-        <v>0.343</v>
+        <v>0.438</v>
       </c>
       <c r="D93" t="n">
-        <v>0.372</v>
+        <v>0.457</v>
       </c>
       <c r="E93" t="n">
-        <v>0.325</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="94">
@@ -3102,13 +3102,13 @@
         <v>42</v>
       </c>
       <c r="C94" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="D94" t="n">
-        <v>0.326</v>
+        <v>0.393</v>
       </c>
       <c r="E94" t="n">
-        <v>0.264</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="95">
@@ -3119,13 +3119,13 @@
         <v>14</v>
       </c>
       <c r="C95" t="n">
-        <v>0.557</v>
+        <v>0.495</v>
       </c>
       <c r="D95" t="n">
-        <v>0.568</v>
+        <v>0.509</v>
       </c>
       <c r="E95" t="n">
-        <v>0.532</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="96">
@@ -3136,13 +3136,13 @@
         <v>131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.345</v>
+        <v>0.36</v>
       </c>
       <c r="D96" t="n">
-        <v>0.345</v>
+        <v>0.376</v>
       </c>
       <c r="E96" t="n">
-        <v>0.298</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="97">
@@ -3153,13 +3153,13 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.672</v>
+        <v>0.58</v>
       </c>
       <c r="D97" t="n">
-        <v>0.695</v>
+        <v>0.598</v>
       </c>
       <c r="E97" t="n">
-        <v>0.644</v>
+        <v>0.563</v>
       </c>
     </row>
     <row r="98">
@@ -3170,13 +3170,13 @@
         <v>46</v>
       </c>
       <c r="C98" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="D98" t="n">
         <v>0.82</v>
       </c>
-      <c r="D98" t="n">
-        <v>0.847</v>
-      </c>
       <c r="E98" t="n">
-        <v>0.776</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="99">
@@ -3187,13 +3187,13 @@
         <v>17</v>
       </c>
       <c r="C99" t="n">
-        <v>0.668</v>
+        <v>0.647</v>
       </c>
       <c r="D99" t="n">
-        <v>0.711</v>
+        <v>0.669</v>
       </c>
       <c r="E99" t="n">
-        <v>0.652</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="100">
@@ -3204,13 +3204,13 @@
         <v>105</v>
       </c>
       <c r="C100" t="n">
-        <v>0.454</v>
+        <v>0.375</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5</v>
+        <v>0.403</v>
       </c>
       <c r="E100" t="n">
-        <v>0.422</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="101">
@@ -3221,13 +3221,13 @@
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>0.478</v>
+        <v>0.454</v>
       </c>
       <c r="D101" t="n">
-        <v>0.506</v>
+        <v>0.47</v>
       </c>
       <c r="E101" t="n">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="102">
@@ -3241,10 +3241,10 @@
         <v>0.752</v>
       </c>
       <c r="D102" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="E102" t="n">
-        <v>0.715</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="103">
@@ -3255,13 +3255,13 @@
         <v>74</v>
       </c>
       <c r="C103" t="n">
-        <v>0.377</v>
+        <v>0.553</v>
       </c>
       <c r="D103" t="n">
-        <v>0.416</v>
+        <v>0.567</v>
       </c>
       <c r="E103" t="n">
-        <v>0.374</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="104">
@@ -3272,13 +3272,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="n">
-        <v>0.58</v>
+        <v>0.476</v>
       </c>
       <c r="D104" t="n">
-        <v>0.589</v>
+        <v>0.489</v>
       </c>
       <c r="E104" t="n">
-        <v>0.547</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="105">
@@ -3289,13 +3289,13 @@
         <v>105</v>
       </c>
       <c r="C105" t="n">
-        <v>0.496</v>
+        <v>0.384</v>
       </c>
       <c r="D105" t="n">
-        <v>0.524</v>
+        <v>0.399</v>
       </c>
       <c r="E105" t="n">
-        <v>0.48</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="106">
@@ -3306,13 +3306,13 @@
         <v>60</v>
       </c>
       <c r="C106" t="n">
-        <v>0.626</v>
+        <v>0.514</v>
       </c>
       <c r="D106" t="n">
-        <v>0.669</v>
+        <v>0.538</v>
       </c>
       <c r="E106" t="n">
-        <v>0.606</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="107">
@@ -3323,13 +3323,13 @@
         <v>24</v>
       </c>
       <c r="C107" t="n">
-        <v>0.524</v>
+        <v>0.574</v>
       </c>
       <c r="D107" t="n">
-        <v>0.576</v>
+        <v>0.588</v>
       </c>
       <c r="E107" t="n">
-        <v>0.53</v>
+        <v>0.562</v>
       </c>
     </row>
     <row r="108">
@@ -3340,13 +3340,13 @@
         <v>24</v>
       </c>
       <c r="C108" t="n">
-        <v>0.665</v>
+        <v>0.623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.674</v>
+        <v>0.646</v>
       </c>
       <c r="E108" t="n">
-        <v>0.626</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="109">
@@ -3357,13 +3357,13 @@
         <v>46</v>
       </c>
       <c r="C109" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="D109" t="n">
-        <v>0.546</v>
+        <v>0.559</v>
       </c>
       <c r="E109" t="n">
-        <v>0.467</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="110">
@@ -3374,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>0.603</v>
+        <v>0.488</v>
       </c>
       <c r="D110" t="n">
-        <v>0.62</v>
+        <v>0.516</v>
       </c>
       <c r="E110" t="n">
-        <v>0.558</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="111">
@@ -3394,10 +3394,10 @@
         <v>0.952</v>
       </c>
       <c r="D111" t="n">
-        <v>0.966</v>
+        <v>0.964</v>
       </c>
       <c r="E111" t="n">
-        <v>0.932</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="112">
@@ -3408,13 +3408,13 @@
         <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.42</v>
+        <v>0.506</v>
       </c>
       <c r="D112" t="n">
-        <v>0.447</v>
+        <v>0.527</v>
       </c>
       <c r="E112" t="n">
-        <v>0.373</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="113">
@@ -3425,13 +3425,13 @@
         <v>64</v>
       </c>
       <c r="C113" t="n">
-        <v>0.484</v>
+        <v>0.474</v>
       </c>
       <c r="D113" t="n">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="E113" t="n">
-        <v>0.458</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="114">
@@ -3442,13 +3442,13 @@
         <v>91</v>
       </c>
       <c r="C114" t="n">
-        <v>0.46</v>
+        <v>0.505</v>
       </c>
       <c r="D114" t="n">
-        <v>0.511</v>
+        <v>0.534</v>
       </c>
       <c r="E114" t="n">
-        <v>0.437</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="115">
@@ -3459,13 +3459,13 @@
         <v>74</v>
       </c>
       <c r="C115" t="n">
-        <v>0.347</v>
+        <v>0.394</v>
       </c>
       <c r="D115" t="n">
-        <v>0.376</v>
+        <v>0.422</v>
       </c>
       <c r="E115" t="n">
-        <v>0.309</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="116">
@@ -3476,13 +3476,13 @@
         <v>19</v>
       </c>
       <c r="C116" t="n">
-        <v>0.432</v>
+        <v>0.502</v>
       </c>
       <c r="D116" t="n">
-        <v>0.466</v>
+        <v>0.52</v>
       </c>
       <c r="E116" t="n">
-        <v>0.418</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="117">
@@ -3493,13 +3493,13 @@
         <v>54</v>
       </c>
       <c r="C117" t="n">
-        <v>0.661</v>
+        <v>0.652</v>
       </c>
       <c r="D117" t="n">
-        <v>0.689</v>
+        <v>0.668</v>
       </c>
       <c r="E117" t="n">
-        <v>0.621</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="118">
@@ -3510,13 +3510,13 @@
         <v>62</v>
       </c>
       <c r="C118" t="n">
-        <v>0.568</v>
+        <v>0.538</v>
       </c>
       <c r="D118" t="n">
-        <v>0.597</v>
+        <v>0.553</v>
       </c>
       <c r="E118" t="n">
-        <v>0.559</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="119">
@@ -3527,13 +3527,13 @@
         <v>74</v>
       </c>
       <c r="C119" t="n">
-        <v>0.185</v>
+        <v>0.244</v>
       </c>
       <c r="D119" t="n">
-        <v>0.215</v>
+        <v>0.261</v>
       </c>
       <c r="E119" t="n">
-        <v>0.171</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="120">
@@ -3544,13 +3544,13 @@
         <v>95</v>
       </c>
       <c r="C120" t="n">
-        <v>0.634</v>
+        <v>0.699</v>
       </c>
       <c r="D120" t="n">
-        <v>0.658</v>
+        <v>0.719</v>
       </c>
       <c r="E120" t="n">
-        <v>0.609</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="121">
@@ -3561,13 +3561,13 @@
         <v>22</v>
       </c>
       <c r="C121" t="n">
-        <v>0.268</v>
+        <v>0.197</v>
       </c>
       <c r="D121" t="n">
-        <v>0.297</v>
+        <v>0.218</v>
       </c>
       <c r="E121" t="n">
-        <v>0.246</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="122">
@@ -3578,13 +3578,13 @@
         <v>6</v>
       </c>
       <c r="C122" t="n">
-        <v>0.142</v>
+        <v>0.202</v>
       </c>
       <c r="D122" t="n">
-        <v>0.178</v>
+        <v>0.227</v>
       </c>
       <c r="E122" t="n">
-        <v>0.116</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="123">
@@ -3595,13 +3595,13 @@
         <v>80</v>
       </c>
       <c r="C123" t="n">
-        <v>0.775</v>
+        <v>0.791</v>
       </c>
       <c r="D123" t="n">
-        <v>0.811</v>
+        <v>0.824</v>
       </c>
       <c r="E123" t="n">
-        <v>0.731</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="124">
@@ -3612,13 +3612,13 @@
         <v>42</v>
       </c>
       <c r="C124" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.163</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.146</v>
       </c>
     </row>
     <row r="125">
@@ -3629,13 +3629,13 @@
         <v>123</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4</v>
+        <v>0.338</v>
       </c>
       <c r="D125" t="n">
-        <v>0.431</v>
+        <v>0.362</v>
       </c>
       <c r="E125" t="n">
-        <v>0.358</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="126">
@@ -3646,13 +3646,13 @@
         <v>123</v>
       </c>
       <c r="C126" t="n">
-        <v>0.399</v>
+        <v>0.27</v>
       </c>
       <c r="D126" t="n">
-        <v>0.444</v>
+        <v>0.29</v>
       </c>
       <c r="E126" t="n">
-        <v>0.377</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="127">
@@ -3663,13 +3663,13 @@
         <v>91</v>
       </c>
       <c r="C127" t="n">
-        <v>0.45</v>
+        <v>0.537</v>
       </c>
       <c r="D127" t="n">
-        <v>0.459</v>
+        <v>0.561</v>
       </c>
       <c r="E127" t="n">
-        <v>0.426</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="128">
@@ -3680,13 +3680,13 @@
         <v>50</v>
       </c>
       <c r="C128" t="n">
-        <v>0.418</v>
+        <v>0.377</v>
       </c>
       <c r="D128" t="n">
-        <v>0.406</v>
+        <v>0.39</v>
       </c>
       <c r="E128" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="129">
@@ -3697,13 +3697,13 @@
         <v>165</v>
       </c>
       <c r="C129" t="n">
-        <v>0.783</v>
+        <v>0.684</v>
       </c>
       <c r="D129" t="n">
-        <v>0.814</v>
+        <v>0.72</v>
       </c>
       <c r="E129" t="n">
-        <v>0.73</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="130">
@@ -3714,13 +3714,13 @@
         <v>6</v>
       </c>
       <c r="C130" t="n">
-        <v>0.199</v>
+        <v>0.239</v>
       </c>
       <c r="D130" t="n">
-        <v>0.226</v>
+        <v>0.257</v>
       </c>
       <c r="E130" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="131">
@@ -3731,13 +3731,13 @@
         <v>50</v>
       </c>
       <c r="C131" t="n">
-        <v>0.577</v>
+        <v>0.552</v>
       </c>
       <c r="D131" t="n">
-        <v>0.599</v>
+        <v>0.573</v>
       </c>
       <c r="E131" t="n">
-        <v>0.537</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="132">
@@ -3748,13 +3748,13 @@
         <v>165</v>
       </c>
       <c r="C132" t="n">
-        <v>0.704</v>
+        <v>0.587</v>
       </c>
       <c r="D132" t="n">
-        <v>0.743</v>
+        <v>0.61</v>
       </c>
       <c r="E132" t="n">
-        <v>0.676</v>
+        <v>0.565</v>
       </c>
     </row>
     <row r="133">
@@ -3765,13 +3765,13 @@
         <v>76</v>
       </c>
       <c r="C133" t="n">
-        <v>0.396</v>
+        <v>0.501</v>
       </c>
       <c r="D133" t="n">
-        <v>0.451</v>
+        <v>0.529</v>
       </c>
       <c r="E133" t="n">
-        <v>0.361</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="134">
@@ -3782,13 +3782,13 @@
         <v>39</v>
       </c>
       <c r="C134" t="n">
-        <v>0.63</v>
+        <v>0.454</v>
       </c>
       <c r="D134" t="n">
-        <v>0.644</v>
+        <v>0.48</v>
       </c>
       <c r="E134" t="n">
-        <v>0.589</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="135">
@@ -3799,13 +3799,13 @@
         <v>165</v>
       </c>
       <c r="C135" t="n">
-        <v>0.774</v>
+        <v>0.69</v>
       </c>
       <c r="D135" t="n">
-        <v>0.818</v>
+        <v>0.726</v>
       </c>
       <c r="E135" t="n">
-        <v>0.738</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="136">
@@ -3816,13 +3816,13 @@
         <v>110</v>
       </c>
       <c r="C136" t="n">
-        <v>0.402</v>
+        <v>0.413</v>
       </c>
       <c r="D136" t="n">
-        <v>0.433</v>
+        <v>0.427</v>
       </c>
       <c r="E136" t="n">
-        <v>0.386</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="137">
@@ -3833,13 +3833,13 @@
         <v>91</v>
       </c>
       <c r="C137" t="n">
-        <v>0.28</v>
+        <v>0.231</v>
       </c>
       <c r="D137" t="n">
-        <v>0.296</v>
+        <v>0.252</v>
       </c>
       <c r="E137" t="n">
-        <v>0.248</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="138">
@@ -3850,13 +3850,13 @@
         <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>0.26</v>
+        <v>0.459</v>
       </c>
       <c r="D138" t="n">
-        <v>0.285</v>
+        <v>0.478</v>
       </c>
       <c r="E138" t="n">
-        <v>0.23</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="139">
@@ -3867,13 +3867,13 @@
         <v>35</v>
       </c>
       <c r="C139" t="n">
-        <v>0.503</v>
+        <v>0.497</v>
       </c>
       <c r="D139" t="n">
-        <v>0.519</v>
+        <v>0.514</v>
       </c>
       <c r="E139" t="n">
-        <v>0.475</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="140">
@@ -3884,13 +3884,13 @@
         <v>131</v>
       </c>
       <c r="C140" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="E140" t="n">
         <v>0.495</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.464</v>
       </c>
     </row>
     <row r="141">
@@ -3901,13 +3901,13 @@
         <v>95</v>
       </c>
       <c r="C141" t="n">
-        <v>0.397</v>
+        <v>0.345</v>
       </c>
       <c r="D141" t="n">
-        <v>0.418</v>
+        <v>0.361</v>
       </c>
       <c r="E141" t="n">
-        <v>0.381</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="142">
@@ -3918,13 +3918,13 @@
         <v>39</v>
       </c>
       <c r="C142" t="n">
-        <v>0.535</v>
+        <v>0.443</v>
       </c>
       <c r="D142" t="n">
-        <v>0.57</v>
+        <v>0.469</v>
       </c>
       <c r="E142" t="n">
-        <v>0.505</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="143">
@@ -3935,13 +3935,13 @@
         <v>39</v>
       </c>
       <c r="C143" t="n">
-        <v>0.865</v>
+        <v>0.855</v>
       </c>
       <c r="D143" t="n">
-        <v>0.896</v>
+        <v>0.879</v>
       </c>
       <c r="E143" t="n">
-        <v>0.831</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="144">
@@ -3952,13 +3952,13 @@
         <v>131</v>
       </c>
       <c r="C144" t="n">
-        <v>0.122</v>
+        <v>0.078</v>
       </c>
       <c r="D144" t="n">
-        <v>0.143</v>
+        <v>0.095</v>
       </c>
       <c r="E144" t="n">
-        <v>0.095</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="145">
@@ -3969,13 +3969,13 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>0.679</v>
+        <v>0.641</v>
       </c>
       <c r="D145" t="n">
-        <v>0.721</v>
+        <v>0.657</v>
       </c>
       <c r="E145" t="n">
-        <v>0.677</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="146">
@@ -3986,13 +3986,13 @@
         <v>17</v>
       </c>
       <c r="C146" t="n">
-        <v>0.809</v>
+        <v>0.765</v>
       </c>
       <c r="D146" t="n">
-        <v>0.84</v>
+        <v>0.795</v>
       </c>
       <c r="E146" t="n">
-        <v>0.761</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="147">
@@ -4003,13 +4003,13 @@
         <v>105</v>
       </c>
       <c r="C147" t="n">
-        <v>0.486</v>
+        <v>0.444</v>
       </c>
       <c r="D147" t="n">
-        <v>0.512</v>
+        <v>0.462</v>
       </c>
       <c r="E147" t="n">
-        <v>0.471</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="148">
@@ -4020,13 +4020,13 @@
         <v>22</v>
       </c>
       <c r="C148" t="n">
-        <v>0.576</v>
+        <v>0.571</v>
       </c>
       <c r="D148" t="n">
-        <v>0.619</v>
+        <v>0.594</v>
       </c>
       <c r="E148" t="n">
-        <v>0.553</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="149">
@@ -4037,13 +4037,13 @@
         <v>6</v>
       </c>
       <c r="C149" t="n">
-        <v>0.491</v>
+        <v>0.5</v>
       </c>
       <c r="D149" t="n">
-        <v>0.532</v>
+        <v>0.515</v>
       </c>
       <c r="E149" t="n">
-        <v>0.468</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="150">
@@ -4054,13 +4054,13 @@
         <v>22</v>
       </c>
       <c r="C150" t="n">
-        <v>0.361</v>
+        <v>0.354</v>
       </c>
       <c r="D150" t="n">
-        <v>0.395</v>
+        <v>0.375</v>
       </c>
       <c r="E150" t="n">
-        <v>0.345</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="151">
@@ -4071,13 +4071,13 @@
         <v>131</v>
       </c>
       <c r="C151" t="n">
-        <v>0.809</v>
+        <v>0.839</v>
       </c>
       <c r="D151" t="n">
-        <v>0.839</v>
+        <v>0.863</v>
       </c>
       <c r="E151" t="n">
-        <v>0.787</v>
+        <v>0.816</v>
       </c>
     </row>
     <row r="152">
@@ -4088,13 +4088,13 @@
         <v>131</v>
       </c>
       <c r="C152" t="n">
-        <v>0.407</v>
+        <v>0.484</v>
       </c>
       <c r="D152" t="n">
-        <v>0.427</v>
+        <v>0.501</v>
       </c>
       <c r="E152" t="n">
-        <v>0.389</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="153">
@@ -4105,13 +4105,13 @@
         <v>62</v>
       </c>
       <c r="C153" t="n">
-        <v>0.27</v>
+        <v>0.264</v>
       </c>
       <c r="D153" t="n">
-        <v>0.303</v>
+        <v>0.286</v>
       </c>
       <c r="E153" t="n">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="154">
@@ -4122,13 +4122,13 @@
         <v>56</v>
       </c>
       <c r="C154" t="n">
-        <v>0.502</v>
+        <v>0.488</v>
       </c>
       <c r="D154" t="n">
-        <v>0.547</v>
+        <v>0.508</v>
       </c>
       <c r="E154" t="n">
-        <v>0.492</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="155">
@@ -4139,13 +4139,13 @@
         <v>74</v>
       </c>
       <c r="C155" t="n">
-        <v>0.403</v>
+        <v>0.447</v>
       </c>
       <c r="D155" t="n">
-        <v>0.435</v>
+        <v>0.474</v>
       </c>
       <c r="E155" t="n">
-        <v>0.364</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="156">
@@ -4156,13 +4156,13 @@
         <v>24</v>
       </c>
       <c r="C156" t="n">
-        <v>0.347</v>
+        <v>0.401</v>
       </c>
       <c r="D156" t="n">
-        <v>0.38</v>
+        <v>0.418</v>
       </c>
       <c r="E156" t="n">
-        <v>0.337</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="157">
@@ -4173,13 +4173,13 @@
         <v>24</v>
       </c>
       <c r="C157" t="n">
-        <v>0.354</v>
+        <v>0.336</v>
       </c>
       <c r="D157" t="n">
-        <v>0.387</v>
+        <v>0.358</v>
       </c>
       <c r="E157" t="n">
-        <v>0.33</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="158">
@@ -4190,13 +4190,13 @@
         <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="D158" t="n">
-        <v>0.796</v>
+        <v>0.722</v>
       </c>
       <c r="E158" t="n">
-        <v>0.737</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="159">
@@ -4207,13 +4207,13 @@
         <v>14</v>
       </c>
       <c r="C159" t="n">
-        <v>0.791</v>
+        <v>0.75</v>
       </c>
       <c r="D159" t="n">
-        <v>0.806</v>
+        <v>0.768</v>
       </c>
       <c r="E159" t="n">
-        <v>0.761</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="160">
@@ -4224,13 +4224,13 @@
         <v>46</v>
       </c>
       <c r="C160" t="n">
-        <v>0.822</v>
+        <v>0.802</v>
       </c>
       <c r="D160" t="n">
-        <v>0.851</v>
+        <v>0.83</v>
       </c>
       <c r="E160" t="n">
-        <v>0.78</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="161">
@@ -4241,13 +4241,13 @@
         <v>50</v>
       </c>
       <c r="C161" t="n">
-        <v>0.773</v>
+        <v>0.68</v>
       </c>
       <c r="D161" t="n">
-        <v>0.804</v>
+        <v>0.706</v>
       </c>
       <c r="E161" t="n">
-        <v>0.731</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="162">
@@ -4258,13 +4258,13 @@
         <v>52</v>
       </c>
       <c r="C162" t="n">
-        <v>0.469</v>
+        <v>0.387</v>
       </c>
       <c r="D162" t="n">
-        <v>0.491</v>
+        <v>0.416</v>
       </c>
       <c r="E162" t="n">
-        <v>0.432</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="163">
@@ -4275,13 +4275,13 @@
         <v>22</v>
       </c>
       <c r="C163" t="n">
-        <v>0.494</v>
+        <v>0.501</v>
       </c>
       <c r="D163" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="E163" t="n">
-        <v>0.467</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="164">
@@ -4292,13 +4292,13 @@
         <v>19</v>
       </c>
       <c r="C164" t="n">
-        <v>0.255</v>
+        <v>0.301</v>
       </c>
       <c r="D164" t="n">
-        <v>0.308</v>
+        <v>0.319</v>
       </c>
       <c r="E164" t="n">
-        <v>0.269</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="165">
@@ -4309,13 +4309,13 @@
         <v>76</v>
       </c>
       <c r="C165" t="n">
-        <v>0.489</v>
+        <v>0.449</v>
       </c>
       <c r="D165" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="E165" t="n">
-        <v>0.437</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="166">
@@ -4326,13 +4326,13 @@
         <v>76</v>
       </c>
       <c r="C166" t="n">
-        <v>0.326</v>
+        <v>0.373</v>
       </c>
       <c r="D166" t="n">
-        <v>0.366</v>
+        <v>0.404</v>
       </c>
       <c r="E166" t="n">
-        <v>0.29</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="167">
@@ -4343,13 +4343,13 @@
         <v>60</v>
       </c>
       <c r="C167" t="n">
-        <v>0.667</v>
+        <v>0.64</v>
       </c>
       <c r="D167" t="n">
-        <v>0.724</v>
+        <v>0.663</v>
       </c>
       <c r="E167" t="n">
-        <v>0.648</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="168">
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C168" t="n">
-        <v>0.562</v>
+        <v>0.566</v>
       </c>
       <c r="D168" t="n">
-        <v>0.615</v>
+        <v>0.588</v>
       </c>
       <c r="E168" t="n">
-        <v>0.556</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="169">
@@ -4377,13 +4377,13 @@
         <v>19</v>
       </c>
       <c r="C169" t="n">
-        <v>0.385</v>
+        <v>0.443</v>
       </c>
       <c r="D169" t="n">
-        <v>0.395</v>
+        <v>0.457</v>
       </c>
       <c r="E169" t="n">
-        <v>0.354</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="170">
@@ -4394,13 +4394,13 @@
         <v>42</v>
       </c>
       <c r="C170" t="n">
-        <v>0.091</v>
+        <v>0.135</v>
       </c>
       <c r="D170" t="n">
-        <v>0.115</v>
+        <v>0.155</v>
       </c>
       <c r="E170" t="n">
-        <v>0.073</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="171">
@@ -4411,13 +4411,13 @@
         <v>165</v>
       </c>
       <c r="C171" t="n">
-        <v>0.743</v>
+        <v>0.703</v>
       </c>
       <c r="D171" t="n">
-        <v>0.794</v>
+        <v>0.74</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="172">
@@ -4428,13 +4428,13 @@
         <v>19</v>
       </c>
       <c r="C172" t="n">
-        <v>0.533</v>
+        <v>0.476</v>
       </c>
       <c r="D172" t="n">
-        <v>0.549</v>
+        <v>0.494</v>
       </c>
       <c r="E172" t="n">
-        <v>0.499</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="173">
@@ -4445,13 +4445,13 @@
         <v>105</v>
       </c>
       <c r="C173" t="n">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="D173" t="n">
-        <v>0.452</v>
+        <v>0.437</v>
       </c>
       <c r="E173" t="n">
-        <v>0.405</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="174">
@@ -4462,13 +4462,13 @@
         <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>0.536</v>
+        <v>0.548</v>
       </c>
       <c r="D174" t="n">
-        <v>0.581</v>
+        <v>0.583</v>
       </c>
       <c r="E174" t="n">
-        <v>0.482</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="175">
@@ -4479,13 +4479,13 @@
         <v>80</v>
       </c>
       <c r="C175" t="n">
-        <v>0.81</v>
+        <v>0.699</v>
       </c>
       <c r="D175" t="n">
-        <v>0.842</v>
+        <v>0.725</v>
       </c>
       <c r="E175" t="n">
-        <v>0.765</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="176">
@@ -4496,13 +4496,13 @@
         <v>85</v>
       </c>
       <c r="C176" t="n">
-        <v>0.486</v>
+        <v>0.528</v>
       </c>
       <c r="D176" t="n">
-        <v>0.513</v>
+        <v>0.545</v>
       </c>
       <c r="E176" t="n">
-        <v>0.476</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="177">
@@ -4513,13 +4513,13 @@
         <v>56</v>
       </c>
       <c r="C177" t="n">
-        <v>0.461</v>
+        <v>0.516</v>
       </c>
       <c r="D177" t="n">
-        <v>0.494</v>
+        <v>0.54</v>
       </c>
       <c r="E177" t="n">
-        <v>0.449</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="178">
@@ -4530,13 +4530,13 @@
         <v>46</v>
       </c>
       <c r="C178" t="n">
-        <v>0.459</v>
+        <v>0.425</v>
       </c>
       <c r="D178" t="n">
-        <v>0.486</v>
+        <v>0.451</v>
       </c>
       <c r="E178" t="n">
-        <v>0.416</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="179">
@@ -4547,13 +4547,13 @@
         <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>0.437</v>
+        <v>0.403</v>
       </c>
       <c r="D179" t="n">
-        <v>0.458</v>
+        <v>0.42</v>
       </c>
       <c r="E179" t="n">
-        <v>0.418</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="180">
@@ -4564,13 +4564,13 @@
         <v>165</v>
       </c>
       <c r="C180" t="n">
-        <v>0.832</v>
+        <v>0.812</v>
       </c>
       <c r="D180" t="n">
-        <v>0.868</v>
+        <v>0.839</v>
       </c>
       <c r="E180" t="n">
-        <v>0.802</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="181">
@@ -4581,13 +4581,13 @@
         <v>165</v>
       </c>
       <c r="C181" t="n">
-        <v>0.706</v>
+        <v>0.733</v>
       </c>
       <c r="D181" t="n">
-        <v>0.726</v>
+        <v>0.769</v>
       </c>
       <c r="E181" t="n">
-        <v>0.66</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="182">
@@ -4598,13 +4598,13 @@
         <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="D182" t="n">
-        <v>0.269</v>
+        <v>0.288</v>
       </c>
       <c r="E182" t="n">
-        <v>0.212</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="183">
@@ -4615,13 +4615,13 @@
         <v>91</v>
       </c>
       <c r="C183" t="n">
-        <v>0.474</v>
+        <v>0.43</v>
       </c>
       <c r="D183" t="n">
-        <v>0.487</v>
+        <v>0.45</v>
       </c>
       <c r="E183" t="n">
-        <v>0.431</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="184">
@@ -4632,13 +4632,13 @@
         <v>165</v>
       </c>
       <c r="C184" t="n">
-        <v>0.618</v>
+        <v>0.55</v>
       </c>
       <c r="D184" t="n">
-        <v>0.661</v>
+        <v>0.578</v>
       </c>
       <c r="E184" t="n">
-        <v>0.588</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="185">
@@ -4649,13 +4649,13 @@
         <v>17</v>
       </c>
       <c r="C185" t="n">
-        <v>0.724</v>
+        <v>0.649</v>
       </c>
       <c r="D185" t="n">
-        <v>0.741</v>
+        <v>0.672</v>
       </c>
       <c r="E185" t="n">
-        <v>0.679</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="186">
@@ -4666,13 +4666,13 @@
         <v>12</v>
       </c>
       <c r="C186" t="n">
-        <v>0.052</v>
+        <v>0.074</v>
       </c>
       <c r="D186" t="n">
-        <v>0.07</v>
+        <v>0.093</v>
       </c>
       <c r="E186" t="n">
-        <v>0.04</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="187">
@@ -4683,13 +4683,13 @@
         <v>17</v>
       </c>
       <c r="C187" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="D187" t="n">
         <v>0.535</v>
       </c>
-      <c r="D187" t="n">
-        <v>0.543</v>
-      </c>
       <c r="E187" t="n">
-        <v>0.493</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="188">
@@ -4700,13 +4700,13 @@
         <v>64</v>
       </c>
       <c r="C188" t="n">
-        <v>0.397</v>
+        <v>0.477</v>
       </c>
       <c r="D188" t="n">
-        <v>0.428</v>
+        <v>0.494</v>
       </c>
       <c r="E188" t="n">
-        <v>0.383</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="189">
@@ -4717,13 +4717,13 @@
         <v>50</v>
       </c>
       <c r="C189" t="n">
-        <v>0.555</v>
+        <v>0.593</v>
       </c>
       <c r="D189" t="n">
-        <v>0.572</v>
+        <v>0.613</v>
       </c>
       <c r="E189" t="n">
-        <v>0.543</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="190">
@@ -4734,13 +4734,13 @@
         <v>17</v>
       </c>
       <c r="C190" t="n">
-        <v>0.626</v>
+        <v>0.529</v>
       </c>
       <c r="D190" t="n">
-        <v>0.646</v>
+        <v>0.558</v>
       </c>
       <c r="E190" t="n">
-        <v>0.585</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="191">
@@ -4751,13 +4751,13 @@
         <v>76</v>
       </c>
       <c r="C191" t="n">
-        <v>0.527</v>
+        <v>0.538</v>
       </c>
       <c r="D191" t="n">
-        <v>0.522</v>
+        <v>0.561</v>
       </c>
       <c r="E191" t="n">
-        <v>0.465</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="192">
@@ -4768,13 +4768,13 @@
         <v>123</v>
       </c>
       <c r="C192" t="n">
-        <v>0.468</v>
+        <v>0.455</v>
       </c>
       <c r="D192" t="n">
-        <v>0.494</v>
+        <v>0.472</v>
       </c>
       <c r="E192" t="n">
-        <v>0.453</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="193">
@@ -4785,13 +4785,13 @@
         <v>123</v>
       </c>
       <c r="C193" t="n">
-        <v>0.531</v>
+        <v>0.601</v>
       </c>
       <c r="D193" t="n">
-        <v>0.541</v>
+        <v>0.619</v>
       </c>
       <c r="E193" t="n">
-        <v>0.497</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="194">
@@ -4802,13 +4802,13 @@
         <v>35</v>
       </c>
       <c r="C194" t="n">
-        <v>0.488</v>
+        <v>0.418</v>
       </c>
       <c r="D194" t="n">
-        <v>0.503</v>
+        <v>0.437</v>
       </c>
       <c r="E194" t="n">
-        <v>0.437</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="195">
@@ -4819,13 +4819,13 @@
         <v>42</v>
       </c>
       <c r="C195" t="n">
-        <v>0.41</v>
+        <v>0.451</v>
       </c>
       <c r="D195" t="n">
-        <v>0.443</v>
+        <v>0.482</v>
       </c>
       <c r="E195" t="n">
-        <v>0.375</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="196">
@@ -4836,13 +4836,13 @@
         <v>56</v>
       </c>
       <c r="C196" t="n">
-        <v>0.467</v>
+        <v>0.435</v>
       </c>
       <c r="D196" t="n">
-        <v>0.516</v>
+        <v>0.458</v>
       </c>
       <c r="E196" t="n">
-        <v>0.443</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="197">
@@ -4853,13 +4853,13 @@
         <v>35</v>
       </c>
       <c r="C197" t="n">
-        <v>0.769</v>
+        <v>0.763</v>
       </c>
       <c r="D197" t="n">
-        <v>0.8</v>
+        <v>0.783</v>
       </c>
       <c r="E197" t="n">
-        <v>0.739</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="198">
@@ -4870,13 +4870,13 @@
         <v>22</v>
       </c>
       <c r="C198" t="n">
-        <v>0.516</v>
+        <v>0.473</v>
       </c>
       <c r="D198" t="n">
-        <v>0.564</v>
+        <v>0.499</v>
       </c>
       <c r="E198" t="n">
-        <v>0.488</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="199">
@@ -4887,13 +4887,13 @@
         <v>110</v>
       </c>
       <c r="C199" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="D199" t="n">
-        <v>0.489</v>
+        <v>0.468</v>
       </c>
       <c r="E199" t="n">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="200">
@@ -4904,13 +4904,13 @@
         <v>165</v>
       </c>
       <c r="C200" t="n">
-        <v>0.412</v>
+        <v>0.283</v>
       </c>
       <c r="D200" t="n">
-        <v>0.46</v>
+        <v>0.314</v>
       </c>
       <c r="E200" t="n">
-        <v>0.399</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="201">
@@ -4921,13 +4921,13 @@
         <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>0.577</v>
+        <v>0.555</v>
       </c>
       <c r="D201" t="n">
-        <v>0.592</v>
+        <v>0.576</v>
       </c>
       <c r="E201" t="n">
-        <v>0.553</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="202">
@@ -4938,13 +4938,13 @@
         <v>8</v>
       </c>
       <c r="C202" t="n">
-        <v>0.605</v>
+        <v>0.635</v>
       </c>
       <c r="D202" t="n">
-        <v>0.622</v>
+        <v>0.652</v>
       </c>
       <c r="E202" t="n">
-        <v>0.557</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="203">
@@ -4955,13 +4955,13 @@
         <v>19</v>
       </c>
       <c r="C203" t="n">
-        <v>0.46</v>
+        <v>0.485</v>
       </c>
       <c r="D203" t="n">
-        <v>0.494</v>
+        <v>0.509</v>
       </c>
       <c r="E203" t="n">
-        <v>0.44</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="204">
@@ -4972,13 +4972,13 @@
         <v>64</v>
       </c>
       <c r="C204" t="n">
-        <v>0.654</v>
+        <v>0.749</v>
       </c>
       <c r="D204" t="n">
-        <v>0.683</v>
+        <v>0.768</v>
       </c>
       <c r="E204" t="n">
-        <v>0.642</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="205">
@@ -4989,13 +4989,13 @@
         <v>8</v>
       </c>
       <c r="C205" t="n">
-        <v>0.704</v>
+        <v>0.554</v>
       </c>
       <c r="D205" t="n">
-        <v>0.735</v>
+        <v>0.577</v>
       </c>
       <c r="E205" t="n">
-        <v>0.668</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="206">
@@ -5006,13 +5006,13 @@
         <v>6</v>
       </c>
       <c r="C206" t="n">
-        <v>0.263</v>
+        <v>0.308</v>
       </c>
       <c r="D206" t="n">
-        <v>0.32</v>
+        <v>0.333</v>
       </c>
       <c r="E206" t="n">
-        <v>0.252</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="207">
@@ -5023,13 +5023,13 @@
         <v>76</v>
       </c>
       <c r="C207" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="D207" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="E207" t="n">
-        <v>0.317</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="208">
@@ -5040,13 +5040,13 @@
         <v>6</v>
       </c>
       <c r="C208" t="n">
-        <v>0.549</v>
+        <v>0.605</v>
       </c>
       <c r="D208" t="n">
-        <v>0.578</v>
+        <v>0.628</v>
       </c>
       <c r="E208" t="n">
-        <v>0.527</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="209">
@@ -5057,13 +5057,13 @@
         <v>131</v>
       </c>
       <c r="C209" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="D209" t="n">
         <v>0.392</v>
       </c>
-      <c r="D209" t="n">
-        <v>0.409</v>
-      </c>
       <c r="E209" t="n">
-        <v>0.364</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="210">
@@ -5074,13 +5074,13 @@
         <v>42</v>
       </c>
       <c r="C210" t="n">
-        <v>0.453</v>
+        <v>0.583</v>
       </c>
       <c r="D210" t="n">
-        <v>0.472</v>
+        <v>0.613</v>
       </c>
       <c r="E210" t="n">
-        <v>0.425</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="211">
@@ -5091,13 +5091,13 @@
         <v>131</v>
       </c>
       <c r="C211" t="n">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
       <c r="D211" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="E211" t="n">
-        <v>0.43</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="212">
@@ -5108,13 +5108,13 @@
         <v>74</v>
       </c>
       <c r="C212" t="n">
-        <v>0.6</v>
+        <v>0.509</v>
       </c>
       <c r="D212" t="n">
-        <v>0.616</v>
+        <v>0.53</v>
       </c>
       <c r="E212" t="n">
-        <v>0.564</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="213">
@@ -5125,13 +5125,13 @@
         <v>42</v>
       </c>
       <c r="C213" t="n">
-        <v>0.381</v>
+        <v>0.485</v>
       </c>
       <c r="D213" t="n">
-        <v>0.406</v>
+        <v>0.508</v>
       </c>
       <c r="E213" t="n">
-        <v>0.354</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="214">
@@ -5142,13 +5142,13 @@
         <v>42</v>
       </c>
       <c r="C214" t="n">
-        <v>0.37</v>
+        <v>0.513</v>
       </c>
       <c r="D214" t="n">
-        <v>0.404</v>
+        <v>0.536</v>
       </c>
       <c r="E214" t="n">
-        <v>0.343</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="215">
@@ -5159,13 +5159,13 @@
         <v>85</v>
       </c>
       <c r="C215" t="n">
-        <v>0.732</v>
+        <v>0.711</v>
       </c>
       <c r="D215" t="n">
-        <v>0.751</v>
+        <v>0.736</v>
       </c>
       <c r="E215" t="n">
-        <v>0.698</v>
+        <v>0.686</v>
       </c>
     </row>
     <row r="216">
@@ -5176,13 +5176,13 @@
         <v>46</v>
       </c>
       <c r="C216" t="n">
-        <v>0.709</v>
+        <v>0.621</v>
       </c>
       <c r="D216" t="n">
-        <v>0.727</v>
+        <v>0.643</v>
       </c>
       <c r="E216" t="n">
-        <v>0.681</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="217">
@@ -5193,13 +5193,13 @@
         <v>95</v>
       </c>
       <c r="C217" t="n">
-        <v>0.301</v>
+        <v>0.299</v>
       </c>
       <c r="D217" t="n">
-        <v>0.332</v>
+        <v>0.317</v>
       </c>
       <c r="E217" t="n">
-        <v>0.28</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="218">
@@ -5210,13 +5210,13 @@
         <v>46</v>
       </c>
       <c r="C218" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="D218" t="n">
-        <v>0.495</v>
+        <v>0.487</v>
       </c>
       <c r="E218" t="n">
-        <v>0.419</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="219">
@@ -5227,13 +5227,13 @@
         <v>110</v>
       </c>
       <c r="C219" t="n">
-        <v>0.624</v>
+        <v>0.665</v>
       </c>
       <c r="D219" t="n">
-        <v>0.635</v>
+        <v>0.689</v>
       </c>
       <c r="E219" t="n">
-        <v>0.591</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="220">
@@ -5244,13 +5244,13 @@
         <v>110</v>
       </c>
       <c r="C220" t="n">
-        <v>0.399</v>
+        <v>0.407</v>
       </c>
       <c r="D220" t="n">
-        <v>0.452</v>
+        <v>0.428</v>
       </c>
       <c r="E220" t="n">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="221">
@@ -5261,13 +5261,13 @@
         <v>131</v>
       </c>
       <c r="C221" t="n">
-        <v>0.506</v>
+        <v>0.611</v>
       </c>
       <c r="D221" t="n">
-        <v>0.557</v>
+        <v>0.633</v>
       </c>
       <c r="E221" t="n">
-        <v>0.467</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="222">
@@ -5278,13 +5278,13 @@
         <v>14</v>
       </c>
       <c r="C222" t="n">
-        <v>0.7</v>
+        <v>0.682</v>
       </c>
       <c r="D222" t="n">
-        <v>0.714</v>
+        <v>0.706</v>
       </c>
       <c r="E222" t="n">
-        <v>0.658</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="223">
@@ -5295,13 +5295,13 @@
         <v>95</v>
       </c>
       <c r="C223" t="n">
-        <v>0.714</v>
+        <v>0.674</v>
       </c>
       <c r="D223" t="n">
-        <v>0.744</v>
+        <v>0.696</v>
       </c>
       <c r="E223" t="n">
-        <v>0.685</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="224">
@@ -5312,13 +5312,13 @@
         <v>123</v>
       </c>
       <c r="C224" t="n">
-        <v>0.497</v>
+        <v>0.466</v>
       </c>
       <c r="D224" t="n">
-        <v>0.502</v>
+        <v>0.488</v>
       </c>
       <c r="E224" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="225">
@@ -5329,13 +5329,13 @@
         <v>123</v>
       </c>
       <c r="C225" t="n">
-        <v>0.664</v>
+        <v>0.753</v>
       </c>
       <c r="D225" t="n">
-        <v>0.694</v>
+        <v>0.776</v>
       </c>
       <c r="E225" t="n">
-        <v>0.635</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="226">
@@ -5346,13 +5346,13 @@
         <v>37</v>
       </c>
       <c r="C226" t="n">
-        <v>0.522</v>
+        <v>0.531</v>
       </c>
       <c r="D226" t="n">
-        <v>0.543</v>
+        <v>0.55</v>
       </c>
       <c r="E226" t="n">
-        <v>0.494</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="227">
@@ -5363,13 +5363,13 @@
         <v>50</v>
       </c>
       <c r="C227" t="n">
-        <v>0.709</v>
+        <v>0.742</v>
       </c>
       <c r="D227" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="E227" t="n">
-        <v>0.702</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="228">
@@ -5380,13 +5380,13 @@
         <v>91</v>
       </c>
       <c r="C228" t="n">
-        <v>0.665</v>
+        <v>0.649</v>
       </c>
       <c r="D228" t="n">
-        <v>0.682</v>
+        <v>0.669</v>
       </c>
       <c r="E228" t="n">
-        <v>0.641</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="229">
@@ -5397,13 +5397,13 @@
         <v>6</v>
       </c>
       <c r="C229" t="n">
-        <v>0.328</v>
+        <v>0.449</v>
       </c>
       <c r="D229" t="n">
-        <v>0.356</v>
+        <v>0.469</v>
       </c>
       <c r="E229" t="n">
-        <v>0.308</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="230">
@@ -5414,13 +5414,13 @@
         <v>165</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5</v>
+        <v>0.336</v>
       </c>
       <c r="D230" t="n">
-        <v>0.508</v>
+        <v>0.365</v>
       </c>
       <c r="E230" t="n">
-        <v>0.448</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="231">
@@ -5431,13 +5431,13 @@
         <v>46</v>
       </c>
       <c r="C231" t="n">
-        <v>0.69</v>
+        <v>0.617</v>
       </c>
       <c r="D231" t="n">
-        <v>0.718</v>
+        <v>0.654</v>
       </c>
       <c r="E231" t="n">
-        <v>0.666</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="232">
@@ -5448,13 +5448,13 @@
         <v>91</v>
       </c>
       <c r="C232" t="n">
-        <v>0.396</v>
+        <v>0.449</v>
       </c>
       <c r="D232" t="n">
-        <v>0.416</v>
+        <v>0.461</v>
       </c>
       <c r="E232" t="n">
-        <v>0.38</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="233">
@@ -5465,13 +5465,13 @@
         <v>165</v>
       </c>
       <c r="C233" t="n">
-        <v>0.749</v>
+        <v>0.779</v>
       </c>
       <c r="D233" t="n">
-        <v>0.784</v>
+        <v>0.809</v>
       </c>
       <c r="E233" t="n">
-        <v>0.723</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="234">
@@ -5482,13 +5482,13 @@
         <v>10</v>
       </c>
       <c r="C234" t="n">
-        <v>0.486</v>
+        <v>0.516</v>
       </c>
       <c r="D234" t="n">
-        <v>0.51</v>
+        <v>0.528</v>
       </c>
       <c r="E234" t="n">
-        <v>0.473</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="235">
@@ -5499,13 +5499,13 @@
         <v>39</v>
       </c>
       <c r="C235" t="n">
-        <v>0.511</v>
+        <v>0.508</v>
       </c>
       <c r="D235" t="n">
-        <v>0.553</v>
+        <v>0.532</v>
       </c>
       <c r="E235" t="n">
-        <v>0.48</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="236">
@@ -5516,13 +5516,13 @@
         <v>39</v>
       </c>
       <c r="C236" t="n">
-        <v>0.552</v>
+        <v>0.537</v>
       </c>
       <c r="D236" t="n">
-        <v>0.608</v>
+        <v>0.567</v>
       </c>
       <c r="E236" t="n">
-        <v>0.545</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="237">
@@ -5533,13 +5533,13 @@
         <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>0.482</v>
+        <v>0.501</v>
       </c>
       <c r="D237" t="n">
-        <v>0.517</v>
+        <v>0.524</v>
       </c>
       <c r="E237" t="n">
-        <v>0.445</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="238">
@@ -5550,13 +5550,13 @@
         <v>110</v>
       </c>
       <c r="C238" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="D238" t="n">
-        <v>0.631</v>
+        <v>0.636</v>
       </c>
       <c r="E238" t="n">
-        <v>0.596</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="239">
@@ -5567,13 +5567,13 @@
         <v>26</v>
       </c>
       <c r="C239" t="n">
-        <v>0.716</v>
+        <v>0.597</v>
       </c>
       <c r="D239" t="n">
-        <v>0.737</v>
+        <v>0.621</v>
       </c>
       <c r="E239" t="n">
-        <v>0.685</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="240">
@@ -5584,13 +5584,13 @@
         <v>26</v>
       </c>
       <c r="C240" t="n">
-        <v>0.771</v>
+        <v>0.782</v>
       </c>
       <c r="D240" t="n">
-        <v>0.822</v>
+        <v>0.811</v>
       </c>
       <c r="E240" t="n">
-        <v>0.738</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="241">
@@ -5601,13 +5601,13 @@
         <v>52</v>
       </c>
       <c r="C241" t="n">
-        <v>0.677</v>
+        <v>0.623</v>
       </c>
       <c r="D241" t="n">
-        <v>0.693</v>
+        <v>0.639</v>
       </c>
       <c r="E241" t="n">
-        <v>0.639</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="242">
@@ -5618,13 +5618,13 @@
         <v>165</v>
       </c>
       <c r="C242" t="n">
-        <v>0.734</v>
+        <v>0.712</v>
       </c>
       <c r="D242" t="n">
-        <v>0.76</v>
+        <v>0.751</v>
       </c>
       <c r="E242" t="n">
-        <v>0.707</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="243">
@@ -5635,13 +5635,13 @@
         <v>54</v>
       </c>
       <c r="C243" t="n">
-        <v>0.495</v>
+        <v>0.561</v>
       </c>
       <c r="D243" t="n">
-        <v>0.537</v>
+        <v>0.588</v>
       </c>
       <c r="E243" t="n">
-        <v>0.459</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="244">
@@ -5652,13 +5652,13 @@
         <v>52</v>
       </c>
       <c r="C244" t="n">
-        <v>0.516</v>
+        <v>0.488</v>
       </c>
       <c r="D244" t="n">
-        <v>0.539</v>
+        <v>0.503</v>
       </c>
       <c r="E244" t="n">
-        <v>0.495</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="245">
@@ -5669,13 +5669,13 @@
         <v>46</v>
       </c>
       <c r="C245" t="n">
-        <v>0.611</v>
+        <v>0.455</v>
       </c>
       <c r="D245" t="n">
-        <v>0.64</v>
+        <v>0.477</v>
       </c>
       <c r="E245" t="n">
-        <v>0.579</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="246">
@@ -5686,13 +5686,13 @@
         <v>123</v>
       </c>
       <c r="C246" t="n">
-        <v>0.514</v>
+        <v>0.564</v>
       </c>
       <c r="D246" t="n">
-        <v>0.576</v>
+        <v>0.592</v>
       </c>
       <c r="E246" t="n">
-        <v>0.497</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="247">
@@ -5703,13 +5703,13 @@
         <v>52</v>
       </c>
       <c r="C247" t="n">
-        <v>0.413</v>
+        <v>0.287</v>
       </c>
       <c r="D247" t="n">
-        <v>0.447</v>
+        <v>0.305</v>
       </c>
       <c r="E247" t="n">
-        <v>0.411</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="248">
@@ -5720,13 +5720,13 @@
         <v>12</v>
       </c>
       <c r="C248" t="n">
-        <v>0.444</v>
+        <v>0.591</v>
       </c>
       <c r="D248" t="n">
-        <v>0.476</v>
+        <v>0.615</v>
       </c>
       <c r="E248" t="n">
-        <v>0.429</v>
+        <v>0.565</v>
       </c>
     </row>
     <row r="249">
@@ -5737,13 +5737,13 @@
         <v>74</v>
       </c>
       <c r="C249" t="n">
-        <v>0.357</v>
+        <v>0.338</v>
       </c>
       <c r="D249" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="E249" t="n">
-        <v>0.329</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="250">
@@ -5754,13 +5754,13 @@
         <v>54</v>
       </c>
       <c r="C250" t="n">
-        <v>0.454</v>
+        <v>0.549</v>
       </c>
       <c r="D250" t="n">
-        <v>0.514</v>
+        <v>0.581</v>
       </c>
       <c r="E250" t="n">
-        <v>0.42</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="251">
@@ -5771,13 +5771,13 @@
         <v>60</v>
       </c>
       <c r="C251" t="n">
-        <v>0.564</v>
+        <v>0.611</v>
       </c>
       <c r="D251" t="n">
-        <v>0.628</v>
+        <v>0.638</v>
       </c>
       <c r="E251" t="n">
-        <v>0.557</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="252">
@@ -5788,13 +5788,13 @@
         <v>165</v>
       </c>
       <c r="C252" t="n">
-        <v>0.669</v>
+        <v>0.61</v>
       </c>
       <c r="D252" t="n">
-        <v>0.695</v>
+        <v>0.637</v>
       </c>
       <c r="E252" t="n">
-        <v>0.623</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="253">
@@ -5805,13 +5805,13 @@
         <v>76</v>
       </c>
       <c r="C253" t="n">
-        <v>0.561</v>
+        <v>0.495</v>
       </c>
       <c r="D253" t="n">
-        <v>0.61</v>
+        <v>0.518</v>
       </c>
       <c r="E253" t="n">
-        <v>0.515</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="254">
@@ -5822,13 +5822,13 @@
         <v>74</v>
       </c>
       <c r="C254" t="n">
-        <v>0.529</v>
+        <v>0.634</v>
       </c>
       <c r="D254" t="n">
-        <v>0.549</v>
+        <v>0.652</v>
       </c>
       <c r="E254" t="n">
-        <v>0.52</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="255">
@@ -5839,13 +5839,13 @@
         <v>105</v>
       </c>
       <c r="C255" t="n">
-        <v>0.637</v>
+        <v>0.607</v>
       </c>
       <c r="D255" t="n">
-        <v>0.662</v>
+        <v>0.628</v>
       </c>
       <c r="E255" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="256">
@@ -5856,13 +5856,13 @@
         <v>14</v>
       </c>
       <c r="C256" t="n">
-        <v>0.383</v>
+        <v>0.459</v>
       </c>
       <c r="D256" t="n">
-        <v>0.408</v>
+        <v>0.469</v>
       </c>
       <c r="E256" t="n">
-        <v>0.35</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="257">
@@ -5873,13 +5873,13 @@
         <v>105</v>
       </c>
       <c r="C257" t="n">
-        <v>0.724</v>
+        <v>0.736</v>
       </c>
       <c r="D257" t="n">
-        <v>0.748</v>
+        <v>0.757</v>
       </c>
       <c r="E257" t="n">
-        <v>0.702</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="258">
@@ -5890,13 +5890,13 @@
         <v>76</v>
       </c>
       <c r="C258" t="n">
-        <v>0.55</v>
+        <v>0.601</v>
       </c>
       <c r="D258" t="n">
-        <v>0.588</v>
+        <v>0.619</v>
       </c>
       <c r="E258" t="n">
-        <v>0.538</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="259">
@@ -5907,13 +5907,13 @@
         <v>56</v>
       </c>
       <c r="C259" t="n">
-        <v>0.505</v>
+        <v>0.583</v>
       </c>
       <c r="D259" t="n">
-        <v>0.547</v>
+        <v>0.601</v>
       </c>
       <c r="E259" t="n">
-        <v>0.505</v>
+        <v>0.566</v>
       </c>
     </row>
     <row r="260">
@@ -5924,13 +5924,13 @@
         <v>165</v>
       </c>
       <c r="C260" t="n">
-        <v>0.779</v>
+        <v>0.645</v>
       </c>
       <c r="D260" t="n">
-        <v>0.818</v>
+        <v>0.668</v>
       </c>
       <c r="E260" t="n">
-        <v>0.735</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="261">
@@ -5941,13 +5941,13 @@
         <v>123</v>
       </c>
       <c r="C261" t="n">
-        <v>0.488</v>
+        <v>0.52</v>
       </c>
       <c r="D261" t="n">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="E261" t="n">
-        <v>0.472</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="262">
@@ -5958,13 +5958,13 @@
         <v>56</v>
       </c>
       <c r="C262" t="n">
-        <v>0.598</v>
+        <v>0.614</v>
       </c>
       <c r="D262" t="n">
-        <v>0.635</v>
+        <v>0.639</v>
       </c>
       <c r="E262" t="n">
-        <v>0.571</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="263">
@@ -5975,13 +5975,13 @@
         <v>56</v>
       </c>
       <c r="C263" t="n">
-        <v>0.631</v>
+        <v>0.688</v>
       </c>
       <c r="D263" t="n">
-        <v>0.636</v>
+        <v>0.708</v>
       </c>
       <c r="E263" t="n">
-        <v>0.59</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="264">
@@ -5992,13 +5992,13 @@
         <v>105</v>
       </c>
       <c r="C264" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="D264" t="n">
         <v>0.235</v>
       </c>
-      <c r="D264" t="n">
-        <v>0.272</v>
-      </c>
       <c r="E264" t="n">
-        <v>0.198</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="265">
@@ -6009,13 +6009,13 @@
         <v>105</v>
       </c>
       <c r="C265" t="n">
-        <v>0.65</v>
+        <v>0.681</v>
       </c>
       <c r="D265" t="n">
-        <v>0.676</v>
+        <v>0.696</v>
       </c>
       <c r="E265" t="n">
-        <v>0.621</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="266">
@@ -6026,13 +6026,13 @@
         <v>52</v>
       </c>
       <c r="C266" t="n">
-        <v>0.766</v>
+        <v>0.729</v>
       </c>
       <c r="D266" t="n">
-        <v>0.785</v>
+        <v>0.753</v>
       </c>
       <c r="E266" t="n">
-        <v>0.735</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="267">
@@ -6043,13 +6043,13 @@
         <v>76</v>
       </c>
       <c r="C267" t="n">
-        <v>0.484</v>
+        <v>0.584</v>
       </c>
       <c r="D267" t="n">
-        <v>0.528</v>
+        <v>0.619</v>
       </c>
       <c r="E267" t="n">
-        <v>0.45</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="268">
@@ -6060,13 +6060,13 @@
         <v>6</v>
       </c>
       <c r="C268" t="n">
-        <v>0.658</v>
+        <v>0.594</v>
       </c>
       <c r="D268" t="n">
-        <v>0.678</v>
+        <v>0.615</v>
       </c>
       <c r="E268" t="n">
-        <v>0.627</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="269">
@@ -6077,13 +6077,13 @@
         <v>85</v>
       </c>
       <c r="C269" t="n">
-        <v>0.315</v>
+        <v>0.227</v>
       </c>
       <c r="D269" t="n">
-        <v>0.355</v>
+        <v>0.254</v>
       </c>
       <c r="E269" t="n">
-        <v>0.291</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="270">
@@ -6094,13 +6094,13 @@
         <v>8</v>
       </c>
       <c r="C270" t="n">
-        <v>0.88</v>
+        <v>0.881</v>
       </c>
       <c r="D270" t="n">
-        <v>0.912</v>
+        <v>0.901</v>
       </c>
       <c r="E270" t="n">
-        <v>0.858</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="271">
@@ -6111,13 +6111,13 @@
         <v>52</v>
       </c>
       <c r="C271" t="n">
-        <v>0.397</v>
+        <v>0.286</v>
       </c>
       <c r="D271" t="n">
-        <v>0.414</v>
+        <v>0.305</v>
       </c>
       <c r="E271" t="n">
-        <v>0.366</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="272">
@@ -6128,13 +6128,13 @@
         <v>52</v>
       </c>
       <c r="C272" t="n">
-        <v>0.649</v>
+        <v>0.642</v>
       </c>
       <c r="D272" t="n">
-        <v>0.686</v>
+        <v>0.664</v>
       </c>
       <c r="E272" t="n">
-        <v>0.633</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="273">
@@ -6145,13 +6145,13 @@
         <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>0.232</v>
+        <v>0.173</v>
       </c>
       <c r="D273" t="n">
-        <v>0.261</v>
+        <v>0.194</v>
       </c>
       <c r="E273" t="n">
-        <v>0.2</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="274">
@@ -6162,13 +6162,13 @@
         <v>52</v>
       </c>
       <c r="C274" t="n">
-        <v>0.675</v>
+        <v>0.572</v>
       </c>
       <c r="D274" t="n">
-        <v>0.677</v>
+        <v>0.594</v>
       </c>
       <c r="E274" t="n">
-        <v>0.631</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="275">
@@ -6179,13 +6179,13 @@
         <v>64</v>
       </c>
       <c r="C275" t="n">
-        <v>0.503</v>
+        <v>0.507</v>
       </c>
       <c r="D275" t="n">
-        <v>0.552</v>
+        <v>0.534</v>
       </c>
       <c r="E275" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="276">
@@ -6196,13 +6196,13 @@
         <v>60</v>
       </c>
       <c r="C276" t="n">
-        <v>0.763</v>
+        <v>0.717</v>
       </c>
       <c r="D276" t="n">
-        <v>0.816</v>
+        <v>0.75</v>
       </c>
       <c r="E276" t="n">
-        <v>0.736</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="277">
@@ -6213,13 +6213,13 @@
         <v>76</v>
       </c>
       <c r="C277" t="n">
-        <v>0.558</v>
+        <v>0.657</v>
       </c>
       <c r="D277" t="n">
-        <v>0.558</v>
+        <v>0.678</v>
       </c>
       <c r="E277" t="n">
-        <v>0.504</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="278">
@@ -6230,13 +6230,13 @@
         <v>24</v>
       </c>
       <c r="C278" t="n">
-        <v>0.548</v>
+        <v>0.568</v>
       </c>
       <c r="D278" t="n">
-        <v>0.576</v>
+        <v>0.589</v>
       </c>
       <c r="E278" t="n">
-        <v>0.519</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="279">
@@ -6247,13 +6247,13 @@
         <v>42</v>
       </c>
       <c r="C279" t="n">
-        <v>0.376</v>
+        <v>0.369</v>
       </c>
       <c r="D279" t="n">
-        <v>0.402</v>
+        <v>0.393</v>
       </c>
       <c r="E279" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="280">
@@ -6264,13 +6264,13 @@
         <v>74</v>
       </c>
       <c r="C280" t="n">
-        <v>0.313</v>
+        <v>0.336</v>
       </c>
       <c r="D280" t="n">
-        <v>0.336</v>
+        <v>0.355</v>
       </c>
       <c r="E280" t="n">
-        <v>0.296</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="281">
@@ -6281,13 +6281,13 @@
         <v>17</v>
       </c>
       <c r="C281" t="n">
-        <v>0.589</v>
+        <v>0.601</v>
       </c>
       <c r="D281" t="n">
-        <v>0.606</v>
+        <v>0.625</v>
       </c>
       <c r="E281" t="n">
-        <v>0.551</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="282">
@@ -6298,13 +6298,13 @@
         <v>110</v>
       </c>
       <c r="C282" t="n">
-        <v>0.747</v>
+        <v>0.732</v>
       </c>
       <c r="D282" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="E282" t="n">
-        <v>0.686</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="283">
@@ -6315,13 +6315,13 @@
         <v>110</v>
       </c>
       <c r="C283" t="n">
-        <v>0.61</v>
+        <v>0.625</v>
       </c>
       <c r="D283" t="n">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="E283" t="n">
-        <v>0.594</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="284">
@@ -6332,13 +6332,13 @@
         <v>80</v>
       </c>
       <c r="C284" t="n">
-        <v>0.504</v>
+        <v>0.476</v>
       </c>
       <c r="D284" t="n">
-        <v>0.537</v>
+        <v>0.502</v>
       </c>
       <c r="E284" t="n">
-        <v>0.483</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="285">
@@ -6349,13 +6349,13 @@
         <v>35</v>
       </c>
       <c r="C285" t="n">
-        <v>0.267</v>
+        <v>0.285</v>
       </c>
       <c r="D285" t="n">
-        <v>0.285</v>
+        <v>0.301</v>
       </c>
       <c r="E285" t="n">
-        <v>0.243</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="286">
@@ -6366,13 +6366,13 @@
         <v>6</v>
       </c>
       <c r="C286" t="n">
-        <v>0.254</v>
+        <v>0.266</v>
       </c>
       <c r="D286" t="n">
-        <v>0.271</v>
+        <v>0.288</v>
       </c>
       <c r="E286" t="n">
-        <v>0.227</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="287">
@@ -6383,13 +6383,13 @@
         <v>26</v>
       </c>
       <c r="C287" t="n">
-        <v>0.667</v>
+        <v>0.606</v>
       </c>
       <c r="D287" t="n">
-        <v>0.665</v>
+        <v>0.626</v>
       </c>
       <c r="E287" t="n">
-        <v>0.621</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="288">
@@ -6400,13 +6400,13 @@
         <v>35</v>
       </c>
       <c r="C288" t="n">
-        <v>0.348</v>
+        <v>0.313</v>
       </c>
       <c r="D288" t="n">
-        <v>0.369</v>
+        <v>0.329</v>
       </c>
       <c r="E288" t="n">
-        <v>0.316</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="289">
@@ -6417,13 +6417,13 @@
         <v>50</v>
       </c>
       <c r="C289" t="n">
-        <v>0.539</v>
+        <v>0.49</v>
       </c>
       <c r="D289" t="n">
-        <v>0.559</v>
+        <v>0.507</v>
       </c>
       <c r="E289" t="n">
-        <v>0.518</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="290">
@@ -6434,13 +6434,13 @@
         <v>80</v>
       </c>
       <c r="C290" t="n">
-        <v>0.761</v>
+        <v>0.629</v>
       </c>
       <c r="D290" t="n">
-        <v>0.772</v>
+        <v>0.645</v>
       </c>
       <c r="E290" t="n">
-        <v>0.729</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="291">
@@ -6451,13 +6451,13 @@
         <v>14</v>
       </c>
       <c r="C291" t="n">
-        <v>0.285</v>
+        <v>0.282</v>
       </c>
       <c r="D291" t="n">
-        <v>0.323</v>
+        <v>0.306</v>
       </c>
       <c r="E291" t="n">
-        <v>0.249</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="292">
@@ -6468,13 +6468,13 @@
         <v>123</v>
       </c>
       <c r="C292" t="n">
-        <v>0.641</v>
+        <v>0.6</v>
       </c>
       <c r="D292" t="n">
-        <v>0.669</v>
+        <v>0.614</v>
       </c>
       <c r="E292" t="n">
-        <v>0.613</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="293">
@@ -6485,13 +6485,13 @@
         <v>12</v>
       </c>
       <c r="C293" t="n">
-        <v>0.306</v>
+        <v>0.548</v>
       </c>
       <c r="D293" t="n">
-        <v>0.348</v>
+        <v>0.57</v>
       </c>
       <c r="E293" t="n">
-        <v>0.304</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="294">
@@ -6502,13 +6502,13 @@
         <v>105</v>
       </c>
       <c r="C294" t="n">
-        <v>0.56</v>
+        <v>0.549</v>
       </c>
       <c r="D294" t="n">
-        <v>0.582</v>
+        <v>0.562</v>
       </c>
       <c r="E294" t="n">
-        <v>0.549</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="295">
@@ -6519,13 +6519,13 @@
         <v>56</v>
       </c>
       <c r="C295" t="n">
-        <v>0.462</v>
+        <v>0.43</v>
       </c>
       <c r="D295" t="n">
-        <v>0.482</v>
+        <v>0.45</v>
       </c>
       <c r="E295" t="n">
-        <v>0.425</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="296">
@@ -6536,13 +6536,13 @@
         <v>60</v>
       </c>
       <c r="C296" t="n">
-        <v>0.641</v>
+        <v>0.543</v>
       </c>
       <c r="D296" t="n">
-        <v>0.69</v>
+        <v>0.578</v>
       </c>
       <c r="E296" t="n">
-        <v>0.603</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="297">
@@ -6553,13 +6553,13 @@
         <v>26</v>
       </c>
       <c r="C297" t="n">
-        <v>0.805</v>
+        <v>0.708</v>
       </c>
       <c r="D297" t="n">
-        <v>0.838</v>
+        <v>0.731</v>
       </c>
       <c r="E297" t="n">
-        <v>0.783</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="298">
@@ -6570,13 +6570,13 @@
         <v>6</v>
       </c>
       <c r="C298" t="n">
-        <v>0.791</v>
+        <v>0.831</v>
       </c>
       <c r="D298" t="n">
-        <v>0.828</v>
+        <v>0.859</v>
       </c>
       <c r="E298" t="n">
-        <v>0.763</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="299">
@@ -6587,13 +6587,13 @@
         <v>131</v>
       </c>
       <c r="C299" t="n">
-        <v>0.424</v>
+        <v>0.426</v>
       </c>
       <c r="D299" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="E299" t="n">
-        <v>0.397</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="300">
@@ -6604,13 +6604,13 @@
         <v>19</v>
       </c>
       <c r="C300" t="n">
-        <v>0.605</v>
+        <v>0.577</v>
       </c>
       <c r="D300" t="n">
-        <v>0.635</v>
+        <v>0.603</v>
       </c>
       <c r="E300" t="n">
-        <v>0.58</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="301">
@@ -6621,13 +6621,13 @@
         <v>46</v>
       </c>
       <c r="C301" t="n">
-        <v>0.662</v>
+        <v>0.601</v>
       </c>
       <c r="D301" t="n">
-        <v>0.703</v>
+        <v>0.621</v>
       </c>
       <c r="E301" t="n">
-        <v>0.65</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="302">
@@ -6638,13 +6638,13 @@
         <v>80</v>
       </c>
       <c r="C302" t="n">
-        <v>0.562</v>
+        <v>0.482</v>
       </c>
       <c r="D302" t="n">
-        <v>0.597</v>
+        <v>0.505</v>
       </c>
       <c r="E302" t="n">
-        <v>0.536</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="303">
@@ -6655,13 +6655,13 @@
         <v>35</v>
       </c>
       <c r="C303" t="n">
-        <v>0.248</v>
+        <v>0.287</v>
       </c>
       <c r="D303" t="n">
-        <v>0.29</v>
+        <v>0.315</v>
       </c>
       <c r="E303" t="n">
-        <v>0.226</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="304">
@@ -6672,13 +6672,13 @@
         <v>35</v>
       </c>
       <c r="C304" t="n">
-        <v>0.596</v>
+        <v>0.534</v>
       </c>
       <c r="D304" t="n">
-        <v>0.612</v>
+        <v>0.571</v>
       </c>
       <c r="E304" t="n">
-        <v>0.556</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="305">
@@ -6689,13 +6689,13 @@
         <v>35</v>
       </c>
       <c r="C305" t="n">
-        <v>0.238</v>
+        <v>0.288</v>
       </c>
       <c r="D305" t="n">
-        <v>0.269</v>
+        <v>0.305</v>
       </c>
       <c r="E305" t="n">
-        <v>0.225</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="306">
@@ -6706,13 +6706,13 @@
         <v>17</v>
       </c>
       <c r="C306" t="n">
-        <v>0.664</v>
+        <v>0.558</v>
       </c>
       <c r="D306" t="n">
-        <v>0.696</v>
+        <v>0.582</v>
       </c>
       <c r="E306" t="n">
-        <v>0.631</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="307">
@@ -6723,13 +6723,13 @@
         <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>0.374</v>
+        <v>0.446</v>
       </c>
       <c r="D307" t="n">
-        <v>0.417</v>
+        <v>0.478</v>
       </c>
       <c r="E307" t="n">
-        <v>0.363</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="308">
@@ -6740,13 +6740,13 @@
         <v>17</v>
       </c>
       <c r="C308" t="n">
-        <v>0.442</v>
+        <v>0.413</v>
       </c>
       <c r="D308" t="n">
-        <v>0.479</v>
+        <v>0.439</v>
       </c>
       <c r="E308" t="n">
-        <v>0.398</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="309">
@@ -6757,13 +6757,13 @@
         <v>24</v>
       </c>
       <c r="C309" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E309" t="n">
         <v>0.491</v>
-      </c>
-      <c r="D309" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="E309" t="n">
-        <v>0.485</v>
       </c>
     </row>
     <row r="310">
@@ -6774,13 +6774,13 @@
         <v>39</v>
       </c>
       <c r="C310" t="n">
-        <v>0.655</v>
+        <v>0.466</v>
       </c>
       <c r="D310" t="n">
-        <v>0.673</v>
+        <v>0.489</v>
       </c>
       <c r="E310" t="n">
-        <v>0.615</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="311">
@@ -6791,13 +6791,13 @@
         <v>14</v>
       </c>
       <c r="C311" t="n">
-        <v>0.571</v>
+        <v>0.502</v>
       </c>
       <c r="D311" t="n">
-        <v>0.57</v>
+        <v>0.516</v>
       </c>
       <c r="E311" t="n">
-        <v>0.535</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="312">
@@ -6808,13 +6808,13 @@
         <v>64</v>
       </c>
       <c r="C312" t="n">
-        <v>0.394</v>
+        <v>0.44</v>
       </c>
       <c r="D312" t="n">
-        <v>0.399</v>
+        <v>0.452</v>
       </c>
       <c r="E312" t="n">
-        <v>0.364</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="313">
@@ -6825,13 +6825,13 @@
         <v>14</v>
       </c>
       <c r="C313" t="n">
-        <v>0.459</v>
+        <v>0.411</v>
       </c>
       <c r="D313" t="n">
-        <v>0.479</v>
+        <v>0.435</v>
       </c>
       <c r="E313" t="n">
-        <v>0.416</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="314">
@@ -6842,13 +6842,13 @@
         <v>12</v>
       </c>
       <c r="C314" t="n">
-        <v>0.299</v>
+        <v>0.399</v>
       </c>
       <c r="D314" t="n">
-        <v>0.309</v>
+        <v>0.421</v>
       </c>
       <c r="E314" t="n">
-        <v>0.26</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="315">
@@ -6859,13 +6859,13 @@
         <v>24</v>
       </c>
       <c r="C315" t="n">
-        <v>0.631</v>
+        <v>0.665</v>
       </c>
       <c r="D315" t="n">
-        <v>0.645</v>
+        <v>0.68</v>
       </c>
       <c r="E315" t="n">
-        <v>0.606</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="316">
@@ -6876,13 +6876,13 @@
         <v>39</v>
       </c>
       <c r="C316" t="n">
-        <v>0.786</v>
+        <v>0.71</v>
       </c>
       <c r="D316" t="n">
-        <v>0.823</v>
+        <v>0.732</v>
       </c>
       <c r="E316" t="n">
-        <v>0.743</v>
+        <v>0.687</v>
       </c>
     </row>
     <row r="317">
@@ -6893,13 +6893,13 @@
         <v>39</v>
       </c>
       <c r="C317" t="n">
-        <v>0.572</v>
+        <v>0.497</v>
       </c>
       <c r="D317" t="n">
-        <v>0.594</v>
+        <v>0.52</v>
       </c>
       <c r="E317" t="n">
-        <v>0.536</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="318">
@@ -6910,13 +6910,13 @@
         <v>37</v>
       </c>
       <c r="C318" t="n">
-        <v>0.651</v>
+        <v>0.591</v>
       </c>
       <c r="D318" t="n">
-        <v>0.67</v>
+        <v>0.605</v>
       </c>
       <c r="E318" t="n">
-        <v>0.623</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="319">
@@ -6927,13 +6927,13 @@
         <v>95</v>
       </c>
       <c r="C319" t="n">
-        <v>0.529</v>
+        <v>0.572</v>
       </c>
       <c r="D319" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="E319" t="n">
         <v>0.559</v>
-      </c>
-      <c r="E319" t="n">
-        <v>0.525</v>
       </c>
     </row>
     <row r="320">
@@ -6944,13 +6944,13 @@
         <v>24</v>
       </c>
       <c r="C320" t="n">
-        <v>0.397</v>
+        <v>0.301</v>
       </c>
       <c r="D320" t="n">
-        <v>0.425</v>
+        <v>0.319</v>
       </c>
       <c r="E320" t="n">
-        <v>0.365</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="321">
@@ -6961,13 +6961,13 @@
         <v>80</v>
       </c>
       <c r="C321" t="n">
-        <v>0.532</v>
+        <v>0.412</v>
       </c>
       <c r="D321" t="n">
-        <v>0.573</v>
+        <v>0.435</v>
       </c>
       <c r="E321" t="n">
-        <v>0.525</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="322">
@@ -6978,13 +6978,13 @@
         <v>80</v>
       </c>
       <c r="C322" t="n">
-        <v>0.669</v>
+        <v>0.641</v>
       </c>
       <c r="D322" t="n">
-        <v>0.716</v>
+        <v>0.662</v>
       </c>
       <c r="E322" t="n">
-        <v>0.669</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="323">
@@ -6995,13 +6995,13 @@
         <v>26</v>
       </c>
       <c r="C323" t="n">
-        <v>0.516</v>
+        <v>0.527</v>
       </c>
       <c r="D323" t="n">
-        <v>0.563</v>
+        <v>0.548</v>
       </c>
       <c r="E323" t="n">
-        <v>0.509</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="324">
@@ -7012,13 +7012,13 @@
         <v>8</v>
       </c>
       <c r="C324" t="n">
-        <v>0.722</v>
+        <v>0.759</v>
       </c>
       <c r="D324" t="n">
-        <v>0.753</v>
+        <v>0.78</v>
       </c>
       <c r="E324" t="n">
-        <v>0.701</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="325">
@@ -7029,13 +7029,13 @@
         <v>64</v>
       </c>
       <c r="C325" t="n">
-        <v>0.433</v>
+        <v>0.446</v>
       </c>
       <c r="D325" t="n">
-        <v>0.455</v>
+        <v>0.459</v>
       </c>
       <c r="E325" t="n">
-        <v>0.413</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="326">
@@ -7046,13 +7046,13 @@
         <v>26</v>
       </c>
       <c r="C326" t="n">
-        <v>0.578</v>
+        <v>0.51</v>
       </c>
       <c r="D326" t="n">
-        <v>0.615</v>
+        <v>0.532</v>
       </c>
       <c r="E326" t="n">
-        <v>0.554</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="327">
@@ -7063,13 +7063,13 @@
         <v>50</v>
       </c>
       <c r="C327" t="n">
-        <v>0.514</v>
+        <v>0.541</v>
       </c>
       <c r="D327" t="n">
-        <v>0.547</v>
+        <v>0.565</v>
       </c>
       <c r="E327" t="n">
-        <v>0.508</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="328">
@@ -7080,13 +7080,13 @@
         <v>17</v>
       </c>
       <c r="C328" t="n">
-        <v>0.518</v>
+        <v>0.41</v>
       </c>
       <c r="D328" t="n">
-        <v>0.547</v>
+        <v>0.428</v>
       </c>
       <c r="E328" t="n">
-        <v>0.497</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="329">
@@ -7097,13 +7097,13 @@
         <v>19</v>
       </c>
       <c r="C329" t="n">
-        <v>0.708</v>
+        <v>0.801</v>
       </c>
       <c r="D329" t="n">
-        <v>0.733</v>
+        <v>0.821</v>
       </c>
       <c r="E329" t="n">
-        <v>0.682</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="330">
@@ -7114,13 +7114,13 @@
         <v>60</v>
       </c>
       <c r="C330" t="n">
-        <v>0.717</v>
+        <v>0.711</v>
       </c>
       <c r="D330" t="n">
-        <v>0.777</v>
+        <v>0.746</v>
       </c>
       <c r="E330" t="n">
-        <v>0.683</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="331">
@@ -7131,13 +7131,13 @@
         <v>105</v>
       </c>
       <c r="C331" t="n">
-        <v>0.719</v>
+        <v>0.645</v>
       </c>
       <c r="D331" t="n">
-        <v>0.747</v>
+        <v>0.661</v>
       </c>
       <c r="E331" t="n">
-        <v>0.699</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="332">
@@ -7148,13 +7148,13 @@
         <v>85</v>
       </c>
       <c r="C332" t="n">
-        <v>0.442</v>
+        <v>0.412</v>
       </c>
       <c r="D332" t="n">
-        <v>0.459</v>
+        <v>0.434</v>
       </c>
       <c r="E332" t="n">
-        <v>0.382</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="333">
@@ -7165,13 +7165,13 @@
         <v>46</v>
       </c>
       <c r="C333" t="n">
-        <v>0.708</v>
+        <v>0.556</v>
       </c>
       <c r="D333" t="n">
-        <v>0.739</v>
+        <v>0.586</v>
       </c>
       <c r="E333" t="n">
-        <v>0.676</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="334">
@@ -7182,13 +7182,13 @@
         <v>46</v>
       </c>
       <c r="C334" t="n">
-        <v>0.627</v>
+        <v>0.649</v>
       </c>
       <c r="D334" t="n">
-        <v>0.651</v>
+        <v>0.692</v>
       </c>
       <c r="E334" t="n">
-        <v>0.565</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="335">
@@ -7199,13 +7199,13 @@
         <v>56</v>
       </c>
       <c r="C335" t="n">
-        <v>0.275</v>
+        <v>0.285</v>
       </c>
       <c r="D335" t="n">
-        <v>0.31</v>
+        <v>0.302</v>
       </c>
       <c r="E335" t="n">
-        <v>0.265</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="336">
@@ -7216,13 +7216,13 @@
         <v>46</v>
       </c>
       <c r="C336" t="n">
-        <v>0.493</v>
+        <v>0.45</v>
       </c>
       <c r="D336" t="n">
-        <v>0.514</v>
+        <v>0.472</v>
       </c>
       <c r="E336" t="n">
-        <v>0.454</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="337">
@@ -7233,13 +7233,13 @@
         <v>26</v>
       </c>
       <c r="C337" t="n">
-        <v>0.604</v>
+        <v>0.463</v>
       </c>
       <c r="D337" t="n">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="E337" t="n">
-        <v>0.564</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="338">
@@ -7250,13 +7250,13 @@
         <v>26</v>
       </c>
       <c r="C338" t="n">
-        <v>0.687</v>
+        <v>0.611</v>
       </c>
       <c r="D338" t="n">
-        <v>0.717</v>
+        <v>0.634</v>
       </c>
       <c r="E338" t="n">
-        <v>0.665</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="339">
@@ -7267,13 +7267,13 @@
         <v>123</v>
       </c>
       <c r="C339" t="n">
-        <v>0.302</v>
+        <v>0.327</v>
       </c>
       <c r="D339" t="n">
-        <v>0.345</v>
+        <v>0.357</v>
       </c>
       <c r="E339" t="n">
-        <v>0.289</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="340">
@@ -7284,13 +7284,13 @@
         <v>39</v>
       </c>
       <c r="C340" t="n">
-        <v>0.807</v>
+        <v>0.675</v>
       </c>
       <c r="D340" t="n">
-        <v>0.844</v>
+        <v>0.705</v>
       </c>
       <c r="E340" t="n">
-        <v>0.764</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="341">
@@ -7301,13 +7301,13 @@
         <v>85</v>
       </c>
       <c r="C341" t="n">
-        <v>0.602</v>
+        <v>0.605</v>
       </c>
       <c r="D341" t="n">
-        <v>0.63</v>
+        <v>0.623</v>
       </c>
       <c r="E341" t="n">
-        <v>0.566</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="342">
@@ -7318,13 +7318,13 @@
         <v>110</v>
       </c>
       <c r="C342" t="n">
-        <v>0.3</v>
+        <v>0.234</v>
       </c>
       <c r="D342" t="n">
-        <v>0.335</v>
+        <v>0.264</v>
       </c>
       <c r="E342" t="n">
-        <v>0.289</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="343">
@@ -7335,13 +7335,13 @@
         <v>14</v>
       </c>
       <c r="C343" t="n">
-        <v>0.632</v>
+        <v>0.608</v>
       </c>
       <c r="D343" t="n">
-        <v>0.661</v>
+        <v>0.628</v>
       </c>
       <c r="E343" t="n">
-        <v>0.62</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="344">
@@ -7352,13 +7352,13 @@
         <v>37</v>
       </c>
       <c r="C344" t="n">
-        <v>0.399</v>
+        <v>0.372</v>
       </c>
       <c r="D344" t="n">
-        <v>0.411</v>
+        <v>0.385</v>
       </c>
       <c r="E344" t="n">
-        <v>0.38</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="345">
@@ -7369,13 +7369,13 @@
         <v>80</v>
       </c>
       <c r="C345" t="n">
-        <v>0.735</v>
+        <v>0.673</v>
       </c>
       <c r="D345" t="n">
-        <v>0.761</v>
+        <v>0.702</v>
       </c>
       <c r="E345" t="n">
-        <v>0.692</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="346">
@@ -7386,13 +7386,13 @@
         <v>95</v>
       </c>
       <c r="C346" t="n">
-        <v>0.633</v>
+        <v>0.566</v>
       </c>
       <c r="D346" t="n">
-        <v>0.66</v>
+        <v>0.584</v>
       </c>
       <c r="E346" t="n">
-        <v>0.613</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="347">
@@ -7403,13 +7403,13 @@
         <v>74</v>
       </c>
       <c r="C347" t="n">
-        <v>0.723</v>
+        <v>0.755</v>
       </c>
       <c r="D347" t="n">
-        <v>0.724</v>
+        <v>0.784</v>
       </c>
       <c r="E347" t="n">
-        <v>0.677</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="348">
@@ -7420,13 +7420,13 @@
         <v>165</v>
       </c>
       <c r="C348" t="n">
-        <v>0.61</v>
+        <v>0.653</v>
       </c>
       <c r="D348" t="n">
-        <v>0.648</v>
+        <v>0.692</v>
       </c>
       <c r="E348" t="n">
-        <v>0.575</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="349">
@@ -7437,13 +7437,13 @@
         <v>85</v>
       </c>
       <c r="C349" t="n">
-        <v>0.588</v>
+        <v>0.599</v>
       </c>
       <c r="D349" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="E349" t="n">
-        <v>0.564</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="350">
@@ -7454,13 +7454,13 @@
         <v>91</v>
       </c>
       <c r="C350" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="D350" t="n">
-        <v>0.824</v>
+        <v>0.809</v>
       </c>
       <c r="E350" t="n">
-        <v>0.753</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="351">
@@ -7471,13 +7471,13 @@
         <v>8</v>
       </c>
       <c r="C351" t="n">
-        <v>0.302</v>
+        <v>0.281</v>
       </c>
       <c r="D351" t="n">
-        <v>0.333</v>
+        <v>0.298</v>
       </c>
       <c r="E351" t="n">
-        <v>0.276</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="352">
@@ -7488,13 +7488,13 @@
         <v>60</v>
       </c>
       <c r="C352" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="D352" t="n">
-        <v>0.649</v>
+        <v>0.593</v>
       </c>
       <c r="E352" t="n">
-        <v>0.588</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="353">
@@ -7505,13 +7505,13 @@
         <v>54</v>
       </c>
       <c r="C353" t="n">
-        <v>0.733</v>
+        <v>0.742</v>
       </c>
       <c r="D353" t="n">
-        <v>0.74</v>
+        <v>0.761</v>
       </c>
       <c r="E353" t="n">
-        <v>0.69</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="354">
@@ -7522,13 +7522,13 @@
         <v>91</v>
       </c>
       <c r="C354" t="n">
-        <v>0.487</v>
+        <v>0.509</v>
       </c>
       <c r="D354" t="n">
-        <v>0.507</v>
+        <v>0.539</v>
       </c>
       <c r="E354" t="n">
-        <v>0.442</v>
+        <v>0.484</v>
       </c>
     </row>
   </sheetData>
